--- a/기사데이터/토스/엑셀파일/news(토스, 2022.05.01~2022.05.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.05.01~2022.05.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.05.11.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>“뒤떨어진 회사 시스템이 이직 부추긴다”</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001989206?sid=105</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>산딥 워크데이 亞 사장 방한팬데믹이 기업 디지털 전환 앞당겨직원 업무환경 개선에 관심가질때한국에선 ‘토스’가 혁신 우수사례워크데이(Workday)의 산딥 샤르마(Sandeep Sharma) 아시아 사장은 10일 서울 강남구 테헤란로 워크데이 사옥에서 진행된 인터뷰에서 “엔데믹 시대 기업은 이제 디지털 전환의 수준을 높여야 한다”고 말했다. [워크데이 제공]“누구나 쉽게 넷플릭스를 이용하는 시대인데 회사 시스템은 매뉴얼을 보고 배워야 할 정도로 뒤떨어진다면 이직률만 높아지겠죠. CEO라면 직원의 업무환경 개선에 먼저 관심을 가져야 합니다”워크데이(Workday)의 산딥 샤르마(Sandeep Sharma) 아시아 사장은 코로나19 팬데믹 기간 디지털 트랜스포메이션(디지털 전환)을 경험한 기업들이 이제는 속도가 아닌 변화의 수준을 높이는 데 주력해야 한다고 말했다. 그러면서 국내 기업 중 디지털 혁신의 우수 사례로 모바일 금융서비스 ‘토스’를 꼽았다.기업의 인사·재무관리를 위한 클라우드 애플리케이션을 공급하는 워크데이는 전 세계에 9500개의 고객사를 두고 있다. 한국에는 지난 2018년에 진출했다. 지난해 4월 워크데이의 아시아 사장에 선임된 산딥 사장은 국내 고객사 및 직원들과의 미팅을 위해 이달 9일 한국을 찾았다.10일 서울 강남구 테헤란로 워크데이 사옥에서 진행된 본지와의 인터뷰에서 산딥 사장은 입국 절차부터 온라인으로 빠르게 처리되는 과정을 직접 확인할 수 있었다며 한국의 디지털 역량을 높게 평가했다.그는 “아시아의 다른 국가들과 비교할 때 한국은 디지털 전환에 매우 적극적이며 높은 역량을 갖추고 있다”며 “변화의 속도를 놓고 보자면 한국은 이제 글로벌 시장과도 어깨를 나란히 하고 있다”고 말했다.산딥 사장은 기업의 디지털 전환 역량을 보다 강화하려면 CEO가 먼저 직원들의 업무환경 개선에 집중해야 한다고 강조했다. 그는 “집에서는 넷플릭스를 굉장히 쉽게 이용하는 MZ세대가 회사에서는 시대에 뒤떨어진 낙후된 업무 시스템을 마주한다면 어떻겠는가”라며 “회사 시스템도 일반 소비자가 쓰는 앱만큼 쉬워야 한다”고 말했다. 그러면서 “결국 기업의 제품과 서비스를 고객에게 제공하는 건 직원들인데 직원들이 업무에 몰입하지 못한다면 고객에게 전달하는 서비스의 품질도 떨어질 수밖에 없을 것”이라고 강조했다.국내 기업 중 디지털 전환의 모범 사례를 꼽아달라는 질문에 그는 주저없이 비바리퍼블리카의 모바일 금융 플랫폼 토스를 들었다. 산딥 사장은 “토스는 업계에서 파괴적 혁신을 일으킨 대표적인 사례”라며 “전통 금융권과 경쟁하려면 그들보다 더 빨리 혁신하는 방법밖에 없었는데 토스는 초기부터 워크데이의 클라우드 플랫폼을 도입해 성장했다. 우리 입장에서도 자랑스러운 고객사”라고 치켜세웠다.파괴적 혁신의 또 다른 사례로는 넷플릭스를 꼽았다. 넷플릭스는 성장세가 본격적으로 시작된 2012년 인사부문에, 2014년 재무부문에 워크데이의 솔루션을 도입했다.산딥 사장은 “넷플릭스는 기존 비디오 대여 시장에 전혀 다른 비즈니스 모델을 가지고 들어와 업계에서 파괴적 혁신을 일으켰다”며 “기업의 리더라면 현실에 안주해 누군가에 의해 파괴당하는 것보다 내가 직접 이러한 파괴적 혁신을 일으켜야 한다”고 재차 강조했다.산딥 사장은 팬데믹 기간 디지털 전환을 경험한 기업들이 이제는 디지털 전환의 수준을 높여야 한다고 말했다. 엔데믹 시대에 시장과 소비자가 요구하는 디지털 전환 수준은 이전보다 더욱 높을 것이라는 전망이다.그는 “팬데믹이 정점을 찍던 시기와 비교하면 디지털 트랜스포메이션 ‘속도’가 느려질 수는 있다. 이제는 그 ‘수준’을 끌어올려야 할 때”라며 “그렇지 않은 기업은 뒤쳐질 수밖에 없다”고 내다봤다. 김현일 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>국내 거주 외국인…‘토스’ 계좌 개설 가능</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003270178?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>토스뱅크가 인터넷전문은행 중 처음으로 국내 외국인 고객을 대상으로 비대면 뱅킹 서비스에 나섰다.토스뱅크는 2일부터 국내에 거주하며 외국인등록증을 보유한 외국인의 경우 비대면으로 계좌를 개설할 수 있다고 밝혔다. 기존 국내 은행에 계좌가 없더라도 토스뱅크에서 첫 계좌를 만들 수 있으며, 계좌를 개설한 외국인 고객들은 내국인 고객과 마찬가지로 비대면 뱅킹서비스와 체크카드 등을 이용할 수 있다. 다만 토스뱅크 신용대출 등은 이용할 수 없다.이들은 비대면으로 계좌를 개설하는 게 어려웠기 때문에 토스뱅크 등과 같은 인터넷전문은행을 이용할 수 없었다. 금융 당국이 2019년 12월 외국인등록증을 활용해 비대면 방식의 계좌 개설을 허용했지만 관련 시스템이 일찍 구축되지 못한 탓도 있다. 시중은행 중 최초였던 하나은행도 지난해 10월이 돼서야 외국인 대상 비대면 계좌개설 서비스를 시행할 수 있었다.게다가 외국인은 휴대전화 가입자 명의나 금융 계좌 명의를 다르게 입력하는 경우가 있어 동일인 여부를 판결할 수 없는 문제가 있었다. 토스뱅크는 특히 업계 최초로 행정안전부의 공공마이데이터 서비스를 활용해 한층 강화된 신원 확인 절차를 마련했다. 토스뱅크 관계자는 “지난해 말 기준 국내 거주 외국인이 196명(등록 외국인 157만명)에 달함에도 여전히 이들이 이용할 수 있는 뱅킹서비스는 제한적이고 이 때문에 ‘금융 소외계층”으로 남을 수밖에 없었다”면서 “앞으로도 금융 사각지대를 들여다보겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.05.04.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>하나카드의 돋보이는 고객맞춤형 혁신</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003426354?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[The Insight]하나카드는 올해 ‘손님 가치 중심 혁신 문화’를 기반으로 그룹 내 디지털 페이먼트와 데이터 사업을 선도하는 계열사로 도약할 준비를 하고 있다.사회적 책임을 다하는 선진 기업하나카드는 지난해부터 꾸준히 추진해온 마이데이터 사업을 통해 축적된 고객 정보를 활용해 초개인화 서비스를 제공하고 있다. 인공지능(AI) 기반 혁신기술을 도입한 ‘미래형 컨택 센터’는 새로운 손님 경험을 제공하는 ‘마케팅 허브’로 전환된다.또 하나금융그룹 내 다양한 관계사와 제휴사, 협력사 등 잠재적 손님에게 맞춤형 복합 영업도 강화하고 있다. 은행 주거래 기업의 여신과 카드를 연계하고, 지역 화폐 등 정부 사업 추진 때 협업을 추진하며, 젊은층에 특화된 최적의 경험을 선보일 예정이다.본업 이외에 수익 다변화를 위한 사업도 빠뜨릴 수 없다. 대표적으로 토스(Toss)뱅크 카드 업무 대행을 기존 체크 카드에서 신용 카드까지 확대하는 사업은 고객들의 호평을 받았다.하나카드는 조직문화 향상에도 힘을 쏟고 있다. 지난해 손님 중심으로 수평적으로 소통하고 도전하는 문화를 정착하기 위해 직원들 스스로 ‘하나카드 일하는 원칙’을 도입했다. 올해는 원격 근무와 사무실 근무가 유연하게 결합된 ‘하이브리드 워크(Hybrid Work)’로 동료들 간 유기적인 소통과 업무효율을 높이는 데 초점을 맞추고 있다. 사회적 책임을 다하는 기업이 되기 위해 ESG(환경, 사회공헌, 지배구조) 경영에도 노력하고 있다. 2021년부터 환경부가 주도하는 ‘녹색소비-ESG 얼라이언스’에 참여해 금융· 유통·판매사 및 소비자단체와 환경표지 인증제도 활성화를 위한 협업 체계를 구축하고 있다. 코로나 피해 소상공인 카드론 청구 유예, 취약 계층 지원을 위한 ‘하나 햇살론 카드’ 등 금융 서비스도 제공하며, ESG 채권 발행과 투자를 2022년까지 누적으로 4000억 원 규모로 진행할 예정이다.종합금융 플랫폼 ‘하나 원큐페이’하나카드는 기존 결제 서비스 중심의 ‘원큐페이’를 △결제 △송금 △자산관리 △그룹멤버십 기능까지 갖춘 종합금융플랫폼으로 개편하기 위한 작업을 최근 끝냈다.지난해 말 1단계에서는 하나금융그룹 고객 멤버십인 하나머니의 주요 기능을 얹어 고객의 멤버십 포인트인 ‘하나머니’를 전국 모든 하나카드 가맹점에서 사용할 수 있도록 했다. 또 오픈뱅킹을 활용한 계좌와 하나머니 잔액에 기반 한 송금서비스, 마이데이터 서비스를 활용한 자산관리, 가맹점주를 위한 상권 분석 등 특화서비스를 선보이면서 종합금융플랫폼으로의 전환에 시동을 걸었다. 올해 4월 2단계 최종 개편에서는 고객의 앱 이용 패턴 분석을 통해 시의성과 편의성을 높였고, 앱명을 ‘원큐페이’에서 ‘하나카드’로 바꿨다. 기존에 하나카드 서비스를 이용하기 위해 결제 전용 앱과 서비스 앱 등 두 개의 앱을 설치해야 하는 번거로움을 없애고 통합된 ‘하나카드 앱’을 통해 결제, 조회, 신청 등 하나카드 핵심 서비스를 이용할 수 있도록 했다.하나카드 관계자는 “하나카드 앱 통합과 확대 개편은 기존 전통적인 신용카드업을 넘어 결제 기반 종합금융 플랫폼사로의 전환을 위한 중요한 터닝 포인트”라며 “앞으로 고객이 사랑하는 앱으로 만들기 위해 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>[ET단상]망분리 개선 환영, 금융업권 역할 중요한 때</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003016530?sid=110</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>서준선 카카오페이 보안정책팀장금융위원회가 금융업권의 오랜 숙원이었던 '클라우드 및 망분리 규제 개선'에 나섰다. 전체적인 개선 방향은 금융업계 의견을 상당 부분 반영하고 있는 것으로 보인다.업계는 개선 방향에 대해 대체적으로 환영하고 있고, 특히 개발·테스트 환경에 대해 물리적 망분리 규제를 예외적으로 완화하는 부분은 큰 도움이 될 것으로 예상된다. 중장기적으로 단계적 망분리 규제 완화에 대해 금융회사 책임을 강화하겠다는 점도 고무적이다.업권 내에서는 물리적·논리적 망분리 선택 가능성 등을 금융회사 등에 부여하는 방식이 적용되면 금융사 책임이 강화될 것으로 본다. 다만 각 회사의 기술 환경과 위험 수준에 따라 최신 기술을 더욱 적극적으로 활용하고, 다양한 방식의 보안 아키텍처를 도입할 수 있다. 이에 따라 산업 발전과 보안 강화 두 마리 토끼를 잡을 수 있을 것이라는 장밋빛 기대감도 있다.금융 당국에서 망분리 개선에 의지를 보인 만큼 이제는 금융업권 전반에서 신뢰를 보여 줘야 할 때다. 현재 금융당국이 발표한 내용은 상위 수준에서의 개선 방안이고, 구체적인 절차와 기준은 연말까지 마련될 것으로 보인다.세부 기준과 가이드에 따라 실무에서 효용이 큰 편차를 보이기 때문에 합리적인 세부안이 나올 수 있도록 금융사들도 당국의 뜻에 적극적으로 호응하며 믿음을 줘야 한다. 금융사들이 망분리 규제 개선 이후에도 소비자정보 유출 등 문제가 없을 것임을 꾸준히 스스로 증명해야 한다는 말이다. 규제 개선 취지를 훼손할 수 있는 추가적인 조건이나 보완 통제 요건이 생기지 않도록 업권 전반에서 자율적으로 보안을 강화할 수 있는 다양한 방안과 기술을 마련하고, 활발하게 소통하면서 위험을 줄이려는 노력을 지속적으로 보여야 한다.이번 망분리 개선은 금융회사 등 업무 범위와 무관하게 규제를 일률적으로 적용함으로써 생기는 문제점을 개선하기 위한 취지다. 동일한 문제가 반복되지 않도록 특정 보완 조치를 일률적으로 강제해서는 안 된다. 금융회사 자체 위험평가 및 분석 역량을 강화하고, 자율책임에 따라 적절한 내부통제 기준을 마련해야 한다. 보안 위험을 관리할 수 있는 방향으로 구체적인 절차와 기준이 만들어지고, 업권이 적극적으로 호응하는 모습이 되길 기대한다.금융 편의성과 보안 강화는 얼핏 보면 서로 길항 관계에 있는 것 같지만 자세히 보면 서로의 발전에서 필수적이다. 백엔드(사용자와 직접 상호작용하지 않는 프로세스로 존재하는 프로그램 단계) 단계에서 보안 기술 발전은 보안성 향상과 동시에 사용자의 사용성 향상에도 도움을 주고 있다. 복잡한 금융 절차를 간단하지만 강력하게 보호하면서 진행할 수 있도록 만든다는 것이다.망분리 규제 개선으로 다양한 보안 기술이 금융업에 적용되게 된다면 보안 산업 혁신뿐만 아니라 금융산업 전반에 걸친 발전도 불러올 수 있을 것이다. 현재 국내 유니콘 기업 가운데 디지털 기반의 핀테크 유니콘 기업은 토스 한 곳이고, 글로벌 사이버 보안 유니콘 수는 2021년 기준 세계적으로 42개임에도 우리나라에는 전무한 상황이다. 금융산업이 내수 산업에서 벗어나 글로벌에서 경쟁하려면 세계적 기업들과 편의성, 보안을 놓고 싸워야 하는 상황인 만큼 금융산업 글로벌화에는 금융당국의 의지뿐만 아니라 금융업권 보안기술 강화에 대한 강력한 열망도 필요해 보인다.서준선 카카오페이 보안정책팀장 buzz.seo@kakaopaycorp.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>넷플릭스는 플랫폼 아냐…정부 첫 실태조사, 대기업 집중 확인도</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005210207?sid=105</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>과기정통부 첫 실태조사넷플릭스는 온라인 직거래로 분류..OECD기준EU는 플랫폼으로 분류해 규제정책 마련중과기정통부 "여러 기준있어 분석기준 다듬을 필요"디지털플랫폼 대기업 가입자수가 중소기업의 12.8배[이데일리 김현아 기자] 김지원 과기정통부 디지털신산업제도과장(가운데)이 지난 4일 서울 광화문에서 열린 ‘2021년 부가통신 실태조사 경과 및 주요결과’ 사전 브리핑을 하고 있다.넷플릭스를 디지털플랫폼으로 봐야할까, 아니라고 봐야 할까. 과학기술정보통신부 조사에서는 디지털플랫폼에서 제외했다. 하지만 넷플릭스를 제외했어도 국내 디지털플랫폼 시장의 부익부빈익빈은 숫자로 확인됐다.8일 과학기술정보통신부가 처음으로 공개한 ‘2021 부가통신사업 실태조사’에 따르면 정부는 부가통신 사업자 중 중개플랫폼과 플랫폼인프라기업만 디지털플랫폼기업으로 분류해 시장 집중도 등을 조사했다.중개플랫폼은 △재화/용역 중개 기업(네이버, 야놀자, 우아한형제들, 당근마켓, 이베이 등) △디지털 콘텐츠 중개(네이버제트, 구글 등)  △사회관계망(카카오, 싸이월드, 라인플러스, 메타 등)를 의미한다. 플랫폼인프라는 △플랫폼 도구지원(네이버랩스, 원스토어, 애플 등)△데이터활용(누리텔레콤, 한국기업평가, 구글, 아마존 등)△위치정보제공(KT, SK텔레콤 등)△전자결제(나이스정보통신, 토스페이먼츠, 카카오페이 등)를 의미한다.넷플릭스나 네이버웹툰, 쏘카, 쿠팡, 마켓컬리 등은 온라인직거래로 보고 디지털플랫폼에 포함하지 않은 것이다. 김지원 과기정통부 디지털신산업제도과장은 “기본적으로 택한 것은 OECD의 정의로 넷플릭스의 경우 저작권을 구매해 본인의 콘텐츠로 고객에게 전달하는 형태여서 온라인직거래로 봤다”고 설명했다. 하지만 EU(유럽연합)는 넷플릭스 같은 OTT를 디지털플랫폼으로 분류해 규제 정책을 만든다. 자문역할을 한 김숙경 KAIST 교수는 “플랫폼의 정의는 2000년대 초반까지는 넷플릭스까지 포함했지만 2015년 후반부터는 고객과 고객을 연결하는 역할이 있는 것으로 좁게 해석한다. 이번에는 좀 엄격하게 봤지만 앞으로 분석기준을 다듬을 필요는 있다”고 했다. 한편 디지털플랫폼에서 넷플릭스, 디즈니+ 등을 제외했어도 부익부빈익빈이었다. 정부가 실태조사에서 조사한 총 1078개 기업중 대기업 서비스가 중소기업 서비스 대비 평균 12.8배 가입자수가 많았고, 활성이용자수(3개월 평균 이용자수)도 8.5배나 많았다. 또, 디지털플랫폼에서 중소기업 비중은 66.7%로 전산업에서 중소기업이 차지하는 비중 99%보다 적었다. 디지털 플랫폼기업들의 총 매출은 378조 원으로, 해외 매출을 가진 기업은 2.7%에 불과했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>서브컬처 게임 '블루 아카이브', 이용자 콘텐츠 공모전 22일까지 실시</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003865652?sid=105</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>넥슨은 자회사 넥슨게임즈에서 개발한 서브컬처 게임 '블루 아카이브'의 이용자 콘텐츠 공모전 '블루 아카이브 어워즈'를 개최한다고 10일 전했다.공모 부문은 '인테리어 전문가', '학원 최고의 시인', '키보토스 예술가', '샬레 행동대장' 등 총 4개 부문으로 22일까지 응모할 수 있다. 모든 공모 부문은 중복으로 참여 가능하며 최종 수상작은 27일에 발표한다.'인테리어 전문가' 부문은 게임 속 '샬레 부속 카페'를 자신만의 방법으로 꾸며 참가할 수 있고, '학원 최고의 시인'은 25자 이내로 '블루 아카이브'를 표현해 응모할 수 있다. 또 '키보토스 예술가'에서는 '블루 아카이브' 세계관 및 '0.5주년 페스티벌'을 주제로 글, 그림, 영상, 음악, 피규어 등 다양한 형태로 작품을 제작해 응모할 수 있으며 '샬레 행동대장' 부문에서는 실제 일상 속 '블루 아카이브'를 표현해 참여하면 된다. 수상작은 게시글 추천수, 심사를 통해 선정되며 대상 수상자에게는 '청휘석 3600개', 구글 기프트 카드(30만 원)을 지급한다.▶ 당신은 모르는 그 사람이 숨기고 있는 비밀- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>“고통 주는 규제 없애주세요… 비대면 진료 이젠 허용을”</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003690831?sid=105</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>한국의 젊은 스타트업 대표들 ‘윤석열 정부, 이것만은 꼭’							“일자리 만드는 기업인들 업고 다니겠다고 하신 말씀, 꼭 지켜주세요. 혼밥 않고 항상 밥 같이 먹겠다 하셨는데, 여러 분야의 창업자·기업인들과도 밥 같이 먹어주세요!”(박소령 퍼블리 대표)“동네 반찬가게가 직접 주문받아 배송하는 건 되지만, 같은 사업을 온라인 플랫폼에서 하려면 수억원 들여 시설 갖추고 식품제조가공업 허가까지 받아야 합니다. 스타트업뿐 아니라 소상공인에까지 고통을 주는 규제 해결해주세요.(김슬아 컬리 대표)”10일 윤석열 대통령 취임식에는 주요 스타트업 창업자와 관계자들이 여럿 참석했다. 윤 대통령은 후보 시절 스타트업 대표들과 만나 “불필요한 (발목의) 모래주머니를 제거하겠다”고 했고, 스타트업 업계의 기대감도 그만큼 높다. 본지는 업종별 주요 스타트업 창업자·대표들로부터 새 정부에 대한 바람을 취합했다. 그린랩스(농업), 닥터나우(비대면 진료), 당근마켓(중고거래), 더핑크퐁컴퍼니(콘텐츠), 배달의민족(푸드테크), 쏘카(차량공유), 업스테이지(AI), 웰트(헬스케어), 이노스페이스(우주), 컬리(전자상거래), 토스(핀테크), 퍼블리(HR), 퓨리오사AI(반도체), 핀다(핀테크), 한국신용데이터(소상공인 서비스)까지 15개사다.그래픽=양진경 ‘낡은 법’ 고치고, ‘데이터’는 개방							스타트업 대표들은 한국 사회의 디지털 전환을 꾀하고, 금융·모빌리티·헬스케어 등 신사업을 추진하는 과정에서 발목을 붙잡는 여러 ‘모래주머니’들로 인한 고충을 토로했다. 대표적인 것이 ‘낡은 법’이다. 치과의사 출신으로 핀테크(금융기술) 기업 ‘토스’를 창업한 이승건 대표는 “국회에 계류 중인 전자금융거래법 개정안이 신속히 통과돼 ‘넓고 평평한 운동장’이 펼쳐지면 좋겠다”고 했다. 금융과 테크의 경계가 무너진 시대에 플랫폼 기업들이 각종 전자금융 서비스에 활발히 진출할 수 있도록 허용하는 것이 개정안의 골자다. 스마트폰이 없던 2006년 제정된 이 법은 이후의 시대 변화를 반영하지 못해 새로운 금융 서비스를 아우르지 못한다는 지적이 제기돼왔다. 핀테크 기업 핀다의 이혜민 대표도 “2000만명의 대출 이용자가 더 유리한 조건으로 손쉽게 갈아탈 수 있는 ‘대출이동 시스템’ 논의가 지난해 중단됐다”며 “새 정부에서 신속히 시행됐으면 한다”고 했다.코리아스타트업포럼 의장인 박재욱 쏘카 대표는 “1960년대 만들어진 여객운수법 때문에 여전히 택시는 사람만 태우고, 렌터카로 음식·택배 배달도 못 한다”며 “디지털 세상에 맞는 법 개정이 필요하다”고 했다. 당근마켓 김용현 대표도 “개인 간 거래(C2C)가 점차 커지는데 규제 사각지대에 방치되고 있다”며 “현실에 맞는 법이 시급하다”고 했다. 닥터나우 장지호 대표는 “수년간 비대면 진료 시범 사업만 해왔다”며 “OECD 38국 중 33국이 허용한 비대면 진료를 이제는 허용해야 할 때”라고 했다.디지털 산업의 ‘원료’나 마찬가지인 ‘데이터 개방’을 요구하는 목소리도 높았다. 헬스케어 스타트업 ‘웰트’를 창업한 의사 출신 강성지 대표는 “이 병원, 저 병원에 분산돼 있는 개개인의 헬스케어 데이터를 마음대로 옮겨가며 ‘맞춤형 건강관리’를 할 수 있도록 허용해달라”고 했다. 농업 스타트업 그린랩스의 안동현 대표도 “계획부터 재배, 유통, 금융에 이르기까지 단계마다 축적된 데이터를 개방, 활용하면 생산성을 대폭 늘릴 수 있다”고 했다.“정부가 혁신의 테스트베드 역할해야”							AI 스타트업 업스테이지의 김성훈 대표는 “정부 공공 사업 발주 때 AI 관련 사업을 확대하면, 스타트업들이 사업 수행을 하면서 노하우를 쌓고 이를 발판으로 해외 진출에도 큰 도움이 될 것”이라고 했다. 이 밖에도 “혁신의 테스트베드 역할을 할 ‘스마트시티’ 구축”(퓨리오사AI 백준호 대표), “수많은 소상공인 지원 정책 내용을 손쉽게 디지털화할 수 있도록 각 항목 표준화”(한국신용데이터 김동호 대표), “규제 완화를 통한 우주 스타트업 활성화”(이노스페이스 김수종 대표), “미래 성장 동력인 플랫폼의 성장을 고려한 규제”(배달의민족 김범준 대표), “K콘텐츠 글로벌 진출을 위한 정책 지원”(더핑크퐁컴퍼니 이승규 공동창업자) 같은 세세한 제안들이 쏟아졌다.토스 이승건 대표는 “스타트업과 정부가 원 팀이 돼 ‘제2의 한강의 기적’을 만들 수 있도록, 기업인과 창업가가 마음껏 꿈을 펼칠 수 있는 사회가 만들어지면 좋겠다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>국민은행도 청소년 선불카드 '리브넥스트' 출격</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003015333?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>KB국민은행이 시중은행 가운데 두 번째로 청소년 대상 선불카드를 올해 안에 출시하기로 했다. Z세대 대상 금융 플랫폼 '리브 넥스트'와 연계해 청소년 결제 편의성과 주체적인 금융 생활을 지원하도록 나선다.국민은행은 Z세대 타깃 금융 앱 리브 넥스트와 연계한 선불충전카드 출시를 최근 결정했다. 직접 계좌를 개설할 수 없는 만 14세 미만도 모바일은 물론 실물카드를 이용해 리브 넥스트 기능을 더 간편하게 이용할 수 있도록 준비할 계획이다. 국민카드와 협업해 올 하반기 중에 선보이는 방안이 논의되고 있다.리브 넥스트는 국민은행이 Z세대를 겨냥해 지난해 11월에 출시한 금융 앱이다. 만 14~18세 전용 선불전자지급수단 '리브포켓'을 이용하면 신분증이 없는 10대도 본인 명의의 휴대폰 인증을 거쳐 계좌 없이 금융 거래를 할 수 있다. 리브포켓으로 송금·입금이 가능하며, ATM 입·출금도 지원한다. CU편의점에서 리브포켓을 충전하고 바코드로 결제할 수 있는 것도 강점이다. 카드 없이 KB페이 온·오프라인 가맹점 결제도 할 수 있다.리브 넥스트는 실물 카드 없이도 Z세대에게 필요한 결제, 입·출금 등 핵심 금융 서비스를 이용할 수 있도록 구현했다. 하지만 오프라인 결제처가 제한돼 있고 Z세대 겨냥 금융 서비스를 제공하는 경쟁사 대비 우위를 갖추기 위해 실물카드 채택을 결정한 것으로 보인다.Z세대를 겨냥한 선불지급수단 경쟁은 카카오뱅크 미니가 불을 지폈다. 이후 토스, 하나은행이 잇달아 관련 서비스를 선보이며 미래 고객 확보 경쟁을 벌이고 있다. 카카오뱅크는 만 14~18세 미만 청소년이 은행 계좌 없이 입금·송금할 수 있는 선불전자지급수단 '미니'로 돌풍을 일으켰다. 카카오뱅크 미니 카드는 앱 내 미니와 연결된다. 편의점 충전과 ATM 입·출금을 지원한다. 2020년 10월 출시 후 1년 6개월 만에 124만명의 누적 가입자를 달성했다.하나은행은 타깃 연령층을 초등학생까지 확대한 '아이부자 앱'으로 Z세대를 공략하고 있다. 결제, 송금, ATM 출금 외에 주식투자 체험, 기부 등으로 금융 활동을 확대했다. 아이부자 앱과 연계한 '아이부자 카드', 학생증 겸용 선불카드인 '아이부자 학생증 카드'도 선보였다. 토스는 7세도 사용할 수 있는 '토스 유스카드'를 지난 2월부터 선보였다. 토스머니를 충전하면 오프라인뿐만 아니라 온라인 결제도 가능하다.금융권에서는 빅테크와 인터넷은행 플랫폼에 익숙한 Z세대를 미래 고객으로 선점해야 한다는 위기감이 크다. 생애 처음 접한 금융 서비스와 브랜드에 익숙해지면 다른 플랫폼으로 갈아타기가 사실상 쉽지 않기 때문이다. 국민은행 관계자는 “리브 넥스트 카드 출시는 아직 초기 논의 단계”라며 “금융당국과의 협의 등을 거쳐 올 하반기 목표로 선보일 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>인터넷은행 중·저신용자 대출확대…가계대출 넉달째 증가</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003693636?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>지난달에도 1조1300억 늘어5대 은행은 4개월째 감소세금리상승 덕 호실적 이어갈 듯   올해 들어 5대 은행의 가계대출이 계속해서 부진했던 것과 달리 인터넷 전문은행의 가계대출 증가세는 4개월 연속 이어지고 있다.  8일 금융권에 따르면 인터넷전문은행 3사 카카오뱅크, 케이뱅크, 토스뱅크의 지난달 말 기준 가계대출 잔액 합계는 37조2718억원으로, 3월 말(36조1439억원)보다 1조1279억원 증가했다. 지난 1월(1조1916억원), 2월(6580억원), 3월(8114억원)에 이어 4개월 연속 늘어난 것이다.  인터넷은행의 가계대출이 늘어난 것은 중·저신용자를 대상으로 한 대출이 확대됐기 때문으로 분석된다.  앞서 금융당국은 지난해 5월 인터넷전문은행이 중·저신용자에 대한 대출 공급을 늘리겠다는 당초 설립 취지와 달리 고신용자 위주의 보수적인 대출영업을 한다고 지적한 바 있다.  당시 당국은 중·저신용자 대상 신용대출 잔액 비중 목표로 케이뱅크 21.5%, 카카오뱅크 20.8%, 토스뱅크 34.9%를 제시했다. 카카오뱅크와 케이뱅크는 지난해 말까지 각각 17.0%, 16.6%를 기록해 목표치에 미달했지만, 올해는 이 비중을 끌어올려 최근 20%대로 올라섰다. 지난해 말 23.9%였던 토스뱅크는 최근 33%대까지 끌어올렸다.  또 인터넷은행이 ‘첫 달 이자 지원’ 등의 행사를 적극적으로 펼치면서 제2금융권 중·저신용자들이 대출을 갈아탄 영향도 작용한 것으로 보인다. 인터넷은행이 올해 들어 여신 포트폴리오를 본격 확장하는 움직임을 보인 점도 성장 요인이다.  이와 달리 KB국민·신한·하나·우리·NH농협 5대 은행의 가계대출 잔액은 넉 달째 뒷걸음치고 있다.  5대 시중은행의 지난달 말 가계대출 잔액은 702조3917억원으로, 3월 말(703조1937억원)보다 8020억원 줄면서 4개월 연속 감소했다.  1분기 가계대출 부진에도 사상 최대 이익을 거둔 주요 금융그룹들은 2분기에도 호실적을 이어갈 전망이다.  금리 인상에 따라 대출금리가 뛰면서 이자수익이 늘어 분기 기준 역대 최대 실적을 거둔 만큼, 앞으로도 금리 상승 덕을 볼 수 있단 얘기다. 최근 미국이 기준금리를 한 번에 0.5%포인트 올리는 ‘빅스텝’을 단행하면서 한국은행이 기준금리를 또다시 올릴 가능성이 커졌다. 통상 미국이 기준금리를 올리면 한은도 자본 유출을 막기 위해 금리를 올린다. 금융정보업체 에프앤가이드에 따르면 주요 금융지주의 순이익은 2분기에도 4조원을 넘어설 전망이다. 시장에서는 KB·신한·하나·우리금융지주의 2분기 순이익을 4조3000억원 이상으로 예상한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>尹대통령 부부, 국민희망대표 20명과 행진곡 맞춰 연단 입장</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003427358?sid=100</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[윤석열 대통령 취임]취임식 어떻게 진행되나취임식 무대 준비 끝 10일 서울 여의도 국회의사당 앞마당에서 열리는 윤석열 대통령 당선인의 취임식 무대 모습. 국회 본청 건물에는 취임식 슬로건인 ‘다시 대한민국! 새로운 국민의 나라’가 적힌 대형 걸개그림이 내걸렸다. 사진공동취재단윤석열 대통령의 취임식이 10일 오전 ‘다시 대한민국! 새로운 국민의 나라’라는 슬로건으로 서울 여의도 국회의사당 앞 잔디마당에서 열린다. 윤 대통령은 10일 오전 서울 서초구 서초동 자택을 나서 동작구 국립서울현충원에서 참배를 한 뒤 취임식장에 도착한다.○ 尹, ‘국민희망대표’ 20명과 단상에 올라이날 오전 11시 취임식 본행사는 윤 대통령과 부인 김건희 여사가 취임식장에 입장하는 것으로 시작한다. 윤 대통령의 당선 이후에도 잠행을 이어온 김 여사가 처음으로 공개석상에 모습을 드러내는 것이다. 윤 대통령 내외는 국회 정문에서 차에서 내린 뒤 시민과 악수를 하고 사진도 찍으며 취임식 단상까지 약 180m를 걸어 이동한다.  윤 대통령 내외의 입장에 맞춰 ‘위풍당당 행진곡’이 연주된다. 지휘봉은 2세 때 소아마비로 휠체어를 타는 차인홍 미국 라이트주립대 음악원 교수가 잡고, 서울시립교향악단과 발달장애인 오케스트라인 ‘하트하트 오케스트라’가 연주한다.  이어 윤 대통령 내외는 ‘국민희망대표’ 20명과 함께 취임식 무대에 오를 예정이다. 20명은 윤 대통령이 대한민국의 20대 대통령이라는 점을 의미한다.  국민희망대표 20명에는 넷플릭스 드라마 ‘오징어 게임’에서 ‘깐부 할아버지’로 이름을 알린 배우 오영수와 천안함 생존 병사인 전환수 씨, 10년간 매년 익명으로 1억 원을 기부해 온 ‘키다리 아저씨’ 박무근 씨, 장애를 딛고 스키 선수로 활약하는 최사라 씨, 신종 코로나바이러스 감염증(코로나19) 최전선에서 방호복을 입고 화투를 치며 할머니 환자를 보살핀 간호사 송주연 씨 등이 포함됐다. 취임식준비위원회 측은 이들에 대해 “각자의 자리에서 묵묵히 대한민국을 빛내고 있는 사람들로, 총 6가지 범주에 따라 초청됐다”고 설명했다. ○ 취임사 후 청와대 개방 생중계…“尹, 소통 의지”취임식은 윤 대통령의 취임선서, 의장대 행진 및 예포 발사, 취임사 순으로 진행된다. 윤 대통령은 단상에서 계단을 내려와 객석을 향해 10m 정도 튀어나온 돌출 무대에서 취임사를 발표한다. 국민에게 더 가까이 다가가겠다는 윤 당선인의 의지가 반영됐다.  취임사 이후에는 이날 낮 12시부터 개방되는 청와대에 대한 개방 선포가 이어진다. 개방 현장 상황은 취임식에 실시간으로 중계될 예정이다. 취임식준비위 측은 “청와대 개방은 74년 만이며 늘 국민 곁에서 국민의 목소리를 경청해 새로운 국민의 나라를 만들어가겠다는 대통령의 국민 소통의 의지가 담겨 있다”고 강조했다.  이번 취임식에는 ‘민간이 끌고 정부가 미는 역동적 경제’를 강조한 윤 대통령의 국정철학을 반영해 재계 인사들도 폭넓게 초청했다.  5대 그룹 총수와 경제6단체장 등 재계 주요 인사들이 대거 초청된 가운데 강한승 쿠팡 대표, 김슬아 컬리 대표, 안준형 오아시스마켓 대표 등 이커머스 업체 대표와 인터넷은행 ‘토스’를 운영하는 이승건 비바리퍼블리카 대표도 취임식에 참석한다. 초청 배경으로는 국내 일자리 창출에 대한 기여도가 꼽힌다. 국민연금공단에 따르면 쿠팡은 최근 1년간 국내 기업 중 가장 많은 9722명을 신규 채용했다. 윤 대통령이 플랫폼 규제 혁신에 대한 의지를 지속적으로 드러낸 데 따른 결정으로도 풀이된다.  박근혜 전 대통령도 참석한다. 건강상 문제로 불참 의사를 밝힌 노무현 전 대통령의 부인 권양숙 여사 외에 전두환 전 대통령의 부인 이순자 여사와 이명박 전 대통령의 부인 김윤옥 여사 등도 참석할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>"금산분리 완화…'예외허용' 방식으로"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005083450?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>[尹정부와 은행의 미래 좌담회] "은행, 빅테크 흉내내면 미래없어…금융업 고도화로 승부해야"지난달 19일 아시아경제에서 ‘은행의 미래 좌담회’가 열렸다. 한동환 KB경영연구소장(왼쪽), 안수현 한국외대 법학전문대학원 교수, 이병윤 한국금융연구원 선임연구원이 기념촬영하고 있다.새 정부 출범을 앞둔 은행들의 눈동자는 불안하다. "금융회사가 과도한 이익을 내고 있다"며 예대금리차 공시제도를 만든다는 것이 대통령직인수위원회가 금융권에 보낸 신호의 전부다. 연일 최대 실적을 내는 은행들은 겉으로 잘 나가는 것처럼 보이지만 속사정은 다르다. 빅테크가 금융 영토를 무서운 속도로 잠식하고 있기 때문이다.혁신금융을 내세웠던 문재인 정부는 인터넷은행과 핀테크 시대를 열었다. 새 정부가 그리는 은행의 미래는 어떤 모습일까. 아시아경제는 '새정부와 은행의 미래' 좌담회를 통해 금융정책이 그려야 할 앞으로 5년을 미리 들여다봤다.지난달 19일 아시아미디어타워에서 열린 좌담회에는 한동환 KB경영연구소장, 안수현 한국외대 법학전문대학원 교수, 이병윤 한국금융연구원 선임연구위원이 참석했다. 새 정부가 은행의 미래를 위해 가장 먼저 해야 할 일로 이들이 첫 손가락에 꼽은 건 은행법 37조 '은행은 15%를 초과하는 다른 회사의 주식을 소유할 수 없다'는 조항을 손 보는 것이다."'산업자본의 은행 소유 금지와 은행의 비(非)금융 산업 진출 제한'이라는 기존 원칙은 고수하되, 예외적으로 꼭 필요한 경우엔 은행의 비금융 진출은 허용해줘야 한다"는 게 참석자들의 공통된 견해였다. 예를 들어 은행이 데이터 사업을 위해 기술 인력을 흡수하려고 IT회사를 인수하거나, 은행이 중소기업 돕기 위해 컨설팅 사업에 진출하는 경우가 될 수 있다. 우리나라처럼 은행의 비금융 진출을 막았던 일본도 칸막이를 없애고 있다."은행들이 자꾸 빅테크를 흉내내고 있다"는 우려도 나왔다. 데이터를 모아 마케팅 사업에 쓰는 빅테크의 모습을 쫓아가는 데 급급하면 은행들이 빅테크와 차별화 할 수 없다는 지적이었다. 이런 맥락에서 참석자들은 "마이데이터 사업도 고객 자산 관리라는 은행의 기본에 충실하게 발전해야 한다"고 강조했다. 개인별 금융사정을 고려해 집을 구할 때 최저 금리로 주택담보대출을 할 수 있는 방법을 제시하는 알림을 보내거나, 현재 대출받고 있는 것보다 낮은 금리의 대환대출을 안내해주는 식이다.지난달 19일 아시아경제에서 ‘은행의 미래 좌담회’가 열렸다.다음은 좌담회 전문.새 정부 금융산업 철학은▶사회= 새 정부가 금융 경쟁력 강화나 디지털 금융 혁신 등에서 어떤 철학을 가지고 추진해야 할까요.▶이병윤 선임연구위원(이하 이) = 어떤 정부나 금융정책의 목표는 세 가지인 것 같아요. 첫째 금융 시스템의 안정성, 둘째 소비자의 후생, 셋째 금융 산업의 발전. 우선 금융 시스템 안정성 측면에서 가계부채 급증과 코로나 사태로 인한 자영업자 대출 만기 연장 등으로 대출이 크게 늘어난 상황인데 금리가 오르고 있습니다. 지금 당장은 큰 문제가 없겠지만 어쨌든 리스크가 있습니다.그 다음에 소비자 후생 극대화에 대해서는 금융당국이 인터넷은행을 3개 이미 허가했고, 큰 효과가 있었죠. 이제는 핀테크, 빅테크 이런 곳들에게 금융업을 어느 정도 허용해 주겠다는 게 종합지급결제업(전자금융법 개정안)입니다. 오픈 뱅킹이나 마이데이터 등도 어떻게든 시장 경쟁을 촉발해서 소비자 후생을 늘려보겠다는 것입니다. 은행들은 새로운 플레이어들이 계속 들어오니까 '동일기능 동일규제'를 해야 한다고 주장하는 것이고.새 정부의 철학이 뭐냐 했을 때는 시스템 안정성을 확보하고 소비자 후생을 침해하지 않는 범위 내에서 금융업 자체의 발전, 즉 시장의 자율성과 창의성을 존중해서 뭔가 하여튼 금융회사들도 민간회사이니까 돈 벌 수 있는 환경을 마련해 줘야 된다는 것입니다.이병윤 한국금융연구원 선임연구원이 지난달 19일 아시아경제에서 열린 ‘은행의 미래 좌담회’에서 발언하고 있다.▶한동환 소장(이하 한) = 저는 연구소장 온 지는 얼마 안 되고 직전에 디지털 담당을 한 5년 했습니다. 하다 보니까 느낀 바가 많은데 그걸 말씀드리면, 빅테크가 금융으로 굉장히 빠른 속도로 거의 은행이나 카드사처럼 들어오게 허용하는 나라는 중국을 빼고는 한국밖에 없습니다.예를 들면 영국 쪽에 이제 혁신적인 그런 핀테크들이 있습니다. 대표적으로 레볼루트라든지 몬조라든지 이런 인터넷 전문은행 비슷한 핀테크 혁신 기업들이 있는데 미국에 가서는 다 은행 라이센스를 못 받았습니다. 미국은 왜 은행 라이센스를 안 줬냐 하면 물론 '외국이니까, 영국계니까 안 줬을 수 있다' 이랬을 수도 있지만 미국 당국이 가장 걱정하는 거는 이병윤 박사님이 말씀하신 시스템적인 안정성을 더 중시했거든요. 소비자 후생이라는 영역도 봤지만 실리콘밸리에서 굉장한 디지털 혁명 혁신이 일어나는데도 미국에서 예를 들면 아마존이나 애플이나 이런 데서 한국의 빅테크처럼 금융 본연으로 바로 들어오는 경우가 없습니다.미국이나 유럽은 빅테크 플랫폼 기업들 규제해야 한다는 분위기이고 규제 법안도 통과되고 했습니다. 한국도 그렇게 가기 전이라도 핀테크와 빅테크를 나눠서 핀테크나 스타트업은 활발하게 제2의 토스가 이렇게 나오도록 좀 과감하게 지원을 하고, 빅테크는 제한할 필요가 있습니다. 빅테크들이 금융에 진출하는 게 어떤 소비자 후생이 있는지 그 다음에 혁신에 어떤 장단점이 있는지를 좀 더 눈여겨 봐야 됩니다.▶안수현 교수(이하 안) = 우리나라의 경우 은행을 중심으로 금융 정책이 이뤄져 왔고 은행의 경우에는 엄격한 진입 규제 하에서 사실은 다른 데보다 굉장히 많은 비즈니스를 할 수 있는 그런 여력을 인정받고 있는 셈이었거든요. 그러다 보니까 유럽도 마찬가지지만 은행의 경우에는 혁신을 할 유인이 생각보다 그렇게 크지 않았습니다. 왜냐하면 아까 결제에도 말씀하셨지만 대부분 예금 계좌를 갖고 있기 때문에 가만히 있어도 쉽게 수익이 나는 그런 기반을 오랫동안 향유했던 거여서 사실은 핀테크에 관한 혁신을 기대하는 그런 것이 이제 일어난 거고요. 그것은 우리나라뿐만 아니라 다른 나라에도 마찬가지라고 보여집니다.그래서 경쟁을 통해 그전에 움직이지 않았던 공룡 산업을 좀 더 변화하게 하는 부분들은 계속 가야 될 거라고 생각하는데, 문제는 이제 그 부분이 사실은 공정한 경쟁에 대한 어떤 수요가 굉장히 많고 혁신도 무조건 종전보다 바뀌는 게 아니라 책임을 질 수 있는 혁신 쪽으로 방향을 이제 적립해 가야 된다, 종전보다는 혁신이 이제는 질적인 혁신이 요구되는 때가 아닌가 이렇게 생각합니다.아까 핀테크와 빅테크를 구분하는 것은 나중에 뒤에서도 전자금융거래법과 관련해서 이야기가 나올 것 같습니다. 혁신만 강조하는 부분이 사실은 그건 초기에 어떤 산업을 만들기 위해서 어쩔 수 없었던 거라고 보여지고, 지금은 책임과 함께하는 혁신을 강조하는 그런 철학이 자리잡으면 어떨까 합니다.은행-빅테크 간 '기울어진 운동장' 문제, 어떻게 해결 ▶사회 = 빅테크와 금융사들 사이에 '기울어진 운동장' 논란이 나오는데요.▶한= 마이데이터 동의 절차나 이런 걸 봤을 때 그냥 마케팅으로 던지고 고객님들은 이 정보에 대해 고심하는 프로세스 없이 그냥 동의를 합니다. 여러 가지 고객 정보 보호라든지 프라이버시 이런 쪽에 좀 걱정이 있는 부분이 사실입니다.기존에 네이버를 보면 우리가 빅테크의 서비스를 되게 천사 같다고 생각한 이유가 공짜였기 때문입니다. 그래서 다 이메일도 무료로 쓰고 메신저도 다 무료로 하고 해서 이게 공짜라고 생각했지만 그것을 제공하는 빅테크는 굉장히 가치 있는 고객 데이터를 다 가져갔습니다.그런데 마이데이터를 하니까 빅테크가 갖고 있는, 오히려 우리 국민들의 정보 주권에 해당하는 데이터들은 뭔가 정보 주체한테 줘가지고 '이런 데이터를 갖고 있는데 지울까요, 아니면 고객님한테 드릴까요' 이런 것 없이 그냥 그것은 그대로 있는 상태인데,  빅테크가 금융 데이터를 굉장히 손쉽게 다 가져가는 겁니다.▶이= 마이데이터 사업은 지금 신용 정보에 대해서만 데이터를 공유하도록 하고 있습니다. 신용정보법으로 하게 되면서 이런 문제가 생긴 게 아닌가 하는 생각이 드는데. 신용 정보에 한해서 고객이 오케이 하면 금융회사건 빅테크건 핀테크건 서로 다 데이터를 서로 줘라 이건데, 그러다 보니까 '금융 정보는 전부 신용 정보다 그러니까 다 오픈해야 된다' 이런 논리가 됩니다.빅테크가 가지고 있는, 예를 들면 쇼핑 정보 무슨 거래 정보 이런 것들이 신용정보냐 이렇게 가면 이제 이게 약간 애매한 어디까지가 신용정보냐 이게 되는 겁니다. 슈퍼에 가서 뭘 산 거 그런 거래 내역 이것이 이 사람의 신용 정보냐 처음에는 이제 이게 이거는 신용 정보 아닌 것 같아요. 그래서 허용을 안 하다가 이제 또 너무 공평하지 않은 것 같으니까 '너네들은 데이터 이렇게 많은데' 하면서 조금씩 더 내놓게 되는 거 아닐까요. 그래서 지금은 아마 그런 거래 정보 같은 걸 대분류인가요, 그 분류해 가지고 그렇게만 주고 있습니다.사업이라는 게 그러니까 지금은 신용정보에 대해서만 오픈하도록 하는 걸로 가는 거고 앞으로는 이걸 점점 공공 정보로 앞으로 점점 확대해 가면은 사실은 이런 문제가 조금씩 더 사라질 수 있을 것 같습니다. 금융사들과 빅테크간에 이제 논의를 해서 적정선을 찾아가겠죠.또 한가지 말하자면, 결국 금융업은 데이터 비즈니스거든요. 은행이나 금융회사들이 그동안 가지고 있었던 예금, 대출, 신용 데이터 등에 대해 과연 이 데이터의 중요성을 알고 그래서 고객 데이터를 수집하고 분석하는 데 정말 많은 자원을 투입해서 노력을 했느냐 하면 그랬었나 저는 조금 의문입니다. 데이터 수집, 분석을 통해 거기에 맞는 리스크 관리를 하고 금융 상품을 내고 이런 것에 대해 지금은 좀 많이 나아지고 있고 중요성을 깨닫고 있는 상황이 아닌가 생각은 듭니다.안수현 한국외대 법학전문대학원 교수가 지난달 19일 아시아경제에서 열린 ‘은행의 미래 좌담회’에서 발언하고 있다.▶안 = 데이터와 관련된 부분에서 저는 데이터가 많은 게 중요한 건 아닌 것 같습니다.  높은 품질의 데이터를 확보하도록 하는 게 중요합니다. 그 다음에 그 데이터를 수집해서 정말 고객 취향에 맞는 금융 상품과 서비스를 제공하는 그 기능만 살아남지, 그것이 금융회사든 빅테크든 간에 데이터의 어떤 종류나 개수나 범위를 무한정 늘리는 이런 접근 방법은 그렇게 효과적이지 않습니다.두 번째는 그런 부분에서 우리 금융기관들이 데이터가 있거든요. 수십 년 동안 쌓아 있는 데이터와 관련해서 이거를 질적인 데이터로 전환하는 데 그동안 좀 약간 간과한 부분이 있다, 이런 생각이 듭니다. 왜냐하면 고객들이 자기의 데이터가 어떻게 활용되는지에 대한 정보가 금융 소비자 입장에서는 전혀 없었습니다. 빅테크는 고객의 데이터를 이용하면서 공짜인 것처럼 주는 마케팅으로 썼지만 은행의 경우에는 사실 그런 서비스조차 제공한 적이 없는 것 같아요.은행 같은 경우에는 예금 계좌를 갖고 있기 때문에 금전에 초점을 뒀는데 지금은 사실 금전보다 더 중요한 게 데이터이기 때문에, 고객이 데이터를 이 금융회사에 주고 싶어하는 마음이 들게끔 하는 비즈니스 전략이 굉장히 필요합니다. 빅테크가 갖고 있는 데이터를 받아 온다고 해서 그런 전략이 저절로 만들어지는 건 아닌 걸로 보여지거든요. 그래서 고객의 페인 포인트(pain point)를 찾아서 그 페인 포인트를 해결해 주는 기능을 금융회사가 제공을 한다면 금융 소비자들이 저절로 데이터를 금융회사한테 맡기지 않을까 저는 그런 생각이 좀 들고요.그럼에도 불구하고 저희는 이제 빅테크가 지금은 그런 페인 포인트를 좀 더 빨리 찾았다라는 생각을 합니다. 다만 이제 아쉬운 거는 빅테크가 진입에는 좀 성공은 했지만 지배구조라든가 이런 행위 규제와 관련해서는 미흡합니다. 금융기관은 종전에 이런 규제에 익숙해 있기 때문에 어느 정도 그 부분에서는 좀 경쟁력이 있는데 빅테크는 아직 그 점에서는 주지되어 있지 않다. 이 때문에 그 부분을 만약에 빅테크가 사실 따라오거나 아니면 법제가 정비가 된다고 했을 때는 진짜 경쟁이 빅테크와 은행 산업 간에 정말 빅 매치가 되지 않을까, 그럼 누가 살아남을까를 좀 생각해야 되지 않을까 이렇게 생각이 듭니다.그럴 때 이제 경쟁력은 뭐냐면 결국 금융 소비자에 초점을 맞춘 그 곳들만 살아났거든요. 그런 기능만 살아남고 뱅킹이든 아니면 투자든, 그런 부분에서 은행들이 좀 더 긴장할 필요가 있지 않을까 생각합니다. 아직은 규제 부분에 대해서 은행이 유리하고 빅테크들은 그런 부분을 좀 더 주의할 필요가 있지 않나 합니다.▶한 = 안 교수님께서 중요하게 지적하신 게 모든 데이터가 필요 없다, 그건 정말 맞는 말씀입니다. 적정 데이터로 고객한테 가치 있는 제안을 해줄 때 그게 의미가 있는데, 저는 그게 신뢰라고 생각합니다. 그래서 그런 걸 금융회사들이 잘할 수 있기 때문에 이게 게임이 되는 거라는 생각을 합니다.▶이 = 빅테크 자체적으로 이제 그게 너무 독과점화될 가능성이 굉장히 거의 자연 독점처럼 되거든요. 그래서 미국, 유럽 등도 규제하고 있고 우리도 좀 규제를 해야 합니다.그런데 이제 빅테크가 이제 금융에 들어와서 여러 가지 문제를 일으킬 수는 있겠는데 이게 이제 결국은 물론 금융당국이나 감독당국이 주의력을 가지고 잘 들여다봐야 되겠죠. 결국은 시스템 안정성의 문제가 발생할 수 있고, 소비자 후생을 갉아 먹을 수 있구요. 빅테크가 어떤 문제를 일으키면 당연히 제제를 해야 한다, 동일기능 동일규제 원칙대로 규제를 받아야 한다고 생각합니다.새 정부에서 마이데이터 발전 방향은 ▶사회 = 마이데이터가 이제 지금 몇 년 되고 했는데 아까 안 교수님이 말씀하신 그런 페인 포인트를 제대로 캐치해서 뭔가 고객에게 뭘 해결해 주는 그런 게 안 보이거든요.한동환 KB경영연구소장이 지난달 19일 아시아경제에서 열린 ‘은행의 미래 좌담회’에서 발언하고 있다.▶한= 그것도 제가 그냥 좀 슬픈 이야기부터 하겠습니다. 그러니까 제가 은행이 빅테크처럼 흉내내면 안 되는데 흉내낸다고 생각하는 게, 고객님들을 우리가 경제적으로 지원해야 될 대상이고 그게 지속 가능한 금융회사 고객과의 관계, 그게 저는 본연의 사명입니다. 데이터 가진 회사들은 데이터를 모아서 마케팅 하려고 하거든요. 그러니까 광고 수익 모델처럼 거기에 익숙하다 보니까 얕게 데이터 모아서 '저 분은 해외 여행을 가네, 그럼 이거 팔아야지' 이렇게 너무 마케팅 목적으로 합니다. 공급자 위주이고, 소비자를 이야기하지만 마케팅 플랫폼으로만 생각을 하는 거죠.마이데이터를 그게 아니라 고객을 경제적으로 행복하게 해주는 게 뭘까. 저희들은 어떻게 생각하냐면 고객님이 묻기 전에 먼저 고객이 고민하는 거를 해결해 드릴 수 있는 포인트를 생각합니다. 저는 자산관리 측면에서 좀 질적인 걸로 생각을 했는데 지금은 그냥 마케팅 플랫폼으로만 자꾸 생각해 단기적으로 상품을 푸시하는 데만 익숙해져 있는 거죠. 상담을 잘 해드리는데 이 마이데이터를 써야 되는데, 상담은 굉장히 지속적으로 나중에 일어나는 건데 마케팅은 빨리 되거든요.그래서 예를 들면 토스도 고객들 키우고 한 걸 보면 '공짜로 주식 줄게', 그 다음에 '금리 2% 줄게' 이런 마케팅 기법으로 커왔거든요. 마이데이터가 자꾸 마케팅 기법으로 가니까 고객들은 푸시만 받고 '나한테 진정한 의미가 뭐야' 이렇게 되니까 상담을 잘 해드리는 쪽으로. 상담이라는 게 비대면 상담, 대면 상담 다 포함이죠. 그래서 자산관리 쪽으로 좀 더 성숙된 모습을 보여야 되는 게 저희 은행들도 숙제고요. 마이데이터 쪽 업체들은 금융이 본연의 역할이 아니기 때문에 마케팅 정보 가지고 다른 걸 하려다 보니까 데이터만 모았지 고객들한테 깊이 있는 서비스를 줄 준비는 안 돼 있다고 봅니다.은행들도 이걸 처음하다 보니까 아직은 지금 학습 단계입니다. 그래서 저는 S자 커브로 학습 곡선으로 갈 것 같은데 지금 당장은 은행도 의미 있는 상담의 경험을 고객님한테 못 해드리고 있고 빅테크들은 그냥 이걸 마케팅 플랫폼만 보고 있다. 그게 지금 노출되고 있는 문제가 아닌가 생각합니다.▶이 =마이데이터 시작한 지가 얼마 안 돼서 말씀하신 대로 처음에는 이제 뭐 금방 이 효과를 얻으려다 보니까 이제 마케팅 쪽으로 갈 수도 있다고 보는데 결국 요즘에는 빠르게 바뀌기 때문에 결국은 고객에게 가장 만족을 주는 서비스에 몰리게 될 거예요. 고객이 바보가 아니라고 생각하거든요. 마케팅 하는 거 그리고 하여튼 지금 이제 초기 단계라서 약간 그런 게 아닌가 생각합니다.▶안= 근데 저도 사실 마이데이터 관련해서는 그동안 원래 금융 산업에 기대한 거는 '금융 소비자에게 저렴한 비용으로 금융 주치의가 되는 자산관리 서비스를 제공해 준다'였거든요. 항상 자산관리는 VIP 고객만 향유할 수 있는 서비스였으니까요. 마이데이터가 산업으로 있게 되면 좀 더 핀테크나 저렴한 비용으로 개인들 소액으로도 얼마든지 자산관리 서비스를 받을 수 있다고 기대하고 있었는데. 사실 이런 서비스가 핀테크는 일부 좀 나오기는 하지만 아직 그 정도로 커 있는 것 같지는 않고. 그렇다면 이제 이런 역량이 큰 금융회사들 특히 은행들이 이런 서비스를 마이데이터를 통해서 할 수 있을 거라고 생각했는데 아직 그게 별로 피부에 느껴지지 않는 게 저는 좀 아쉽습니다.▶이=저도 동감입니다. 은행에서 그런 거를 할 만한데 잘 안 나오는 이유는 뭐가 있냐 그런 생각입니다.▶사회= 일반적인 자산관리라고 했을 때 우리나라 사람들은 무조건 수익률 높은 쪽으로 선택을 하려고 하고, 수익률 연 5~6%에는 만족을 못하는 것 같습니다. 수익률을 높이려고 하면 금융사 입장에서는 리스크가 커지기 때문에 권하기 어려운 측면이 있는데.지난달 19일 아시아경제에서 ‘은행의 미래 좌담회’가 열렸다.▶한 = 저희 국민은행 스타뱅킹이라고 모바일 앱이 있는데 여기에 이제 알림 서비스가 따로 있었어요. 알림 서비스로 '대출 이자를 지금 낮게 하실 수 있는데 어떻게 하시겠어요' 합니다. 그러니까 우리가 마이데이터의 핵심을 얘기할 때 '대출이 혹시 필요하지 않으세요'라는 말을 그냥 막연하게 모두에게 던지는 게 아니라 어떤 분이 저희 부동산 플랫폼에 들어와서 찾아보고 있다면 그런 분들한테 '주택담보대출을 어떻게 연결해 주겠다'는 푸시 알림이 가는 거죠. 그래서 푸시 알림을 굉장히 유연하게 할 수 있도록 넣었고 그 푸시 알림으로 대화형으로 뭔가 진행될 수 있게 가고 있습니다.그게 되면 이제 '마이데이터에 내가 데이터 활용을 동의해줬더니만 얘들이 내 정기예금으로 돼 있던 상품을 저축은행 정기예금으로 갈아타라고 하네' 이런 경험을 하시게 될 겁니다. 그러면 은행 정기예금으로 퇴직연금에 넣어놓으면 금리가 1.5%인데 저축은행은 2%네 그러면 0.5%포인트가 더 생기는 거니까 고객에게 이익이 됩니다.'금산분리' 어디까지 풀어야 하나 ▶사회=금산 분리 같은 경우는 이 박사님이 먼저 좀 얘기해 주실까요. 새 정부 입장은 거의 허용하겠다는 쪽인 것 같은데요.▶이= 굉장히 민감한 이슈라서 원론적으로 얘기하자면 이제 결국은 금산분리 최근에 이슈가 나오는 거는 은행과 테크 기업들이 경쟁을 하다 보니까 은행도 이제 플랫폼 비즈니스를 하겠다고 하니까 금산분리가 거기에 걸림돌로 작용을 하는 겁니다. 그런 문제들 때문에 결국은 점차 완화돼가지 않겠나 하는 생각은 드는데, 이게 여태까지 계속 지켜져 온 이유들을 봐야 합니다. 이제 금융 감독만으로는 해결하기 어려운 그런 리스크가 큰 문제가 있다는 것 때문에 이제 이걸 법으로 이렇게 막아놓은 거잖아요.소비자 후생을 늘린다는 측면에서 봤을 때는 소비자들의 입장에서도 여러 군데에서 종합적인 복합적으로 융합적인 서비스를 받고 싶다라는 측면에서, 이게 칸막이 되는 게 불편할 수도 있습니다. 이런 것도 점차 이제 완화돼 갈텐데 그럼 혹시 우리가 여태까지 이걸 막아놨었던 이유들을 잘 지킬 수 있느냐가 문제입니다. 막을 수 있는 장치들을 좀 마련해 가면서 논의를 해야 되겠죠.▶한 = 저는 창구 행원으로 들어와서 이제 한 30년 가까이 지금 은행 생활을 했는데. 저도 처음에 이제 은행에 들어왔을 때, 왜 우리는 삼성이나 이런 데도 은행이 좀 허락해서 우리도 좀 이렇게 월급도 많이 받고 좀 이렇게 혁신도 하고 이렇게 했으면 좋겠는데. 왜 이렇게 은행은 엄격하게 소유 구조를 막나 하는 생각을 젊을 때 좀 했었어요.그때 예를 들면 삼성이 어떻게 금융 들어온다면 난리날 것처럼 그랬거든요. 지금 이제 생각해 보니까 이제 금융하고 은행을 좀 나눠서, 은행은 기본적으로 판을 까는 비즈니스예요. 은행이 자기 자본 예를 들면 8% 갖는다, 그러면 이거 12배 이제 고객님들의 예금을 받아서 우리가 금융을 하는 건데 남은 돈으로 지금 하는 거 아닙니까. 그런데 자기하고 친한 기업에 돈을 몰아준다 그러면 이거는 불공정해지는 거죠. 효율적이지도 않고.한국은 특히 재벌 중심의 경제 구조다 보니까 그런 면에서 금산분리가 유지돼야 한다는 생각이고요. 다만 해외 진출할 때는 이게 영업 대상이 국내가 아니고 해외는 좀 테크 기업이나 다른 쪽이나 좀 더 과감하게 제휴해서 나가고 했으면 합니다. 그거는 현지에 그 나라들의 금융 규제도 있겠지만. 국내하고 해외를 좀 나눠서 보면 좋겠다는 생각입니다.또 하나는 은행들이 빅테크처럼 마케팅을 하겠다는 건 아니지만 테크나 데이터 쪽에 인력이나 인프라를 많이 확보하는 데 제일 좋은 방법이 기술회사를 인수하는 거거든요. 근데 그게 지금 은행법에서는 15%로 이렇게 제한돼 있다 보니까 불가능합니다. 금융사에 부응하는 기술로서 인수할 때 그걸 좀 열어주는 게 좋겠습니다.▶사회= 두 분은 본질적인 금산분리는 유지되는 게 바람직하지만 기술 인력 흡수를 위해 필요하다고 보시는군요.▶이=원칙은 유지하는데 이제 그런 기술이나 이런 건별로 필요한 부분에 있어서 좀 완화를 논의할 수도 있고. 그렇게 할 때는 감독으로 뭔가 혹시 부작용이나 리스크가 발생했을 때 감독으로 막을 수 있는 그런 대비책을 좀 마련해 놓고 하는 식으로 점차 바뀌어 가지 않을까 생각합니다.▶안= 은산분리와 관련해서는 산업의 은행에 대한 진출 부분도 있고 또 은행이 이제 일반 산업에 출자하는, 이제 후자에 관한 논의가 한국에서는 인수위원회와 금융위원회에서 아마 좀 적극적으로 보는 걸로 생각이 드는데요.지금까지는 은산분리라는 건 대개 산업의 은행에 대한 참여를 무딘 칼로 규제해왔다. 그러니까 소유 자체에 대한 제한을 통해서 여러 가지 사금고화라든가 금융 시스템 이런 부분들을 이제 고려했다고 한다면 이제는 시대가 좀 바뀌고 경제 구조가 바뀌는 부분에 상응하는 변화는 좀 필요하겠다. 왜냐하면 제일 먼저 그 부분이 이제 조금 수정된 게 인터넷 전문은행이죠.인터넷 전문은행은 이제 산업 회사들이 주주로도 들어오는 거고요. 지금처럼 이제 은산분리가 새로운 의미의 은산분리가 오히려 지금 대두된다, 즉 플랫폼 기업들이 오히려 이런 은행과 같은 기능을 했을 때 기존 은행 산업의 은산분리로 인해서 여러 우려되는 상황들이 비슷하게 등장할 수도 있기 때문에 이런 새로운 신규 리스크, 빅데크로 인해서 야기되는 새로운 리스크가 발생하는 부분들도 있습니다.어떻게 보면 종전에 은산분리를 염려했던 그 리스크하고 좀 다르지만 뭔가 플랫폼 빅테크에 의한 이런 리스크를 고려해 본다면 어느 정도 새로운 의미의 은산 분리 수준의 규제가 모색이 돼야 하지 않나 생각합니다.은행들도 자회사로 IT기술 관련 회사의 출자를 지금보다는 좀 더 적극적으로 해서 데이터 역량을 높이고 그다음에 기술과 관련된 발전에 대응할 수 있게끔 가는 것도 하나의 방법이 될 수 있습니다. 기술을 알아야 서로 견제할 수가 있는 부분들도 있고요.일본이 그런 입장인 것 같아요. 일본도 아까 이제 은산분리가 전혀 없다고 하지만 일본은 기본적으로 처음부터 어떻게 보면은 우리에 비해서는 일반 산업이 은행에 들어오는 거는 사실 막지는 않지만, 금융회사가 은행이 특히 일반 산업에 출자하는 거는 매우 제한적이거든요. 최근에 그 부분을 좀 풀었습니다.은행이 기술 관련 자회사에 투자하도록 한 것은 일본도 풀고 있고요, 그 다음에 일본은 하나 특이한 거는 이제 지역경제 발전에 도움이 되는 그런 비즈니스에는 들어갈 수 있도록 해줬거든요. 나라마다 사실은 은행이 자회사에 출자하는 거 관련해서는 꼭 은산분리이기 때문에 못한다, 이런 게 아니라 그 시대에 필요한 부분에서 문제를 해결해 주면서 부작용을 막는 쪽으로. 그래서 제가 볼 때는 꼭 IT에 관련된 회사뿐만 아니라 또 컨설팅 사업에도 들어갈 수 있게 해주고 있고요. 지역 경제 활성화를 위한 부분에도 출자할 수 있게 해주는 이런 방법으로. 어떻게 보면 현대적인 은산분리 하고 있다라고 봅니다.지난달 19일 아시아경제에서 ‘은행의 미래 좌담회’가 열렸다.▶사회= 세 분 모두 다 비금융이 은행을 진출하는 것에 대해선 부정적인 입장이군요.▶안= 저는 거기에 대해 좀 보수적인 입장입니다. 은행이 비금융에 들어가는 거는 이제 시대에 맞게 조금씩 경쟁력도 있어야 되니까, 적응해야 되니까, 생존하기 위해서는 필요한데요. 은행에 일반 산업이 들어오는 거는 한국은 제가 볼 때 왜 보수적일 수밖에 없냐면 영국은 그게 가능해요. 이해 상충에 관한 규제가 매우 세거든요. 거기는 뭐든지 할 수 있지만 사실 이해상충 소지만 있으면 각종 제재부터 다 가능합니다. 그런데 한국은 그 문화와 경험이 축적이 안 돼 있어요. 일일이 열거하지 않으면 이해 상충 인지조차 인지 못하는 경우들이 있는데요. 그런 면에서 이제 은행에 일반 산업이 들어오는 거는 아직은 조금 보수적으로 볼 수밖에 없다는 입장입니다.▶이 = 그렇죠. 아무래도 은행이 이제 일반 기업으로 나가는 그런 이슈들에 대해서는 좀 긍정적으로 생각해 볼 수 있는데 이 반대 쪽은 우리가 좀 더 들여다봐야 되는 부분입니다.▶사회= 종합지급결제업에 대해서는 한 소장님이 할 말씀이 많으실 것 같습니다. (종합지급결제업은 고객에게 계좌를 발급해 입·출금, 간편결제·송금 뿐만 아니라 급여 이체, 카드대금·보험료 납입 등 디지털 결제서비스를 일괄 제공할 수 있는 라이선스다. 예금과 대출을 제외한 상당수 은행 업무를 할 수 있다.)▶한 = 저는 전자금융거래법이라는 게 기존에 은행 계좌 또는 카드 계좌를 놓고 그 사이에서 좀 편리하게 고객님들이 결제를 편하게 하고 하는 그거를 매개해주는 관련된 법이 전자금융거래법인데, 은행 생태계를 이렇게 전자지급 결제 측면에서 도와주는 법으로서 포괄하기는 어려운 게 많이 들어 있다고 생각합니다. 대표적인 게 종합지급결제업이라고 생각을 하는 거죠. 저는 은행 생태계에 넣기보다는 디지털 금융법이나 이런 식으로 좀 떼서 생각하는 게 좋겠다고 봅니다.종합지급결제 부분은 디지털 금융법이나 이렇게 새로운 법제로 넣어서 사회적 합의로, 그러니까 우리 사회에서 기술이 강점인데 그럼 빅테크에게 금융을 어느 정도로 하게 하자. 그런데 어느 정도 감독을 하고 어느 정도 허용해 줄 건지 그거에 대한 심도 있는 논의를 해야 한다고 봅니다. 지금 국회나 이런 데서 논의하는 걸 보면 전자금융거래법이 통과 안 돼서 영세한 중소 핀테크들이 힘드니까 빨리 통과시키자 이렇거든요. 저는 그게 빅테크의 전략이라고 보는 거죠.그래서 빅테크와 핀테크를 빨리 좀 분리해서 보자. 종합지급결제 관련된 이슈는 떼내서 이거는 디지털 금융법 이런 걸로 하고 그걸 뺀 나머지 그러니까 지급 결제 생태계에서 은행들이나 그런 지급 결제를 하는 카드 이런 거 어떻게 조화롭게 서로 비즈니스를 할 거냐 그거에 관한 전금법은 이게 만들어진 지 꽤 됐으니까 빠르게 수정을 하는데, 종합지급 결제는 이상하게 덧붙은 것 같다, 이런 생각입니다.▶안 = 개인적으로는 저는 사실은 원래 이제 저희가 학교에서 상법을 처음 배울 때 이 결제, 지급. 이거는 어떻게 보면 은행의 고유 업무로 배웠어요. 환이라고 되어 있기 때문에 그런데 이제 이게 세상이 바뀌어서 핀테크가 되면서 지급과 관련된 부분, 결제는 아니지만. 지급과 관련된 부분은 이제 누구라도 할 수가 있는 거죠.핀테크든, 빅테크든 이 지급 기능을 이제 은행에서 어떻게 보면 이게 이제 기능별로 쪼개지는 현상이 나타난 거고요. 그 언번들링이라고 소위 얘기를 하죠. 기능이 분화되면서 그 다음에 이제 이 결제 관련된 부분에 있어서는 저는 결제는 인프라라고 봅니다.결제를 업으로 보기에는 매우 이거는 금융 시스템에서 굉장히 중요하다. 그런 점에서 이거를 업으로 접근하는 것은 나중에 누가 하느냐의 문제를 떠나서, 금융 시스템에서 결제가 차지하는 비중을 본다면 저는 입장이 디지털 금융법은 아니지만 이제 결제법이라는 것이 필요하지 않을까, 이렇게 생각을 합니다. 저는 원래 인프라로 접근하기 때문에 이렇게 업으로 얘기하는 거에 대해서는 고민이 좀 필요하다고 생각합니다.▶이 =논쟁이 있을 수밖에 없는 이슈인 것 같고요. 이제 금융 당국이 이걸 하는 건 이제 이 업에서도 뭔가 경쟁을 좀 높여보자는 의미에서 한 것 같고, 그 문제들을 지금 논의하고 있는 상태인 거잖아요.▶한 = 지금 현재 여당에서는 워낙 반발이 심하니까 한 걸음 물러선 게 뭐냐 하면 지급결제업을 무조건 이렇게 빅테크 해주는 게 아니라 디지털 금융협의회에서 협의가 되면 해준다 이렇게 했는데, 그게 제가 디지털 금융협의회에 가봤지만 그냥 N분의 1로서 이렇게 발언하는 건데 거기서 어떤 결정을 하고 할 수 있는 게 없거든요. 그래서 그러다 보니까 그거는 뭔가 의미 있는 의사 결정을 할 수 있는 건 아닙니다. 아직도 종합지급결제업에 대해서는 이해관계자들의 생각이 굉장히 치열하니까 그게 논란이 있는 거는 좀 빼내고, 그런데 이제 핀테크들은 굉장히 이제 어려운 게 있으니까. 지난번에 머지 포인트 사태도 있고 그래서 이걸 분리해서 그냥 전자금융법을 빨리 처리하면 어떨까 하는 게 제 생각입니다.금융노조에서는 네이버 법이라고 하는데 한국은 약간 오버 뱅킹의 나라입니다. 그니까 누구나 은행 계좌를 만들기가 굉장히 문턱이 낮은 나라예요. 영국이나 이런 데 가면 굉장히 문턱이 높습니다. 해외에서 유학 온 분들이나 그쪽에 영국 시민권이 없으면 은행 계좌 만들기가 참 쉽지 않습니다.그래서 핀테크한테 결제 계좌 비슷한 거를 레볼루트 같은 데 줬거든요. 그거를 한국에 적용해서 한국처럼 이렇게 은행 계좌 만들기 쉬운데 그거를 그것도 핀테크가 아니라 영향력이 굉장히 큰 빅테크한테 주겠다 하는 거는 이게 국민들이 이 부분을 잘 모르거든요.▶사회 = 소장님은 지급지시전달업(마이페이먼트) 정도까지만 하는 거는 동의하십니까.▶한 = 그럼요. 그거는 이미 지금 오픈 뱅킹이나 마이데이터로 상당히 그게 많이 돼 있습니다. 우리는 지금 영국 같은 그 단계를 안 거쳐도 되는 거예요. 사실 우리 고객님들은 이미 네이버나 카카오톡으로 모든 보내기나 결제가 다 된다고 착각을 하고 계세요. 그 뒤에는 다 은행이 움직이고 있는 거죠. 그렇게 이미 경험적으로 이해가 돼 버렸기 때문에 그거 한다고 해서 그게 큰 문제는 없다는 생각입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>카카오뱅크 "가상화폐 거래소와 제휴, 긍정적으로 검토중"</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004693842?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>순이자마진 2.22%…"중신용자 대출 이자 구성비 늘어""고신용자 대출도 검토 중""사업자 대출, 100% 비대면으로 구현"카카오뱅크가 가상화폐 거래소와의 제휴를 긍정적으로 검토하고 있다. 하반기엔 개인사업자 대출과 수신 상품을 출시해 글로벌 시장 진출을 본격적으로 준비할 계획이다.윤호영 카카오뱅크 대표는 3일 1분기 실적 발표 이후 진행된 컨퍼런스콜에서 "고객들이 가상자산을 금융상품의 하나로 투자하고 관리하고 있다"며 "고객의 주요한 자산으로 여겨지는 만큼, 가상자산을 어떻게 서비스나 비즈니스 형태로 제공할 수 있을지 긍정적으로 검토하고 있다"고 말했다.이날 카카오뱅크는 1분기 순이익이 668억원으로 전년 동기 대비 43.2% 증가한 것으로 잠정 집계됐다고 공시했다. 같은 기간 영업이익은 884억1400만원으로 63.8% 늘었으며 매출액은 3384억3900만원으로 50.5% 증가했다. 영업이익은 분기 기준으로 최대치다. 순이자마진(NIM)은 2.22%로, 지난해 4분기(2.13%)보다 상승했다. 윤 대표는 "신용대출에서 중신용자 대출의 이자 구성비가 늘어나면서 NIM이 늘어났다"며 "현재 상품별 대출금리는 전월세는 2%대 중반, 고신용은 4%대, 중저신용은 6~7% 수준"이라고 설명했다. 1분기 기준 중신용자 대출 비중은 약 20% 수준이다. 1분기 동안 62만명의 고객이 새롭게 유입된 가운데 뱅킹·플랫폼 비즈니스 확대가 이어졌다는 설명이다. 1분기 말 기준 카뱅 고객은 1861만명이다. 중·저신용자 대상 대출 잔액은 1분기 동안 2269억원 늘면서 2조6912억원으로 집계됐다. 주택담보대출은 1분기 말 기준으로 1100억원을 돌파했다. 주담대 실적이 예상보다 미미한 만큼 올해 목표치(주담대 2조~2조5000억원, 대출 성장률 10%중후반)를 하향 조정해야 하는 것 아니냐는 질문이 나왔다. 이와 관련해 윤 대표는 "2분기 이후 주담대 여러 조건을 완화하면서 주효한 성장을 달성할 것으로 예상되는 만큼, 연간 실적을 예측하긴 어렵다"며 "자산건전성을 감안해 주담대 및 전월세 담보대출의 비중을 크게 늘리고, 신용대출 비중을 낮춰가는 것이 목표"라고 밝혔다. 또 카뱅은 고신용자 관련 대출 재개도 검토하고 있다. 그는 "고신용자 관련한 대출을 건전성 측면에 있어서 검토하고 있다"며 "최근 중신용 대출 비중 수준과 주담대 비중 확대를 목표로 하고 있는 포트폴리오 전략과 대내외 변화 등을 고려하면서 판매 재개를 검토중에 있다"고 밝혔다. 올해 케이뱅크와 토스뱅크는 고신용자 대출을 재개했지만, 카뱅은 잠정 중단을 이어간 바 있다. 4분기엔 개인사업자 대출을 출시할 예정이다. 윤 대표는 "올해 4분기부터 개인사업자 수신과 대출 상품을 출시해 기업대출 시장에 진출할 준비를 하고 있다"며 "특히 개인자금과 사업자금을 구분해 관리하기 어려운 소상공인이 직관적으로 사용할 수 있는 사용자환경(UI)을 만들 것"이라고 말했다. 이어 "지점 방문이 쉽지 않은 자영업자 대상으로, 100% 비대면으로 서비스 완결성을 높이고자 한다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>토스뱅크, 노란우산공제 가입 사업자에 최대 0.5%p 우대금리</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013160541?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>중소기업중앙회와 맞손…'사장님 대출' 혜택[토스뱅크 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오주현 기자 = 토스뱅크는 노란우산공제에 가입한 개인사업자들이 자사의 '사장님 대출'을 이용하면 최대 0.5%포인트 우대금리를 제공한다고 6일 밝혔다.     한도는 기존 사장님 대출과 같이 최대 1억원이다.    토스뱅크는 주주사인 중소기업중앙회와 손잡고 보다 많은 소상공인, 개인사업자에게 사장님 대출 혜택을 늘리기로 했다고 설명했다.     중소기업중앙회는 중소기업, 자영업자의 자주적 경제활동을 지원하고 있다.    토스뱅크 사장님 대출은 휴·폐업 상태가 아닌, 사업자 등록번호가 있는 개인사업자 중 1년 이상 또는 최근 6개월 이상 매출이 발생한 사업자가 신청할 수 있는 상품이다.     대출 기간은 최소 1년부터 최대 5년(만기 시 연장 가능)이며, 언제든지 중도상환수수료 없이 갚을 수 있다.    토스뱅크 관계자는 "앞으로도 중소기업인과 소상공인에게 더 차별화된 서비스와 혜택을 제공하면서 서민금융 활성화를 위해 노력하겠다"고 말했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>KB국민은행, 금소연 선정 ‘좋은 은행’ 1위…SH수협銀 꼴찌</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003272480?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>KB국민 2018-2020년 1위지난해 1위 카뱅 2위로 떨어져금융소비자연맹(이하 금소연)이 12일 인터넷전문은행(카카오뱅크·케이뱅크)를 포함한 국내은행 18개 중 KB국민은행이 ‘좋은 은행’ 1위를 차지했다고 밝혔다. 가장 순위가 낮은 건 SH수협은행으로 전년도 대비 한 계단 떨어졌다.금소연은 해당 은행들의 공시자료를 분석해 안정성(40%)와 소비자성(30%), 건전성(20%), 수익성(10%)을 평가한 뒤 종합 순위를 매겼다. KB국민은 소비자성 평가에서 1위를, 수익성에서 4위를 차지했다. 안정성에서 5위를, 건전성에서 8위를 차지하며 고르게 높은 평가를 받았다.지난해 가장 좋은 은행으로 선정됐던 카카오뱅크는 안전성(1위)에서 가장 높은 점수를 받았고, 건전성(4위), 수익성(6위)에서도 좋은 평가를 받았지만 소비자성에서 17위를 받으며 1위 자리를 KB국민은행에 내주게 됐다. 6위였던 NH농협은행이 3위로 올라서며 KB국민과 카카오뱅크의 뒤를 이었고 부산은행은 전년도와 마찬가지로 4위 자리를 지켰다.인터넷전문은행인 케이뱅크는 5위에서 8위로 올라섰고, 하나은행도 15위에서 7위로 선방했다. 반면 한국씨티은행이 전년도 3위에서 11위로 크게 떨어졌고, BNK경남은행도 7위에서 17위로 추락했다. 인터넷전문은행인 토스뱅크는 지난해 10월 출범해 이번 평가 대상에 포함되지 않았다.좋은 은행 순위는 금융, 경영, 소비자 전문가로 구성된 평가위원회가 지난해 1월 1일부터 12월 31일까지 4대 부문(안정성·소비자성·건전성·수익성) 11개 항목으로 분류해 평가했다.안정성은 국제결제은행(BIS) 자기자본비율과 유동성 커버리지 비율을 기준으로 산정했고, 소비자성은 소비자 10만명당 민원 건수, 민원 증감률, 인지·신뢰도 설문 등을 토대로 평가했다. 건전성은 고정이하여신비율과 대손충당금 적립률로 평가했다. 수익성은 자산 증가와 금리 상승에 의한 예대마진 폭 확대 등에 의해 전반적으로 높아진 것으로 평가됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.05.11.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>닥터 스트레인지: 대혼돈의 멀티버스[시네프리뷰]</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/033/0000044039?sid=103</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>마블 최초 호러물? 샘 레이미 연출은 빛났다[주간경향]  전작에서 세 스파이더맨 시리즈의 ‘피터 파커들’이 한꺼번에 모인 마당에 여러 평행세계의 닥터 스트레인지가 출연하는 건 뻔히 예상되는 수순이었다. ‘멀티버스’라는 설정 때문에.제목 닥터 스트레인지: 대혼돈의 멀티버스(Doctor Strange in the Multiverse of Madness)제작연도 2022년제작국 미국상영시간 126분장르 액션 외감독 샘 레이미출연 베네딕트 컴버배치, 엘리자베스 올슨, 베네딕트 웡, 레이첼 맥아담스, 치웨텔 에지오포, 소치틀 고메즈 외개봉 2022년 5월 4일(전 세계 동시 개봉)등급 12세 이상 관람가월트디즈니컴퍼니 코리아뭐, 불가능할 게 있을까. 이미 전작에서 삼스파, 그러니까 토비 맥과이어와 앤드류 가필드, 그리고 마블 시네마틱 유니버스 시리즈의 톰 홀랜드가 연기한 스파이더맨, 즉 ‘피터 파커들’이 한자리에 모인다는 설정을 선보인 마당에 여러 버전의 닥터 스트레인지가 출연할 건 뻔히 예상되는 수순이었다. 이게 어떻게 가능했을까. 평행우주, 그러니까 멀티버스라는 설정을 도입하면서다.이번 작품엔 아예 제목으로 등장한다. 닥터 스트레인지라는 제목 옆에 콜론을 쓰고 ‘대혼돈의 멀티버스’라는 부제로. 〈스파이더맨: 노 웨이 홈〉(2021)에서 닥터 스트레인지가 열어젖힌 멀티버스 덕분에 이제 평행우주가 충돌하는, 때로는 주인공이 ─여기서는 닥터 스트레인지가 주인공이니 그가─ 넘나드는 본격적인 대환장 파티가 시작된다.평행세계의 존재를 깨닫는 법사실 ‘멀티버스’라는 개념을 도입하면 관객으로서는 복잡해지지만, 창작 입장에서는 아주 편해진다. 앞뒤 설정이 맞지 않는 ‘컨티뉴어티’ 문제도 그건 저쪽 평행우주에서 벌어졌던 일로 퉁치고 넘어갈 수 있으니까. 그렇다면 평행세계의 존재를 우리는 어떻게 알 수 있을까. 영화는 ‘꿈’이 다른 평행세계의 자신에게 벌어지는 일을 볼 수 있는 통로라고 주장한다.영화의 시작 장면. 닥터 스트레인지는 낯선 소녀와 함께 낯선 괴물을 피해 도망치고 있다. 꿈속에서 그는 괴물을 물리칠 방법은 비샨티의 책이라는 마법서를 통해 얻을 수 있다고 말하는데 최종 목적지가 코앞에 있는데 결국 괴물의 추격을 막지 못한다. 닥터 스트레인지(현재 지구의 닥터 스트레인지와 살짝 다른 외모를 하고 있다. 공식적인 이름은 디펜더 스트레인지. 베네딕트 컴버배치가 나중에 좀비가 되는 디펜더 스트레인지뿐 아니라 이 영화에 등장하는 모든 닥터 스트레인지 연기를 하고 있다)는 소녀에게 대의를 위해 소녀의 능력을 흡수해야 한다고 냉정하게 제안하고, 그것이 실현되려는 순간 소녀의 ‘능력’이 발동해 또 다른 멀티버스로 넘어간다. 그리고 자신의 침대에서 일어나는 닥터 스트레인지. ‘아! 시X 꿈’이다.그런데 꿈이 아니었다. 과거 연인이었던 크리스틴 팔머의 결혼식이 열리던 장소 근처에서 대소동이 벌어지고, 눈알 하나짜리 촉수 괴물 가르간토스에 쫓기던 그와 조우한다. 스트레인지와 웡은 괴물을 물리치고 소녀에게 저간의 사정을 듣는다. 소녀의 이름은 아메리칸 차베스. 멀티버스를 넘나드는 능력을 지녔다. 차베스는 여러 평행우주의 닥터 스트레인지를 만난 전력이 있다. 이미 전작 ‘삼스파’를 통해 멀티버스의 ‘대환장’을 경험했지만, 여전히 반신반의하던 스트레인지는 어벤져스 멤버 중 그나마 전문이었던 완다를 찾아가 도움을 청하려 한다. 그런데─여기서부터는 스포일러다─ 범인은 완다였고, 자신이 상상 속에서 만들어낸 두 아이의 꿈을 꾼 완다는 어딘가의 평행세계에서는 실제 두 아이가 살아 있다고 믿고, 그 아이들과 만나기 위해 아메리칸 차베스의 능력을 흡수하려는 계획을 세웠다. 이제 소녀를 빼앗아가려는 완다의 흑화(黑化) 버전 스칼렛 위치와 그를 막으려는 닥터 스트레인지와 웡 등의 싸움이 시작된다. 현재의 지구가 아니라 평행세계를 가로질러 다른 지구를 넘나드는 싸움이다.예전 마블 시네마틱 유니버스 영화들과 달리 상영시간은 2시간 6분으로 짧은 편이다. 시리즈의 열혈 팬이라면 아쉬워할지 모르지만 담을 만한 이야기는 다 담았다고 본다.흑화된 ‘스칼렛 위치’와의 대결흥미로운 건 삼스파 시리즈의 맨 앞에 위치한 토비 맥과이어 주연의 스파이더맨 시리즈를 감독한 샘 레이미가 영화의 연출을 맡았다는 점이다. 아무래도 공포영화 전문 감독이다 보니 괴기스러운 연출이 돋보인다. 장편 데뷔작 〈이블데드〉(1987)를 연출한 때부터 35년이 흘렀으니 이제는 노장감독이라는 타이틀이 붙을 만도 한데, 여전히 기괴하고 뒤틀린 무서운 이야기를 연출하는 실력은 녹슬지 않았다. 전작이나 디즈니플러스에서 방영한 마블 유니버스 드라마 〈완다비전〉을 보면 영화의 설정이나 완다의 ‘흑화’를 더 깊게 이해할 수 있다. 〈완다비전〉 9회의 부가영상을 보면 완다는 자기 아이들이 너무 그리운 나머지 악의 마법서 〈다크 홀드〉를 읽고 만다.눈요깃거리는 확실하다. 시사회는 개봉 하루 전 리뷰 엠바고를 달고 열렸는데 IMAX 3D로는 만들지 않았다고 하지만 3D 버전의 영화도 있다고 하니 다시 한 번 보고 싶다. 샘 레이미 감독 대표작 〈이블데드〉 시리즈의 자기 인용경향자료마블 시네마틱 유니버스 시리즈가 부담스러운 건 이 한 작품을 보기 위해 수많은 갈래로 뻗어나가는 다른 전작들을 ‘참고’해야 한다는 점이다. 게다가 이제는 영화만이 아니다. 디즈니플러스TV라는 OTT 전용 콘텐츠인 〈완다비전〉이나 〈로키〉도 필견이라고 한다. 그것 때문에 넷플릭스나 왓챠 이외에 저 채널도 가입해야 한다는 말인가, 라고 버거워할 만하다.막상 영화를 보니 그 정도까진 아니다. 만일을 위해 보고 극장에 들어갔지만, 딱히 전작들을 안 봤다고 하더라도 스토리를 이해하기 어려울 정도까지는 아니다. 거기에다 지난해 개봉한 〈페이즈 4〉 전작들 〈샹치와 텐 링즈의 전설〉과 〈이터널즈〉도 다른 이야기와 엮이려면 시간이 필요할 듯싶다. 영화에서 오히려 눈에 띄는 건 샘 레이미 감독의 전작들 인용이다. 영화에서는 평행세계 지구 838에 간 닥터 스트레인지와 아메리칸 차베스가 거리의 피자장수를 만나는 장면이 나오는데 피자값을 요구하는 그에게 스트레인지는 3주 동안 손으로 자신의 얼굴을 때리는 마법을 건다. 샘 레이미 감독의 팬이라면 〈이블데드 2〉의 주인공 애쉬가 자신의 손에 악령이 깃든 뒤 자꾸 얼굴을 쥐어패는 손과 혈투를 벌이다 나중에 자신의 손을 샷건으로 쏴버리는 장면을 기억하고 있을 것이다(사진·이 애쉬의 ‘환각’신은 공포영화사(史)에서 유명한 장면이다). 마블 시네마틱 유니버스 시리즈 말미엔 항상 2개의 부가영상이 붙어 있는 걸 팬이라면 기대하리라. 두 번째 부가영상에서 그 피자 노점장수의 얼굴이 공개되는데 그는 바로 샘 레이미 감독의 페르소나이자 이블데드의 주인공인 브루스 캠벨이었다. 〈스파이더맨: 노웨이 홈〉의 ‘삼스파’ 출연 루머와 함께 이번 샘 레이미 연출작에서 브루스 캠벨 출연 루머가 있었는데 이 역시 실현된 셈이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>토스뱅크, 노란우산공제 가입 자영업자에 0.5%포인트 우대금리</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002589606?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공토스뱅크가 노란우산공제에 가입한 개인사업자에게 최대 0.5%포인트 대출 우대금리를 제공한다.토스뱅크는 6일 보도자료를 내어 “중소기업중앙회와 손잡고 보다 많은 소상공인, 개인사업자에게 ‘사장님 대출’의 혜택을 확대한다”고 밝혔다. 토스뱅크는 노란우산공제에 가입한 소상공인, 자영업자 등 개인사업자가 이 은행의 대출을 받으려고 할 때 최대 0.5%포인트 우대금리를 제공한다. 한도는 기존 토스뱅크의 ‘사장님 대출’과 같이 최대 1억원이다.토스뱅크의 ‘사장님 대출’은 사업자 등록번호가 있는 개인사업자 가운데 현재 휴·폐업 상태가 아니고, 최근 6개월 이상 매출이 발생한 경우면 신청할 수 있다. 대출 기간은 최소 1년부터 최대 5년(만기 시 연장 가능)이다. 중도상환수수료는 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.05.13.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>현대카드, 코로나 끝나도 재택…금융권 출근 바뀌나</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003703788?sid=102</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>'내일부터 회사는 50% 재택근무. 사무실이 조금 썰렁하게 됐다. 내가 집집마다 돌면서 제대로 근무하는지 확인할 거야'2020년 2월 정태영 현대카드 부회장이 사회관계망서비스(SNS)에 올린 글입니다. 재택근무를 바라보는 경영인들의 생각을 엿볼 수 있는데요. 그런 와중에 현대카드가 거리두기가 해제됐지만 5월부터 상시 재택근무를 도입하기로 했습니다. 국내 금융권 중 최초입니다.자유 지정석인 현대카드 사내 디지털 오피스. /현대카드 홈페이지 캡처 이 제도는 일괄적으로 재택 일수를 정해놓는 방식에서 한 단계 발전했습니다. 부서와 직무의 특성에 따라 사무실 근무 필요 정도에 따라 조직을 3개 그룹으로 분류했습니다. 온사이트와 하이브리드, 리모트 그룹이 있습니다. 먼저 사무실 근무가 중요한 ‘온사이트'(On-site)’ 조직은 매달 근무일의 20%까지 재택근무를 할 수 있습니다. 상대적으로 비대면 소통이 더 가능한 ‘하이브리드(Hybrid)’ 조직은 월 30%까지 가능합니다. 대면 업무가 굳이 필요하지 않은 ‘리모트(Remote)’ 조직은 월 40%까지 집에서 근무할 수 있습니다. 임산부와 같이 별도 보호가 필요한 직원은 월 근무일의 50%까지 집에서 근무하도록 했습니다. 현대카드를 시작으로 보수적인 금융권에도 재택근무 제도가 확산되는 것 아니냐는 전망도 나오고 있습니다.◇보안망 까다로운 은행권은 어떻게?은행권은 재택근무 비중이 상대적으로 낮습니다. 한 시중은행 본사에서 근무하는 김모 차장은 “영업점에서 본사로 걸려오는 문의 전화만 하루에 20통이 넘는다”며 “그런데 담당 직원이 재택근무라 전화연결을 돌리면 문의 사항을 해결하는데 시간도 더 걸리고 불편함도 배가 된다”고 했다. 그는 “이런 일이 반복되면 지점 불만도 생길 수 있어 재택근무는 최대한 자제하는 편”이라며 “은행은 90%가 영업점이고, 본사 인력이 10%기 때문이다”고 덧붙였습니다.은행권에서도 원칙상으로는 원격근무를 허용하고 있습니다. 하지만 업계 내부 분위기 상 영업장에서 본사로 전화올 일이 워낙 많아 본사에서도 재택근무를 긍정적으로 보진 않습니다. 20%, 40%로 정해 둔 비율도 파견 중인 직원은 제외하고 셉니다. 예컨대 팀원이 10명인 부서에서 2명이 파견 근무를 하고 있다면 8명을 기준으로 재택 비율을 계산하는 겁니다.또 업무 특성상 보안이 중요해서 재택근무가 단기간에 확산되기 어렵다는 분석이 많습니다. 은행권의 망분리 규제가 점차적으로 풀릴 예정이지만, 아직 은행에선 보안망을 활용해야 업무를 볼 수 있습니다. 보안망을 이용할 땐 인터넷도 할 수 없습니다. 신한은행의 경우 개인 컴퓨터엔 보안망을 깔 수 없습니다. 회사 컴퓨터에만 보안망을 깔 수 있습니다. 또 회사 보안망을 이용할 땐 스타벅스와 같은 카페처럼 공유 무선 와이파이는 사용할 수 없습니다. 사실상 재택근무를 하기가 매우 어려운 환경입니다.재택근무 비율을 유지하는 국민은행. /국민은행 제공그럼에도 은행권의 언론 발표를 보면 표면상 재택근무를 완전 없애진 않았습니다. 국민은행은 본점 인원의 20%를 대상으로 원격근무 형태를 유지하기로 했습니다. 대면회의 자제, 행사 최소화, 회식 금지도 유지합니다. 이재근 국민은행장은 최근 한 언론 인터뷰에서 “코로나19를 2년간 겪으면서 업무 시스템이 많이 바뀌었다”며 “코로나19가 끝나도 재택근무를 없애지 않을 것”이라고 했습니다. 신한은행도 4월 25일부터 본부부서 인원의 30%를 대상으로 이원화 근무를 권장하기로 했습니다. 회의는 거의 비대면으로 하고 있습니다. NH농협은행도 본점 인원의 30% 정도가 분산근무를 하는 현재 시스템을 당분간 지속하기로 했습니다. 분산근무는 재택근무나 대체 사업장 출근과 같은 형태로 이뤄집니다. 우리은행과 하나은행은 4월 18일부터 분산 근무를 축소하는 쪽으로 방향을 틀었습니다. 우리은행은 원래 본점 인원의 30%가량을 대체 사업장에 분산해 근무하도록 했는데요. 대체 사업장 근무를 4월 18일로 종료했습니다. 순번을 정해 재택근무를 시키던 것도 부서장 재량에 맡기는 쪽으로 바꿨습니다. 하나은행은 본점 인원의 20%정도를 분산근무를 시켰지만 앞으론 부서마다 자율로 맡기기로 했습니다. 없애기로 한 것은 아니지만 사실상 분산근무는 끝나가는 분위기인 거죠.재택근무를 유지하는 카카오뱅크와 토스뱅크. /각 사 홈페이지 캡처인터넷전문은행은 분위기가 다릅니다. 카카오뱅크와 토스뱅크는 코로나19 전부터 자율적으로 재택근무를 운영해왔습다. 카카오뱅크는 주 40시간 근무 기준만 지키면 되고 토스뱅크는 주 52시간만 지키면 됩니다.◇증권사는 어떻게?증권사 중엔 한화투자증권이 거의 유일하게 상시 재택근무 체제를 유지하고 있습니다. 한화투자증권은 2021년 하반기부터 ‘스마트 워크’ 제도를 시행하고 있습니다. 주 3회를 고정적으로 재택근무를 합니다. 기존 사무실도 이에 맞게 새롭게 꾸몄습니다. 대면회의와 화상회의에 특화된 회의실을 마련했습니다. 재택근무를 하는 직원들과 원활하게 소통하기 위해서 입니다.화상회의실에서 온라인으로 회의를 진행하는 한화투자증권 직원들. /한화투자증권 홈페이지 캡처그 외 증권사는 분위기가 다릅니다. 대부분 4월 18일 정부의 사회적 거리두기 해제 발표 이후 사무실 출근을 다시 시작했습니다.키움증권과 대신증권도 사무실 출근을 하도록 했습니다. 키움증권은 일부 비대면 화상회의도 대면 회의로 변경했습니다. SK증권도 특별한 이유가 없으면 정상 출근이 원칙입니다. 돌봄이 필요하거나 사유가 있는 경우에만 재택근무를 허용합니다.재택근무를 없앤 하나금융투자. /조선DB그동안 정부 방역 지침에 따라 부서별 재택근무를 병행했던 한국투자증권도 지난 3월 28일부터 전면 출근 근무를 시작했습니다. 메리츠증권도 최근 정상 출근 근무 체제로 돌아갔습니다. 하나금융투자도 30%로 유지하던 재택근무 비중을 4월 18일 이후로 없앴습니다. ◇금융계도 집 주변 사무실로 출근?금융가에서 새로운 선택지를 만들고 있습니다. 재택과 본사의 중간인 ‘거점 오피스’입니다. 이번에 현대카드는 상시 재택근무 뿐 아니라 거점 오피스를 시작한다고 밝혔습니다. 현재 현대카드의 본사는 여의도입니다. 올 6월에 서울 2호선 강남역 주변에 현대카드 거점 오피스를 열 예정입니다. 재택근무와 사무실 출근 이외에 새로운 선택지가 생기는 겁니다. 서울 동남권과 근교 거주 직원의 출퇴근 부담을 줄여줄 것으로 보입니다.스마트워크플레이스를 운영하는 신한카드. /채널A 뉴스 캡처신한카드는 재택근무 비율은 줄였지만 지역거점 오피스를 늘렸습니다. 지방에서도 장소 제약 없이 본사 업무를 볼 수 있는 '스마트워크플레이스(SWP)'를 5곳에서 운영합니다. 부산, 대전, 대구, 제주, 인천에 있습니다. 자택 인근 오피스와 본사를 오가며 자유롭게 근무할 수 있는 '선택형 SWP'도 수도권 중심으로 시작했습니다. 앞으로 여의도가 아닌 집 주변 공유 오피스로 출근하는 금융계 직장인들을 많이 볼 수 있을 것 같습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>"3대 신산업 6개사 시총, 中텐센트의 3분의 1…규제가 발목 잡아"</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013160675?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>경총, 온라인플랫폼·바이오·핀테크 관련 규제 개선 촉구한국경영자총협회[한국경총 제공](서울=연합뉴스) 박성민 기자 = 온라인 플랫폼과 바이오·헬스, 핀테크 등 우리나라 3대 신산업의 경쟁력이 각종 규제 탓에 발목이 잡혀있다는 진단이 나왔다.    한국경영자총협회는 6일 발표한 '우리나라 주요 신산업 규제 개선방안 보고서'에서 "과도한 규제로 우리나라 신산업의 경쟁력이 점점 뒤처지고 있다"고 분석하면서 선제적인 규제개혁을 통한 혁신 환경 조성이 필요하다고 주장했다.    경총에 따르면 네이버, 카카오, 삼성바이오로직스, 셀트리온, 카카오페이, 토스 등 3대 신산업의 국내 대표 6개사의 시가 총액 합계는 195조3천억원으로 중국 빅테크 기업인 텐센트 시가 총액(630조4천억원)의 3분의 1 미만으로 나타났다.[그래픽] 3대 신산업 국내외 주요기업 시가총액 현황(서울=연합뉴스) 김영은 기자 = 0eun@yna.co.kr    트위터 @yonhap_graphics  페이스북 tuney.kr/LeYN1[한국경영자총협회 제공. 재판매 및 DB 금지]또 미국, 중국, 영국 등 주요국에서는 유니콘 기업(기업가치 1조원 이상 비상장기업)이 꾸준히 탄생하고 있지만, 우리나라는 전 세계 유니콘 기업의 1.14%(1천51개 가운데 12개)에 불과하다고 경총은 전했다.    경총은 온라인 플랫폼의 경우 "주요국은 선(先) 산업 육성 후 부작용에 대한 최소 수준의 규제를 논의하는 반면 우리나라는 해외보다 유효한 경쟁이 이뤄지고, 산업 발전 초기 단계임에도 과도한 규제 도입이 추진되고 있어 기업활동 위축과 입점업체 및 소비자의 후생 저하가 우려된다"고 지적했다.    매출액 1천억원 이상 기업에 대한 규제 입법(공정위 안)을 비롯해 다수의 광범위한 규제 법안이 현재 국회에 계류 중이며, 내용 측면에서도 기업에 정보공개·표준계약서 등 각종 의무를 부과하고 금지조항을 신설하고 있다는 게 경총의 주장이다.    이에 경총은 "국내 플랫폼 기업들이 글로벌 기업으로 성장할 수 있도록 경쟁국보다 과도한 규제를 지양하고, 정부의 개입을 최소화하는 민간주도의 자발적 자율규제로 선 산업 육성·발전을 도모해 나가야 한다"고 제안했다.    경총은 원격의료와 관련해서는 "경제협력개발기구(OECD) 38개국 중 원격의료 금지국은 우리나라를 포함해 6개국에 불과하다"며 "이미 선진국은 원격의료를 넘어 디지털 헬스케어 산업으로 비대면 의료산업을 육성·발전시키고 있는 반면 우리나라는 1988년부터 35년째 원격의료에 대한 시범사업만 진행 중"이라고 밝혔다.    그러면서 "코로나19 팬데믹으로 원격의료 필요성에 대한 국민 공감대가 형성됐으므로 의료법 개정을 통한 환자-의료인 간 원격의료 허용으로 디지털 헬스케어 산업의 육성·발전을 견인해야 할 것"이라고 촉구했다.    핀테크와 관련해서는 강력한 망 분리·개인정보보호·금융규제 등 사전적 포지티브 규제로 인해 글로벌 경쟁력 확보가 어렵고, 유니콘 기업의 등장도 매우 드물다고 경총은 토로했다.    경총은 이에 망 분리 규제 완화 조속 추진, 핀테크 산업 관련 규제의 네거티브 방식 전환 등을 통해 금융업과 타 산업 간의 융합·발전 환경을 조성하는 것이 필요하다고 제언했다.    경총은 특히 차세대 성장동력 확보를 위한 혁신 생태계 조성을 위해 ▲ 기업 성장 단계별 규제 장벽 해소 ▲ 민간주도 자발적 자율규제로 선 산업 육성 환경 조성 ▲ 첨단 기술 융복합 산업 규제 해소를 위한 규제 총괄기구 신설 등을 개선 방안으로 내놓았다.[한국경영자총협회 제공. 재판매 및 DB 금지]이형준 경총 본부장은 "디지털 전환과 잠재성장률 하락이 빨라지면서 신산업 분야의 규제개혁은 더는 미룰 수 없는 시대적 과제가 됐다"며 "부처별 중복·칸막이 규제를 해소하고 국민 편익 증대와 투자 및 고용 창출을 고려한 범부처 차원의 규제개혁을 추진해야 한다"고 말했다.    이 본부장은 이어 "새 정부는 신산업에 대해 원칙 허용, 예외 금지의 네거티브 규제 원칙을 적용함으로써 차세대 성장동력 산업의 탄생과 발전을 위한 혁신 환경을 조속히 마련해주길 기대한다"고 덧붙였다.    min22@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.05.07.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>토스 ‘10억’ 스타트업 서바이벌 경진대회 ‘파운드’, 첫 영상 공개</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005209647?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[이데일리 김현아 기자] 금융앱 ‘토스’를 운영하는 비바리퍼블리카가 시작한 스타트업 경진대회 ‘(FOUND)’의 첫 영상이 어제(지난 6일) 유튜브에서 공개됐다.이 대회는 토스가 국내외에서 유망한 예비 창업가와 스타트업 기업을 발굴하고 스타트업 생태계에 활력을 불어넣기 위해 마련한 것. 총 투자금은 10억 정도다. 이번에 공개한 1화에서는 토스 이승건 리더, 안지영 프로덕트 오너, 서현우 전략 헤드가 파트너로 참여했다. 박재욱 쏘카 대표, 신현성 차이홀딩스 대표이자 티몬 의장, 이상희 센드버드 한국 법인 대표도 파트너로 함께 한다. 벤처캐피털리스트인 이한주, 김유진 스파크랩 공동대표, 김한준 알토스벤처스 대표, 박희은 알토스벤처스 파트너, 오지성 뮤렉스파트너스 부사장 등도 포함됐다.1회에서는 파트너들 앞에서 파운더들이 40초 동안 자신의 사업 아이템에 대해 소개하고 심사받는 ‘엘리베이터 매치’가 진행됐다. 각 파운더들(예비참업자·스타트업 경영자)은 엘리베이터 안에서 파트너와 만나 짧은 시간에 아이템을 소개해야 하는데, 파운더라이트가 총 60개여서 이를 획득한 기업만 라운드2에 진출한다.이날 1차전에서는 생체정보를 읽는 조끼를 만든 돌봄드림, 영상 콘텐츠를 실시간으로 확인하고 최저가로 물건을 살 수 있는 라이즈이엔엠 등이 통과했다.이승건 토스 리더(창업자)는 “사실 저희가 핀테크 회사여서 웹3.0과 가까워져야 하는데 이해가 안된다. 마치 공룡이 된 느낌”이라고 언급했고, 서현우 전략헤드는 “(웹3.0을 하자고 하는데 이승건 리더가) 모르겠다고 한다”고 거들었다. 이 리더는 또 “(파운드 프로젝트는)실무자가 결정했다”면서 “5년 동안 고생하다가 6년 차에 토스를 시작했는데 돈 떨어지는 게 아니면 모든 것이 과정에 불과하다. 끈기를 가지고 하다 보면 운이 온다”고 언급하기도 했다. 스타트업포럼 의장인 박재욱 쏘카 대표는 “스타트업은 작은 문제에 천착해 그걸 바로 해결하는 곳인데 여러 가지로 봉사하고 싶다”고 말했다. 한편 파운드 프로젝트를 통과한 스타트업 인에게는 총 10억 규모의 투자가 차등적으로 이뤄지며, 대회 종료 이후에도 성장을 위한 코칭, 파트너십 등 혜택이 제공된다. 경연 과정은 총 6회 분량의 영상으로 제작돼 토스 유튜브 채널에서 스트리밍 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.05.01.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>네이버페이 후불결제 1년…‘연체율’ 신용카드의 2배</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003269723?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>금융소외 계층 위한 서비스“신용평가 미반영…악용 위험”네이버페이네이버페이의 후불 결제 서비스(BNPL·Buy Now Pay Later) 연체율이 신용카드 신용 판매 연체율의 두 배나 되는 것으로 나타났다. 연체 정보가 개인 신용평가 등에 반영되지 않은 점을 이용해 일부러 이를 악용할 수 있다는 지적이 나온다.1일 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융감독원에서 받은 자료에 따르면 지난 3월 말 기준 네이버페이 후불 결제 연체율은 1.26%로 국내 카드사의 지난해 말 신용판매 연체율(0.54%)과 비교했을 때 두 배 이상이다. 연체율은 전체 후불 결제 그액 중 결제일 기준으로 30일 이상 연체된 금액의 비율을 말한다.빅테크들의 선구매 후결제(BNPL) 시스템은 금융 소외계층에 소액신용 기회를 제공하기 위한 것으로 개인별 월 한도는 30만원이다.네이버페이는 지난해 4월부터 네이버 포인트로 물품을 구매했을 때 포인트 충전잔액과 대금결제액 간 차이(결제부족분)을 추후에 상환할 수 있도록 했다. 카카오페이의 경우 올해 1월부터 월 15만원 한도로 버스·지하철 후불 결제 시스템을 시행하고 있다. 토스(비바리퍼블리카)도 지난 3월부터 후불 결제(최대 월 30만원)를 시작했다. 이들 기업들은 연체채권을 사실상 회사 손해로 계산하고 있다.후불 결제 이용자가 결제 금액을 5일 이상 연체하면 간편결제사는 신용평가(CB)사에 연체정보를 등록하고, 서비스에 등록된 계좌에서 출금을 시도한다. 그러나 이 정보는 개인신용평가에는 반영되지 않고 대안신용평가시스템 개발·운영에만 쓰인다. 해당 사업자들이 기존 카드사의 연체 정보도 공유받지 않고 있어 이를 노린 이용자가 후불 결제 금액을 최대 한도로 쓰고 갚지 않는 식의 악용이 가능하다는 지적이 나오는 것도 이 때문이다.윤 의원은 “신용정보가 부족한 신 파일러(금융거래가 없어 관련 서류가 없거나 얇은 상태의 금융고객)와 청년층에 유용한 서비스”라면서도 “연체 정보가 외부로 알려지지 않는다는 허점이 악용되지 않도록 후불 결제 제공회사 사이 정보공유 방안이 마련돼야 한다”고 말했다.네이버파이낸셜 관계자는 “카드사의 월 결제 한도가 수백~수천만원인 것과 달리 네이버페이의 후불 결제 한도는 월 30만원에 불과해 연체율이 높게 나타나는 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>넥슨, 이용자 콘텐츠 공모전 ‘블루 아카이브 어워즈’ 개최…이색적인 부문 선봬</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/311/0001446549?sid=004</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>(엑스포츠뉴스 최지영기자) 넥슨이 이용자 콘텐츠 공모전 ‘블루 아카이브 어워즈’를 진행한다.10일 넥슨 측은 자회사 넥슨게임즈(대표 박용현)에서 개발한 서브컬처 게임 ‘블루 아카이브’의 이용자 콘텐츠 공모전 ‘블루 아카이브 어워즈’를 개최한다고 밝혔다.공모 부문은 ‘인테리어 전문가’, ‘학원 최고의 시인’, ‘키보토스 예술가’, ‘샬레 행동대장’ 등 총 네 개 부문으로 22일까지 응모할 수 있다. 모든 공모 부문은 중복으로 참여 가능하며 최종 수상작은 27일에 발표한다.‘인테리어 전문가’ 부문은 게임 속 ‘샬레 부속 카페’를 자신만의 방법으로 꾸며 참가할 수 있고, ‘학원 최고의 시인’은 25자 이내로 ‘블루 아카이브’를 표현하여 응모할 수 있다.‘키보토스 예술가’에서는 ‘블루 아카이브’ 세계관 및 ‘0.5주년 페스티벌’을 주제로 글, 그림, 영상, 음악, 피규어 등 다양한 형태로 작품을 제작해 응모할 수 있다. ‘샬레 행동대장’ 부문에서는 실제 일상 속 ‘블루 아카이브’를 표현하여 참여할 수 있다.수상작은 게시글 추천수, 심사를 통해 선정되며 대상 수상자에게는 ‘청휘석 3,600개’, 구글 기프트 카드(30만 원)을 지급한다. 금상, 특별상, 행운상 수상자에게도 ‘청휘석’, 구글 기프트 카드 등을 제공하며 공모전에 참여한 모든 이용자에게 부문별로 ‘청휘석 200개’를 선물한다. 또, 어워즈 수상작은 27일부터 이벤트 페이지에 전시할 예정이다.넥슨 최지승 퍼블리싱마케팅 팀장은 “‘블루 아카이브’를 사랑해주시는 이용자분들을 위해 색다른 공모전을 준비했다”라며 “이용자분들의 넘치는 개성과 발랄한 아이디어를 마음껏 펼쳐 보시기를 바란다”라고 전했다.사진=넥슨</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>오늘의집 '프리미엄 전문관'…300개 브랜드 7000개 상품</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011161076?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 오늘의집 '프리미엄 전문관'. (이미지=오늘의집 제공) 2022.05.03. photo@newsis.com[서울=뉴시스] 배민욱 기자 = 라이프스타일 앱 오늘의집은 국내·외 유명 프리미엄 브랜드 상품을 모은 '프리미엄 전문관'을 운영한다고 3일 밝혔다. 가구, 조명, 패브릭, 가전, 주방, 빈티지 등 여러 라이프스타일 카테고리의 상품들이 선보인다. 오늘의집 프리미엄 전문관에서 고객들은 국내외 프리미엄 브랜드 300여곳의 7000여개 상품을 만나볼 수 있다. USM, 프리츠한센, 칼한센앤선, 헤이, 아르테미데 등 해외 유명 브랜드와 레어로우, 몬스트럭처, 사무엘스몰즈 등 국내 브랜드를 만나볼 수 있다. 에이치픽스, 인노바드, 베뉴페, 보블릭, 원더라움 등 인기 오프라인 편집숍도 입점한다.  인기 상품에 한해 국내 재고를 확보, 오늘의집 배송 뱃지가 부착된 상품을 구매하면 다음날 바로 받아볼 수 있다. 무료 배송으로 진행된다. 추가 조립 비용 부담도 없다. 오늘의집은 프리미엄 전문관 오픈을 기념해 'O! 프리미엄 위크' 프로모션을 실시한다. 15일까지 조명, 아웃도어, 디자인 가구 등 다양한 카테고리의 상품을 최대 74% 할인된 국내 최저가로 판매한다. 이벤트 기간 중 신한카드를 통해 프리미엄 상품을 구매할 경우 최대 10만원 한도 내에서 5% 추가 할인이 적용된다. 카카오페이, 토스, 네이버페이, 페이코, 차이 등 간편 결제 이용 시 최대 1만원 즉시 할인도 제공된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.05.11.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>만취해 대리비 280만원 이체 했는데 기사는 연락두절...돈 돌려받은 방법</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004744274?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[예금보험공사, 지난해 7월부터 착오송금반환지원 운영...33억원 제주인 찾아]경찰청, 서울시, 한국도로공사 관계자들이 14일 오후 서울 강남구 도산대로 일대에서 음주단속 및 과태료 고액·상습 체납, 고속도로 통행료 체납 차량을 단속하고 있다. /사진=뉴시스지난 3월 A씨는 회식 후 만취상태로 대리운전 서비스를 이용했다. 집에 도착한 A씨는 현금이 부족하다는 것을 깨닫고 온라인 송금으로 대리운전 기사에게 대리 비용을 냈다. 다음날 술이 깬 A씨는 대리비용으로 2만8000원이 아닌 280만원을 보낸 사실을 알게 됐다. 황급히 대리운전 기사에게 전화를 했으나 연락이 닿지 않았다. A씨는 결국 예금보험공사의 착오송금반환지원을 신청한 끝에 대리비용을 제외한 금액을 반환받을 수 있었다. 예보는 지난해 7월부터 실수로 잘못 송금한 금액을 반환받을 수 있도록 돕는 '착오송금반환지원제도'를 운영 중이다. 11일 예보에 따르면 지난달 말까지 8862건의 반환신청이 있었고, 이중 2649건이 반환됐다. 33억원이 제주인을 찾아갔다. 월평균 294건, 3억7000만원이 반환됐다. 반환된 건수 중 2564건은 수취인이 예보의 연락을 받은 뒤 자진반납했고, 85건은 법원의 지급명령 절차를 거쳐서 송금인에게 반환됐다. 보통 신청일부터 반환까지 43일 걸렸다. 착오송금 반환지원제도는 5만원 이상~1000만원 이하의 착오송금이 대상이다. 먼저 금융사를 통해 반환 신청을 하고, 미반환된 경우에 예보에 신청해야 한다. 금융회사나 카카오페이, 네이버페이, 토스 등 간편송금을 통해 실수로 보낸 것만 반환지원 신청이 가능하다. 착오송금이 아니거나 보이스피싱 범죄이용 계좌, 관련 소송이 진행 중일 때는 신청이 받아들여지지 않는다. 비지원 대상으로 분류되는 경우가 전체 신청(심사 완료 기준)의 51.9%를 차지한다. 예보는 착오송금을 예방하기 위해 △이체 전 예금주 확인 △'즐겨찾기계좌', '최근이체', '자동이체' 주기적 관리 △음주 후 송금 주의 등을 당부한다. 예보 관계자는 "향후 비대상 비중이 지속적으로 축소될 수 있도록 홍보와 안내를 강화할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>택시기사 대란인데…車 모자랄 정도 기사 몰린다 '타다' 비결 [팩플]</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003194251?sid=105</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>택시 문제는 현재 진행형 난제다. 수십 년째 서비스 질은 답보상태고 심야·출퇴근 시간 택시잡기 대란은 여전하다. 코로나19 이후엔 박봉에 시달리던 택시기사들의 ‘탈(脫) 택시 러시’까지 이어지면서 총체적 난국. 아이엠(진모빌리티)과 타다는 이런 택시 난맥상을 해결하려는 스타트업이다. 각각 11인승 카니발, 7~9인승 스타리아를 앞세워 대형·고급 택시 시장에서 차별화된 사용자 경험을 제공하려 한다. 아이엠은 기존 법인택시 사업자에서 출발해 모빌리티 플랫폼으로 진화를 꾀하고 있고, 한때 택시 갈등 최전선에 섰던 타다는 금융 플랫폼 토스에 인수된 이후 택시와 협업으로 재기를 노린다. 이들 스타트업이 생각하는 택시 대란 해법은 뭘까.      이정행 타다 대표. 성동구 타다 본사. 김현동 기자           2020년 택시업계 ‘주적’이었던 타다는 2022년 현재 택시 플랫폼으로 환골탈태했다. 법인택시 면허 80개를 가지고 있고 타다 플랫폼에서 이용 가능한 운송수단은 모두 택시다. 지난 4월에 정식 출시한 7~9인승 대형 승합차 기반 고급 택시 ‘타다 넥스트’는 기사 포함 렌터카 호출 서비스로 인기를 끌었던 타다 베이직의 장점을 택시로 계승한 결과물. 이같은 타다의 변신은 지난해 토스에 인수되면서 타다의 운전대를 잡은 이정행(35) 대표가 이끌고 있다. 이 대표는 지난해말 택시 면허도 취득했다. 지난 3일 서울 성동구 타다 본사에서 이 대표를 만났다. 이정행 대표는 “모빌리티 혁신은 택시 기사에게 좋은 일자리를 만드는 게 시작”이라고 말했다.Q : 택시를 전면으로 내세웠다. A : “타다 넥스트를 준비하면서 이용자 조사를 했는데 타다 베이직 당시의 문제가 그대로 존재했다. 고객 측면에선 차량이 잘 안잡혔고 실제 탔을땐 사용자 경험이 좋지 않았다. 공급량도 부족했다. 우린 이동의 문제를 풀고 싶었다. 타다 넥스트가 해법의 시작이 될 수 있을거라 봤다.”  Q : 수년째 혁신을 외치지만 택시 서비스 질이 낮고, 이용자 불만이 많은 이유는. A : “근본적 원인은 택시 기사 일자리가 좋은 일자리가 아니라는 점이다.”  Q : 왜 그런가.   A : “심야 택시 대란의 근본 원인은 택시기사가 줄어서다. 법인택시에서 일하는 것보다 다른 좋은 일자리를 찾아 기사들이 이 업계를 떠났다. 좋은 일자리를 만들어야 기사들이 돌아오고, 운행 대수를 늘려야 배차가 원활히 이뤄진다. 여기서 더 많은 매출을 올려야 서비스가 개선되는 선순환이 이뤄진다. 이게 다 연결된 문제다.”   그래픽=김경진 기자 capkim@joongang.co.kr     Q : 어떻게 좋은 일자리를 만드는가. A : “플랫폼이 충분한 일거리를 제공해야 하고 혜택도 늘려야 한다. 우선 충분한 콜을 확보해야하는데 플랫폼이 이를 효율화 할 수 있다. 우리는 ‘포워드배차’(곧 승객이 하차할 차량을 다른 승객에 미리 배차), ‘기다렸다 타다’(포워드배차 실패시 최대 20분 기다리면 오는 배차) 등을 통해 배차 성공 경험을 늘리고 있다. 또 퇴근콜을 통해 기사가 차고지로 돌아가는 방향 손님을 태울 수 있게 기술을 적용하고 있다. 또 드라이버 앱을 통해 필수 물품을 시중보다 저렴하게 판매한다. 최근엔 이벤트로 껌·백화유 오일 등을 담음 졸음방지키트를 무료(5월부턴 100원)에 제공하고 있다. 교육 서비스도 한다.”  Q : 기사 부족 현상이 해소됐나. A : “직영 운수사(편안한이동)에는 지원자가 많다. 차량이 부족해서 입사 대기자가 있을 정도다.”  Q : 이용자를 위해선 어떻게 서비스를 혁신하려 하나. A : “우린 사용자 경험의 압도적인 차별화를 원한다. 그러기 위해선 서비스와 요금 모두 만족스러워야한다. 택시 요금이 너무 비싸면 지불 용의가 없어진다. 승객의 지불용의와 기사에 대한 적절한 보상 사이 균형점을 찾고 있다.”   배너 클릭 시 구독페이지로 이동합니다. https://www.joongang.co.kr/factpl</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>토스, 경력 3년 이하 '프로덕트오너' 채용…회사 속 '미니 CEO'</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013168740?sid=102</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>토스, 경력 3년 이하 프로덕트오너 채용[비바리퍼블리카 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 김주환 기자 = 모바일 금융서비스 '토스'를 운영하는 비바리퍼블리카는 10일 경력 3년 이하 '프로덕트 오너'(PO)를 채용한다고 밝혔다.    PO는 담당 제품의 런칭과 성장을 총괄하는 직무로, 소규모 팀을 이끌며 개별 제품의 사업 방향을 세우고 운영 전권을 가져 토스 내에서는 '미니 CEO'로 불린다.    토스는 잠재력을 갖춘 인재 발굴을 위해 모바일 서비스 운영, 전략, 개발 등 타 직무 경력만 있어도 PO에 지원할 수 있도록 했다.    지원 기간은 이달 18일까지로, '토스 NEXT PO' 채용 홈페이지에서 신청할 수 있다. 지원자는 문제 해결 능력과 분석력을 시험하는 '프로덕트 오너 핏 테스트'와 개별 인터뷰 등을 거쳐 PO로 채용된다. 전 과정은 온라인으로 진행되며, 채용 규모는 두 자릿수다.    jujuk@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>'네카오' 등 플랫폼 기업 매출 378조원…부가통신사업자 매출 51%</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006077268?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>과기정통부, 부가통신서비스 시장 실태 파악 위한 첫 실태조사 발표(위에서부터)네이버, 카카오.© 뉴스1(서울=뉴스1) 박정양 기자 = 네이버와 카카오 등 디지털 플랫폼 기업은 전체 부가통신사업자의 4분의 1수준에 불과하나 부가통신매출액(추정치) 기준으로는 절반 이상(51%)를 차지하고 있는 것으로 나타났다. 이들 플랫폼 기업의 총매출은 378조원으로 국내 대기업이 90% 이상을 차지했다.과학기술정보통신부는 부가통신 시장의 공정한 경쟁환경 조성과 시장 활성화 등의 정책 마련을 위해 부가통신 사업자와 시장에 대한 실태조사를 진행한 결과를 8일 처음으로 발표했다. 조사는 지난해 9월 24일부터 12월 24일까지 3개월간 진행됐으며 부가통신 신고·등록·신고간주 사업자 1만6708개사 중 자본금 1억원 이하 사업자와 휴폐업 사업자를 제외하고 5272개사를 모집단으로 선정해 4352개사를 직접 조사했다.과기정통부 김지원 디지털신산업제도과장은 지난 4일 기자간담회에서 "디지털 플랫폼 등 변화하고 있는 부가통신서비스 시장의 실태를 파악하기 위해 전수조사 형태의 첫 실태조사"라며 "유형별 사업자 분류와 매출액, 이용자수 등 시장규모를 최초로 분석해 제시했다"고 밝혔다.◇디지털 사업자 1078개, 해외기업 4% 불과…80%가 플랫폼 서비스과기정통부의 '2021년 부가통신 실태조사 경과 및 주요결과'에 따르면, 네이버와 카카오 등이 포함된 디지털 사업자의 경우 실태조사에서 조사된 총 4352개 사업자 중 1078개를 차지했다. 디지털 사업자는 중개 플랫폼 또는 플랫폼 인프라 서비스를 제공하는 사업자로, 관련 기업수는 국내 기업이 1031개(95.65), 해외기업 43개(4%)로 각각 나타났다. 중소기업 비중은 66.7%로 가장 높았고 대기업은 148개(13.7%), 중견기업은 122개(11.3%)였다. 이들은 중개플랫폼과 플랫폼 인프라가 약 80%로 플랫폼 서비스가 핵심 사업으로 파악됐다.정부는 부가통신 사업자의 분류체계도 발표했다. 부가통신 사업자는 크게 인터넷 기반 서비스와 통신 인프라 서비스로 구분되며 인터넷 기반 서비스는 각각 중개 플랫폼, 플랫폼 인프라, 온라인 직거래로 분류됐다. 중개플랫폼 가운데 네이버, 야놀자, 우아한형제들, 당근마켓, 이베이는 재화·용역 중개, 구글과 네이버제트는 디지털 콘텐츠 중개, 카카오와 싸이월드, 라인플러스, 메타를  사회관계망 중개로 분류됐다. 또 플랫폼 인프라 가운데 네이버랩스, 원스토어, 애플을 플랫폼 도구 지원으로, 구글과 아마존, 누리텔레콤, 한국기업평가는 데이터활용으로, KT와 SK텔레콤은 위치정보 제공, 나이스정보통신 토스페이먼츠, 카카오페이는 전자결제로 각각 분류했다. 다만 넷플릭스의 경우 중개역할을 하지 않는다는 이유로 온라인직거래로 분류했다. 온라인직거래의 디지털 콘텐츠 판매 부분에는 넷플릭스를 비롯해 엔씨소프트, 네오위즈, 네이버웹툰, 조선일보가 포함됐다. 쿠팡과 롯데하이마트, 쏘카, 마켓컬리는 재화·용역 판매로 분류됐다. © 뉴스1◇디지털 플랫폼 기업 총 매출 378조원…매출구성 70%가 '수수료'이들 디지털 플랫폼 기업들의 총 매출은 378조원으로 집계됐다. 국내기업이 92.5%(358조원), 대기업이 80.6%(305조원)로 국내 대기업의 매출이 대부분을 차지했다. 해외매출만 가진 기업은 2.7%에 그쳤다. 기업별 부가통신 비중으로 분석한 부가통신서비스 매출은 101조원으로 추정됐다.매출구성은 수수료 형태가 70% 이상을 차지했다. 중개수수료가 50.7%로 가장 많았고 이용자수수료(15%), 광고(5.9%) 순으로 뒤를 이었다. 상품·용역 판매는 25.3%를 차지했다. 이용자는 가입자 기준으로 대기업 서비스가 중소기업 서비스 대비 평균 12.8배, 활성 이용자수(3개월 평균이용자수) 기준으로 8.5배 많았다. 디지털플랫폼 총 종사자는 약 15만4000명으로 기업평균 143명으로 집계됐다. 기업당 평균 24.7명의 채용을 희망하고 있어 부가통신사업자 전체 평균(9.5명)보다 인력수요가 높은 것으로 나타났다. 연구개발 인력을 보유한 기업 비중은 46.4%를 차지했다. 다만 창업초기나 성장기에 인력과 설비투자를 위한 자금조달이 필요함에도 '자금조달을 받은 적이 없다'는 응답이 95.8%에 달해 자금조달 여건이 타산업에 비해 열악한 것으로 나타났다.◇전체 부가통신 서비스 제공 기업 4352개…온라인 직거래 63.2%로 가장 많아전체 실태조사에서 조사된 부가통신 서비스를 제공하는 기업은 4352개로 국내기업은 95.5%, 해외기업은 4.5%를 차지했다. 대기업(7.6%)과 중견기업(11.6%) 보다 중소기업 비중이 80.8%로 압도적으로 높았다.유형별로는 대표서비스 기준 직접 재화나 용역을 판매하거나 제공하는 온라인직거래 사업자가 2750개로 전체의 63.2%를 차지했다. 재화나 용역, 사회관계망 서비스 등 중개 플랫폼 및 플랫폼 인프라 사업자가 각각 9.4%(407개), 8.8%(383개)로 나타났다.이들 부가통신사업자의 매출액 총합은 약 802조8000억원으로 국내기업이 92.5%(742억6000억원)를 차지했다. 매출액 가운데 대기업 매출이 69.9%(558조9000억원)로 가장 많았고 이어 중견·중소기업이 각각 18.3%(146조9000억원), 5.9%(5조9000억원) 순으로 집계됐다. 특히 설문조사 등으로 확인한 기업별 총매출 대비 부가통신 매출 비중은 10% 이하 구간(44.7%)과 80%초과 구간(27.9%)에 집중됐다.김 과장은 "전체 부가통신사업자 대비 디지털플랫폼 기업의 연구개발 활동이 더 적극적이고, 추가 채용희망 인력수도 많으며, 중개플랫폼에서 인수합병이 많이 발생한다는 점에서 디지털 플랫폼의 역동성과 성장 가능성이 높다고 평가한다"며 "다만 해외진출 기업 비중이 낮고 외부자금조달 여건이 좋지 않은 점은 약점으로 작용한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>기웅정보통신, 공공기관 데이터수집 시 간편인증 지원</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000671539?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>비즈니스 데이터 API 스토어인 '데이터허브'를 운영하는 기웅정보통신이 각 공공기관 데이터 수집 시 간편인증 로그인 기능을 지원한다고 10일 밝혔다.해당 간편인증 로그인 기능 지원은 고객사들의 서비스 다양성과 활용성을 확대하는 것에 의미가 있다. 기존에는 공동인증서 등 한정된 인증방식만을 정보 수집 시에 이용 가능했으나, 간편인증방식 적용을 통해 사용자가 원하는 인증수단을 선택할 수 있게 함으로써 더 편리한 서비스를 제공할 수 있게 된 것이다.비즈니스 데이터 API 스토어인 '데이터허브'를 운영하는 기웅정보통신이 각 공공기관 데이터 수집 시 간편인증 로그인 기능을 지원한다고 10일 밝혔다. 사진은 기웅정보통신 CI. [사진=기웅정보통신]해당 '간편인증 로그인' 기능은 '데이터허브'를 통한 국민건강보험공단, 국민연금관리공단, 국세청홈택스, 정부24 등 다양한 기관의 정보 수집 시에 즉시 활용 가능하다.이용 가능한 간편인증 수단은 각 기관별로 상이하며, 카카오인증서, 토스인증서, 페이코인증서, 네이버인증서, 통신사 PASS, 삼성패스, KB모바일인증서, 신한인증서, 금융인증서 등 다양한 인증수단이 제공되고 있다. 해당 기능을 통해 사용자는 본인이 보유한 인증수단 중 하나를 선택해 인증을 진행할 수 있어 고객 선택권과 편의성이 제고된다.간편인증을 적용하면 별도의 공동인증서 관리 프로그램 설치나 APP 기능 활용 없이, PC와 모바일 웹 환경에서 손쉽게 인증을 지원 가능하다는 장점이 있다.현재 간편인증을 이용해 제공되는 데이터허브 상품은 대표적으로 개인소득정보패키지, 헬스케어패키지 등이다. 개인소득정보패키지가 도입된 서비스에서 사용자는 국세청, 건강보험공단, 국민연금공단 등 본인의 소득을 증빙할 수 있는 각종 정보를 일회성의 간편인증을 통해 제출 가능하다. 헬스케어패키지가 도입된 서비스에서도 마찬가지로 간편인증을 통해 진료내역, 건강검진결과 등을 한 눈에 조회 가능하도록 서비스가 구현된다.한편 기웅정보통신은 운영 중인 데이터 스토어 '데이터허브'를 통해 신분증진위조회, 차량정보조회, 부동산정보조회, 전자증빙서비스, 부가세신고서비스 등 데이터를 활용한 다양한 기업용 비즈니스 API와 서비스를 제공하고 있다. 또 다수의 금융기관과 핀테크 업체에서 기웅정보통신의 데이터 상품을 도입해 혁신 비즈니스를 구축하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>“제2의 머지포인트 사태 막아라”… 정부, ‘빅테크 금융사 규제’ 나선다</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001525565?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>정부가 빅테크(대형 정보기술(IT)업체) 금융사에 칼을 대기로 했다. 그동안 사각지대에 있던 빅테크 금융사에 선진국 수준의 규제를 적용하겠다는 계획이다. 토스·네이버·카카오 등 금융업을 영위하는 빅테크 다수가 사정권에 들 것으로 보인다.12일 국민일보가 입수한 대통령직인수위원회 국정 과제 이행 계획서에는 빅테크 금융사 규제를 외국 사례에 맞게 정비하겠다는 내용이 담겼다. 핵심은 ‘동일 기능-동일 규제 원칙’ 적용이다.일반 은행을 통해 다른 은행에 돈을 보내면 은행 간 채권-채무 관계를 따져 서로 주고받을 금액을 확정하는 ‘청산’이라는 절차를 거친다. 이 과정에서 금융결제원에 기록이 남는데 일반 은행 간 불일치가 생기면 한국은행 결제 시스템에서 제동을 걸 수 있다. 반면 빅테크 금융사를 통한 송금은 청산을 하지 않는다. 빅테크끼리 주고받은 고객 자금이 일치하지 않더라도 외부에서는 파악할 수 없다.금융권 관계자는 “대다수 금융 소비자는 일반 은행과 송금 기능을 갖춘 ‘토스’를 구분하지 않고 이용하지만 규제 수준만 놓고 보면 양측은 비교할 수 없을 만큼 다른 처지”라고 말했다.흔히 ‘○○페이’로 불리는 선불전자지급수단도 위험에 노출돼 있다. 지난해 상반기 말 잔액이 2조원을 훌쩍 넘어섰는데도 예금자 보호제 바깥에 있다. 잔액을 1000억원 이상 보유한 업체만 9곳에 이르지만 특정 회사가 파산할 경우 금융 소비자는 돈을 돌려받지 못할 수 있다. 지난해 선불전자지급수단 ‘머지포인트’ 운영사가 고객 환매 요청에 대응하지 못해 지급 불능을 선언한 것이 대표적인 사례다.이 밖에 정부는 빅테크 금융사의 불완전 판매 차단, 간편 결제 수수료 공시 및 적정성 점검 등도 함께 추진할 전망이다. 이 경우 인터넷전문은행을 운영하지 않으면서 페이 서비스를 키우는 네이버가 규제 대상에 포함될 수 있다.인터넷은행-시중은행 간 규제가 같아질지도 은행권의 관심사다. 인터넷은행법에 따르면 인터넷은행은 자본금을 시중은행(1000억원)의 4분의 1인 250억원만 마련해도 설립할 수 있다.또 일반 기업(산업 자본)은 인터넷은행의 주식을 시중은행(4%)보다 30%포인트나 높은 34%까지 보유할 수 있다. 지난 50년간 한국 사회에서 성역처럼 지켜온 ‘금산 분리’ 원칙을 풀어준 것이다. 이에 따라 카카오는 카카오뱅크 주식을 27.26%, BC카드(KT 자회사)·비바리퍼블리카(토스 최대 주주)는 케이뱅크·토스뱅크를 각각 34%씩 갖고 있다.영업 초기에는 각종 건전성 규제도 면제된다. 대신 대기업대출을 통해 돈을 벌어서는 안 된다는 제한 요건이 있다.은행권 관계자는 “그동안 시중은행은 ‘인터넷은행에 적용하는 규제 수준을 강화해야 한다’는 입장이었지만 최근에는 분위기가 다소 달라졌다”면서 “인터넷은행 규제를 강화하기보다는 시중은행 규제를 인터넷 은행 수준으로 약화하는 방향의 정책이 추진되기를 기대하는 눈치”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.05.04.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>5월 4일 미국증시 마감시황...FOMC 앞두고 이틀째 반등</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001029527?sid=104</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>FOMC회의를 앞두고 3대 지수가 이틀 연속 반등에 성공했습니다. 현지시간 3일 다우지수가 0.2% 오른 33,128.79로 마감했고, 나스닥 지수 역시 0.22% 상승하여 12,563.76으로 거래 마쳤습니다, S&amp;P500은  또한 0.48% 상승해 4,175선에 마감했습니다.장 마감 이후에는 스타벅스(SBUX, -1.38%, 74.33달러)와 AMD(+1.44%, 91.13달러)가 실적을 내놨습니다. 우선 스타벅스는 실적이 모두 예상에 상회했고, 중국에서는 동일 매장 판매가 23% 줄면서 코로나 봉쇄 영향을 받았으나, 미국에서 강한 판매 성장을 기록하며 이를 만회했습니다. 하워드 슐츠 CEO는 직원들 임금을 올리고 직원교육을 강화하겠다고 밝혔습니다.AMD는 판매가 71%나 급등하면서 만연하던 PC수요 감소 우려를 잠시 잠재웠습니다. 시간외에서 6% 넘게 급등하기도 했습니다.한편 이날은  에너지 관련주가 상승세를 가장 크게 주도 했습니다. 먼저 BP(+8.04%, 31.18달러)는 8% 넘게 뛰었습니다. 실적이 예상에 상회하면서 였는데 러시아 지역 사업을 철수하면서 255억 달러 정도 손해를 보기는 했다고 분석됐습니다.방어주 중에 헬스케어주가 상승을 이끌었습니다. 그 중 화이자(PFE, 1.97%, 49.29달러)와 바이오젠(BIIB, -0.78%, 205.70달러) 실적이 예상보다 잘 나와주었습니다. 바이오젠 CEO 미셸 보나토스의 사임 예정 소식도 전해졌습니다.이날은 특히 실적에 따라 개별장세를 보였습니다.기술주 중에서 로지텍(LOGI, -3.11%, 64.28달러)은 월가 예상에 상회하는 실적을 발표했습니다. 하지만 회사가 2023년 전망을 우크라이나 전쟁 영향을 언급하며 내려잡자 주가는 하락 마감했습니다.익스피디아(EXPE, -14.02%, 150.31달러) 는 이날 크게 빠졌습니다. 실적이 엇갈리면서 최소 8개 이상의 월가 은행들이 익스피디아 목표가를 내려잡았습니다.도큐사인(DOCU, -2.20%, 83.94달러)은 웨드부시가 투자의견을 중립에서 시장수익률 하회로 하향조정하면서 주가가 빠졌습니다.마지막으로 JP모간(JPM, +2.14%123.03달러)에  대해 오펜하이머가 투자의견을 상향하자 JP 모간 주가가 올랐습니다. 오펜하이머는 은행이 올해 주가가 다소 내린 이후 지금 할인된 가격에 판매되고 있다고 언급했습니다.전가은 외신캐스터</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>올 봄 궁중문화축전 속 시원하게 49마당 열린다</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001988561?sid=103</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>궁능유적본부-문화재단 10~22일답답한 것들의 완전한 해소 주제로[헤럴드경제=함영훈 기자] 지난 2년간 답답한 팬데믹 속에서 절치부심, 좌고우면하면서 명맥을 유지하던 궁중문화축전이 올 봄 속 시원하게 열린다.궁중문화축전 미디어파사드 홍화에서 춘당까지문화재청 궁능유적본부(본부장 정성조)와 한국문화재재단(이사장 최영창)은 ‘2022 봄 궁중문화축전 개막제’를 10일 오후 8시에 경복궁 흥례문 광장에서, 오프라인 개최한다.봄 개막제는 답답했던 것들을 물리치는 궁중 벽사의식 ‘나례(儺禮)와 연희’를 주제로 한다. 나례는 섣달 그믐날 궁중과 민가에서 귀신을 몰아내던 전통의식이다.축전은 10일부터 22일까지 밤낮으로 진행되며, 오프라인을 중심으로, 온라인 까지 49개의 다양한 프로그램이 펼쳐진다. 경복궁·창덕궁·창경궁·덕수궁은 휴무 없이 개방되며, 경복궁은 축전 기간 내내 무료로 즐길 수 있다. 또, 덕수궁·창경궁에서는 축전이 개최되는 13일간 오후 9시까지 야간 관람이 상시 운영된다.궁중문화축전은 5대궁(경복궁, 창덕궁, 덕수궁, 창경궁, 경희궁)과 종묘·사직단 일대에서 펼쳐지는 국내 최대 규모의 문화유산 축제로, 지난 7년간 380만 명의 관람객을 동원했다. 지난 2년간 ‘궁중문화축전’ 개막제는 코로나19로 인해 온라인으로 개최하였으나 올해는 시민들이 현장에서 즐길 수 있도록 경복궁 흥례문 광장에서 현장행사로 개최한다.제1장 ‘새봄 나례’와 제2장 ‘새날, 새 희망’으로 구성된 이번 개막제는 창작 제 의식 무대, 국악 연주·비나리, 음악극(뮤지컬), 전통연희 그리고 멀티미디어 공연으로 무대를 꾸민다. 또한, 개막을 기념하여 5월 10일은 경복궁·창덕궁·창경궁·덕수궁과 종묘가 무료 개방된다.개막제의 제1장 ‘새봄 나례’에서는 코로나19로 힘겨웠던 겨울을 보내고 새봄을 맞는 희망을 전한다. 흥례문 광장에 가로·세로 3.5m, 높이 5m 규모의 미디어 타워 2대를 설치해 입체적인 공간을 연출하고, 소리꾼 최예림과 한국예술종합학교 무용단의 ‘새봄 비나리’무대와 전통 나례(儺禮)를 현대적으로 재해석한 ‘구나행(驅儺行)’ 대판놀음을 선보인다.개막제의 제2장 ‘새날, 새 희망’에서는 새로운 조선을 꿈꿨던 소현세자를 주인공으로 내세운 창경궁 고궁뮤지컬 ‘소현’과 첨단 미디어 기술과 실제 연희를 결합한 흥례문 멀티미디어 공연 ‘열상진원(冽上眞源)’이 소개된다.개막제 최고 기대작인 열상진원은 경복궁 역사를 주제로 한 디지털 기술과 연희의 결합무대로, 북악산 기슭에 자리 잡고 이 땅의 역사와 함께한 작은 샘 ‘열상진원(冽上眞源)’이 전하는 650년의 서사를 담았다.미디어 타워, 미디어파사드, 3차원 입체 레이저 등 미디어 장치와 함께 실존 인물인 태조와 세종의 이야기에 가상의 인물 ‘소녀 샘'을 서사에 결합하여, 시간, 사람, 공간을 이어주는 새로운 이야기로 탄생시켰다.아사궁10일 온라인에서도 행사를 즐길 수 있다. 문화재청 궁능유적본부와 한국문화재재단이 새롭게 정비한 궁능활용사업 통합 유튜브 ‘궁능TV’에서는 ‘아티스트가 사랑한 궁(아사궁)’ 리처드 용재오닐 편을 공개한다. 그래미상을 수상한 비올라 연주자 리처드 용재오닐은 경복궁 집옥재에서 연주자로서의 삶과 궁궐에 얽힌 이야기를 풀어낸다.“아싸” 추임새가 떠오르는 ‘아사궁’에서 리처드 용재오닐은 한국인에게 자장가로 친숙한 곡이자 2006년 앨범 ‘눈물(Lachrymae)’에 수록된 ‘섬집아기’와 슈베르트 가곡 ‘그대 나의 안식(Du bist die Ruh)’을 연주한다. 10일 저녁 8시 개막제 현장도 공식 유튜브 ‘궁능TV에서 생중계된다.14일부터 22일까지 창경궁 대춘당지 광장에서는 춘당지 미디어파사드 ‘홍화에서 춘당까지’가 오후 8시부터 15분 간격으로 1일 3회 운영된다. 나무숲을 스크린으로 활용한 시각적인 아름다움과 함께 조선의 태평성대 기원과 백성에 대한 애민을 주제로 한 이야기가 역사적인 의미를 더할 것이다. 경복궁 후원(청와대) 개방 기념과 연계한 특별 프로그램은 모바일 애플리케이션(네이버, 카카오톡, 토스)에서 청와대 개방 관람 사전신청을 통해 참여할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>오늘의집, '프리미엄 전문관' 오픈…최대 74% 할인</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003014508?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>오늘의집은 국내외 유명 프리미엄 브랜드 상품을 한데 모아 '프리미엄 전문관'을 오픈했다고 3일 밝혔다. 가구, 조명, 패브릭, 가전, 주방, 빈티지 등 여러 라이프스타일 카테고리의 상품을 대거 소개한다.새롭게 오픈한 오늘의집 프리미엄 전문관에서 고객은 국내외 프리미엄 브랜드 300여 곳의 7000여개 상품을 만나볼 수 있다. USM, 프리츠한센, 칼한센앤선, 헤이, 아르테미데 등 높은 인기를 끌고 있는 해외 유명 브랜드 및 레어로우, 몬스트럭처, 사무엘스몰즈 등 국내 브랜드가 입점했다. 에이치픽스, 인노바드, 베뉴페, 보블릭, 원더라움 등 인기 오프라인 편집샵도 입점해 발품 팔 필요 없이 오늘의집 내에서 편리한 쇼핑이 가능하다.구매 후 도착까지 걸리는 긴 배송 기간의 불편함을 해결해 쇼핑 편의성도 한층 높였다. 인기 상품에 한해 국내 재고를 확보해 오늘의집 배송 뱃지가 부착된 상품을 구매하면 다음날 바로 받아볼 수 있다. 무료 배송으로 진행되며 추가 조립 비용 부담도 없다. 또한 오늘의집 배송 상품 구매 고객에게는 높은 활용도를 자랑하는 비트라의 툴박스를 선착순으로 제공하는 깜짝 이벤트도 함께한다.오늘의집은 프리미엄 전문관 오픈을 기념해 'O! 프리미엄 위크' 프로모션을 실시한다. 15일까지 조명, 아웃도어, 디자인 가구 등 다양한 카테고리의 상품을 최대 74% 할인된 국내 최저가로 판매한다. 이벤트 기간 중 신한카드를 통해 프리미엄 상품을 구매할 경우 최대 10만원 한도 내에서 5% 추가 할인이 적용된다. 이외에도 카카오페이, 토스, 네이버페이, 페이코, 차이 등 간편 결제 이용 시 최대 1만원 즉시 할인을 제공한다.오늘의집 관계자는 “증가하는 프리미엄 리빙 상품 수요에 맞춰 고객이 오늘의집에서 프리미엄 상품을 구매할 때도 최고의 고객 경험을 느낄 수 있도록 프리미엄 전문관을 개편했다”며 “앞으로도 고객이 오늘의집을 통해 필요한 상품을 빠르게 찾고 저렴한 가격에 구매할 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>예비군 훈련 소집 통지서 내일부터 모바일로 받는다</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003271669?sid=102</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>국방부는 예비군이 훈련 소집 통지서를 스마트폰 등으로 편리하게 받아 볼 수 있게 11일부터 모바일 송달 서비스를 시작한다.그간 소집 통지서는 주로 우편·등기·인편으로 발송됐지만, 이제 공인전자문서중계자(네이버·카카오페이·토스·페이코·KT)를 통한 모바일 송달이 추가됐다. 예비군 개인별로 훈련일 약 22일 전부터 본인 명의 스마트폰 등으로 모바일 소집 통지서가 송달된다. 전송된 모바일 소집 통지서를 열람하려면 ‘동의 및 본인 인증’을 해야 한다. 서비스를 희망하지 않는 경우 동의를 하지 않거나 본인 인증을 통한 열람을 하지 않을 수 있다.예비군이 모바일 소집 통지서를 받기 위해서는 사전에 본인 명의 스마트폰에 관련 앱 등이 설치돼 있어야 한다. 모바일 소집 통지서는 5개 플랫폼을 통해 순차적으로 발송된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>잇단 IPO 철회에 벤처투자 시장도 '불똥' [허란의 VC 투자노트]</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004697842?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>연초 이후 프리IPO 투자금 2972억전년 동기 대비 45% 감소후기 투자도 위축 분위기스타트업 기업가치 조정 불가피美 유망 스타트업 대량 해고, 폐업도SK쉴더스에 이어 원스토어가 기업공개(IPO)를 철회하면서 스타트업 벤처투자 시장에 불똥이 튀었다. 올해 들어 상장 직전 지분투자(프리IPO) 시장은 반토막이 났다. 몇 달 전만 해도 스타트업에 투자하기 위해 벤처캐피탈(VC)이 줄을 섰지만, 상황이 역전된 것이다. VC 업계엔 투자금 회수에 차질이 생길 수 있다는 긴장감이 맴돌고 있다.  반토막 난 프리IPO 시장 12일 벤처투자 정보업체 더브이씨 자료를 분석한 결과 올해 들어 이달 8일까지(18주) 상장 전 마지막 투자단계(프리IPO)는 2972억원(투자 건수 6건)으로 지난해 같은 기간의 5450억원(9건) 대비 45% 감소했다. 토스를 운영하는 비바리퍼블리카는 다음 달까지 최대 1조원 규모 프리IPO 투자 유치를 마무리할 계획이었지만 녹록하지 않은 상황이다. 한 VC업계 관계자는 “토스는 현재 해외 투자설명회(IR)를 돌고 있지만 국내 투자사들은 투자 참여를 주저하는 분위기”라고 전했다. 토스 관계자는 "전반적으로 어려운 시장환경에도 토스증권과 토스뱅크를 출범해 가치를 인정받고 있다"며 "글로벌 투자 기관 중심으로 참여 의사를 확인하는 중"이라고 밝혔다.지난해 12월 홍콩계 사모펀드 앵커에쿼티파트너스가 마켓컬리에 2500억원 규모 프리IPO 지분투자를 단행하며 기업가치를 4조원까지 끌어올리는 역할을 했다. 한 VC업계 관계자는 “그동안 해외 사모펀드가 대규모 투자를 집행하며 기업가치를 부풀리는 역할을 했지만, 올해는 상장 직전 시리즈 G 및 프리IPO 단계 투자가 크게 위축되는 분위기”라며 “고공행진을 하던 스타트업 기업가치가 정상화되는 한 해가 될 것”이라고 내다봤다.  스타트업 기업가치 조정 불가피연초 이후 위축되는 스타트업 투자 시장 / 출처: 더브이씨연초 이후 프리IPO 시장은 반토막 났지만, 전체 스타트업 신규 투자금은 6조9435억원으로 지난해 같은 기간(3조5872억원)보다 93% 증가했다. 시드 투자는 2720억원, 초기투자(시리즈A·B) 4조1612억원, 후기투자(시리즈 C~G) 2조2250억원으로 모두 지난해 같은 기간보다 두 배 이상 불어났다. 특히 스타트업 기업가치가 가파르게 오르면서 유망 스타트업을 선점하기 위한 초기 투자(시리즈 A·B) 경쟁은 여전히 활발하다.하지만 VC들도 후기 투자(시리즈 C~G)엔 몸을 사리는 분위기가 역력하다. 시리즈 D 투자는 인테리어 플랫폼 '오늘의 집'이 지난달 17일 2300억원을 유치한 게 마지막이다. 상장 전 몸값을 끌어올리는 역할을 했던 시리즈 G 단계의 후기 투자는 지난 3월 차량공유업체 쏘카를 마지막으로 멈췄다.한 VC 대표는 “공제회 금융회사 등 LP들도 대체투자를 축소하려는 분위기”라며 “VC들도 좀 더 까다롭게 투자를 집행하고 있다”고 설명했다.  스타트업계 위기로 번질까미국과 남미 지역의 벤처투자 시장은 벌써 꺾였다. 미국 정보기술(IT) 전문 매체 크런치베이스가 집계한 1분기 글로벌 벤처자금은 1600억달러로 지난해 4분기의 1840억달러 대비 13% 감소했다. 특히 후기 투자금은 980억달러로 지난해 4분기(1109억달러)는 물론 지난해 1분기(992억달러)보다도 감소했다. 남미 지역의 1분기 벤처투자 규모는 34억달러로 지난해 4분기 대비 30% 급감했다.벤처자금이 위축되자 스타트업계에도 위기 조짐이 나타나고 있다. 추가 투자유치가 어려워진 미국 온라인 결제 스타트업 패스트(FAST)는 3월말 폐업을 결정했다. 지난해 미국 스트라이프로부터 시리즈 B단계 1억200만달러를 유치하며 기업가치 5억8000만달러를 평가받은 기업이다.미국 유망 스타트업들의 대규모 해고도 잇따르고 있다. 모기지 스타트업 베터닷컴은 직원 수를 지난해 12월 1만명에서 지난달 5000명 이하로 줄였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>[단독] 이승건·김슬아·김범준 등 스타트업도 尹 취임식 간다</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004695712?sid=100</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>왼쪽 위부터 시계 방향으로 김슬아 컬리(마켓컬리) 대표, 이승건 비바리퍼플리카(토스) 대표, 김범준 우아한형제들(배달의민족) 대표, 김세영 피에스엑스(서울거래비상장) 대표.오는 10일 국회에서 열리는 윤석열 대통령 취임식에 이승건 비바리퍼블리카(토스) 대표, 김슬아 컬리(마켓컬리) 대표 등 스타트업 업계 주요 인사들이 대거 참석한다.8일 스타트업 업계에 따르면 이 대표와 김 대표를 포함해 김범준 우아한형제들(배달의민족) 대표, 안성우 직방 대표, 김세영 피에스엑스(서울거래비상장) 대표, 유범령 모비데이즈 대표, 남성준 다자요 대표, 김정현 셰어하우스우주 대표 등이 대통령 취임식에 초청됐다. 최성진 코리아스타트업포럼 대표도 참석한다.10여 명의 스타트업 업계 인사들이 초청된 것은 정부가 플랫폼 규제 개혁과 관련한 의지를 보인 것이라는 해석이 나오고 있다. 금융 앱 토스로 핀테크 규제를 깨온 이 대표, 신선식품 배송 시장에 혁신을 일으킨 마켓컬리의 김 대표, 부동산 거래를 편리하게 만든 직방의 안 대표 등은 코리아스타트업포럼 2대 공동의장이다.  두나무(증권플러스비상장)와 함께 국내 비상장 주식 거래를 활성화시킨 피에스엑스는 2020년 정부의 규제 완화로 '서울거래비상장' 플랫폼을 출시했다. 지난 2월에는 '부산대체거래시스템 및 핀테크 액셀러레이팅센터 준비 법인'을 설립하고 부산대체거래소 사업을 추진 중이다.빈집 재생 프로젝트를 하는 다자요 역시 정부가 규제를 한시적으로 유예해준 '규제 샌드박스' 적용으로 되살아난 스타트업이다. 앞서 다자요는 2019년 7월 ‘농어촌 민박법’ 위반의 이유로 사업이 전면 중단되기도 했다.  윤석열 대통령 당선인은 그동안 플랫폼에 대한 규제보다는 자율성을 보장해야 한다는 입장을 밝혀왔다. 대통령직 인수위원회도 자율 규제와 관련해 한국인터넷기업협회 등 온라인 플랫폼 업계 관계자들과 지속적으로 논의해 왔다. 윤 당선인은 “플랫폼은 혁신의 하나로 사회 발전에 있어 주도적인 역할을 해야 한다”며 “규제는 사회 발전을 가로막는 암적인 존재”라고 말하기도 했다.업계에서도 차기 정부의 규제 혁신을 기대하고 있다. 코리아스타트업포럼은 최근 정책 제언을 통해 “새 정부는 사전 규제 중심의 현 규제 방식을 사후 규제로 전환하는 등 과감한 혁신을 추진해야 한다”며 “디지털 시대에 맞는 혁신 인재를 양성하고, 이들이 스타트업에 뛰어들 수 있도록 지원해야 한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>새정부 LTV 핀셋 완화에 은행권 “생애 첫 내 집 마련 손님 잡아라”</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000811594?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>새 정부의 주택담보대출 규제 완화 추진에 은행권이 촉각을 곤두세우고 있다. 금리 정책과 함께 주택 시장 관련 규제는 은행의 이자수익, 성장성과 직결되는 요소이기 때문이다.6일 은행권에 따르면 생애 첫 내 집 마련에 나서는 대출 손님 잡기 경쟁이 한층 치열해질 것이란 전망이 나왔다. 윤석열 정부가 현행 주택담보대출비율(LTV)과 총부채원리금상환비율(DSR) 대출 규제를 전면적으로 풀기보다는 생애 첫 주택 구매자를 대상으로 한정해 LTV 규제를 풀어주는 ‘핀셋 규제 완화’를 방향키로 잡았기 때문이다.서울시내 한 은행 대출 창구 전경. /뉴스1        대통령직 인수위원회는 생애 최초 주택구매에 대한 LTV 상한을 80%로 높여 잡는 방안을 110대 국정과제 중 하나로 추진하겠다고 밝혔다. 인수위는 DSR 안착 상황 등을 고려해 생애 최초 주택 구입 가구의 LTV 최대 상한의 완화(60∼70%→80%)를 우선해 추진하겠다”고 했다.LTV 규제 전반을 풀 경우 나타날 수 있는 집값 상승과 주택 시장 불안, 가계부채 확대 등 부작용을 고려해 대상을 한정한 것인데, 은행업계에서는 잠재 대출 수요가 한정되면서, 은행들의 파이 경쟁이 더 치열해질 수 있다는 전망이 나오고 있다.업계 관계자는 “기존 DSR 규제를 유지하는 상태에서 대상을 한정해 LTV 규제를 완화하는 것이라 시장 전반의 대출 수요가 살아나는 데는 한계가 있을 것”이라면서 “은행 입장에서는 영업 환경이 다소 팍팍해질 수 있다”고 말했다. 금리 인상기에 진입하면서 가계대출 시장 수요 유입이 약해졌고, DSR 규제 등의 영향으로 LTV 규제 완화를 이용해 내 집 마련에 나서는 수요는 한정적일 것이란 시각이다.LTV 규제를 풀더라도 소득을 기반으로 한 DSR 규제가 작동하는 한 소득이 낮으면 대출을 받기 어렵다. DSR 규제는 연간 원리금 상환액을 연간소득으로 나눠 가계 대출을 관리하는 제도다.지난해 도입된 DSR 규제는 현재 3단계에 걸쳐 시장에 적용 중인데, 지난 1월부터는 2단계가 시행돼 집값과 상관없이 신용대출·카드론 등 총대출액이 2억원이 넘으면 40% 규제(은행권 기준)가 적용되고 있다. 오는 7월부터는 차주별 총대출액이 1억원을 초과할 경우 DSR 40%를 넘으면 안 되는 3단계가 시행된다. LTV 규제는 법 개정 없이 금융위원회 행정지도 등으로 완화할 수 있어 상반기 안에 새 규제가 시행될 것으로 업계는 보고 있다.이에 이미 은행들은 새 정부의 금융·부동산 정책 기조를 고려해 선제적으로 대출영업 전략을 강화하고 있다. 최근 은행들이 앞다퉈 주담대 상품 대상을 확대하고, 초장기 대출 상품을 속속 내놓은 것이 대표적인 예다.이달부터 신한은행과 농협은행이 40년 만기 주담대 상품 판매를 시작했다. 기존에 시중은행의 주담대 상품의 최장 만기는 35년이었다. KB국민은행과 우리은행은 40년 만기 주담대 출시를 검토 중이다. 하나·부산·대구은행은 이미 40년 초장기 대출 상품을 판매 중이다. 만기가 늘면서 차주 입장에서는 매달 내는 원리금 부담을 줄일 수 있고, DSR 규제에 따른 대출 한도를 늘리는 효과를 볼 수 있다.은행 입장에서는 차주가 이자를 내는 기간이 길어지고, 이자도 더 거둘 수도 있다.시장에서는 금융업계 후발주자인 인터넷전문은행들의 성장성 열쇠가 ‘주담대’ 시장에 달렸다는 분석도 있다. 이에 인터넷은행들은 여신 포트폴리오를 강화하고 있다.카카오뱅크는 올해 초 내놓은 비대면 주택담보대출 상품을 출시하며 주택 시장에 본격적으로 진입했다. 안정적인 상품 출시와 운영을 위해 초기에는 KB시세 9억원 이하 수도권 아파트로 대출 신청 대상을 한정했다가 이후 대상 주택 가격을 확대했는데, 상반기 중 주택담보대출 가능 지역을 확장할 계획이다. 윤호영 카카오뱅크 대표는 “올해 2분기 이후 주담대 상품의 여러 조건을 완화하면서, 주담대 실적 성장이 주효할 것”이라고 말했다.인터넷전문은행 중에서 아직 주담대를 취급하지 않고 있는 토스뱅크도 주택 시장 진입을 고려 중이다. 토스뱅크 관계자는 “구체적인 일정이 정해지지는 않았으나, 주담대 상품 출시를 검토 중”이라고 말했다. 케이뱅크는 2020년 비대면 아파트담보대출을 먼저 내놓은 데 이어 지난해 9월 전세대출과 청년전세대출 상품을 동시에 출시했다. 상대적으로 낮은 금리를 앞세워 2020년 8월 출시한 아파트담보대출은 출시 1년 4개월 만인 지난 1월 누적 취급액 1조원을 넘겼다.금융업계 관계자는 “은행의 대출 증가율은 새 정부 출범 이후 부동산 시장 분위기에 따른 주택담보대출 시장이 얼마나 빠르게 성장하느냐에 달렸다”면서 “금리 인상과 DSR 규제 등의 영향으로 대출 성장세가 둔화할 수 있다”고 전망했다.한편, KB국민·신한·하나·우리·NH농협은행의 가계대출 잔액은 올해 들어 4개월 연속 감소세다. 지난달 가계대출 잔액은 702조3917억원으로 전월보다 8020억원 줄었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.05.05.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>마이데이터 사업에 초기 스타트업도 도전장</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003015030?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지뱅크중대형 금융사와 빅테크·핀테크뿐만 아니라 초기 스타트업들까지 마이데이터 시장에 뛰어들기 시작했다. 마이데이터를 활용해 새로운 시도로 성장 기회를 잡겠다는 접근이다.금융위원회에 따르면 작년 1월 27일 첫 마이데이터 본허가 사업자가 나온 후 1년여 만에 소규모 핀테크 기업 중심으로 마이데이터 사업 참여 수요가 증가했다. 업력이 길지 않아도 각 분야 전문가들이 모인 데다 성장성을 인정받는 기업군이 다수 포진됐다.현재까지 마이데이터 본허가를 획득한 56개 본허가 사업자 중 23개 핀테크 기업을 보면 비교적 오랫동안 사업을 운영하며 규모를 키워 온 곳이 다수다. 네이버파이낸셜, 카카오페이, 토스, NHN페이코, 뱅크샐러드 같은 빅테크 외에 핀크, 핀테크, SK플래닛, 민앤지, 핀다, 깃플, 디셈버앤컴퍼니자산운용 등 각 분야에서 어느 정도 업력을 쌓은 곳이 상당하다.올해부터는 스타트업 중심으로 마이데이터 시장 진입이 크게 늘 것으로 예상된다. 마이데이터 본허가 사업자 자격을 갖추면 사용자 동의를 거쳐 직접 데이터를 확보해서 활용할 수 있어 기존 사업을 고도화하거나 신규 분야로 서비스를 확장할 수 있기 때문이다.최근 금융위가 마이데이터 예비허가를 접수한 결과 타인에이아이(주식소셜플랫폼), 하이픈코퍼레이션(데이터API 마켓 플레이스), 왓섭(구독경제관리 플랫폼), 더즌(아파트 통합관리 ERP), 비트나인(그래프DB)이 참여했다.타인에이아이는 주식 소셜 플랫폼 '오르락'을 서비스하는 스타트업이다. 지난 2020년 회사 설립 후 작년 4월 오르락을 정식 출시했다. 끌림벤처스, 소프트뱅크벤처스, KB인베스트먼트에서 프리시리즈A 투자를 유치했다.케이에스넷에서 분사한 후 올해 3월 데이터API 마켓 플레이스를 출시한 하이픈코퍼레이션도 마이데이터 시장을 노크했다. 이 회사가 제공하는 데이터API 마켓 플레이스는 스타트업이 다양한 데이터와 솔루션을 활용할 수 있도록 한다. 간편결제를 구축할 수 있는 지급결제API, 배달대행사와 연동한 배달 중계주문API, 기업 정보와 재무분석 리포트 등을 제공하는 기업분석API 등으로 구성됐다.정기 구독 서비스 지출을 관리하는 구독관리 서비스 '왓섭'을 운영하는 왓섭도 마이데이터 시장 진출을 준비하고 있다. 2020년에 설립돼 아직 업력이 길지 않지만 구독 서비스를 즐기는 MZ세대 수요를 간파했다는 평가를 받으며 성장하고 있다.왓섭은 일부 신용카드사가 개별 제공하는 구독관리 서비스의 일괄 제공을 넘어 보험, 대출, 적금 등 정기 지출하는 금융상품으로 서비스 범위를 확대할 계획이다. 최근 키움인베스트먼트 등에서 23억원 규모 프리A 투자를 유치했다.비트나인과 더즌은 상대적으로 업력이 탄탄하다.2013년 설립한 비트나인은 작년 11월 코스닥 시장에 상장됐다. 국내에서 유일하게 그래프 데이터베이스관리시스템 기술을 보유한 그래프DB 전문기업이다. 금융·공공·정보통신기술(ICT) 분야를 넘어 유통, 이커머스 등으로 사업 영역 확대를 준비하고 있다.더즌은 2017년에 설립된 PG(전자지급결제대행)사다. 아파트 통합관리 ERP 등 공동주택관리 관련 데이터 사업이 핵심이다. 카카오페이가 지분 9.9%를 보유한 제휴사다.금융위 관계자는 “최근 소규모 핀테크 기업을 비롯해 다양한 스타트업까지 마이데이터 사업 신규 신청이 늘고 있다”면서 “심층적인 심사와 함께 컨설팅도 제공할 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.05.14.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>케이뱅크도 참전…인터넷銀 개인사업자대출 두고 각축전</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005088733?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>인터넷전문은행들이 개인사업자대출을 두고 각축전을 벌일 전망이다. 토스뱅크에 이어 케이뱅크도 출시가 임박했고, 카카오뱅크도 개인사업자 대출을 한창 준비 중이다.14일 은행권에 따르면 케이뱅크는 이르면 이달 중 개인사업자 대출 상품을 출시한다. 앞서 케이뱅크는 지난 3월 개인사업자 대출 출시를 위해 신용보증재단중앙회와 업무협약(MOU)도 맺었다. 100% 비대면으로 개인사업자에 대한 평가와 대출 신청, 입금까지 한 번에 가능하도록 통합전자보증시스템, 비대면 보증 시스템을 구축한다.토스뱅크는 지난 2월 인터넷전문은행 중에서는 처음으로 '사장님 대출'을 출시했다. 사장님 대출은 토스뱅크가 인터넷전문은행 최초로 선보인 비대면 개인사업자 대출이다. 토스뱅크 사장님 대출은 보증기관의 보증서나 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도를 부여한다. 매출액이 크지 않더라도 연소득이 일정하거나 매출이 꾸준히 발생하는 경우 단기간에 높은 소득을 올린 사업자에 비해 높은 신용도를 인정받을 수 있다. 출시 한 달 반 만에 대출 상품의 잔액이 2000억원을 기록하기도 했다.카카오뱅크 역시 올해 하반기 중으로 개인사업자대출 상품을 내놓을 예정이다. 카카오뱅크 관계자는 "시중은행에서 제대로 평가 받지 못했던 알짜 사업자라던지 영세사업자들의 혜택이 나아질 수 있다"고 말했다.인터넷은행들은 금융당국의 규제 정책이 완화되면서 본격적으로 기지개를 켜기 시작했다. 금융위원회는 지난 1월 인터넷은행에 대해 3년 유예기간을 거쳐 일반은행과 동일한 예대율(은행의 예금잔액에 대한 대출금잔액의 비율) 규제를 적용하고 기업 대출 심사 등에 필요한 현장 실사와 기업인 대면 거래를 허용했다. 가계대출만 취급하던 인터넷은행들도 기업 대출 시장에 진출할 수 있게 숨통이 트인 것이다.게다가 개인사업자 대출을 포함한 기업대출은 점점 늘어나는 추세다. 가계대출 규제 강화로 은행들이 기업대출에 공을 들이는 데다가 코로나19 장기화로 대출 수요도 커졌기 때문이다. 한국은행이 발표한 금융시장 동향에 따르면 지난달 은행권 개인사업자 대출은 2조6000억원 늘어난 433조3000억원을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>尹 취임식 간 스타트업 CEO "규제 없애고 디지털 대전환 이루자"</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004696848?sid=100</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>김슬아 컬리 대표 "네거티브 규제 필요"김세영 피에스엑스 대표 "기술 혁신 지원 원해"남성준 다자요 대표 "지역 생태계도 살펴 달라"윤석열 대통령 취임식에 참석한 주요 스타트업 최고경영자(CEO)들이 '디지털 대전환 시대'에 규제 혁신 등 정부의 적극적인 지원을 바란다는 목소리를 냈다. 서울 여의도 국회의사당에서 10일 오전 열린 윤 대통령 취임식에는 김범준 우아한형제들(배달의민족) 대표, 이승건 비바리퍼블리카(토스) 대표, 김슬아 컬리(마켓컬리) 대표 등 10여 명의 스타트업 CEO들이 참석했다. 국내 비상장 주식 거래를 활성화한 피에스엑스(서울거래비상장)의 김세영 대표, 제주를 기반으로 빈집 재생 프로젝트를 하는 다자요의 남성준 대표 등도 이날 취임식에 초청됐다.김슬아 컬리(마켓컬리) 대표. 한경DB마켓컬리의 김 대표는 "창업자들이 늘 기대하는 것은 규제 개혁"이라며 "현재의 포지티브 규제 방식을 네거티브 규제 방식으로 바꾸는 것이 필요하다"고 말했다. 포지티브 규제는 법률과 정책에서 허용되는 것들을 나열하고 이외의 것들은 허용하지 않는 규제를 의미한다. 반면 네거티브 규제는 법률이나 정책으로 금지된 것이 아니면 우선 허용하는 방식이다. 네거티브 규제가 기업의 새로운 시도에 도움이 된다.김 대표는 "(네거티브 규제는) 유니콘 스타트업(기업가치 1조원 이상 스타트업)뿐만 아니라 예비 창업자부터 소상공인, 심지어는 대기업에 모두 적용되는 이슈이기 때문에 새 정부에서 귀 기울여 달라"고 주문했다.김세영 피에스엑스(서울거래비상장) 대표. 피엑스엑스 제공서울거래비상장의 김 대표는 "취임사에서 자유, 혁신, 성장과 도약에 대한 이야기가 강조돼 인상적이었다"며 "국가의 성장과 도약에 대한 새 정부의 의지와 기개가 느껴졌다"고 말했다. 이어 "디지털 대전환 시대에 과학과 기술, 혁신을 지원하는 정부의 지원 속에서 한국의 성장을 견인하고 세계로 도약하는 중소 혁신 기업들이 많이 나오기를 기대한다"고 강조했다. 다자요의 남 대표는 지역 스타트업 생태계를 살펴달라고 주문했다. 남 대표는 "스타트업이 성장하려면 투자, 일할 공간, 인재가 필요한데 현재는 모든 지원이 서울과 판교에 쏠려 있다"며 "지역 스타트업도 두루두루 살피는 정부가 되었으면 한다"고 말했다. 이어 "실패하더라도 다양한 시도들이 허용되는 나라가 되면 좋겠다"며 "'하지 마라'가 아니라 '한번 해봐, 실패해도 상관없어'를 지원해줬으면 한다"고 했다. 김정현 셰어하우스우주 대표는 "복잡한 국제 정세 속에 우리는 과학과 기술, 혁신을 통해 성장하고 도약하겠다는 취임사가 인상적이었다"며 "국경 없는 디지털 시대에 국내 스타트업들이 한국을 넘어 세계로 나아갈 수 있도록 과감한 규제 개혁과 적극적인 지원이 뒷받침되기를 기대한다"고 말했다. 최성진 코리아스타트업포럼 대표는 디지털 인재 양성을 통해 스타트업 생태계를 키우자는 의견을 내놨다. 최 대표는 "새 정부에서 경제 분야 국정 과제 비전으로 제시한 ‘민간 주도-정부 조력 원칙’이 성공적으로 지켜지기를 바란다"며 "전 세계 경제 질서가 디지털 전환이 이루어지고 있는 만큼 과감한 규제 혁신과 100만 디지털 인재 양성 등을 통해 창업하기 좋은 나라를 만들어 디지털 경제 패권 국가로 도약할 수 있기를 희망한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>美연준 ‘빅스텝’에 예·적금 금리 인상 서두르는 인뱅</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004832466?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>한은 기준금리 추가인상 전망시중은행 수신금리 더 오를듯높은 금리로 가입자 이탈 막기  인터넷은행의 예·적금 금리 인상 발걸음이 바빠지고 있다. 기준금리 인상에 따른 시중은행 수신금리 인상에 이어 인터넷은행도 고객 이탈을 막기 위해 더 높은 금리를 부르는 것이다. 지난 4일 연방공개시장위원회(FOMC)가 회의를 통해 기준금리 0.5%p 인상을 결정하면서 국내 은행들의 금리 상승압력이 지속될 것이라는 예측도 나온다.   8일 금융권에 따르면 케이뱅크는 지난 6일부터 수신 상품 금리를 최대 0.4%p 올리겠다고 발표했다. 대표적으로 코드K정기예금은 1년 만기 기준 0.3%p 올라 연 2.4%의 금리를, 3년 만기 기준으로는 0.4%p 오른 연 2.8%p의 금리를 제공하게 됐다. 코드K자유적금의 경우 1년 만기는 연 2.6%, 3년 만기는 연 3.0%의 금리가 적용된다. 각각 0.2%p, 0.4%p 오른 수준이다.   이는 카카오뱅크가 지난 4일 자유적금과 정기예금 등의 금리를 인상하겠다고 밝힌 지 불과 이틀만이다. 앞서 카카오뱅크는 예·적금 기본금리를 최대 0.4%p 올려 3년 만기 정기예금은 연 2.7%, 3년 만기 자유적금은 최고 연 3%의 금리를 제공하겠다고 밝혔다. 역시 만기가 길수록 인상폭을 넓혔다.   인터넷은행의 예·적금 금리 인상은 올해 들어서만 2번째다. 앞서 지난 1월 카카오뱅크가 수신금리를 최대 0.3%p 인상하겠다고 한 뒤 케이뱅크도 지난 2월 비슷한 수준의 금리 인상을 결정했다.   지난해 12월에도 카카오뱅크와 케이뱅크는 예·적금 금리를 각각 최대 0.4%p와 0.6%p 올리겠다고 발표한 바 있다. 다만 인터넷은행 중 토스뱅크만 금리에 변함이 없었다. 이와 관련해 토스뱅크 관계자는 "토스뱅크는 예·적금 상품 없이 수시입출금 계좌만 운영하고 있다"며 "수시입출금 계좌에 2% 금리는 아직까지 경쟁력 있는 수준"이라고 설명했다.   이 같은 인터넷은행의 잇따른 수신금리 인상은 한국은행이 기준금리를 인상한 영향을 받은 것으로 풀이된다. 한국은행은 지난해 8월부터 4차례에 걸쳐 기준금리를 0.5%에서 1.5%로 1%p 끌어올렸다. 이에 시중 은행이 앞다퉈 예·적금 금리를 올리자, 비교적 높은 금리를 제공해왔던 인터넷은행도 이를 올릴 수밖에 없는 상황이 된 것이다.   더욱이 지난 4일 미 연준의 '빅스텝' 결정으로 국내 기준금리 상향 가능성도 커졌다. 은행들의 수신금리도 더 높아질 수 있다는 의견이 제기되는 이유다. 은행권 관계자는 "기준금리가 오르면 은행권 예·적금 금리도 함께 오르는 경우가 많다"며 "인상 시기와 폭은 조금씩 다를 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.05.13.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>광주서 왔어요…놓친 강연은 '엠플러스'로 보충 [WEALTH]</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004963646?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>'재테크 플랫폼' 엠플러스 주목◆ 2022 서울머니쇼 ◆  "요즘같이 장이 안 좋을 때 투자 원칙을 다시 세워야겠다 싶어서 광주에서 머니쇼를 보러 왔어요. 많은 세미나를 들었는데 시간이 겹쳐 못 들은 것들도 있어 엠플러스로 보려고 신청했어요."13일 서울머니쇼에 참여한 직장인 윤 모씨(37)는 이날 하루 동안에만 5개의 세미나를 들었다. 윤씨는 세미나와 세미나 사이 비어 있던 짧은 시간에 머니쇼 행사장 앞 벤치에서 간단한 분식으로 점심을 해결했다. 10분 만에 식사를 끝낸 윤씨는 곧바로 엠플러스 부스로 향해 1년 구독권을 신청하고 또다시 세미나실로 달려갔다. 그는 "주로 부동산, 주식과 관련된 세미나를 들었는데 최근 이슈가 된 가상자산을 주제로 한 세미나도 흥미로웠다"며 "전문가들의 분석과 조언을 바탕으로 나만의 재테크 원칙을 세우려 한다"고 말했다. 오전에 머니쇼에서 부동산 세미나를 듣고 나온 50대 박 모씨도 엠플러스 부스로 발걸음을 옮겼다. 수년째 매일경제신문을 구독 중이라는 박씨는 보다 깊은 재테크 정보를 얻기 위해 엠플러스 구독도 신청했다고 한다. 박씨는 "디지털 자산 투자에 대한 관심이 생겼는데 양질의 정보를 찾아보던 중 엠플러스를 알게 됐고 머니쇼에도 참석하게 됐다"며 "전문 정보들을 손쉽게 볼 수 있을 것 같아 기대가 된다"고 말했다.이날 전국 곳곳에서 온 참가자들이 눈에 띄었다. 전북 정읍시에서 올라온 정읍배영고 학생 190여 명과 서울여자상업고 학생들이 현장학습으로 머니쇼에 참여했다. 정읍배영고 1학년 노승훈 군은 "전공이 자연과학 쪽이라 금융 분야는 잘 몰랐는데 머니쇼에서 블록체인도 알게 되고 NFT에 대한 관심도 생겼다"고 말했다. 외국인 참가자들도 있었다. 금융업에 종사하고 있다는 폴란드인 카타주나 씨는 친구 추천으로 머니쇼를 방문했다고 한다. 그는 "예술 작품 조각 투자 같은 것을 실제로 체험해볼 수 있어 흥미로웠고 다양한 이벤트로 금융사와 고객들이 상호 작용하는 게 즐거웠다"고 말했다.참가자들의 뜨거운 관심으로 각 부스가 준비한 경품이 금세 동나기도 했다. 앱을 설치하기만 해도 타폴린백을 기념품으로 나눠준 토스뱅크는 3000개 기념품을 준비했지만 둘째 날인 13일 오전 이미 기념품이 동나 버렸다. 주사위 던지기 이벤트를 준비한 카카오뱅크 부스 앞에는 이벤트 시작 20분 전부터 긴 줄이 늘어서기도 했다. 계좌 개설 이벤트를 준비한 서울거래 비상장 부스에서는 하루에 100명 이상 계좌를 개설했다. 빈백 라운지를 준비한 8퍼센트 부스에는 광활한 머니쇼 행사장을 누비다가 지친 참가자들이 들어와 빈백에 누웠고 그곳에서 낮잠을 청하는 사람들도 있었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>청와대 개방 첫날 10만 명 관람신청 몰려…2.6만 명 ‘당첨’</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001985542?sid=100</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>첫날 관람 가능 인원의 3.5배 신청 몰려지난 5일 간 125만 명 청와대 관람 신청[대통령직인수위원회 누리집 갈무리][헤럴드경제=문영규 기자] 청와대 개방 첫날인 오는 10일 관람을 신청한 이들이 10만 명에 육박한 9만977명에 달했다고 대통령직인수위원회 청와대이전TF(태스크포스)가 2일 밝혔다. 다만 2만6000명만 관람이 가능해 이들에 대해 순차적으로 안내할 계획이다.인수위 청와대이전TF에 따르면 10일 일반 관람 신청자는 6만4625명, 단체는 1만2969명, ‘65세 이상 어르신 또는 장애인’은 1만3383명이었다. 관람 가능 인원인 2만6000명의 3.5배 수준이었다.당첨자는 신청한 온라인 플랫폼(네이버, 카카오톡, 토스) 등을 통해 순차적으로 개별 알람을 받는다. 이날 10~14시 알림을 받지 못하면 당첨에 실패한 것으로, 10일을 제외한 다른 날짜에 재신청할 수 있다.한편 관람 신청 개시 이후 현재(2일 0시 기준)까지 지난 5일 동안 125만 명이 청와대 관람을 신청했다.윤한홍 청와대이전TF 팀장(국민의힘 의원)은 “관람 신청 개시 닷새 동안 125만 명이 넘는 국민들께서 신청을 완료했을 만큼 국민적 관심이 높다”며 “청와대 개방이 새로운 시대를 여는 국민 축제의 장이 될 수 있도록 차질 없이 준비하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>BNPL, 카드사도 뛰어든다…문제없나</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011161438?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>기사내용 요약네이버페이·쿠팡, BNPL 서비스 인기국민카드, 하반기 서비스 출시 예정연체 등 리스크 관리 필요성 제기돼[서울=뉴시스]쿠팡의 BNPL 서비스 화면(사진=캡처)2022.05.03 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 핀테크업계가 후불결제(BNPL, Buy Now Pay Later) 서비스를 앞다퉈 도입해 인기를 끌면서 카드업계가 바짝 긴장하고 있다. 카드업계에선 빅테크기업에 사실상 신용 판매업을 허용해 준 것 아니냐는 볼멘소리가 나온다. KB국민카드와 신한카드 등 일부 카드사는 BNPL 산업 진출을 결정했다. 3일 금융권에 따르면 KB국민카드는 올해 3분기 후불결제 서비스를 출시할 계획이다. KB국민카드 사내벤처팀 '하프하프'는 최근 통합 결제 서비스 기업 다날과 후불결제 서비스 구축·운영을 위한 업무 제휴 계약을 체결했다. 이들은 먼저 비금융정보 기반의 대안신용평가 시스템을 공동으로 구축할 계획이다. 신한카드도 국내 1호 대안신용평가 기업 크레파스솔루션과 함께 빅데이터를 기반으로 하는 대안신용평가모형 개발에 착수했다. BNPL은 '선결제-후지불' 서비스다. 가맹점은 후불결제사(BNPL기업)로부터 판매대금을 선지급받고, 고객은 해당 금액을 무이자로 일정 간격 나눠서 납부할 수 있다. 지난 1월 정태영 현대카드 부회장이 "가장 초기 신용카드의 구조"로 평가했는데, 고객이 자신의 신용등급과 관계없이 해당서비스 이용이 가능하며 분할납부 거래수수료가 없다는 점이 신용카드 거래와 가장 큰 차이점으로 꼽힌다. 그만큼 이 결제 방식은 신용카드 결제처럼 밴사(부가통신사업자), 신용정보회사 등의 과정을 거치지 않는다.  이에 현재 MZ세대를 중심으로 한 씬 파일러(금융이력 부족자·Thin Filer)에게 큰 인기를 끌고 있다. 하나금융경영연구소에 따르면 BNPL 서비스가 가장 먼저 시작된 스웨덴은 온라인 결제의 25%가량이 BNPL로 이뤄지고 있다. 해외 주요 BNPL기업으론 애프터페이, 클라나 등을 들 수 있는데 2020년과 비교해 지난해 거래 규모가 각각 98%, 76% 증가했다. 뱅크오브아메리카는 BNPL 시장이 2025년까지 15배 성장해 최대 1조 달러(약 1152조원) 규모로 커질 것으로 내다봤다.시장이 커지자 대기업들도 BNPL 서비스를 속속 내놓고 있다. 세계 최대 간편결제 기업 페이팔은 '페이 인 4(Pay in 4)'라는 무이자 할부 옵션을 출시했다. 카드회사 아메리칸익스프레스도 100달러 이상 구매 시 최대 24개월간 무이자로 분할 납부할 수 있는 '플랜 잇(Plan it)' 서비스를 내놓았다. 애플도 '애플페이 레이터'라는 이름으로 BNPL 서비스를 준비하고 있다. 국내에서 BNPL 서비스는 금융당국이 혁신금융서비스 제도를 통해 월 최대 30만원 한도로 조건부 허용하면서 서비스 도입이 가능해졌다. 현재 국내 후불결제 시장은 네이버파이낸셜, 카카오페이, 토스 등 핀테크 기업이 선도하고 있다. 네이버파이낸셜과 토스, 쿠팡은 한 달 30만원까지 한도를 부여하고 있다. 카카오페이는 올 1월부터 월 15만원 한도로 '후불형 모바일 교통카드' 서비스를 시행했다. 향후 쇼핑 등 일반결제에 대한 후불결제 서비스로도 사업을 확대해 나갈 것으로 보인다.다만 출시 1년째를 맞는 네이버페이의 BNPL 서비스의 연체율이 신용카드 연체율의 두 배가 넘는 것으로 나타났다. 윤창현 국민의힘 의원실이 금융감독원에서 받은 자료에 따르면, 네이버페이 후불결제 고객의 지난 3월 연체율(1개월 이상)은 1.26%로 집계됐다. 지난해 말 신용카드 연체율 0.54%의 두 배가 넘는다. 이미 BNPL이 활성화된 해외에선 이 서비스가 과소비와 연체를 부추긴다는 지적이 나왔다. 야후파이낸스는 지난해 금융회사 크레디트 카르마의 조사를 인용해 "미국 BNPL 이용 고객의 34%는 최소 1건 이상의 결제를 연체했고, 72%는 신용등급이 하락했다"고 보도한 바 있다. 영국, 호주, 미국 등 각국의 감독당국은 BNPL 산업과 관련한 법 개정 및 감독권 행사를 위한 절차를 진행하고 있다. 특히 소비자의 채무부담능력 평가, 취약계층의 보호 중심의 규제 방안을 고려하고 있다. 한 카드업계 관계자는 "BNPL은 지표들 몇 가지로 한도를 부과하는 만큼 리스크 관리가 잘 될지 의문이다. 심사가 제대로 안 되는 만큼 감당할 수 있는 여력 이상의 사용을 막을 수 없는 상황"이라며 "30만원씩 세 곳에서 이용하면 평균 한 달 생활비 정도되는 90만원은 거뜬히 쓸 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>국민·신한카드도 한다… 불붙은 금융권-핀테크 ‘후불결제’ 경쟁</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000810686?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>네이버페이·카카오페이·토스(비바리퍼블리카) 등 핀테크업계가 후불결제(BNPL·Buy Now Pay Later) 서비스를 앞다퉈 도입하고 있다. 최근에는 신한카드와 KB국민카드도 후불결제 시장에 뛰어들기로 하면서 핀테크업계와 카드사 간 경쟁에 불이 붙는 모습이다. 후불결제란 외상으로 결제하고, 한 달 뒤 등 나중에 갚을 수 있는 일종의 ‘외상 거래’를 의미한다.2일 금융권에 따르면 KB국민카드는 올해 3분기 후불결제 서비스를 출시할 계획이다. 이를 위해 KB국민카드 사내벤처팀 ‘하프하프’는 최근 통합 결제 서비스 기업 다날과 후불결제 서비스 구축 및 운영을 위한 업무 제휴 계약을 체결했다. 이들은 먼저 비금융정보 기반의 대안신용평가 시스템을 공동으로 구축할 예정이다.토스 제공        신한카드 역시 국내 1호 대안신용평가 기업 크레파스솔루션과 함께 빅데이터를 기반으로 하는 대안신용평가모형 개발에 착수했다. 양사는 대안신용평가 서비스를 고도화하고 데이터 협력을 통해 경쟁력을 강화할 예정이다. 양사는 금융사 및 후불결제사에게 실질적인 서비스를 제공할 수 있을 것으로 보고 있다.핀테크가 뛰어든 후불결제 시장에 카드사가 잇달아 진출하는 이유는 미래 고객 선점 때문이다. 후불결제는 신용카드 발급이 어렵거나, 소액 단기 신용대출이 필요한 대학생·사회초년생 등 ‘씬 파일러(금융이력 부족자·Thin Filer)’가 쉽게 이용할 수 있다는 장점이 있다. 후불결제 서비스에 익숙해진 MZ세대(밀레니엄+Z세대, 1980~2000년대생)가 향후 비슷한 기능을 가진 신용카드를 이용하지 않게 될 가능성이 있는 셈이다.당초 후불결제 서비스 근거가 담긴 전자금융거래법 개정안이 국회 문턱을 넘진 못했다. 그러나 금융당국이 혁신금융서비스 제도를 통해 월 최대 30만원 한도로 조건부 허용하면서 서비스 도입이 가능해졌다.현재 국내 후불결제 시장은 네이버파이낸셜, 카카오페이, 토스 등 핀테크 기업이 선도하고 있다. 네이버파이낸셜은 네이버페이를 통해 지난해 4월 국내 빅테크 중 가장 먼저 후불결제 서비스를 선보였다. 자체 심사를 통과한 사람에게 최대 월 30만원 한도를 부여하고 있다.카카오페이는 올 1월부터 ‘후불형 모바일 교통카드’ 서비스를 시행하고 있다. 월 15만원 한도로, 향후 쇼핑 등 일반결제에 대한 후불결제 서비스로도 사업을 확대해 나갈 것으로 보인다. 토스는 지난달부터 한 달 30만원까지 가능한 후불결제 서비스를 시작했다.조선DB        후불결제는 해외에선 이미 인기를 끌고 있다. 미국 시장조사업체 ‘인사이더 인텔리전스’는 올해 미국 후불결제 사용자가 지난해(약 4900만명)보다 21%가량 증가한 약 5930명이 될 것으로 전망하고 있다. 향후  전망도 긍정적이다. 뱅크오브아메리카(BOA)는 후불결제 시장 규모가 오는 2025년까지 1조달러 수준으로 성장할 것으로 전망했다.고은아 하나금융경영연구소 수석연구원은 “금융 플랫폼에서 후불결제 서비스를 제공하는 경우, 결제액의 약 3%에 해당하는 카드사 수수료를 지불하지 않아도 돼 금융 플랫폼 페이사 입장에서 수익구조가 유리한 편”이라면서도 “다만 현재 분할납부 기능이 없고, 이용 금액 한도도 월 30만원의 소액이라 아직은 선풍적인 인기를 기대하기는 어렵다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>공급망 위기 속 화물 운송 디지털화 스타트업들 '각광'</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005085803?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>[이미지출처=AP연합뉴스]코로나19로 촉발된 전 세계적인 공급망 위기가 장기화하면서 화물 운송을 효율화하는 스타트업이 각광받고 있다. 주문, 가격조정 등 주요 프로세스가 전통적인 방식으로 운영됐던 화물 운송 시장에서 이 절차를 디지털화하는 업체들이 잇따라 투자를 받고 있는 것이다.8일(현지시간) 영국 이코노미스트가 피치북을 인용한 바에 따르면 지난해 공급망 관련 기술 기업이 모금한 자금은 620억달러(약 78조8000억원)를 넘어서 팬데믹(세계적 대유행) 이전인 2019년의 두배 이상을 기록했다. 이 중 화물 기술 스타트업에 투자된 자금은 약 90억달러였으며, 10억달러 이상의 가치 있는 '유니콘' 기업이 된 스타트업도 10여개에 달한다고 피치북은 집계했다.이코노미스트는 이러한 투자자들의 관심이 화물운송 업계의 규모와 공급망 붕괴 가능성 등을 본 것이라고 분석했다. 공급망 리서치 업체인 암스트롱앤어소시에이츠에 따르면 운송업 자체의 연간 매출이 4750억달러에 달한다. 여기에 광범위한 제3자 물류 시장이라 할 수 있는 배송 관리와 물류창고 사업은 1조4000억달러의 매출을 창출한다.디지털 운송 시장인 프라이토스를 이끄는 즈비 슈라이버 사장은 "이 업계는 완전 오프라인이다. 컨테이너 선적이 그냥 비행기 예약하듯 디지털화 됐을 것이라 기대하겠지만 전혀 아니다"라고 말했다. 화물 운송 기술 스타트업 포르토의 마이클 왁스 사장도 "화물운송업자의 90%는 가격을 조정하는 데만 하루 이틀이 소요된다"고 말했다.미 샌프란시스코 기반의 디지털 화물 운송업체 플렉스포트는 견적을 받는 것부터 문서 작성, 운송업체간 조정 등 기존에 전통적인 방식으로 운영됐던 운송 프로세스를 자동화해 주목 받고 있다. 지난해 32억달러의 매출을 기록한 이 업체는 설립 9년 만인 올해 80억달러 이상의 기업 가치를 인정받았다. 시카고 기반의 공급망 플랫폼 업체인 프로젝트44는 화물이 실시간으로 어떻게 이동하고 있는지를 모니터링할 수 있는 정보를 제공한다.이코노미스트는 이러한 화물 운송 업체들에 대한 관심이 공급망 문제로 인한 것도 있지만 세계 최대 이커머스 업체인 아마존의 등장이 먼저 영향을 줬을 것이라고 전했다. 아마존이 당일배송과 같은 신속한 배송 서비스를 제공하면서 이에 따른 공급망 개선이 필요했을 것이라는 분석이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>토스, 스타트업 발굴 프로그램 'FOUND' 1화 유튜브 공개</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002601345?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>토스가 직접 기획하고 제작한 스타트업 발굴 프로그램 FOUND 소개 포스터 ⓒ토스[데일리안 = 김효숙 기자] 토스는 투자금 10억원 규모의 스타트업 서바이벌 FOUND 첫 편이 자사 공식 유튜브 채널을 통해 공개됐다고 6일 밝혔다.토스가 직접 기획하고 제작한 FOUND는 다양한 백그라운드를 가진 선배 기업인들이 모여 국내외 유망한 예비 창업가와 스타트업 기업을 적극 발굴하는 프로그램이다. 해당 콘텐츠는 세상을 바꿀 새로운 아이디어를 지원하고 스타트업 생태계에 활력을 불어넣겠다는 취지에서 기획됐다. 제목인 FOUND는 풀어야할 문제를 발견했다는 의미와, 회사를 설립했다는 의미를 동시에 가지고 있다.공개된 1화에서 가장 먼저 눈길을 사로잡는 것은 한 자리에 모이기 어려운 파트너 라인업이다. 파트너들은 파운더의 세상을 바꾸는 도전을 함께하는 멘토와 같은 존재로, 팀 토스, 팀 유니콘, 팀 VC 등 총 3팀으로 구성됐다.팀 토스에는 한국의 대표적인 스타트업이자 유니콘 기업인 토스의 이승건 리더, 안지영 프로덕트 오너, 서현우 전략 헤드가 파트너로 함께한다. 팀 유니콘에는 박재욱 쏘카 대표, 신현성 차이홀딩스 대표 및 티몬 의장, 이상희 센드버드 한국 법인 대표가 합류했다. 팀 VC에는 이한주, 김유진 스파크랩 공동대표, 김한준 알토스벤처스 대표 및 박희은 알토스벤처스 파트너, 오지성 뮤렉스파트너스 부사장 등이 포함됐다.1화의 하이라이트는 파트너들 앞에서 파운더들이 40초 간 자신의 사업 아이템에 대해 간략하게 소개하고 통과 여부를 확인하는 엘리베이터 매치다. 여기서 탈락의 고배를 마신 일부 참가자들은 투자금보다도 스타트업 씬에서 큰 역할을 하고 있는 파트너들을 만난다는 것에 더 큰 의의를 둔다는 소회를 밝히기도 했다.FOUND 제작진은 "예선에만 약 400팀에 가까운 스타트업이 지원해 주실 정도로 뜨거운 관심 속에 출발했다"라며 "신선한 아이디어로 똘똘 뭉친 파운더들에게 파트너들의 날카롭고 생산적인 피드백이 시작된 만큼, 앞으로 펼쳐질 에피소드에도 많은 관심과 기대 부탁드린다"라고 말했다.총 6회로 구성된 FOUND 프로그램은 매주 목요일 오후 7시 토스 공식 유튜브에서 순차적으로 공개된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.05.05.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>자영업자대출 계속 느는데… 새 정부 ‘배드뱅크’ 설립 손 떼나</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001523840?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>인수위 ‘110대 국정 과제’서 제외새로운 조직 만드는것 부담 작용채무조정기금 조성 방안 검토연합뉴스새 정부가 자영업자 대출 부실화 문제를 해결할 대안으로 검토하던 ‘배드뱅크(Bad Bank·부실채권전담처리은행)’ 설립에서 손을 떼는 분위기다. 대신 채무조정기금을 조성하는 방안을 검토중이다. 대출 만기 연장때문에 숨어있는 ‘부실 폭탄’ 우려가 여전한 가운데 자영업자대출 증가세는 이어지고 있다.4일 금융권에 따르면 대통령직인수위원회가 지난 3일 내놓은 ‘윤석열 정부 110대 국정 과제’에는 배드뱅크 설립안이 포함되지 않았다. 인수위는 부실화 우려 대출까지 종합적으로 지원하는 긴급 구제식 채무 조정을 추진하고 제2 금융권→은행 대환 대출 보증을 신설하는 등 맞춤형 금융을 공급하겠다고만 밝혔다.앞서 안철수 인수위원장이 지난달 분과별 업무 보고 당시 배드뱅크 설립을 적극적으로 검토하라고 주문했지만 최종안에는 오르지 않은 것이다. 금융권에서는 인수위가 새로운 조직을 만드는 데 부담을 느낀 것으로 보고 있다. 2011년 이명박 정부 때 생긴 유암코(연합자산관리), 2016년 박근혜 정부에서 출범한 서민금융진흥원 등 비슷한 업무를 하는 기관이 있는데 조직을 더 추가하는 것은 ‘작은 정부’를 지향하는 윤석열 당선인의 국정 철학에 부합하지 않는다는 판단이다.인수위는 유암코와 같은 배드뱅크 대신 채무조정기금을 설립하는 방안을 검토하고 있다. 캠코(한국자산관리공사)나 소상공인진흥공단에 채무조정기금을 설립해 기존 조직을 최대한 활용하는 방식이다. 코로나19로 인한 자영업자대출 부실화 문제는 상시적인 위험이 아니므로 기존 조직을 활용하는 편이 더 낫다는 금융권 제언을 인수위가 받아들인 것으로 풀이된다.문제는 자영업자대출 규모가 계속 커지고 있다는 점이다. 지난달 말 KB국민·신한·하나·우리·NH농협 5대 시중은행 기업대출 잔액은 전월 말 대비 6조6486억원 늘었다. 이 중 3분의 1 이상인 2조4919억원이 자영업자대출이다. 자영업자대출은 지난해 12월 9739억원 증가하는 데 그쳤지만 올해 1월에는 1조6854억원, 2월에는 2조1097억원, 3월에는 2조362억원 늘어나는 등 증가세가 확연하다. 이에 따라 지난해 12월 말 300조원에 못 미쳤던 대출 잔액은 4월 308조447억원까지 불어났다.인터넷전문은행까지 자영업자대출 영업에 뛰어들면서 이런 추세는 더 빨라질 것으로 보인다. 지난 2월 인터넷은행 중 자영업자대출 상품을 가장 먼저 선보인 토스뱅크의 경우 출시 한 달 만에 잔액이 2000억원을 넘겼다. 카카오뱅크도 올 4분기 중 자영업자대출 상품을 공개할 계획이다.금융권 관계자는 “주요 시중은행은 자영업자대출 부실화에 대비해 대손 준비금·충당금을 상당 폭 쌓아둔 상황이지만 우려가 현실이 될 경우 금융권에 미칠 파장이 결코 작지 않아 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>금소연 선정 '좋은 은행' 1위에 KB국민은행</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013172974?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 이지헌 기자 = 금융소비자연맹(금소연)은 '2022년 좋은 은행' 순위를 매긴 결과 KB국민은행이 1위를 차지했다고 12일 밝혔다.    금소연은 은행의 안정성(40%)과 소비자성(30%), 건전성(20%), 수익성(10%) 등 4개 부문으로 은행을 평가해 선정했다고 설명했다.    종합순위는 KB국민은행에 이어 카카오뱅크가 2위, NH농협은행이 3위를 차지했다. SH수협은행은 최하위인 18위였다. 작년 10월 출범한 토스뱅크는 이번 평가 대상에 포함되지 않았다.     평가항목별로 보면 안정성은 카카오뱅크, 케이뱅크 순으로 순위가 높았다. 안정성 평가는 국제결제은행(BIS) 자기자본비율과 유동성 커버리지 비율을 기준으로 산정했다.    소비자성은 KB국민은행, SC제일은행 순으로 높은 평점을 받았다. 소비자 10만명당 민원 건수, 민원 증감률, 인지·신뢰도 설문 등을 토대로 소비자성을 평가했다.    고정이하여신비율 및 대손충당금 적립률로 평가한 건전성은 한국씨티은행이 1위를 차지했다.    수익성은 HMM 전환사채 전환권 행사로 비경상적 이익이 급증한 산업은행이 차지했다.    금소연은 "코로나19 여파, 대출 총량 규제 등 영업 환경 악화에도 은행 평가 부문인 안정성, 소비자성, 건전성, 수익성 등 전 부문의 평가 수치가 전년 대비 개선되거나 증가했다"고 말했다.금융소비자연맹 선정 2022년 '좋은 은행' 순위[금융소비자연맹 제공]    pan@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.05.15.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>실적 부진에 주가도…카카오페이 반등 전략은?</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004746009?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>[편집자주] 디지털 금융 플랫폼 시대가 열리면서 금융산업에 활기가 돈다. 혁신과 디지털로 중무장한 빅테크들의 금융영토 확장 행보가 가속화하면서다. 카카오, 네이버, 토스 등 빅테크 3강은 차별화된 색깔과 전략으로 금융시장의 전통적인 강자들을 위협하고 있다. 대형 금융지주도 생존을 위한 플랫폼 전쟁에 뛰어들었다. 이른바 '신주류'로 떠오른 빅테크를 해부하고 금융산업의 변화와 미래를 조망해 본다.[[MT리포트]금융 빅테크 3강 대해부(上)카카오-④]'상장 대박'을 터뜨리며 승승장구할 것 같던 카카오페이가 기대보다 못한 실적에 체면을 구기고 있다. 성장주에 대한 투자심리가 약화한 데다, 상장 후 6개월 보호예수물량 해제에 따른 오버행(매도 대기 물량) 우려까지 겹치며 주가도 곤두박질쳤다. 무엇보다 경영진의 무책임한 스톡옵션(주식매수선택권) 행사로 잃어버린 주주와 소비자 신뢰를 되찾아야 하는 과제도 안고 있다. 카카오페이는 금융당국으로부터 본허가를 받은 디지털손해보험사와 카카오페이증권의 MTS(모바일트레이딩시스템) 등을 앞세워 반전 기회를 모색한다는 구상이다.15일 한국거래소에 따르면 카카오페이는 지난 13일 8만6000원에 거래를 마쳤다. 지난해 상장 당시 공모가(9만원)보다 내려간 것이다. 지난해 11월30일 기록한 최고가(24만8500원)와 비교하면 거의 3분의 1 수준이다. 지난 12일에는 8만5000원까지 밀리며 신저가를 경신하기도 했다.카카오페이 주가 하방의 결정타는 이른바 'CEO 먹튀' 사건이었다. 류영준 전 카카오페이 대표를 비롯한 주요 경영진은 상장 한달 여만에 스톡옵션 대량 행사로 주주들의 공분을 샀고 이후 주가가 곤두박질치기 시작했다. 최근 증시 하락과 전세계적인 성장주 재평가로 주가가 힘을 못쓰고 있다.실적도 기대치에 못미친다. 카카오페이는 올해 1분기 연결기준 약 38억원의 당기순이익을 거뒀다. 지난해 동기(약 120억원) 대비 68.4% 감소한 실적이다. 매출(1233억원)은 지난해(1071억원)보다 15.1% 늘었지만, 영업이익이 적자전환(약 11억원 영업손실)하면서 순이익 규모가 쪼그라들었다. 카카오페이는 "인건비가 지난해 동기 대비 30.8% 증가했는데, 인력 증가와 연간 인센티브 비용 증가 등이 반영된 결과"라고 설명했다.━보험·증권으로 반등 노린다━2017년 4월 카카오에서 분사해 설립된 카카오페이는 '국민 금융 플랫폼' 기치로 성장했다. 대한민국 전체 인구(약 5100만명)의 74%인 3788만명의 등록 유저를 확보했다. 단순히 등록 고객만 많은 게 아니라 실제 카카오페이를 활용해 금융생활을 하는 사람들을 끌어모았다는 게 강점이다. 실제 월간 활성 이용자수(MAU)가 2156만명에 달한다. 국민 10명 중 4명은 카카오페이로 금융생활을 하고 있다는 의미다.기존 금융회사들이 각자 영역의 금융서비스를 앱으로 제공해온 것과 달리 카카오페이는 출범 때부터 신선한 충격을 줬다. '종합 금융 플랫폼'을 표방한 카카오페이는 국내에서 처음으로 모바일 간편결제 서비스를 시작한 이후 △송금 △증권 △대출 △보험 △자동차 관리 △신용관리 △전자문서 △환전 △멤버십 관리 △자산관리까지 모든 생활영역으로 서비스 범위를 넓혔다.은행과 보험사, 카드사 등이 뒤늦게 플랫폼 전환을 추진 중이지만 현재로선 역부족이다. 그러는 사이 카카오페이는 마이데이터(본인신용정보관리업)를 통해 '내 손안의 PB(프라이빗 뱅커)'로 또 한번의 진화를 꿈꾸고 있다. 카카오페이 하나만 있으면 모든 자산을 관리할 수 있는 맞춤형 금융서비스를 제공한다는 목표다.우선 보험과 증권 부문 신사업을 통해 주가와 실적 반등을 노린다는 계획이다. 당장 상반기 내 디지털손해보험사를 정식 출범하고 이르면 3분기 첫 상품을 내놓을 예정이다. 카카오페이는 손해율이 높은 자동차보험과 장기보험 등은 상품라인업에서 일단 배제했다. 대신 접근성이 좋은 단기 상품인 △휴대전화 파손보험 △동호회 보험 △여행자보험 △홀인원보험 등 생활밀착형 상품 서비스에 집중한다는 계획이다. 카카오 계열사인 카카오모빌리티와 연계한 택시·바이크·대리기사 소액 단기보험이나 카카오커머스와 함께하는 반송 보험 등도 고려 중이다.얼마 전 정식 출시된 카카오페이증권 MTS에 거는 기대도 크다. 최근 MTS를 기반으로 한 해외주식 소수점 거래 서비스를 시작했다. 하반기에는 카카오톡에서 종목을 공유하고, 시세를 확인할 수 있다. 조만간 간단한 주식거래까지 가능하게 한다는 목표다. 아울러 신용융자, 주식담보, 매도대금 담보, 대주거래 등 다양한 대출 서비스도 하반기 중 내놓을 예정이다.코로나19(COVID-19) 사회적 거리두기 전면 해제에 따른 오프라인 소비 증가 추세에 발맞춰 오프라인 결제처도 확대한다. 테마파크나 대학가, 쇼핑몰, 그리고 나아가 해외 가맹점까지 제휴를 늘릴 계획이다. 신원근 카카오페이 대표는 컨퍼런스콜에서 "올해는 카카오페이 핵심서비스의 편의성 향상을 통해 비용효율적 성장을 추진하고, 디지털 손해보험사를 출범시켜 성공적으로 안착시킬 것"이라며 "마이데이터나 송금 등 트래픽을 일으키는 서비스와 수익창출을 일으키는 서비스의 연결고리를 명확히 해 수익적으로도 카카오페이의 역량을 보여줄 것"이라고 밝혔다.━대외 상황 악재…주주·소비자 신뢰 회복은 과제━과제도 작지 않다. 당장 경영진 먹튀에 따른 주주와 소비자들의 신뢰를 회복하는 게 시급하다. 내부 직원들의 동요도 잠재워야 한다. 실제 카카오페이는 경쟁사와의 '연봉 인상 경쟁'과 스톡옵션 사건에 대한 내부 반발을 잠재우기 위해 올해 초 성과급과 별도로 전직원 연봉을 1000만원씩 올렸다. 복지지원금액도 360만원씩 늘리기로 했다. 이런 조치는 비용 상승에 따른 실적 하방 압력 요인으로 '부메랑'이 돼 돌아올 가능성이 크다.대외적 상황도 만만치 않다. △미국 연방준비제도(Fed)의 빅스텝(기준금리를 한번에 0.5%포인트 인상하는 것) △우크라이나 전쟁 장기화로 인한 인플레이션 △중국의 '제로 코로나' 정책에 따른 도시 봉쇄 등으로 성장주 전반에 대한 투자심리가 얼어붙어 있다. 금리가 인상되면 주식 등 위험자산 선호도는 줄어들기 마련이고, 경기 침체 우려가 커질수록 성장주에 대한 불안감이 높아져 주가는 더 큰 폭으로 빠진다.카카오페이가 연일 하락세를 이어가자 SK증권은 목표주가를 14만5000원에서 11만원으로 낮추기도 했다. 최관순 SK증권 연구원은 "하반기 카카오톡을 통한 주식거래, 디지털 손해보험사 등 성장세가 확대되며 연간 영업이익은 흑자전환이 가능할 전망"이라면서도 "다만 4분기 연속 영업적자에 따른 수익성 개선 지연으로 목표주가를 하향한다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>예비군 훈련 통지서 모바일로 확인하세요</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003693904?sid=100</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>예비군 장병들이 M-16 소총을 사격훈련을 하고 있다. 세계일보 자료사진    국방부는 예비군 훈련 소집 통지서를 스마트폰으로 보내주는 모바일 송달 서비스를 오는 11일 시작한다고 9일 밝혔다.  기존에는 소집통지서가 주로 우편·등기로 발송됐으나 올해부터는 모바일 송달 방식이 추가됐다. 모바일 통지서는 예비군 개인별로 훈련일 약 22일 전부터 본인 명의 스마트폰 등으로 보낸다. 예비군이 별도로 신청할 필요는 없으며, 네이버·카카오톡·토스·페이코·문자메시지로 순차적으로 발송한다.  먼저 발송된 애플리케이션으로 기한 내 열람하지 않으면 다른 앱으로 발송된다. 해당 소집통지서 내용은 최초 열람 시점으로부터 네이버와 카카오는 6개월까지, 토스와 페이코는 1년까지, 문자메시지는 3개월까지 재확인 가능하다.  송달된 모바일 통지서를 열람하려면 최초 1회 동의 및 본인인증 절차가 필요하다. 이를 열람하지 않은 예비군에게는 기존 방식인 우편 통지서를 훈련 7일 전까지 발송한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>토스뱅크, 국내 외국인 대상 비대면 뱅킹서비스 나서</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002599941?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>토스뱅크의 국내 외국인 고객 대상 비대면 뱅킹서비스 개시 소개 포스터.ⓒ토스뱅크[데일리안 = 부광우 기자] 토스뱅크는 인터넷전문은행 최초로 국내 외국인 고객 대상 비대면 뱅킹서비스에 나선다. 외국인 고객의 경우 은행 영업점을 방문해야만 첫 계좌 개설이 가능했던 불편함도 토스뱅크가 최초로 없앴다는 설명이다.토스뱅크는 2일 오전부터 국내에 거주하면서 외국인등록증을 보유한 외국인의 경우 계좌를 개설할 수 있다고 밝혔다. 기존에 국내 은행에 계좌를 보유하고 있지 않은 외국인 고객이라도 토스뱅크를 통해 최초 계좌 개설이 가능하다.계좌를 개설한 외국인 고객들은 내국인 고객과 차등 없이 비대면 뱅킹서비스를 이용할 수 있다. 세전 연 2% 금리(1억 원 초과 시 0.1% 금리 적용)를 제공하는 토스뱅크통장은 물론 지금 이자받기를 통해 매일 남은 원금에 이자를 더한 잔액을 기준으로 또 다시 이자가 쌓이는 일 복리 혜택도 동일하게 누릴 수 있다.또 최대 월 4만300원, 해외결제시 무제한 3% 캐시백 혜택을 담은 토스뱅크카드(체크카드) 사용에도 제약이 없다. 국내 은행 간 송금, ATM 입출금 등 각종 수수료 무료 정책도 동일하게 적용된다. 단, 토스뱅크 신용대출, 마이너스통장, 사장님 대출 등 무보증·무담보로 운영되는 대출 서비스는 이용할 수 없다.토스뱅크는 국내 거주 외국인 고객들을 대상으로 한층 강화된 방식의 신원 확인 절차를 통해 안전한 뱅킹 서비스를 누릴 수 있게 했다. 그동안 외국인의 경우 휴대전화 가입자 명의나 금융 계좌 명의를 다르게 입력하는 경우가 있어 동일인 여부를 판별할 수 없는 문제가 있었지만, 토스뱅크는 행정안전부의 공공마이데이터 서비스를 활용해 이를 해결했다.아울러 토스뱅크는 이들 고객을 대상으로 빠른 시일 내에 해외송금 서비스를 지원할 계획이다. 언어는 현재 한국어만 지원하지만, 고객들은 불편사항이 발생하면 고객센터를 통해 문제를 접수 및 해결할 수 있다.토스뱅크 관계자는 "국내 거주 외국인이 196만명에 달함에도 여전히 이들이 이용할 수 있는 뱅킹서비스는 제한적이고, 이 때문에 금융소외계층으로 남을 수밖에 없었다"며 "토스뱅크는 앞으로도 금융 사각지대를 들여다보고 고객을 적극적으로 포용하고자 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>시중銀 저원가성 예금 감소…금리인상기 수신쟁탈전 본격화</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005086012?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>4대 은행 요구불예금+MMDA 한달 새 8조 줄어금리 인상이 본격화 되면서 금융권의 수신 쟁탈전이 격화되는 양상이다. 그간 시중은행 호실적의 기반이 됐던 저원가성 예금이 감소세로 돌아서며 대응책 마련에 부심하고 있는 가운데, 인터넷전문은행·상호금융기관들은 상대적으로 높은 금리를 내세워 시중의 부동 자금을 빠르게 흡수하고 있다.9일 금융권에 따르면 국내 4대 시중은행(KB국민·신한·하나·우리)의 지난달 말 기준 요구불예금과 수시입출금식 저축성 예금(MMDA)을 합한 저원가성 예금은 전월 대비 8조3259억원 줄어든 584조1213억원으로 집계됐다.월급 통장 등 흔히 접할 수 있는 저원가성 예금은 금리가 0.1~0.3% 수준에 불과해 시중은행에겐 ‘핵심예금’으로 불린다. 낮은 원가에 자금을 조달할 수 있어 순이자마진(NIM) 확대에 기여할 수 있는 까닭이다. 지난해에 이어 올해 1분기에도 시중은행들이 사상 최대 실적을 올린 데에도 이같은 저원가성 예금의 영향이 적지 않았다. 지난해부터 금리 인상이 본격화되고 이에 따라 자산시장 부진이 이어지자 시장의 부동자금이 저원가성 예금으로 몰렸다.최근 자산시장의 부진과 수신 금리 인상에도 시중은행의 저원가성 예금 규모가 감소세로 돌아선 것은 계절성 자금 수요 때문이다. 가계에선 이사철이 본격화되며 관련한 자금 수요가 늘고 있고, 기업들 역시 신규 투자 등을 위한 자금 수요가 확대되고 있다.특히 인터넷전문은행, 상호금융기관과의 수신 유치 경쟁이 격화되고 있는 것도 주된 원인이다. 토스뱅크가 지난해 내놓은 연 2%대 금리의 파킹통장은 출시 6개월만에 시중자금 17조원을 끌어들였다. 카카오뱅크의 경우 저원가성 수신 비중이 지난 1분기 기준 59.7%에 달해 시중은행(약 42~52%)을 넘어서고 있다.최근엔 새마을금고·신용협동조합과 같은 상호금융기관으로도 시중 부동자금이 쏠리고 있다. 금리 인상기에 접어들면서 각 기관이 경쟁적으로 고금리 특판 상품을 출시하고 있어서다. 한국은행 경제통계시스템에 따르면 상호금융권의 지난 2월 말 수신 잔액은 430조9834억원으로 전년 말 대비 3조6734억원 증가했다.시중은행도 대응책을 부심 중이다. 이성욱 우리금융그룹 부사장은 지난달 1분기 실적 컨퍼런스콜에서 "향후 금리가 상승하면 핵심적인 저원가성 예금의 증가세가 조금 더 주춤해지지 않을까 우려가 된다"고 밝혔다.금융권에선 이같은 저원가성 예금을 두고 쟁탈전이 더욱 가속화 할 것으로 보고있다. 미국 연방공개시장위원회(FOMC)가 지난주 기준금리를 0.5%포인트 인상하는 이른바 ‘빅스텝’을 단행하면서 연내 추가 인상 가능성을 시사한 만큼 국내에서도 자산 시장 부진, 추가 금리 인상 등이 잇따를 가능성이 크기 때문이다.인터넷전문은행들도 수신금리를 적극 인상하며 시중은행의 추격전을 따돌리려 하고 있다. 시중은행들이 선제적으로 수신금리를 최대 0.40%포인트 인상하자 이들 역시 인상 대열에 동참하는 분위기다. 카카오뱅크는 지난주 자유적금·정기예금 금리를 0.10~0.40%포인트 인상했다. 파킹통장인 세이프박스 기본금리도 0.10%포인트 인상한 연 1.20%를 적용했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>코빗, 예치금 포인트 지급 중단</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004695845?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>금융위 "유사수신 행위" 해석에원화포인트 대신 비트코인 주기로암호화폐거래소 코빗이 투자자들에게 예치금의 1%를 원화 포인트 형태로 지급하는 ‘데일리 보너스’를 중단하기로 했다. 금융당국이 데일리 보너스를 유사수신 행위로 해석하겠다는 입장을 내비치면서다. 거래소가 은행으로부터 받은 투자자 예치금 이자를 투자자에게 돌려주는 방안조차 위법 논란이 일고 있어 관련 법 마련이 시급하다는 지적이 나온다.8일 업계에 따르면 금융위원회는 금융정보분석원(FIU)에 코빗이 투자자들에게 지급하는 KRW포인트에 대해 유사수신 위반 소지가 있다는 입장을 전달했다. 이에 코빗은 자체적으로 포인트 지급을 중단했다. 대신 지난 3일부터 포인트로 주던 금액만큼을 비트코인으로 제공하기로 했다.확정이자를 주고 자금을 조달하는 수신행위는 은행과 저축은행 상호금융권 등 허가를 받은 금융사만 할 수 있다는 게 금융위의 입장이다. 다른 업권에서 확정이자 방식의 리워드를 주고 자금을 모으면 유사수신으로 간주돼 형사처벌을 받을 수 있다.앞서 금융위는 2019년에도 쿠팡 로켓머니와 카카오페이 토스 등이 확정이자 형태로 선불충전금에 대한 리워드를 제공한 데 대해 유사수신으로 간주될 수 있다며 자제해달라고 권고했다.금융위는 “투자금, 이체액 등 각종 실적 조건에 따른 포인트 지급 방식이 아니라 맡겨놓은 금액에 대해 별다른 조건 없이 금액만 채우면 리워드가 지급된다는 점에서 코빗의 KRW포인트도 유사수신에 해당한다”고 밝혔다. 코빗이 포인트 대신 주기로 한 비트코인도 ‘금전’에 해당한다면 유사수신 행위로 해석될 여지가 있는 상태다. 금융위는 이에 대해서도 “검토 중”이라고 했다.업계 일각에선 당국이 유연하게 대처할 필요가 있지 않았냐는 지적이 제기된다. 은행이 제공한 예금이자를 투자자 몫에 비례해 돌려줄 방법이 없기 때문이다. 업비트 역시 케이뱅크로부터 받은 투자자 예치금 이자를 그대로 쌓아둔 상황이다.업계 관계자는 “추천인 리워드나 수수료 인하, 사회적 기여 등의 방식으로 받은 이자수익을 사회에 환원할 순 있을 것”이라면서도 “한국증권금융으로부터 예탁금 이용료를 받아 투자자에게 지급하는 증권업계의 사례를 고려해 추후 입법이 이뤄질 필요가 있다”고 말했다.다른 관계자는 “투자자들이 받아가야 할 이자를 돌려준 것인데, 다단계 사기를 방지하는 목적의 유사수신법을 기계적으로 적용한 것 같아 아쉽다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>"자체 AI가 신용평가…중저신용자 대출 승인율 4배로"</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004696386?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>'P2P업체' 피플펀드 개발팀아마존 주최 개발자 대회 우승"금융사기 방지하는 AI 곧 가동"피플펀드 머신러닝팀의 진승정(왼쪽부터)·유지훈·김정무·조경제 엔지니어가 서울 서초구 본사에서 인터뷰하면서 포즈를 취하고 있다.  임대철 한경디지털랩 기자최근 국내 금융권 인공지능(AI) 개발자들을 깜짝 놀라게 한 회사가 있다. 개인 간 대출을 중개하는 P2P 금융사로 출발해 지난해 온라인투자연계금융업 1호 업체로 등록한 피플펀드다. 이 회사의 머신러닝(ML) 엔지니어팀은 지난달 28일 아마존의 클라우드 서비스 자회사인 아마존웹서비스(AWS)코리아가 한국에서 처음으로 개최한 금융권 AI·ML 개발자 게임데이 대회에서 우승을 차지했다. 카카오뱅크 카카오페이 토스뱅크 삼성화재 농협은행 국민카드 등 국내 내로라할 금융사들을 제치고 얻어낸 결과다. 지난 6일 서울 서초구 피플펀드 본사에서 만난 김정무(28) 진승정(30) 조경제(28) 유지훈(24) 엔지니어는 “‘금융권에서 AI를 가장 잘 하는 회사’가 피플펀드의 목표”라며 “피플펀드가 AI 분야에서 가진 경쟁 우위를 객관적으로 보여줄 수 있어 뿌듯하다”고 했다.  피플펀드는 이렇게 기술력을 입증받은 머신러닝 기법을 신용평가, 금융사기 탐지 등에 이미 적용하고 있다. 자산규모 업계 1위인 피플펀드는 3400억 원 넘는 대출잔액의 3분의 1 이상이 개인신용대출이다. 충분한 상환 능력과 의지가 있는데도 신용점수가 낮거나 아예 없어서 은행 대출을 거절당한 소비자를 개인 투자자와 연결해준다. 신용대출 평균 금리는 연 10.8%. 중·저신용자와 금융 이력이 부족해 대출에 어려움을 겪는 신파일러에게 은행보단 높지만 2금융보단 낮은 금리로 대출을 내주려면 은행보다 정교하게 신용을 평가하고 사기꾼을 걸러내는 게 핵심이다. 피플펀드가 개발한 머신러닝 기반 신용평가 모형은 그런 역할을 톡톡히 하고 있다. 연소득, 신용거래기간, 과거 채무 이력 등을 중시하는 기존 모형에선 불리할 수밖에 없었던 20대나 2금융권 대출 보유자에 대해서도 각각 서로 다른 모형에 따라 신용을 평가한다. 조 엔지니어는 “기존 신용평가 모형은 누구나 예외없이 한 줄로 세워 점수를 매기는 방식이었다면, 피플펀드는 수요자의 세대 생애주기 라이프스타일 등에 따라 수천 개 데이터 포인트를 선별·가공해 서로 다르게 평가받을 수 있도록 줄을 달리 해주는 것”이라고 설명했다. 피플펀드는 이 결과 부실률이 1.4%로 동일할 때 중신용자에 대한 대출 승인율이 51.7%로 기존 신용점수 기반 모델(13.1%)보다 4배 높아졌다고 했다. 전화 상담 소비자의 목소리 톤, 속도, 주로 쓰는 단어 등 음성 데이터를 신용 평가와 사기 탐지에 활용하는 기술도 개발 중이다. 진 엔지니어는 “목소리 톤이 조급하거나 ‘빨리’ 같은 단어를 많이 쓰면 불량률이 높다고 판단하고 추가 심사를 거치도록 하는 식”이라고 설명했다. 피플펀드는 최근 늘어난 금융사기의 일종인 ‘무연체 회생’ 사기를 잡아내는 모델도 금융권 최초로 이달 가동할 예정이다. 대출받은 뒤 전혀 연체가 없다가 갑자기 돈을 못 갚겠다며 개인 회생을 신청하는 사기꾼을 사전에 머신러닝 기법으로 잡아내는 것이다. 조 엔지니어는 “실시간 모니터링 결과 기존 모델보다 사기범을 걸러내는 성능이 40% 이상 높다”며 “3개월 이내 초단기 연체 가능성이 높은 대출을 사전에 잡아내는 모형도 개발 중”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.05.13.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>청와대 관람신청 231만 돌파, 6.11까지 접수 연장</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001990161?sid=103</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=함영훈 기자] 청와대 관람신청이 231만 명을 돌파한 가운데, 대통령실은 청와대 국민개방을 위해 네이버, 카카오톡, 토스 등 온라인플랫폼을 통해 받기로 한 관람신청 접수를 6월 11일 관람분(6월 2일 접수마감분)까지 연장한다고 밝혔다.지난 4월 27일 오전 10시부터 시작된 관람신청 접수는 지난 12일 0시 기준으로 231만 2740명을 돌파했다. 이처럼 국민들로부터 뜨거운 관심을 받음에 따라 신청 기간을 연장하여 운영하기로 결정한 것이다.청와대에 이런곳이? 사진은 침류각오는 22일 부터 6월 11일 까지의 청와대 관람신청은 12일 낮 12시부터 접수가 시작돼 현재 진행중이다. 일별 관람시간과 관람인원은 청와대 개방에 대해 여전히 높은 국민 관심도와 관람객의 쾌적한 관람환경, 불편초래 최소화 및 경내 보전의 어려움 발생 등을 고려하여 기존과 같다. 07~19시까지 2시간 단위로 입장을 구분하고, 각 시간단위별 6500명씩 하루 총 3만 9000명씩 입장하도록 할 예정이다.관람신청은 개인별 1～4명, 단체별 30～50명, 65세이상 어르신 및 장애인 1～4명 등 3개 유형으로 구분해 관람을 희망하는 일자와 시간을 선택한다. 다둥이 자녀 가족의 경우 가족관계증명자료 지참시, 개인 4인 초과 인원도 입장 가능하다.기존 방식과 동일하게 스마트폰을 통해 청와대 개방 홈페이지(www.청와대개방.kr 또는 www.opencheongwadae.kr)에 접속한 후, 네이버앱·카카오톡·토스 등 3개 중에서 선호하는 온라인플랫폼(App 등)을 선택하여 관람을 신청하거나, 해당 온라인플랫폼 등에 직접 접속하여 신청할 수 있다. 또한, 스마트폰의 사용이 어려운 분들은 네이버 ‘PC웹사이트’를 통해서도 신청이 가능하다.당첨 알림 메시지 역시 기존과 같이 신청자 중 관람이 확정된 당첨자에게 ‘국민비서’ 서비스를 통해 제공된다. 당첨자와 그 동반자는 해당 관람일에 현장에서 당첨 알림 메시지를 확인받아 청와대에 입장하면 된다.한편, 청와대 개방행사 ‘청와대, 국민품으로’의 대미를 장식하는 ‘KBS열린음악회’가 진행되는 22일에는 네이버, 토스 등 온라인플랫폼으로는 오전 2회(07시~09시, 09시~11시)만 접수가 가능하며, 당일 개최되는 청와대 개방특집 ‘KBS열린음악회’ 입장신청은 13일 18시까지 국민신청누리집(open.mcst.go.kr)과 문화포털(culture.go.kr/hope), 전통공연예술진흥재단 누리집(kotpa.org)에서 접수를 받고 있다.22일 관람 2회 접수는 카카오톡을 제외한 네이버, 토스만 가능하며, 5월 23일~6월 11일까지의 관람신청은 기존과 같이 네이버, 카카오톡, 토스 모두 접수 가능하다.아울러, 앞으로도 청와대 국민개방을 안정적으로 운영하기 위하여 관람신청 접속 경로를 단일화하는 새로운 예약시스템도 도입될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>이루다마케팅, 토스(toss) 광고 제휴 파트너사로 선정</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002602623?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>ⓒ[데일리안 = 이현남 기자] 바운더리레스 마케팅그룹 이루다마케팅이 토스 광고 제휴 파트너사로 선정되었다고 밝혔다.토스는 핀테크 유니콘(기업가치 1조 원 이상 비상장 스타트업) '비바리퍼블리카'가 운영하는 모바일 금융 서비스다. 간편송금, 무료 신용조회 서비스를 비롯한 혁신적인 금융 서비스 제공으로 누적 가입자 2,200만 명 이상을 기록하며, 국내 핀테크 시장을 선도하고 있다.특히, 각 브랜드에서 출제한 퀴즈를 풀면 토스포인트를 받을 수 있는 ‘행운퀴즈’와 앱 알림을 통해 브랜드의 다양한 혜택과 소식을 확인하면 일정 금액의 토스포인트를 주는 '머니알림' 등 앱테크 서비스로 사용자 뿐만 아니라 광고 채널로서 기업 선호도가 높다.이루다마케팅은 시장 내 독보적인 퍼포먼스 마케팅 역량과 다양한 매체 릴레이션십, 강력한 추진력과 빠른 실행력 등을 인정받아 총 2개사만이 선정되는 토스 공식 파트너사로 이름을 올렸다. 토스가 공식적으로 파트너사를 선정한 건 이번이 처음으로 향후 행운퀴즈, 머니알림 등 광고 상품 집행을 희망하는 광고주는 공식 파트너사를 통해 문의할 수 있다.이루다마케팅 최범석 대표는 “국내 대표 금융 플랫폼 토스의 공식 파트너사로 선정되어 기쁘다”라며 “양사 간의 긴밀한 협업을 통해 비즈니스를 활성화하고, 경계 없는 바운더리레스 마케팅으로 광고주가 만족할 수 있는 성과를 제공할 수 있도록 노력하겠다”라고 전했다.토스 관계자는 “이번 파트너사 선정을 통해 기업 등 제휴사의 사업적 성공을 지원하고, 토스 사용자에게도 유용한 혜택이 꾸준히 제공될 수 있도록 하겠다”고 말했다.한편, 이루다마케팅은 주요 매체인 네이버, 카카오, 메타(구 페이스북) 등과 파트너십을 구축하고 있으며 이외 지그재그, 에이블리 등 패션 이커머스사의 공식 대행사로 선정돼 협업을 이어가고 있다. 최근에는 프리랜서 마켓 플랫폼 ‘크몽’과 업무협약을 체결하는 등 매체력을 확대하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>"뭉쳐야 산다" 대세는 '원 앱 전략'…시중은행, 빅테크 넘어설까</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000148121?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>종합금융플랫폼' 지향하지만…금소법 등 규제 걸림돌 여전은행권이 모바일뱅킹 애플리케이션(앱)을 하나로 통합하는 '원앱' 작업에 본격적으로 나서고 있다. /더팩트 DB금융사들이 여러 개로 흩어져있던 앱 기능을 한곳으로 모으는 '원 앱' 작업에 속도를 붙이고 있다. 카카오, 토스 등 빅테크 업체들의 '원 앱' 전략이 성공 가도를 달리면서 금융권도 '원 앱' 전략에 올라타고 있다.9일 금융권에 따르면 KB국민은행은 올해 하반기 '리브'와 'KB마이머니' 앱 서비스를 종료하고 해당 기능을 'KB스타뱅킹'에 통합하기로 했다. 이에 따라 리브는 오는 6월 30일, 마이머니는 오는 8월 31일까지만 서비스를 제공할 예정이다.KB국민은행은 카카오뱅크와 같은 빅테크 앱들에 대항하기 위해 지난 2016년 리브 등을 선보였지만, 최근 앱의 통폐합 작업을 진행하고 있다. KB스타뱅킹을 '슈퍼 앱'으로 키우는 쪽으로 전략을 선회한 것이다.KB스타뱅킹 앱에서는 현재 KB증권·카드·손해보험 등 6개 계열사의 서비스를 이용할 수 있으며, 건강, 실손보험, 분양정보, 중고차 시세 등 일상생활과 관련한 비금융 정보도 확인할 수 있다.신한은행도 2019년 기존에 있던 '신한S뱅크', '써니뱅크', 스마트 실명확인, 온라인 등기 등 6개 앱을 통합한 '쏠(SOL)'을 출시했다. NH농협은행도 7개로 나뉘어 있던 앱을 3개로 통합하는 작업을 진행 중이며, 하나은행과 우리은행도 '하나원큐'와 '우리WON뱅킹' 등 주요 앱 하나로 다양한 기능을 이용할 수 있게 업그레이드를 계속해서 진행 중이다.그동안 시중은행들은 다수의 앱 분산 전략을 택해왔다. 다양한 기능을 한 개의 앱에 몰아넣으면 용량이 커지면서 구동이 느려지는 단점이 있기 때문이다. 이에 조회, 이체 등 단순 은행 업무를 주로 사용하는 고객들의 불편을 최소화하기 위해 서비스를 여러 개의 앱으로 나누어 제공해왔다.은행권은 주력 앱 하나에 은행 업무는 물론, 다른 금융 계열사 서비스까지 하나에 담은 종합금융플랫폼을 지향해 경쟁력을 높이겠다는 계획이다. /더팩트 DB그러나 최근 카카오, 토스 등 빅테크 업체들의 '원 앱' 전략이 성공하면서 시중은행들도 '원 앱'으로 방향을 선회하고 있다.실제로 카카오뱅크의 1분기 말 기준 고객 수는 1861만 명으로, 전년 말 보다 62만 명 증가했다. 모바일 앱 월간활성이용자수(MAU)는 1503만 명으로, 전체 고객 대비 80% 수준을 기록했다. 토스의 경우도 MAU가 지난해 12월 기준 1239만4762명에 달했다. 이는 전년보다 33% 늘어난 수치다.반면, '리딩뱅크'인 KB국민은행과 신한은행의 대표 앱 'KB스타뱅킹'과 '쏠(SOL)'의 MAU는 올해 1분기 기준 각각 960만 명, 810만 명 수준이다.다만 일각에서는 시중은행의 '원 앱' 전략은 빅테크를 뛰어넘기엔 역부족이라는 목소리도 나온다. 금융소비자보호법 등 다양한 법적 제약이 있는 은행들은 완전한 의미의 '원 앱'을 구현하기에 걸림돌이 많기 때문이다.한 시중은행 관계자는 "(시중은행이) 종합금융플랫폼 서비스를 제공하려면 제도적 여건이 마련돼야 한다"며 "아직까지 빅테크와 규제적 측면에서 차이가 있어 제도적으로 여건이 마련되지 않은 이상 빅테크만큼의 편의성을 높이는 앱을 선보이긴 어려울 수도 있다. 다만, 규제 하에서 고객 편의를 위해 최선을 다할 것"이라고 전했다.또 다른 관계자는 "최근 기술 발전 등으로 하나의 앱에 다양한 기능을 넣어도 성능을 지킬 수 있게 되면서 '수퍼 앱' 구축에 힘쓰고 있다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>국민은행, 소비자가 뽑은 '좋은 은행' 1등…꼴찌는 Sh수협은행</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000672028?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 대출 민원 탓에 2위로 밀려…다음 평가는 토스뱅크도 포함국민은행이 소비자가 뽑은 좋은 은행 1위로 선정됐다. 소비자에게 높은 신뢰도를 받은 덕분이다. 반면 Sh수협은행은 최하점으로 꼴찌를 면치 못했으며 카카오뱅크는 2위로 밀려났다.12일 금융소비자연맹은 18개 국내은행의 공시자료와 설문조사를 기반으로 분석한 '2022년 소비자평가 좋은 은행 순위'에서 국민은행이 85.52점으로 종합 1위로 집계됐다고 밝혔다.금융비자연맹이 발표한'2022년도 좋은 은행 순위' 그래프. [사진=금융소비자연맹]좋은 은행 순위는 금융·경영·소비자보호 전문가로 구성된 평가위원회가 ▲안전성 40% ▲소비자성 30% ▲건전성 20% ▲수익성 10% 항목으로 이뤄진다. 이 중 소비자성의 인지·신뢰도는 설문조사를 통해 평가되는데, 이번에는 지난해 9월 13일~11월 21일까지 3천953명의 금융소비자를 대상으로 설문조사를 실시했다.국민은행은 2018년부터 2020년까지 좋은 은행 평가에서 1등을 차지했으나 지난해 카카오뱅크에 왕관을 뺏겼다가 이번 평가에서 1위를 탈환했다.국민은행은 소비자성에서 29.67%의 높은 득표율을 받으며 1위를 차지하고, 수익성에서 4위, 안전성에서 5위에 오르며 종합 1등을 차지했으며, 카카오뱅크는 대출 관련 민원 증가로 소비자성에서 17위까지 하락하면서 종합 2등으로 밀려났다.뒤를 이어 ▲NH농협은행 3등 ▲부산은행 4등 ▲케이뱅크 5등 ▲신한은행 6등 ▲하나은행 7등 ▲SC제일은행이 8등 ▲KDB산업은행 9등 ▲DGB대구은행 10등을 기록했으며 꼴찌는 Sh수협은행에게 돌아갔다.항목 별로 소비자성에선 국민은행이, 안전성에선 카카오뱅크가, 건전성에서는 한국씨티은행이, 수익성에선 KDB산업은행이 1등을 기록했다.전지원 금융소비자연맹 연구원은 "비대면 영업 환경과 마이데이터 시행 때문에 은행사들의 디지털 마케팅이 과열될수록, 소비자들은 객관적 자료를 가지고 은행을 선택해야 한다"라며 "2021년도에는 한국씨티은행의 철수와 토스뱅크 등장으로 시장 판도에 변화가 있었으며, 다음 평가에서는 전년도 10월에 출범한 인터넷전문은행 토스뱅크를 포함할 예정이다"라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>번개장터, ‘번개페이’ 거래액 1조원 코앞</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001990034?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=이정아 기자] 취향 중고거래 앱(App) 번개장터가 자체 안전결제 서비스 ‘번개페이’ 출시 4년 만에 누적 거래액 약 9000억원을 돌파했다고 12일 밝혔다. 특히 최근 1년간 거래액은 번개페이 출시 첫해 대비 1000% 성장했다.번개페이 연간 거래액은 2018년 4월 서비스 출시 이후 매년 2배 이상 증가했다. 지난해 거래액은 3000억원을 기록했다. 올해 1분기 거래액 역시 전년 동기 대비 72% 증가한 약 930억원을 기록해 성장세를 이어가고 있다.번개페이는 에스크로 기반의 안전결제 서비스로, 구매자가 결제한 금액을 번개장터가 보관하고 있다가 구매자가 구매 확정을 하면 판매자에게 금액이 정산되는 방식이다. 미발송이나 계좌번호 노출 우려 없이 안전하고 편리하게 거래할 수 있어 개인 간 거래 시 발생할 수 있는 분쟁을 예방하는 효과가 있다. 신용카드와 체크카드 외에도 카카오페이, 토스 등 간편결제를 도입해 결제 수단을 다양화했다. 그 결과지난해 번개장터 전체 구매자 10명 중 5명은 번개페이를 사용해 본 경험이 있는 것으로 나타났고, 재사용률은 60%로 분석됐다.번개페이 사용 비중은 금액이 커질수록 증가했다. 전체 거래 금액대 중 1만 원 미만의 상품 거래 시 번개페이 비중은 10%를 밑도는 반면, 100만원에서 300만원대 상품 거래 시 번개페이 비중은 약 76%로 올랐다. 번개페이 거래량이 가장 많은 카테고리는 디지털·가전 카테고리로 지난해 전체의 25%를 차지했다.공유현 번개장터 플랫폼 사업 본부장은 ““중고 시장이 성장하면서 취향 거래로 진화하고 있기 때문에 신뢰도 높은 거래 환경을 조성하는 것이 더욱 중요해지고 있다”라며 “번개장터는 앞으로도 혁신적인 서비스를 선보일 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>예비군 훈련 통지서, 스마트폰으로 받는다</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013164259?sid=100</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>예비군 훈련장[연합뉴스 자료사진]    (서울=연합뉴스) 김지헌 기자 = 국방부는 예비군 훈련 소집 통지서를 스마트폰으로 보내주는 '모바일 송달 서비스'를 오는 11일 시작한다고 9일 밝혔다.    모바일 통지서는 예비군 개인별로 훈련일 약 22일 전부터 본인 명의 스마트폰 등으로 보낸다.    예비군이 별도 신청할 필요는 없고 네이버·카카오톡·토스·페이코·문자메시지 등 5개 플랫폼으로 순차 발송하며, 예비군이 어느 애플리케이션에서든 일단 열람하면 다른 플랫폼으로는 발송하지 않는다.    송달된 모바일 통지서를 열람하려면 최초 1회 동의 및 본인인증 절차가 필요하며 이를 열람하지 않은 예비군에게는 기존 방식인 우편 통지서를 훈련 7일 전까지 발송한다.    국방부는 "예비군 편의성이 확대되고 종이 문서 생산과 우편 발송에 따른 비용 등이 절감될 것"이라고 밝혔다.    자세한 서비스 이용 방법은 예비군 웹사이트(www.yebigun1.mil.kr)에서 확인할 수 있다.    jk@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>스타트업·PE 찾아 떠나는 파이어족...역량 못 갖춘 이직, '미운털' 전락하기도</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000074874?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>대이직 시대 5대 뉴트렌드“코로나 팬데믹에 대기업들이 처음에는 관망하며 대책 수립에 집중했어요. ‘디지털 전환’으로 방향성이 정해지자 지난해부터 인재 영입에 적극 나서기 시작했죠. 담당 임원이 바뀌니 팀장 이하 실무진도 줄줄이 바뀌며 이직 시장이 급팽창했습니다. 최근 1년 6개월 만에 경력 이직 문의가 50%나 증가했습니다.” 평판 조회 전문기업 ‘하이어베스트’ 정혜련 대표 전언이다.‘대퇴사(Great Resignation)’의 후폭풍 ‘대이직(Great Reshuffling)’이 한창이다. 코로나 여파로 산업 전반의 디지털 전환이 가속화되며 인재 영입 전쟁이 한창이다. 최근 달라진 이직 트렌드와 이직에 성공하기 위한 노하우를 들여다봤다. 지난 4월 19일 지하철 신분당선 판교역에 개발자를 모집한다는 구인 광고가 붙어 있다. (매경DB)  ▶트렌드1. 이직은 아무나 하나 ▷개발자 1순위…관리직은 찬밥 ‘이직 붐’이라 해서 모든 직군에서 이직이 활발한 것은 아니다. 최근 대이직 시대의 배경에는 디지털 전환이 있다. 디지털 전환과 관련된 업종 회사나 직군인지에 따라 이직 수요는 양극화된 분위기다. ‘네카라쿠배당토’로 대표되는 IT 스타트업과 개발자, 온라인 마케팅 경력자는 이직 1순위인 반면, 인사·총무나 일반 관리직 경력자는 사실상 ‘사각지대’다.인력 수요가 풍부했던 ‘대면 영업직’도 요즘은 찬바람이 분다. 코로나 2년을 거치며 세일즈도 대면에서 온라인 비대면으로 방식이 확 바뀐 것. 정혜련 대표는 “제약사, 생명보험사 등이 대면 영업을 줄여도 회사가 잘 돌아간다는 사실을 알게 됐다. 기존 인력을 내보내고 대신 홈페이지 개선을 위한 UX(사용자 환경) 기술자나 e마케팅 담당자를 찾기 시작했다”고 분위기를 전했다. ▶트렌드2. 대기업 대신 스타트업 ▷‘연봉 2배’보다 스톡옵션 선호‘ 신(神)의 직장’ 공식도 바뀌고 있다. 대기업, 공기업에 대한 무조건적 선호는 옛말. 오히려 대기업에서 전도유망한 테크 스타트업으로 옮겨 가는 움직임이 뚜렷하다. 스타트업 ‘핵클’에 근무 중인 고미송 씨(28)는 ‘꿈의 직장’으로 불리는 금융 공기업을 박차고 나와 이직한 사례다. 고 씨는 이전 직장에서 연차가 쌓일수록 늘 똑같고 모호한 업무에 피로감을 느꼈다. 특히 젊은 직원에게 엑셀 활용법을 물어보는 상사의 모습에서 20년 뒤 직원들에게 코딩 방법을 물어보는 자신의 모습이 겹쳐 보였다고. ‘프로그래밍’에 미래가 있다고 판단한 고 씨는 과감히 퇴사, 코딩 교육 업체인 ‘팀스파르타’에서 본격적으로 공부를 시작했다. 이후 개발자로 변신, 핵클에 소프트웨어 엔지니어로 입사했다. 고 씨는 “개발자 문화에서 배울 점이 참 많다. 새로운 트렌드 등장을 배척하지 않고 배우는 것을 당연하게 생각하며 지식을 공유한다. 항상 이런 특성을 지닌 사람들과 가까이 하고 싶었기에 현재의 나에 매우 만족스럽다”고 전했다. ‘레거시(legacy·과거의) 신의 직장’이 된 대기업, 공기업은 인재 유출에 비상이 걸렸다. 한 HR 전문기업 A대표는 얼마 전 국내 5대 그룹의 한 경영진에게 긴급 호출을 받았다. 자사 과장급 직원이 스타트업의 C레벨(임원급)로 연이어 이직하고 있다며 “우리가 뭘 잘못했길래 이러냐”는 하소연을 들어줘야 했다고. 중견·중소기업도 구인난은 마찬가지다. 네이버, 카카오 등 잘나가는 테크 스타트업 인재를 임원급으로 영입하려 기존 연봉의 1.5~2배를 제시해도 도통 오지 않는다며 안달이라는 후문이다.A대표의 진단은 ‘자기주도적으로 일할 수 있는 환경의 차이’다. A대표는 “한 달 넘도록 테크 스타트업 직원 70명 이상에게 연락을 돌리며 이직을 제안해봤지만 단 한 명도 옮기려 하지 않았다. 이들은 한마디로 ‘물이 다르다’고 말한다. 이미 조직이 꽉 짜여져 있는 전통적인 기업은 직원이 새로운 프로젝트를 해보려 해도 무산되기 일쑤여서 자신의 역할이 제한적이라고 느끼더라. 작은 스타트업이더라도 스톡옵션을 받아 성과를 분배받고 새로운 기회를 창출할 수 있는 곳을 선호한다”고 귀띔했다.    ▶트렌드3. 내 꿈은 ‘파이어족’▷ IPO 앞둔 스타트업·PE 어디 없소 스타트업 중에서도 우선순위는 철저히 나뉜다.최근 MZ세대 이직러들이 선호하는 스타트업 1순위는 머지않아 상장(IPO)을 계획 중인 곳이다. 이만하면 기업이 어느 정도 안정적인 궤도에 오른 데다, 스톡옵션을 받아 단단히 한몫을 챙길 수 있다는 기대감에서다. 3~5년 차 중견 스타트업도 상장 계획이 어렴풋이 있다면 괜찮은 선택지로 분류된다. 자신이 가서 기업을 변화시킬 수 있다는 업무 자유도와 권한 위임에 호감을 느끼는 이가 많다. 이직 선호 직장 2순위는 ‘사모펀드(PE)’다. 부실한 회사를 인수해 턴어라운드시키고 재매각까지 성공하면 상당한 성과를 분배 받을 수 있다는 판단에서다. 유순신 유앤파트너즈 대표는 “요즘 MZ세대는 단번에 일확천금을 벌고 은퇴하는 ‘파이어족’이 되고 싶어 한다. 이를 위해선 프로젝트성으로 단기간에 큰 성과를 낼 수 있는 PE가 적합하다. ‘인수한 회사가 어렵더라도 내가 가서 반등시키면 된다’는 자신감과 배짱도 두둑한 편이다”라고 말했다. ▶트렌드4. 점프업은 ‘독이 든 성배’ ▷몸값 뛰면 재이직 그만큼 어려워져 대부분의 이직러는 ‘점프업’을 꿈꾼다. 기존 직장보다 간판이든 연봉이든 더 높은 곳으로 옮기길 원한다. 보통은 이직할 때 연봉 상승률이 5~10% 정도지만, 그 이상이면 나름 성공한 ‘점프업’으로 평가할 만하다.그런데 최근에는 점프업이 갈수록 어려워지는 분위기다. 점프업을 위해서는 나만의 독보적인 기술이나 역량이 있어야 하는데, 정보 전파 속도가 워낙 빨라 인기 기술이나 역량이 금세 모방되기 때문이다. 물론 개발자 등 인기 직군은 여전히 몸값이 높다. 연봉 30~50% 인상을 내걸며 경력직을 모집하는 ‘테크 스타트업’이 적잖다. 대기업에서도 이들을 영입하려 파격적인 연봉을 제시한다. 단, 기존 직원과 연봉 체계가 달라 ‘전문계약직’이라는 이름으로 따로 특급대우를 한다.문제는 그다음이다. 억대의 사이닝 보너스(입사 축하금)와 고연봉을 주는 대신 그만한 성과를 요구하기에 근무 강도도 점프업되기 일쑤다. 결국 체력이 달려 6개월 만에 재이직을 노리는 이도 적잖다. 그러나 이미 몸값이 높아진 상황에서 눈높이를 다시 낮추기란 쉽지 않다. 꾸준한 우상향이 아닌, 오르락내리락 ‘갈지 자(之)’를 그리니 경력 관리 측면에서도 스텝이 꼬인다.한 HR 전문기업 고위 관계자는 “업계 일각에서는 연봉 인상률을 50%나 제시한 토스가 이직 시장을 망쳐놨다는 얘기마저 나온다. 인재 영입을 위해 너도나도 따라 하면서 결국 ‘커리어 버블’이 생겼다. 젊은 나이에, 역량에 비해 너무 많은 연봉을 받게 된 이직자는 경력 관리 측면에서 선택의 폭이 확 좁아진다. 기업 입장에서도 부메랑이다. 미국은 성과가 나쁘면 해고하면 그만이지만, 우리나라는 그렇지 못하기 때문”이라고 토로했다. ▶트렌드5. 이직 준비, 일상으로 ▷‘커리어 SNS’서 선배 개발자 팔로우 “그동안 이직은 몇 년에 한 번 관심 갖는 대형 이벤트였습니다. 요즘은 일상적으로 경력을 관리하며 이직에 대비하는 이들이 늘고 있습니다.”‘한국판 링크드인’을 표방하는 ‘커리어리’ 김광종 리더의 얘기다. 커리어리는 커리어 관리에 특화된 SNS다. 2030 직장인이 주축인 회원 수는 약 20만명에 달한다. 커리어리 게시글 중 16.7%가 이직, 커리어 관련 콘텐츠다. 특히, 온라인 이력서에 해당하는 ‘마이브랜딩페이지(마브페)’는 서비스를 시작한 지 3주 만에 2200명이 이용 중이다. 누구나 볼 수 있는 SNS 공간에 자신의 이력서를 띄워놓고 언제든 이직 관련 대화를 나누겠다는 것이다.이처럼 이직에 특화된 버티컬 서비스가 등장하며 이제 이직은 ‘특별한 이벤트’가 아닌, 일상이 되고 있다. ‘커리어테크’ 발달로 회사 밖 사람들과 네트워킹이 수월해지며 이직을 위한 인맥 관리에 적극 나서는 이들도 많아졌다. 김광종 리더는 “커리어리 이용자의 30%는 개발자다. 이어 기획, 마케팅 직군 순이다. 이들은 네카라쿠배당토 등 가고 싶은 회사의 선배 개발자를 팔로우하고 그들이 평소 어떤 생각을 하는지 살피며 이직을 준비한다. 이를 지원하기 위해 커리어리는 자신을 드러내기 수줍어하는 ‘한국식 정서’를 감안, 프로필 페이지를 누가 방문했는지는 공개되지 않도록 했다”고 설명했다.다만, 이직을 위해 지나치게 외부 네트워킹에만 몰두하는 것은 바람직하지 않다는 지적도 나온다. “직원 소개나 추천으로 입사 가능한 회사는 일반적인 방법으로는 모집이 어려워서일 가능성이 있다. 괜찮은 회사라면 공식 절차를 밟아 채용한다. 외부 네트워킹에 몰두하다 업무에 지장이 생기면 평판 조회에서 점수를 잃을 수도 있다. 현직자와 네트워킹은 일해본 경험을 듣는 정도로만 활용하고, 이직을 위해서는 차라리 전문성을 기르는 데 집중하는 것이 낫다.” 유승연 유앤파트너스 이사의 조언이다.  커리어리가 최근 선보인 ‘온라인 이력서’ 서비스 ‘마이브랜딩페이지(마브페)’는 3주 만에 2200명이 이용 중이다. 이직 준비가 일상화되고 있음을 보여준다. (커리어리 제공)  ▶팁 1. 이직은 업종을 뛰어넘는다 ▷목표 설정한 뒤 적극적인 자기계발 그저 맡은 일만 열심히 한다고 해서 경력이 술술 풀리는 경우는 드물다. 3년, 5년 등 장기적인 경력을 미리 계획해둔다면 이직을 준비하기도, 이직 제안이 들어왔을 때 결정을 내리기도 한결 수월해진다. 아예 이종 업계로 이직을 계획했다면 보다 적극적인 자기계발이 필수다. 10년 차 기자였던 강 모 씨는 1년여 전 새내기 감정평가사가 됐다. 삼십 대 후반에 접어들면서 담당 분야였던 부동산 지식을 살릴 전문직을 꿈꿨고, 약 2년간 주경야독하며 감정평가사 시험을 준비해 자격증을 취득했다. 강 씨는 “다양한 플랫폼에서 온라인 강의가 보편화된 덕에 직장인도 어렵지 않게 공부할 수 있다”며 “매일 저녁 일정 시간을 정해두고 꾸준히 공부하면 전업 고시생 못잖게 효율적인 자기계발이 가능하다”고 말한다. ▶팁 2. 업무, 데이터로 정리해놔라 ▷같은 말도 구체적인 ‘숫자’로 설명하기 경력기술서를 쓸 때 신뢰도를 높이는 가장 좋은 방법은 구체적인 근거, 객관적인 수치를 보여주는 것이다. 단순히 ‘공격적인 영업 활동’이라고 쓰기보다는 ‘누적수주액 ○○억원 달성, 전분기 대비 ○○% 증가’라고 쓰는 편이 훨씬 증명하기 쉽다. 경력기술서와 함께 내는 자기소개서에도 ‘적응력이 빠르다’ ‘커뮤니케이션이 원활하다’ 같은 막연한 표현보다는 희망 업무와의 연관성, 구체적인 업무 역량을 쓰는 것이 좋다.이를 위해서는 번거롭더라도 현재 담당 중인 업무를 틈틈이 데이터화, 업데이트해두는 수고가 필요하다. 홍정아 헤드헌터는 “자기소개서보다는 경력기술서에 훨씬 많은 분량을 할애하되, 지원하고자 하는 주요 직무와 최대한 연관성 있는 내용을 추려 쓰라”고 조언한다.  ▶팁 3. 평판 조회도 대비해라 ▷동료에게 솔직하게 도움 구하기 기업이 경력직 인력을 채용할 때 업무 역량 못잖게 중요하게 생각하는 것이 ‘평판 조회(Reference Check)’다.일반적으로 기업은 경력직 지원자 면접을 마치고 최종 합격 후, 오퍼 제시 전 지원자에게 평판 조회 진행 여부를 미리 알려 동의를 구하고 조회처(레퍼리·Referee) 연락처를 받는다. 당연히 나를 좋게 평가하고 내 업무와 연관성도 있는 사람을 조회처로 정하겠지만, 이 대목에서 홍 헤드헌터는 “조회처에서 당연히 좋은 얘기만 해줄 것이라고 예단하지 말고 솔직하게 상황을 말하고 협조를 구하는 편이 좋다”고 강조한다.무엇보다 “능력은 별로인데 사람은 참 좋다”는 평판은 아무런 플러스가 되지 않는다. “일도 잘하고 인간미도 좋은 사람이야”라는 평판이라면 더할 나위 없이 바람직하다. 칭찬을 받지 못할지언정 적어도 적을 만들지 말라는 충고도 나온다. 특별히 자신을 둘러싼 나쁜 얘기가 들리지 않고 주변으로부터 무난한 평판을 얻기만 해도 앞날 걱정할 일은 별로 없다. ▶팁 4. 연봉 협상에서 유리하려면 ▷이직할 회사 2~3곳은 확보하기 최종 합격 통보를 받았다면 연봉 협상은 어떻게 하는 것이 좋을까. 급여 체계가 회사마다 다른 만큼 양쪽 사정을 미리 파악해두는 것이 좋다.예컨대 외국계 회사에 다니는 남기형 씨(36)는 이직을 준비해 두 곳에서 최종 오퍼를 받았다. B회사는 연봉 6800만원, C회사는 7000만원을 제시했고 남 씨는 B회사 입사를 결심했다. 당연히 C회사를 선택하는 것이 유리하다고 생각하지만 이 회사에서는 식대가 지원되지 않으며 연봉 7000만원에 자기계발비, 자녀수당, 통신비 등 연 500만원이 포함돼 있다. 혜택을 뺀 실질적인 연봉은 6500만원인 셈이다. 자기계발비, 자녀수당, 통신비를 지원하지만 연봉에는 포함돼 있지 않은 B회사 연봉이 사실상 더 경쟁력 있는 셈이다.김동석 헤드헌터는 “이직할 회사를 두세 군데 정도 마련해두는 것도 방법”이라고 조언한다. 대안이 없으면 협상한 연봉 조건이 마음에 들지 않아도 받아들여야 하는 경우가 많아서다. 꼭 이직 의향이 없더라도 2~3년에 한 번씩 더 나은 회사에 지원해보는 것도 자신의 능력을 객관적으로 평가해보고 관리하는 방법이다.인터뷰 | ‘희망퇴사’ 저자, 프로이직러 박정선 씨  業 정의만 바꿔도 이직할 곳은 수두룩  ‘희망퇴사’ 저자이자 직장인인 박정선 씨(44)는 소위 ‘프로이직러’다. 첫 직장 8년 만에 사표를 쓴 후 여덟 차례나 직장을 더 옮겼다. 패션지 에디터에서 커머스 스타트업 마케터로, 대기업 e커머스 마케터에서 모바일 매거진 편집장으로, 이후 금융 콘텐츠 미디어 대표에서 피트니스 프랜차이즈 서비스 기획을 거쳐 지금은 다시 금융사 서비스 기획을 맡고 있다.Q. 이렇게 다양한 이력이 가능했던 본인만의 강점이나 비결이 있나. A 언뜻 그동안 다닌 직장과 직군이 모두 달라 보이지만 기본적으로 ‘콘텐츠’ 만드는 일을 한다. 콘텐츠라는 큰 줄기에 패션, 커머스, 스타트업, 금융 등 서비스를 접목해볼 수 있었다. 마케팅 업무에서 독자는 소비자고, 전략 업무에서는 사장님이 독자인 셈이다. Q. 업종을 다양하게 오가다 보면 ‘전문성’이 부족해지진 않을까. A 대기업에서 10년간 한 가지 일만 해도 전문가 소리를 못 듣는 경우는 허다하다. ‘일’이라는 것은 결국 프로세스를 잘 설계해 소통만 잘해도 절반은 완성이다. 나머지 지식은 일하며 채워가면 된다. 오히려 다양한 일을 해봤기 때문에 업무와 시각이 다른 각 분야 사람들 사이에서 중재를 잘한다는 평가를 받는다. Q. 이직 결심할 때 중점적으로 고려하는 것은. A ‘핑퐁’처럼 대기업, 스타트업, 다시 대기업을 오가며 일한다. 대기업에 다니면 안정적이지만 기계 부품이 된 느낌이고, 스타트업은 자율이 보장되지만 월급이 밀리기도 한다. 금융 콘텐츠 자회사 대표를 맡아봤고 지금은 다시 대형 금융사 과장이다. 이런 이력이 가능한 이유는 이직할 때 연봉보다 ‘업무 확장성’을 중시하기 때문이다. “나는 잡지 에디터”라고 생각할 땐 이직할 곳이 많지 않았는데 “나는 글을 기획하고 쓰는 사람+α”라는 생각을 하니 지원할 수 있는 곳이 확 늘어나는 것과 같다. Q. ‘퇴사를 꿈꾸는’ 직장인에게 조언을 해준다면. A 퇴사 자체가 로망이자 목표인 사람이 많지만, 신입 때만 해도 “뽑아만 주신다면” 열심히 하겠다며 들어온 회사다. 그렇다면 회사를 무작정 그만두기보다는 지금 다니는 곳에서 하고 싶은 일과 분야 접점을 찾아 코어 근육(실력)을 키워보길 권한다. 현 회사에서 배울 수 있는 건 최대한 배우고, 이직은 그 이후에 해도 늦지 않다.[본 기사는 매경이코노미 제2157호 (2022.05.04~2022.05.10일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>[단독]대통령실 이전에 딴지?…文정부, 靑 시설현황 ‘엉터리 인계’</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002513324?sid=100</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>제20대 윤석열 대통령 취임일인 10일 개방된 서울 종로구 청와대 대정원에서 농악 공연이 열리고 있다. 뉴시스尹TF에 실제와 다른 내용 넘겨전면 개방 위해 현황 파악 착수靑 관람 신청자 200만 명 넘어윤석열 대통령이 취임 당일 개방했던 청와대에서 설비 현황 등과 관련한 신구 정부 간 인수인계가 차질이 빚어진 것으로 12일 파악됐다. 이에 따라 대통령 비서실은 상주 상황실을 별도로 꾸려 청와대에 대한 현황 조사에 착수했다. 여권 일각에서는 청와대 개방 공약을 지키지 못했던 문재인 정부가 일부러 딴지를 건 것 아니냐는 의구심도 나오고 있다. 청와대 관람의 신청자 수는 계속 늘어 200만 명을 돌파했다.이날 대통령실 복수의 관계자에 따르면 대통령실 총무비서관실에서 일부 인력으로 구성한 ‘청와대 상황실’에서 내부 조사를 진행하고 있다. 윤 대통령의 취임 전 ‘청와대 이전 태스크포스(TF)’ 측이 문 전 대통령의 청와대 거주 당시 관리 부서로부터 인계받은 설비 등 현황이 실제와 다르다는 것으로 파악된 데 따른 조치다. 그중 몇몇 시설은 폐기물 등의 수거 및 처리도 돼 있지 않다고 한다. 해당 상황실은 현황 파악을 마치고 청와대를 전면 개방하는 시점도 앞당기겠다는 방침이다.대통령실 관리비서관실은 ‘용산 시민공원’ 조성에도 착수했다. 앞서 윤 대통령 측은 용산 집무실 근처의 미군기지 중 일부 부지를 시민에게 올해 안으로 임시 개방하겠다고 밝힌 바 있다. 잔디밭과 문화·스포츠시설 등으로 꾸며 시민이 이용하도록 한다는 구상이었다. 미국 백악관 앞의 프레지던트 파크 내 타원형 잔디광장으로 조성된 ‘엘립스’에서 착안했다. 용산 집무실 내부뿐 아니라 외부도 소위 ‘백악관 모델’로 하는 것으로 보인다.한편 대통령실에 따르면 청와대 관람 신청자 수는 12일 0시 기준 231만2740명으로 집계됐다. 국민 25명 중 1명꼴이다. 이에 따라 관리비서관실은 네이버·카카오톡·토스 등 온라인 플랫폼을 통해 받기로 한 관람신청 접수를 6월 11일 관람까지 연장하기로 했다. 관람의 쾌적한 환경을 위해 2시간 단위별 6500명씩으로 하루 총 3만9000명 입장 형태는 유지하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>‘사용자 편의↑’ 카카오페이·토스 MTS, ‘이것’부터 달랐다</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005208456?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>전산운용비 100억원 미만에도 몸집 대비↑10대 증권사 전산운용비 비중은 1% 미만“IT 인력 몸값 치솟아, 현실 녹록치 않아”[이데일리 김윤지 기자] 정보기술(IT)에 뿌리를 둔 핀테크 증권사인 카카오페이증권과 토스증권 등 후발주자들은 사용자 편의를 강조한 모바일 트레이딩 시스템(MTS)으로 승부를 걸고 있다. 일단 과감한 투자에서부터 차이가 난다는 반응이다. 5일 금융투자협회에 따르면 지난해 주요 증권사의 자본총계 대비 전산운용비 비중을 살펴보면 카카오페이증권과 토스증권의 경우 각각 4.85%와 8.65%로 집계됐다. 양사의 전산운용비는 100억원 미만으로 자본총계 기준 10대 증권사의 평균 전산운용비 398억원과 비교하면 한참을 밑도는 4분의 1 수준이다. 하지만 몸집 대비 많은 자금을 전산 개발에 투자함으로써 그만큼 공을 들였다는 해석이 가능하다. 10대 증권사의 경우 전산운용비로 자본총계 대비 1% 수준을 투자했다.   전산운용비는 증권사들의 IT 관련 투자 지표로 통한다. 전산운용비에는 시스템 설치 및 구축비용을 제외한 증권사 전산시스템 사후관리와 전산운용 관련 인건비·회선비·수선비·고객정보보호 관련 비용 등을 포함하고 있다. 전년 대비 전산운용비 증감률에서도 차이가 난다. 카카오페이증권의 경우 전산운용비를 전년 60억원에서 지난해 93억원대로 51.63% 늘려 증권사 중 가장 가파른 상승률을 기록했다. 카카오페이증권의 경우 지난해부터 MTS 출시를 준비해 올해 4월 정식으로 서비스를 오픈했다. 이밖에도 신한금융투자가 210억원에서 211억원으로 47.80% 늘렸고, 미래에셋증권도 525억원에서 666억원으로 26.99% 투자를 확대했다. 이 같은 투자는 사용자 편의 증대라는 결과물로 나타나고 있다. 별도 앱을 깔아야 하는 여타 증권사와 달리 카카오페이증권이나 토스증권은 기존 어플로도 주식 거래가 가능하도록 구현하고 있으며, 소수점 거래나 주식 선물하기 등 새로운 서비스 구축을 위해 노력하고 있다. 주식 선물하기의 경우 유사한 서비스가 타 증권사에도 존재하지만, 다른 증권사의 경우 주식을 ‘양도’하기 때문에 실제 입고된 2거래일 후에야 알 수 있다. 카카오페이증권은 사실상 금액을 송금해 주식 매수가 체결되는 방식으로, 선물을 받는 사람이 좀 더 빠르게 주식을 보유할 수 있도록 차별화된 시스템을 구축하고 있다.  물론 기존 증권사들도 점점 늘어나는 MTS 사용 비중과 높아지는 사용자 수준을 의식하고 있다. 한 금융투자업계 관계자는 “IT 관련 투자를 공격적으로 늘리고 있지만 천정부지로 솟은 IT 인력 몸값으로 인해 쉽지 않은 것은 사실”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.05.11.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>카뱅도 실명계좌 검토...가상자산업 눈 돌리는 은행</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001030960?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;최근 카카오뱅크가 가상자산 관련 서비스를 적극 검토한다고 밝히면서 시장 진출 의지를 공식화 했습니다.그동안 은행들은 막힌 규제에 가상자산 거래소와 실명계좌 발급 제휴를 하는 것조차 조심스러워했는데요.새 정부의 가상자산 규제 완화와 맞물려 분위기가 달라지고 있습니다.경제부 전민정 기자와 자세한 이야기 나눠보겠습니다.전 기자, 인터넷전문은행 업계 1위인 카카오뱅크가 가상자산 시장 진출 의사를 밝혔다고요?&lt;기자&gt;네 맞습니다.윤호영 카카오뱅크 대표가 1분기 실적 발표 컨퍼런스 콜을 통해 가상자산 시장 진출 의지를 밝힌건데요. 윤 대표의 발언 직접 들어보겠습니다.[윤호영 / 카카오뱅크 대표 : 고객들이 가상자산을 주요 금융상품의 하나로 투자·관리하고, 주요한 자산으로 여기는 만큼 해당 가상자산을 어떻게 서비스나 비즈니스로 제공할지에 대해 긍정적으로 살펴보고 검토하고 있습니다.]업계는 우선 카카오뱅크도 다른 은행들과 마찬가지로 거래소 실명계좌 발급을 시작으로 가상자산 시장 진입을 노릴 것이라고 보고 있습니다.당초 5대 코인거래소 중 하나인 코인원과 접촉했다는 사실이 알려지며 제휴설도 흘러 나왔는데요.하지만 아직 어떤 서비스를 제공할지, 어떤 업체와 제휴할지에 대해서도 정해지지 않았다는 것이 카카오뱅크의 공식 입장입니다.코인원은 두달 전 NH농협은행과 실명계좌 발급 재계약을 마친 상황이라 당장 카카오뱅크와 손잡는 것도 현실적으로 어렵고요.보다 정확히 말씀드리면, 카카오뱅크는 코인원을 비롯해 업계 2위인 빗썸, 4위인 코빗과도 가상자산 관련 협력 방안을 찾기 위한 스터디를 했습니다.사실상 실명계좌 제공을 위한 사전 준비, 실사 성격으로 봐도 무방하다고 업계는 보고 있고요, 이르면 상반기 내, 늦어도 연내에는 실명계좌 제휴를 발표할 것이라는 관측이 우세합니다.&lt;앵커&gt;카카오뱅크가 가상자산업에 눈독을 들이는 이유는 뭔가요?&lt;기자&gt;카카오뱅크로서는 새로운 먹거리를 찾아 안정적인 성장 기반을 마련하는 게 절실하기 때문입니다.현재 카카오뱅크 주가는 경영진의 주식 대량 매각 악재와 금리 상승에 따른 성장주 부진까지 맞물려 바닥을 치고 있는 상태인데요.한때 금융 대장주 자리를 꿰찼던 카카오뱅크가 주가 반등의 모멘텀을 만들기 위해선 대출 이외의 `신사업 카드`가 필요했던 것입니다.증권사들이 카카오뱅크의 성장성에까지 의구심을 보이고 있는 상황에서 거래소와 제휴만 이뤄져도 확실한 호재가 될 수 있는 거죠.또 업비트와 제휴를 맺은 또다른 인터넷은행인 케이뱅크의 성장도, 카카오뱅크에겐 자극제가 됐습니다.적자에 늪에 빠져있던 케이뱅크는 2020년 6월 업비트에 실명계좌를 제공하기 시작한 후 비대면 계좌개설이 크게 늘었는데요.지난해 계좌개설 고객 750만명 중 500만명이 업비트 제휴 고객일 정도였으니깐요. 여기에 힘입어 출범 4년만에 첫 연간 흑자를 내기도 했고요.특히 가상자산 거래는 젊은 고객층의 수요가 높은 만큼, 인터넷은행 경쟁력의 핵심인 MAU, 월간 활성 이용자 수 늘리기도 매우 유리합니다.계좌 발급을 통한 장기적인 캐시카우에 확보에, 미래 고객까지 안정적으로 선점할 수 있다는 점에서 코인거래소와의 제휴를 서두르지 않을 이유가 없는거죠.&lt;앵커&gt;다른 인터넷은행인 토스뱅크도 가상자산 거래소와의 제휴에 관심이 많은 건가요.&lt;기자&gt;토스뱅크는 아직 신중한 입장인데요.토스뱅크는 출범한지 1년이 채 되지 않은데다, 수신액도 17조원 수준으로 많이 쌓았기 때문에 아직은 급할 게 없다는 것이 이유입니다.그러나 미래 고객과 신규 먹거리 확보를 위해서 언제 가상자산업에 관심을 보여도 이상하지 않은 상황입니다.이처럼 인터넷은행들이 가상자산업 진출에 적극적인 모습을 보이면서 시너지를 기대하는 코인거래소들의 움직임도 바빠졌는데요.특히 실명계좌를 아직 발급받지 못한 거래소들이 이런 지각변동을 예의주시하고 있습니다.이 내용은 이민재 기자가 전합니다.[이민재 리포트]&lt;앵커&gt;인터넷은행 뿐만 아니라 시중은행들도 최근 가상자산업에 다시 눈독을 들이고 있다고 하는 데요.&lt;기자&gt;은행연합회가 인수위에 실제 제출하지는 않았지만, 정책제안을 위해 보고서를 만들었는데요.이 보고서의 핵심 내용 중 하나가 은행의 가상자산 서비스 진출을 허용해달라는 것이었습니다.현재 은행법상으로는 은행은 비금융사 지분을 15% 넘게 보유할 수 없기 때문에 은행들은 거래소에 계좌를 내주거나 가상자산을 맡아 보관해주는 수탁 회사에 지분을 투자하는 데 그치고 있는 상황입니다.이에 은행연합회가 은행법 시행령을 고쳐 은행의 겸영 업무에 `가상자산업`을 포함시켜달라고 한 것이고요.그래야 은행도 실명계좌 발급에 그치지 않고 직접 가상자산 거래소를 세우거나, 가상자산 보관 전자지갑 사업, 가상자산 수탁 서비스도 할 수 있습니다.이렇게 은행들이 적극적으로 나서서 규제를 풀어달라고 한 건 기대할만한 구석이 있어서입니다.바로 새 정부에서 가상자산 시장 육성에 남다른 의지를 보이고 있기 때문이죠.110대 국정과제에도 가상자산 업권법이라 할 수 있는 `디지털자산기본법` 제정과 그동안 금지돼왔던 암호화폐 발행을 허용한다는 내용이 담겨 있습니다.국정과제 세부이행 계획을 보면 가상자산 거래를 위한 실명확인 서비스 제공 금융기관을 확대해 디지털자산 거래계좌와 은행 연계도 강화하기로 했습니다.현재 제휴 은행은 농협, 신한, 케이뱅크, 전북은행 등 4곳인데 은행권 협의를 통해 2~3개 은행을 추가한다는 계획입니다.새 정부는 가상자산 시장에 포지티브 규제가 아닌, 네거티브 규제를 적용한다는 방침인데요.특히 디지털자산기본법이 만들어지면 가상자산 사업에 금지 규정이 사실상 사라진다고 할 수 있습니다.법인을 통한 가상자산 투자나, 금융회사가 자회사를 통해 가상자산 거래소도 설립할 수 있는 길이 열리는 것이지요.다만, 보수적인 시중은행들의 성향에 비춰볼 때 금융위원회의 명확한 가이드라인이 나오기까지는 관망세가 이어질 것이란 관측도 나옵니다.&lt;앵커&gt;은행이 가상자산업에 눈독을 들이는 것도 카카오뱅크처럼 새로운 성장 동력을 마련하기 위한 것이겠지요?&lt;기자&gt;네. 맞습니다.대출 영업 경쟁이 심한 은행이 계속 성장하려면 예대마진에서 나오는 이자이익 이외에 다른 수익원이 필요한데요.올 1분기 기준으로, 4대 시중은행의 영업이익 중 이자 이익이 90%이상을 차지할 정도로 비이자 이익의 비중이 작습니다.지금은 금리인상기라 이자 수익 걱정은 없지만 언제까지 여기에 기댈 수는 없는 노릇인데요.특히 실적이 좋아진만큼 주가가 오르지 못하고 있는 것도 다각적인 사업 포트폴리오를 갖추지 못한 채 이자이익에 편중돼 있기 때문이라는 지적이 나오고 있는 상황입니다.미국의 대표적인 상업은행 뱅크오브아메리카(BOA) 사례를 들어보자면요.이곳은 지난 10년 간 3배에 가까운 주가 상승률을 기록했는데, 50%가 넘는 높은 비이자이익 비중 때문에 저금리 시대에도 효과적으로 성장세를 이어갈 수 있었다는 평가를 받고 있습니다 .&lt;앵커&gt;전 기자, 오늘 내용 유튜브 제목과 해시태그는 뭘로 할까요?&lt;기자&gt;유튜브 제목은 `금융시장 메기 `카카오뱅크` 코인 시장도 접수`해시태그는 `카뱅, 거래소 짝궁 찾아요`, `은행도 코인 파는 시대` 이렇게 하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>"韓신산업 6개사 시총, 中 텐센트 3분의 1…규제 개혁 시급"</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005208776?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>경총 6일 신산업 규제 개선방안 보고서규제장벽 해소·민간주도 자율규제규제 총괄기구 신설 등 제안"규제 개혁은 시대적 과제…새 정부가 혁신 환경 마련해야"[이데일리 손의연 기자] 경영계가 새 정부에 “각종 규제가 신산업 발전을 저해하고 있어 이에 대한 개혁 방안을 조속히 마련해야 한다”고 주장했다. 한국경영자총협회(경총)는우리나라 주요 신산업 규제 개선방안에 대한 보고서를 6일 발표했다. 과도한 규제로 우리나라 신산업 경쟁력이 점점 뒤처지고 있어 규제개혁을 통해 혁신환경을 조성해야 한다는 내용이 골자다. 경총은 3대 신산업(온라인 플랫폼, 바이오·헬스, 핀테크) 국내 6개사 시가총액 합계(195.3조원)가 중국기업 텐센트 시가총액(630.4조원)의 3분의 1 수준 미만으로 글로벌 경쟁력 제고를 위한 신산업 분야 규제 환경 개선이 시급하다고 진단했다.국내 3대 신산업 6개사는 네이버, 카카오, 삼성바이오로직스, 셀트리온, 카카오페이, 토스 등이다.경총은 미국, 중국, 영국 등 주요국에서는 유니콘 기업이 꾸준히 성장하는 반면 한국 경우 전 세계 유니콘 기업의 1.14%에 불과하다고 지적했다.주요국은 선 산업 육성 후 부작용에 대한 최소 수준 규제를 논의하는데, 한국은 산업 발전 초기 단계임에도 과도한 규제 도입을 추진해 기업 활동을 위축시킨다는 설명이다.예를 들면 EU는 글로벌 기업으로부터 자국기업 보호를 위해, 미국은 시장내 경쟁 촉진을 위한 규제 입법을 추진 중이지만 여러 요건을 모두 충족한 소수 기업만 대상으로 하고 있다.반면 한국은 매출액 1000억원 이상 기업에 대한 규제 입법(공정위안)을 비롯해 다수 광범위한 규제 법안들이 국회 계류 중이다. 경총은 정부가 기업에 정보공개, 표준계약서 등 각종 의무를 부과하고 금지조항을 신설하기 때문에 기업 활동 제약이 우려된다고도 꼬집었다.그러면서 국내 플랫폼 기업들이 글로벌 기업으로 성장할 수 있도록 경쟁국보다 과도한 규제를 지양하고 정부의 개입을 최소화하는 민간주도 자발적 자율규제로 선 산업 육성·발전을 도모해 나가야 한다고 강조했다..핀테크 산업 경우 영국 등 주요 선진국은 핀테크를 차세대 성장동력 산업으로 적극 육성 중이다. 한국 경우 강력한 망 분리·개인정보보호·금융규제 등 사전적 포지티브 규제로 글로벌 경쟁력 확보가 어렵다는 지적이 나오는 상황이다.경총은 정부가 망분리 규제 완화를 조속히 추진하고, 개인정보보호 등 핀테크 산업 관련 규제를 네거티브 방식으로 전환해 금융업과 타 산업 간 융합·발전할 수 있는 환경을 조성해 나가야 한다고 제언했다.또 경총은 차세대 성장동력 확보를 위한 혁신생태계 조성을 위해 기업 성장 단계별 규제장벽 해소, 민간주도 자발적 자율규제로 선(先) 산업 육성 환경 조성, 첨단기술 융복합 산업 규제 해소를 위한 규제 총괄기구 신설을 제안했다. 이형준 경총 본부장은 “디지털 전환과 잠재성장률 하락이 빨라지면서 신산업 분야 규제개혁은 더 이상 미룰 수 없는 시대적 과제가 되었다”며 “부처별 중복·칸막이 규제를 해소하고, 국민 편익 증대와 투자 및 고용 창출을 고려한 범부처 차원의 규제개혁을 추진해야 한다”고 말했다.이어 “새 정부는 신산업에 대해 원칙 허용, 예외 금지의 네거티브 규제 원칙을 적용함으로써 차세대 성장동력 산업의 탄생과 발전을 위한 혁신 환경을 조속히 마련해주길 기대한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>토스뱅크, 국내 외국인도 계좌 개설 가능…인뱅 처음</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011158093?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>기사내용 요약국내 거주 외국인 196만명 대상영업점 방문 없이 계좌 개설 가능해외송금 서비스 지원도 준비 중[서울=뉴시스] 박은비 기자 = 토스뱅크가 국내 외국인 고객 대상 비대면 뱅킹서비스를 시작한다고 2일 밝혔다.외국인 고객의 경우 은행 영업점을 방문해야만 첫 계좌 개설이 가능했는데 이러한 불편함을 없앤 것이다. 국내에 거주하면서 외국인등록증을 보유한 외국인이라면 이날 오전부터 토스뱅크 계좌를 개설할 수 있다. 기존에 국내 은행 계좌가 없었던 외국인 고객도 마찬가지다. 내국인 고객과 차등 없이 비대면 뱅킹 서비스를 이용 가능하다.이를 위해 토스뱅크는 외국인 신원을 확인할 때 행정안전부 공공마이데이터 서비스를 활용한다. 다만 토스뱅크 신용대출, 마이너스통장, 사장님 대출 등 무보증·무담보로 운영되는 대출 서비스는 이용할 수 없다.토스뱅크는 이들 고객을 대상으로 빠른 시일 내에 해외송금 서비스를 지원할 계획이다. 언어는 현재 한국어만 지원하지만 불편사항 발생시 고객센터를 통해 문제를 접수, 해결 가능하다.토스뱅크 관계자는 "국내 거주 외국인이 196만명에 달하는데도 여전히 이들이 이용할 수 있는 뱅킹 서비스는 제한적이고, 이 때문에 금융소외계층으로 남을 수 밖에 없었다"며 "앞으로도 금융 사각지대를 들여다보고 고객을 적극적으로 포용할 것"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.05.15.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>"지금 확실히 수익 내려면 예·적금"…가입시 짧은 만기가 유리</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004745945?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>[[이슈속으로]]이슈속으로 /사진=머니투데이"수익률이 무조건 플러스인 상품이 있다고?"요즘 소비자들 사이에서 나오는 '웃픈' 말로 은행 예·적금을 두고 하는 이야기다. 대표적인 투자처인 주식·코인 등 자산시장 변동성이 심화하면서 예·적금을 중심으로 은행에 시중자금이 돌아오고 있다. 금융권 관계자들은 추가적인 금리 상승이 유력한 만큼 예·적금 가입을 고려하는 소비자라면 만기를 짧게 가져가라고 조언한다.15일 은행권에 따르면, KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 지난달 말 기준 정기 예·적금 잔액은 전월과 비교해 1조9591억원 증가했다. 예금은 지난 2월, 3월 감소하다가 지난달에 1조1536억원 늘며 증가세로 전환했다. 적금은 2월부터 늘어나기 시작해 지난달에는 8055억원 증가했다. 예·적금 수요는 더 늘어날 전망이다. 주식·코인 가격이 조정 국면을 벗어나지 못하고 있어서다. 증시는 고물가 등을 이유로 미국이 긴축에 속도를 내면서 올 1분기 내내 흔들렸다. 코인은 스테이블 코인 테라·루나의 폭락으로 하락세가 가속화한 상황이다. 시중은행 관계자는 "주식·코인 반등을 기다리던 고객들이 더는 돈을 방치할 수 없어 은행을 찾고 있다"고 말했다.당장 예·적금 가입을 고려하고 있는 소비자라면 만기를 짧게 선택하는 것이 유리하다. 한국은행이 기준금리를 추가로 올릴 가능성이 높아서다. 기준금리가 오르면 은행들은 기준금리 상승분 수준으로 예·적금 금리를 올린다. 금융권은 한은이 미국의 기준금리 인상에 대응해 오는 26일과 7월13일 금융통화위원회에서 기준금리를 인상할 수 있다고 본다. 글로벌 투자은행(IB) JP모건은 연말 한은 기준금리를 2.5%로 전망했다.3개월이나 6개월 만기로 예·적금 상품을 선택하는 게 합리적으로 보인다. 6개월 만기 기준 금리가 높은 상품을 추려보면 예금 중에선 대구은행 'DGB주거래우대예금(첫만남고객형)' 상품이 최고 2.27% 금리를 제공한다. 카드 발급, 스마트뱅킹 가입 등 조건을 충족해야 우대금리 0.6%포인트를 받을 수 있다. 적금은 제주은행 'jBANK 저금통적금'(자유적립식)이 최고 3.75%를 준다. 다만 우대금리가 2.1%포인트고, 월 납입액이 최대 10만원이다.복잡한 우대금리 요건을 충족하기 어렵다면 기본금리 자체가 높은 상품을 선택할 수 있다. 만기 6개월 예금 중 IBK기업은행 'IBK D-DAY 통장', 케이뱅크 '코드K 정기예금'은 우대금리 없이 기본금리가 각각 2.05%, 2%다. 적금은 케이뱅크 '코드K자유적금'(자유적립식)이 우대금리 없이 금리 2.3%를 제공한다. 카카오뱅크의 '카카오뱅크 26주적금'(자유적립식)은 기본금리가 2.1%다. 자동이체로 납입하면 우대금리 0.5%포인트를 받는다.만기를 길게 가져가도 금리가 확 높아지진 않는다. 최고금리 기준 최대 1%포인트 내외로 늘어난다. 2년 만기 기준으로 금리가 높은 상품으로, 예금 중에선 광주은행 '미즈월복리정기예금'이 있다. 최고 3.04% 금리를 준다. 카드 결제실적 등에 따라 우대금리 0.2%포인트를 주는데, 만 18세 이상 여성만 가입할 수 있다. 적금은 부산은행 '2030부산월드엑스포적금'(자유적립식) 금리가 4.2%다. 첫 거래 시 등 조건으로 주는 우대금리가 최대 1.9%포인트다.짧은 기간이라도 돈이 묶이는 게 싫다면 금리가 높은 수시입출식통장, 파킹통장을 선택하면 된다. 대표적인 상품으로는 토스뱅크의 토스뱅크통장이 있다. 예치금 1억원까지 금리 2%를 제공한다. 매일 이자를 받을 수 있어 일 복리 효과도 있다. 케이뱅크 '플러스박스'는 3억원까지 금리 1.3%가 적용된다. 금융권 관계자는 "기준금리가 빠르게 오를 때는 만기를 짧게 해야 금리 인상 혜택을 많이 본다"며 "다만 우대금리 조건을 본인이 충족할 수 있는지 따져보는 것은 필수"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>[뉴스'까'페] 1Q 호실적 거둔 카뱅, 앞으론 ‘마이데이터’로 승부수</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000284525?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 카카오뱅크가 이자수익 확대와 플랫폼 비즈니스 성장 속에 1분기 호실적을 거뒀습니다. 하지만 당초 은행 설립 취지인 '포용금융' 확대를 위한 중저신용자 대출 비중 늘리기는 여전히 과제입니다.지난해 목표치 달성에 실패한 데 이어 올해 역시 1분기가 지났지만, 아직 연간 목표치를 충족하지는 못하고 있는 상황입니다. 이런 가운데, 인터넷은행으로는 처음으로 '마이데이터' 사업에 뛰어들며 활로를 모색하고 있어 주목됩니다. 카뱅, 껑충 뛴 이자수익에 순익 43.2%↑카카오뱅크는 오늘(3일) 1분기 실적을 발표했습니다. 순이익은 1년 전보다 43.2% 증가한 668억원으로 잠정 집계됐습니다. 영업이익은 884억1400만원으로 63.8% 늘었고, 매출액은 3384억3900만원으로 50.5% 증가했습니다.특히 영업이익은 분기 기준으로 최대 수준입니다. 카카오뱅크는 고객 수 증대와 플랫폼·뱅킹 비즈니스 부문의 고른 성장이 호실적으로 이어졌다고 설명했습니다.전체 수익 비중의 78%에 달하는 이자수익은 2642억원으로 1년 전보다 59.6% 증가했습니다.  고객 수도 1분기에 62만명이 증가해 누적 1861만명까지 늘었습니다.  플랫폼 부문 수익은 38.5% 늘어난 253억원을 거뒀습니다. 증권 계좌 개설 서비스는 1분기에 분기 최다인 70만좌가 개설돼 누적 590만좌까지 늘었고, 연계대출은 1분기에 4520억원의 대출이 실행돼 누적 취급액이 4조6000억원까지 불었습니다. 수신 잔액은 3조153억원 늘어 33조414억원으로 집계됐고, 여신잔액도 1037억원 증가해 25조9651억원이 됐습니다. 카카오뱅크는 "고신용대출 감소에도 불구하고 중·저신용 대출과 전월세보증금 대출 증가로 성장세가 지속됐다"고 설명했습니다. 중·저신용자 대상 대출 잔액은 1분기 2269억원이 증가해 2조6912억원이 됐습니다. 중저신용자 대출 비중 확대는 여전한 '과제'이런 호실적에도 불구하고, 중저신용자 대출 비중 확대는 카카오뱅크의 여전한 과제입니다.지난해 카카오뱅크는 케이뱅크, 토스뱅크와 함께 내년까지 점진적으로 신용대출의 중저신용자 대출 비중을 30% 수준까지 끌어올리겠다고 금융당국과 약속했습니다.  하지만 카카오뱅크는 지난해말 17%를 기록하며, 연간 목표치인 20.8%를 충족하지 못했습니다. 올해 1분기말 기준으로 20%까지 올리기도 했지만, 역시 연말 목표치인 25%에는 부족합니다. 경쟁사인 토스뱅크(31.5%)와 케이뱅크(20.2%)와 비교해도 뒤쳐졌습니다. 금융당국은 내년까지 목표 달성을 못하면 금융 신사업 인·허가 과정에서 불이익을 주겠다고 엄포를 놓은 상황입니다. 윤호영 대표는 오늘 1분기 컨퍼런스콜에서 "(중저신용자 대출 비중이) 조금씩 증가하고 있는 수준"이라고 설명했습니다. '마이데이터' 예비허가…카뱅 "대출 신용평가 모형 고도화에 활용" 이런 가운데, 카카오뱅크가 '마이데이터(본인신용정보관리업)' 사업에 뛰어들 채비를 하고 있습니다. 카카오뱅크는 지난달 27일 금융위원회에서 예비허가를 받았습니다. 지난해 9월 신청서를 제출한 지 약 7개월만입니다. 카카오뱅크 관계자는 "본허가는 이후 절차에 따라 신청할 예정"이라며 "본허가 이후에 구체적인 서비스 개시 목표 시점을 밝힐 수 있다"고 전했습니다. 금융위가 본허가 심사가 대략 1개월 가량 소요된다고 밝혀온 만큼, 카카뱅크는 이르면 다음달 본허가를 취득할 것으로 보입니다.본허가까지 취득하게 되면 카카오뱅크는 인터넷은행 가운데선 처음으로 마이데이터 사업에 진출하게 됩니다.경쟁사인 토스뱅크의 경우 지난해 10월 출범한 만큼, 기존 여·수신 등 은행업무에 주력한다는 방침입니다. 케이뱅크 역시 "현재 마이데이터 사업 계획은 없다"는 입장입니다. 모회사인 KT가 카카오뱅크와 같은날 금융당국의 예비허가를 받고 마이데이터 사업에 속도를 내고 있는 만큼, 직접 사업에 뛰어들기 보다는 당분간 BC카드 등 금융 계열사와 연계 서비스를 전개해 나갈 것으로 관측됩니다. 마이데이터는 여러 기관에 분산돼 있는 개인정보를 하나의 플랫폼에서 통합 관리할 수 있는 서비스로, 사업자는 소비자의 동의를 받아 데이터를 수집·분석해 각종 맞춤형 서비스를 제공할 수 있습니다. 금융위원회에 따르면 지난달 13일 기준 시중은행 등 45개 금융사가 마이데이터 사업을 벌이고 있습니다. 이들 금융사들은 주로 고객의 금융자산이나 지출 분석 등을 통해 자산관리 서비스를 제공하고 있습니다. 카카오뱅크는 마이데이터를 통해 수집한 정보를 대출 심사 평가를 할 때 활용할 방침입니다. 카카오뱅크 관계자는 "구체적인 사업 방향이 정해지지는 않았지만, 맞춤형 자산관리뿐 아니라 고도화된 금융 서비스를 제공할 예정"이라고 설명했습니다. 그러면서 "산재된 금융·비금융 데이터를 신용평가시스템(CSS) 고도화와 대환대출 신용평가 모형 개발에 활용할 수 있을 것으로 예상한다"고 덧붙였습니다. 카카오뱅크가 고신용자 대출을 막고 여전히 중저신용자 대출에 치중하고 있는 만큼, 대출 상환능력에 대한 신뢰도가 높은 우량 중저신용자를 솎아내는 데 활용하겠다는 뜻으로 풀이됩니다.  하지만 한 금융업계 관계자는 "데이터를 얼마나 정교하게 활용할 수 있느냐가 중요한데, 여전히 개인정보법 등에 제약이 있는데 얼마나 데이터가 정교할지, 만족할만한 수준인지 의문인 상황"이라고 회의적인 입장을 나타냈습니다. 또 다른 금융업계 관계자는 "마이데이터 사업 초기인 현재 서비스 안정성에 주력하다 보니 아직 차별적이고 눈에 띄는 서비스는 보이지 않고 있다"는 자조 섞인 반응도 보였습니다. 기대에 비해 마이데이터에 대한 금융권 전체의 성과가 눈에 띄지 않고 있는 가운데, 카카오뱅크는 다른 결실을 맺을 수 있을지 주목됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>엘리베이터에서 40초 안에 어필하라… 스타트업판 ‘슈스케’</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000811733?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>선배 창업가가 스타트업 발굴, 육성하는 ‘파운드’ 신생 유니콘 센드버드, 쏘카·티몬 창업자 한자리  총 상금 10억… “창업자들의 생생 멘토링 기대”        “취미를 즐기면서 필요한 제품·장소가 있을 때 이를 (인스타그램 같은) 다른 소셜미디어(SNS)에서 찾기 어렵다고 생각합니다. 이를 더 빨리 찾을 수 있는 방법에 집중했습니다.” (김예성 창업자)“풀려고 하는 문제가 고객에게 그렇게까지 고통스러운지 공감하기 어려워서 이번에는 같이하기 어려울 것 같아요.” (이승건 비바리퍼블리카 대표)“(합격) 안 돼도 좋은 경험이에요. 대표님한테 의견 받고 싶었던 게 다예요.” (김예성)“이메일 주소를 드려볼게요. 저도 실패 많이 해봐서 깊이 있는 의견 드릴 수 있을 것 같아요.” (이승건)'스택(xtag)'이란 SNS 서비스를 만든 김예성 창업자(사진 오른쪽)가 40초 피칭 후 이승건 대표와 악수하고 있다. /토스 유튜브 캡처        지난 5일 핀테크(금융+IT) 스타트업 ‘토스(비바리퍼블리카)’ 유튜브에 ‘스타트업 서바이벌 파운드(FOUND)’ 첫 번째 에피소드로 올라온 33분짜리 영상 내용 중 많은 이들의 공감을 얻은 장면 중 하나다. 마치 공개 오디션 프로그램인 ‘슈퍼스타K(슈스케)’처럼 지원자(창업자)의 간절함, 합격·탈락 속에서의 드라마가 생생하게 구현됐다는 평가를 받았다.간편 송금 등을 하는 금융 플랫폼 ‘토스’를 만들어 유니콘(기업 가치가 10억달러 이상인 스타트업) 반열에 오른 이승건 비바리퍼블리카 대표가 ‘제2의 토스’로 성장할 스타트업 발굴에 뛰어들었다. 성공·실패를 맛보며 사업 궤도에 오른 스타트업이 또 다른 스타트업을 발굴해 육성한다는 것은 이례적인 접근이라는 평가를 받는다. 통상 이런 스타트업 서바이벌은 자금을 대는 벤처캐피탈(VC), 창업지원기관 등이 진행하는 경우가 많았기 때문이다.파운드는 다양한 경험을 가진 선배 기업인이 예비 창업가와 스타트업을 적극 발굴한다는 개념으로 토스가 직접 기획·제작했다. 예선 과정에만 약 400팀이 참여할 정도로 창업가들의 큰 관심을 끌었다. 최종 선발된 3팀에 총 상금 10억원이 주어진다.스타트업을 발굴해 멘토링 해 줄 심사역에는 이승건 대표를 비롯해 센드버드코리아의 이상희 대표, 박재욱 쏘카 대표, 신현성 차이홀딩스 대표 겸 티몬 의장 등이 뭉쳤다. 김한준 알토스벤처스 대표, 김유진 스파크랩 공동대표, 오지성 뮤렉스파트너스 부사장 등 VC 핵심 인사들도 무대에 올랐다.화려한 심사역과 함께 40초 동안 사업을 소개(피칭)해 다음 라운드 진출을 결정짓는 ‘엘리베이터 매치’가 진행된 것도 관심을 끌었다. 선배 창업자, 유명 투자자 앞에서 떨거나 제대로 답하지 못하는 지원자들부터 당차고 자신감 있게 사업을 소개하는 창업자까지 업계 종사자로선 직·간접적으로 배울 게 많았다는 반응이 나왔다. 심사역마다 다른 평가 기준, 왜 합격하고 탈락하는지에 대한 선배 창업자의 설명을 듣는 것도 또 다른 관전 포인트였다.업계 관계자는 “창업자가 창업자에게 전할 수 있는 생생한 이야기를 직접 볼 수 있는 시도로 보인다”며 “사회 문제를 해결하기 위해 뛰어든 지원자의 열정뿐 아니라, 20대에 도전을 시작해 이제는 30대가 된 선배 창업자들의 에너지도 대단했다”고 평했다. 또 다른 관계자는 “시작이 흥미로웠던 만큼 최종적으로 어떤 스타트업이 선발될지, 그 과정이 어떻게 전개될지에 따라 이승건 대표의 이번 시도도 정확하게 평가할 수 있게 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>10억 투자금 주인공은? 토스, 스타트업 서바이벌 '파운드' 공개</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004742538?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>금융앱 '토스'를 운영하는 비바리퍼블리카가 투자금 10억원 규모의 스타트업 서바이벌 '파운드(FOUND)' 첫 편을 공식 유튜브 채널에서 공개했다고 6일 밝혔다. 비바리퍼블리카가 기획·제작한 파운드는 다양한 경력을 가진 선배 기업인들이 국내외 유망한 예비 창업자와 스타트업 기업을 발굴하는 프로그램이다. 파운드는 '풀어야 할 문제를 발견했다', '회사를 설립했다'는 두 가지 의미를 담고 있다. 세상을 바꿀 새로운 아이디어를 지원하고 스타트업 생태계에 활력을 불어넣겠다는 취지에서 기획됐다. 총 6회로 구성된 이 프로그램은 매주 목요일 오후 7시 토스 공식 유튜브에서 순차적으로 공개된다.첫 공개된 1화에서 파트너들은 △팀 토스 △팀 유니콘 △팀 벤처캐피탈(VC) 등 3개팀으로 구성됐다. 팀 토스에는 이승건 비바리퍼블리카 대표, 안지영 프로덕트 오너, 서현우 전략 헤드가 파트너로 참여했다. 팀 유니콘에는 박재욱 쏘카 대표, 신현성 차이홀딩스 대표 및 티몬 의장, 이상희 센드버드 한국 법인 대표가 합류했다. 팀 VC에는 이한주·김유진 스파크랩 공동대표, 알토스벤처스의 김한준 대표와 박희은 파트너, 오지성 뮤렉스파트너스 부사장 등이 포함됐다.1화는 참가자들이 파트너들 앞에서 40초간 자신의 사업 아이템에 대해 소개하고 통과 여부를 확인하는 '엘리베이터 매치'로 진행됐다. 파트너들은 심사숙고를 통해 총 60명에게 2라운드 통과를 허용했다. 이승건 대표는 한 참가자에게 탈락 결정을 내리는 장면에서 "오늘 이 엘리베이터 안에서는 투자를 못할 것 같다. 하지만 이메일 주소를 알려줄 테니 우리 팀을 통해 의견을 주겠다. 나도 실패를 많이 해봐서 (그 간절함을 안다)"며 감동적인 모습을 선사했다. 비바리퍼블리카 관계자는 "예선에만 약 400팀에 가까운 스타트업이 지원할 정도로 뜨거운 관심 속에 출발했다"며 "파운더들에게 파트너들의 날카롭고 생산적인 피드백이 시작된 만큼 앞으로 펼쳐질 에피소드에도 많은 관심과 기대 부탁드린다"고 했다.[머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>부가통신사업자 4300곳 매출 802조원 집계</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003015360?sid=105</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>과기정통부, 부가통신 실태조사네이버, 카카오, 구글, 넷플릭스 등 한국에서 사업을 하는 4300여개 부가통신사의 매출 총합이 802조8000억원으로 집계됐다. 포털, 온라인중개, 클라우드 등 부가통신서비스 자체 사업을 통한 매출 규모는 199조원으로 추산된다. 부가통신시장 전반의 총 매출과 사업자 현황 등이 집계된 것은 이번이 처음이다.과학기술정보통신부는 8일 '2021년 부가통신 실태조사(이하 실태조사) 경과 및 주요 결과'를 공개했다. 실태조사는 부가통신 산업의 실체를 파악하려는 정부의 첫 시도다.부가통신 신고·등록·신고간주 사업자 약 1만6708개사가 확인됐다. 자본금 1억원 이하 또는 휴폐업, 조사에 응하지 않은 기업을 제외하고 4352개 기업을 조사했다. 국내 기업은 4142개로 95.5%, 해외기업은 194개로 4.5%를 차지했다.부가통신사업자 유형은 △중개플랫폼 △플랫폼 인프라 △온라인직거래 △통신인프라 제공사업자로 분류했다. 중개플랫폼 기업은 이용자와 기업을 연결하며, 광고 또는 거래 수수료 등을 주요매출로 삼는 기업으로 네이버·카카오·구글·메타 등이 포함된다.플랫폼 인프라 기업은 플랫폼 사업을 위한 도구를 제공하는 기업이다. 토스페이먼츠와 같은 전자결제 기업, 아마존웹서비스(AWS)와 같은 클라우드 기업이 포함된다. 넷플릭스와 쿠팡 등은 콘텐츠를 직접 구매해서 소비자에 재판매하는 유형으로, 온라인 직거래 사업자로 분류됐다. 이외 통신인프라를 이용해 부가통신서비스를 제공하는 기업으로 SK텔레콤, 시스코 등도 부가통신사에 포함됐다.국내 부가통신사 총매출은 802조8000억원, 부가통신사 총 종사자 수는 41만명으로 집계됐다. 조사 대상 가운데 37.2%가 연구개발 인력을 보유했고, 중소기업의 연구개발 인력 보유 비중은 32.4%를 기록했다.&lt;용어&gt;부가통신사업자=전기통신사업법(제2조)은 부가통신사를 통신 설비를 보유 또는 임대해서 사업하는 기간통신사 이외의 통신사로 정의하고 있다. 인터넷을 이용해 사업하는 기업 대부분이 부가통신사에 해당한다. 과기정통부는 첫 산업 실태조사를 통해 기업 수, 사업 유형, 매출 규모, 고용 형태 등을 처음으로 정리했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.05.13.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>디앤디파마텍 "파킨슨병 발병 메커니즘 새롭게 규명"</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/296/0000056130?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>[로고-디앤디파마텍]글로벌 바이오텍 디앤디파마텍은 최근 파킨슨병 발병 과정에서의 중요한 기전을 규명하며, 파킨슨병을 억제 및 예방할 수 있는 가능성을 제시했다고 13일 밝혔다.  디앤디파마텍 자회사 뉴랄리(Neuraly)의 공동창업자이자 퇴행성 뇌질환 분야의 세계적 석학인 미국 존스홉킨스 의대 테드 도슨(Ted Dawson) 교수와 발리나 도슨(Valina Dawson) 교수 연구팀은 지난 10일 저명한 국제 학술지 '셀(Cell, Impact Factor 41.58)'에 이 같은 내용의 논문을 발표했다.  파킨슨병은 중뇌의 흑질에 분포하는 도파민 분비 신경세포가 사멸하면서 발생하는 대표적 퇴행성 뇌질환이다. 신체 떨림 및 경직, 느린 운동, 자세 불안정 등의 증상을 나타낸다.  테드와 발리나 교수 연구팀은 새로운 세포사멸 메커니즘인 '파타나토스(parthanatos)'를 발견하고 퇴행성 뇌질환 분야에서 이에 대한 선구적 연구를 지속해오고 있다.  대식세포 이동 저해인자(MIF)라고도 불리는 파타나토스 관련 뉴클레아제(PAAN)는 세포 사멸에서 최종 실행자로 작용한다. 그동안 파킨슨병에 대해 PAAN 뉴클레아제의 역할과 관련 작용기전을 이용한 치료제 개발 가능성에 대해서는 밝혀진 바가 없었다.  연구팀은 PAAN/MIF의 유전적 감소와 뉴클레아제 활성이 결여된 돌연변이가 파킨슨병 동물모델에서 도파민 작용 신경세포의 손실과 행동 결손을 방지한다는 것을 밝혀냈다. PAAN/MIF 뉴클레아제 억제 물질 투여를 통해 신경변성을 예방할 수 있다는 사실이 새롭게 확인한 것이다.  현재 디앤디파마텍은 퍼스트바이오테라퓨틱스와 해당 타깃 후보물질 'NLY03'에 대한 공동개발을 진행 중이다. 이번 논문은 NLY03의 작용기전을 밑받침 해주는 주요 연구결과라고 할 수 있다.  디앤디파마텍 이슬기 대표는 "세계 최고 학술지인 Cell 논문 발표를 통해 NLY03의 작용기전이 다시 한 번 명확히 확인된 만큼, 향후 개발에 속도를 가해 퇴행성 뇌질환 환자들에게 더 다양한 치료제를 제공할 수 있도록 힘쓰겠다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>NHN글로벌 '패션고', 美서 첫 무역박람회 '패션고위크 팜스프링스' 개최</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003014196?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>NHN글로벌의 B2B 마켓플레이스 패션고가 첫 오프라인 무역박람회 '패션고위크 팜스프링스'를 개최한다.패션고는 글로벌 벤더와 개인 리테일 사업자를 연결해주는 이커머스 플랫폼으로 이용자들의 스마트한 쇼핑을 위한 혁신 서비스를 지속 제공하고 있다. 2021년 기준 미국 B2B 마켓플레이스 중 유일하게 패션부문 거래액 10억달러를 돌파하며 미국 패션 시장에서 1위 자리를 공고히 했다. 또한 패션고는 2020년부터 온라인 무역박람회인 '패션고위크'를 진행하고 있으며, 매 회차 신규 바이어가 최대 180% 증가하는 등 미국 패션 업계 주요 무역 박람회로 자리잡았다.패션고는 이커머스 플랫폼 운영 및 유통 노하우를 기반으로 오는 5월 3일부터 5월 5일까지 미국 캘리포니아주 팜스프링스에서 첫 오프라인 무역박람회를 개최한다. 기존 온라인 플랫폼을 통해 진행한 패션고위크의 인기에 힘입어 더 많은 벤더사와 개인 사업자들이 오프라인 현장에서 만나 소통하며 다양한 제품과 혁신 기술을 체험할 수 있는 기회를 제공할 예정이다.패션고위크 팜스프링스는 다수의 성공적인 박람회 개최 경험이 있는 전문가 톰 나스토스와 스콧 초완과의 협업을 통해 탄생했다. 이번 행사는 오프라인으로 참여가 어려운 관계자들을 위해 온라인으로도 라이브 스트리밍을 진행한다.이번 박람회에서는 'Madden Girl' 'Betsey Johnson' 등의 미국 유명 패션 브랜드는 물론 미국 대형 백화점 체인 노드스트롬에 입점한 'Vintage Havana' 등 약 80개 이상의 브랜드를 만나볼 수 있다. 패션고에서만 만나볼 수 있는 27개의 단독 브랜드도 새로운 상품을 선보일 예정이다. 북미 온라인 B2B 마켓플레이스 업체 중 최초로 개최하는 오프라인 박람회인만큼 다양한 상품과 함께 온라인과 오프라인을 결합한 옴니채널 경험을 함께 제공할 계획이다.패션고는 박람회 참여자들을 위해 패션고 모바일 앱 내 '팜스프링스 모드'를 신설해 기존 패션고 온라인 플랫폼에서 경험할 수 있는 기능들을 현장에서도 손 쉽게 체험할 수 있도록 했다. 박람회 현장에서 패션고의 이미지 검색 서비스 '스타일 매치 플러스'로 상품을 검색하면 박람회 내 어떤 부스에서 해당 제품을 볼 수 있는지 부스 번호를 결과로 보여준다.이에 더해 패션고는 패션고위크 팜스프링스의 모든 참가자에게 개인 QR코드를 부여해 참가자들이 현장에서 바로 제품을 주문하고 온라인으로 배송 현황 트래킹까지 할 수 있는 시스템을 구축했다. 패션고위크에 참여하는 벤더들의 신상품을 한 곳에 모아 보여주는 'First Look' 기능도 추가해 다양한 제품을 볼 수 있게 했다.폴 리 NHN글로벌 =대표는 “80년 전 첫 패션 박람회가 열렸던 팜스프링스에서 패션고만의 혁신적인 서비스를 체험할 수 있는 박람회를 개최하게 되어 영광”이라며 “패션고는 새로운 쇼핑 경험을 제공하는 데 그치지 않고 벤더사와 개인 사업자 모두가 성장할 수 있는 환경을 조성하기 위해 끊임없이 노력해 나갈 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.05.01.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>靑 개방 관람 접수 100만 돌파…개방 첫날 신청자 8만명</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003691404?sid=100</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>추첨해 2일 개별 통지    뉴스1    청와대 개방 관람 누적 신청자가 100만명을 돌파했다. 청와대는 오는 5월10일 낮 12시 일반 관람객에게 개방될 예정이다.   30일 대통령직인수위원회 청와대이전TF(태스크포스)는 "오늘 0시 기준 청와대 관람 누적 신청자는 112만4372명으로 집계됐다"고 밝혔다.   청와대이전TF에 따르면 개방 첫날인 5월10일 관람 신청자는 8만3355명에 달했다. 당일 2만6000명까지 관람할 수 있고 11일부터는 3만9000명까지 가능하다.   첫날 관람 시간은 정오부터 오후 8시까지이며 11일부터 21일까지는 오전 7시부터 오후 7시까지 관람할 수 있다.   TF는 지난 27일 오전 10시부터 네이버, 카카오톡, 토스를 통해 관람 사전 접수를 하고 있다. 신청 접수는 Δ개인(1~4명) Δ단체(30~50명) Δ65세 이상 어르신 및 장애인(1~4명)으로 구분해 진행 중이다.   방문자는 추첨을 통해 선정되며 첫날 관람 신청자에 대한 당첨 알림은 5월2일 오후 2시까지 개별통지된다. 당첨되지 않은 경우에는 새로 원하는 날짜에 재신청할 수 있다.   관람에 대한 자세한 내용은 청와대 개방 온라인소통관 '청와대, 국민품으로'에서 확인하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>‘새 정부 출범’ D-1…경찰·시민단체, ‘新집회 1번지’ 용산으로</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001988033?sid=102</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>10일 용산 국방부 청사로 집무실 이전靑경비 101·202경비단도 새 대통령 따라취임일에 맞춰 現국방부 청사 안으로 이전취임식 직후부터 집무실 중심 경비업무  종로서 관할 지구대·파출서 근무 현행 유지“靑개방 등 따라 관광 수요 증가할 수 있어”시민단체들, 용산 일대서 집회개최 분위기  “대통령 있는 곳서 집회 열어야” 한목소리지난 7일 오후 ‘촛불승리전환행동’과 ‘대통령집무실 이전 반대 공동행동’ 회원들이 서울 용산구 국방부 청사 인근 이촌역 앞에서 대통령 집무실 이전을 규탄하는 집회를 하고 있다. [연합][헤럴드경제=김영철 기자] 9일로 문재인 대통령의 임기가 종료되면서 윤석열 대통령 당선인의 공약대로 취임식 직후인 10일 오후 대통령 집무실은 서울 용산구 국방부 청사로 이전된다. 이에 따라 그동안 시민사회단체들이 청와대 인근이나 대통령직인수위원회가 있던 서울 종로구 통의동 인근에서 진행되던 집회와 기자회견을 용산 일대로 대거 진행될 전망이다. 이에 맞서 경찰도 관련 경비 인력을 늘릴 예정이다. 새 정부 출범에 따라 용산 일대가 이른바 ‘신(新)집회 1번지’가 될 것이라는 관측이 나온다.9일 헤럴드경제 취재를 종합하면 서울 용산경찰서는 대통령 집무실 이전에 맞춰 대통령 외곽 경호경비 인력을 늘린 상태다. 그 결과 용산서 정보관 인력 7명이 최근 채용됐다. 경비 인력도 총 16명으로 재배치돼 이전보다 7명이 충원된 상태다. 현재 18명으로 구성된 서울 종로경찰서 경비과 인력과 비슷한 수준이다.대통령 경비를 담당해오던 경찰 부대도 집무실 이전에 따라 이동할 방침이다. 청와대 내부 경비를 담당해왔던 101경비단은 국방부 안으로 이전, 10일부터 윤 당선인이 근무하는 현 국방부 청사를 경비할 예정이다. 청와대 외곽을 경비하던 202경비단 역시 국방부 일대로 이사를 완료하지는 않았지만, 정권이 교체되는 10일에 맞춰 해당 일대에 근무를 바로 시작할 예정이다. 경찰 관계자는 “구체적인 경비 계획은 기밀 사항으로 알릴 수 없으나, 대통령 집무실이 이동함에 따라 부대를 이동하는 중”이라며 “기존 업무 그대로 대통령 경비 업무를 이어갈 예정”이라고 밝혔다.다만 종로서에서는 당장 청와대 일대 파출소를 통폐합하는 등의 인력 재배치는 없을 방침이다. 대통령 집무실이 용산으로 이전함에 따라 용산서 일대 지구대 파출소엔 인력 변화가 있었던 것과 비교된다.실제로 10일부터 오는 22일까지 청와대가 시민들에게 전격 개방되면서 네이버, 카카오톡, 토스를 통해 관람 사전 접수를 하고 있다. 개방 첫날인 10일에는 낮 12시부터 오후 8시까지, 오는 11일부터 21일까지는 오전 7시부터 오후 7시까지 관람이 가능하다. 지난해 11월부터 재공사에 착수한 종로구 광화문광장도 오는 7월 재개장할 예정이어서 관광 수요가 몰릴 수 있다는 관측 때문에 종로서는 산하 지구대·파출소 체제를 유지하기로 했다.경찰 관계자는 “당장 종로서 관할 지구대와 파출소를 통폐합하거나 근무 인력을 조정할 계획은 없다”며 “곧 있으면 청와대도 시민들에게 개방해 관광 인력이 늘어날 것으로 보여 기존대로 운영을 해보고 치안 수요 변화가 있을 때 인력 조정 여부를 판단해도 늦지 않을 것으로 보고 있다”고 설명했다.시민사회단체들도 새 대통령을 따라 청와대나 인수위 인근에서 집회 장소를 용산 일대로 이동할 분위기다. 대통령이 없는 청와대에서 더 이상 집회를 이어나갈 이유가 없다는 것이다.이미 전국장애인차별철폐연대(전장연)은 지난 6일부터 열차 안에서 진행하는 오체투지 시위를 지하철 3호선 경복궁역에서 4호선 삼각지역으로 바꿔 매일 진행하고 있다. 토요일인 지난 7일에는 ‘촛불승리전환행동’ 소속 시민 200여 명이 국방부 청사 인근에서 대통령 집무실 이전을 반대하는 집회를 개최했다. 신종 코로나바이러스 감염증(코로나19) 대응 등으로 이슈가 많은 보건의료노조도 집회나 기자회견이 있을 경우 더 이상 청와대 일대가 아닌 용산으로 집회를 진행할 계획이다.시민단체인 참여연대의 이선미 정책기획국장은 이날 헤럴드경제와 통화에서 “시민단체들의 의견을 들어야 할 당사자가 있는 곳에서 집회를 여는 것이 맞는다고 본다”며 “향후 윤 당선인에 대한 집회나 회견이 있으면 용산 일대에서 개최할 것 같다”고 말했다. 정재범 보건의료노조 부위원장도 “아무래도 대통령에게 요구할 기자회견이 있으면 용산에서 진행하지 굳이 청와대에서 할 일은 없을 것 같다”며 “청와대 일대는 시민들도 많은 데 대통령도 없는 곳에서 굳이 회견 하는 건 교통만 방해되고 불필요해 보인다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>[단독] KB, 티맵에 1000억 투자</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004696944?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>윤종규 KB금융그룹 회장. KB금융 제공KB금융그룹이 SK그룹의 모빌리티 플랫폼 자회사인 티맵모빌리티에 약 1000억원을 투자한다. 국내 4대 금융그룹이 비금융 정보기술(IT) 기업에 대규모로 투자하는 것은 이번이 처음이다. 보험·결제 등 금융서비스와 모빌리티 서비스 간 시너지를 통해 네이버, 카카오, 토스 등 빅테크 업체들과의 경쟁에서 유리한 고지를 점하겠다는 전략이다. 10일 투자은행(IB)업계에 따르면 KB금융그룹은 티맵모빌리티에 투자하기로 하고 막판 협상을 진행 중이다. 투자에 앞서 티맵모빌리티의 기업가치는 약 2조5000억원으로 평가됐다.거래가 성사되면 KB금융그룹은 티맵모빌리티 지분 4~5%를 보유해 4대 주주에 오르게 된다. 투자 주체는 국민은행이다.박시은/이지훈 기자▶기사 전문은 마켓인사이트에서 볼 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.05.11.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>벌어진 인뱅 예대금리차…공시 앞두고 '긴장'</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002602699?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>카뱅 지난해 2.18%p…올해 0.3%p↑중·저신용 대출 중심… 금리 인하 압박서울 종로구 케이뱅크 사옥, 카카오뱅크 서울 오피스. ⓒ각 사[데일리안 = 김효숙 기자] 윤석열 정부의 예대금리차 공시제가 속도를 내는 가운데 인터넷전문은행들이 긴장하고 있다. 예대금리차가 1%p대인 시중은행과 비교하면 인터넷은행은 2%p대로 높은 수준이어서다. 인터넷은행은 신용등급이 낮은 차주를 상대로 한 대출을 늘리고 있어 차이가 난다는 입장이지만, 제도 시행을 앞두고 금리인하 압박이 커질 것이라는 전망이 나온다.11일 금융감독원에 따르면 카카오뱅크와 케이뱅크의 지난해 말 예대금리차는 모두 2.18%p로 전분기 대비 각각 0.08%p, 0.17%p 올랐다. 카카오뱅크와 케이뱅크는 지난해 3월부터, 케이뱅크는 지난해 9월부터 2%p대의 예대금리차를 유지하고 있다. 지난해 10월 영업을 시작한 토스뱅크의 경우 마이너스 1.02%p다.특히 최근 1분기 실적을 발표한 카카오뱅크의 올해 예대금리차는 이보다 더 벌어졌다. 지난 3월 말 기준 카카오뱅크의 예대금리차는 2.52%p로 지난해 말보다 0.34%p 상승했다. 카카오뱅크는 1분기에 사상 최대 실적을 달성했는데 대부분이 이자 마진이라는 평이다.반면 같은 기간 KB국민·신한·농협·우리·하나 등 5대 시중은행의 예대금리차는 1%p대를 유지하고 있다.은행별로 보면 지난해말 기준 KB국민은행의 예대금리차는 1.89%p로 전 분기 대비 0.01%p 올랐다. 다음으로 ▲농협은행 1.88%p ▲신한은행 1.72%p ▲하나은행 1.68%p ▲우리은행 1.66%p 순이다. 이들 모두 1년 넘게 1%p를 유지하고 있다.지난해 은행별 예대금리차 ⓒ데일리안예대금리차는 예금금리와 대출금리의 차이로 은행의 수익과 직결되는 수치다. 은행들이 지난해 예금금리보다 대출금리를 더 많이 올려 역대 실적을 거두자 윤석열 대통령은 대선 후보 시절부터 금융소비자를 보호하겠다며 예대금리차 공시를 추진하겠다고 여러 차례 강조했다.대통령직인수위원회는 '윤석열 정부 110대 국정과제'를 통해 전체 은행의 예대금리차를 비교 공시하고, 공시 주기도 기존 3개월에서 1개월로 단축하는 방안을 내놨다. 예대금리차 공시제도가 구체화되면서 비교적 예대금리차가 높은 인터넷은행에 대한 금리인하 압박도 커질 것이라는 전망도 나온다.인터넷은행의 경우 주요 대출 고객이 중·저신용자들이라 대출금리가 시중은행보다 높을 수 밖에 없고, 예대금리차도 벌어질 수 밖에 없다는 입장이다.애초 인터넷은행은 신용점수가 낮은 사람들이 사채 시장으로 빠지는 것을 막고 제도권 금융을 이용하게 하자는 취지로 설립을 허가받았다. 카카오뱅크와 케이뱅크, 토스뱅크 3사는 금융당국과 협의해 매년 중·저신용 대출 비율 목표치를 세우고 이를 채우기 위해 중저신용 대출을 늘리고 있다.카카오뱅크는 목표 달성을 위해 고신용대출을 아예 중단하고 중·저신용자 대상 신용대출만 취급하고 있는 상황이다.기준금리 인상으로 시중은행들 역시 예대금리차가 확대되고 있지만 인터넷은행의 예대금리 증가폭이 더 크다는 점을 고려하면, 예대마진으로 역대급 실적을 낸 인터넷은행들이 차주들의 이자 부담을 완화해야 한다는 지적이 나온다.금융권 관계자는 "인터넷은행이 설립취지상 금리가 높은 중저신용 대출에 치중해면서 예대금리차가 커질 수 밖에 없지만 과한 예대마진을 남기는 것으로도 비춰질 수 있다"며 "예대금리차 공시가 이뤄질 경우 인터넷은행들에 대한 금리 인하 압박도 상당해질 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>토스뱅크, 국내 외국인도 비대면 계좌 개설 가능…인뱅 최초</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003691964?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>토스뱅크가 인터넷전문은행 최초로 외국인이라도 은행 영업점을 방문하지 않고 첫 계좌 개설이 가능한 ‘국내 외국인 고객 대상 비대면 뱅킹서비스’를 시작한다.   토스뱅크는 2일 국내에 거주하면서 외국인등록증을 보유한 외국인의 경우 토스뱅크에서 계좌를 개설할 수 있다고 밝혔다. 기존에 국내 은행 계좌가 없었던 외국인 고객도 마찬가지다.   계좌를 개설한 외국인 고객들은 내국인 고객과 똑같이 비대면 뱅킹서비스를 이용할 수 있다. 세전 연 2% 금리(1억원 초과 시 0.1% 금리 적용)를 제공하는 토스뱅크 통장 혜택과 ‘지금 이자 받기’를 통해 매일 남은 원금에 이자를 더한 잔액을 기준으로 또다시 이자가 쌓이는 ‘일 복리’ 혜택 등을 동일하게 누리게 된다.   국내 은행 간 송금, ATM 입출금 등 각종 수수료 무료 정책도 동일하게 적용된다. 최대 월 4만300원, 해외결제 시 무제한 3%의 캐시백 혜택을 담은 토스뱅크카드(체크카드) 사용도 가능하다. 다만 토스뱅크 신용대출, 마이너스통장, ‘사장님 대출’ 등 무보증·무담보로 운영되는 대출 서비스는 이용할 수 없다.   그동안 외국인의 경우 휴대전화 가입자 명의나 금융 계좌 명의를 다르게 입력하는 경우가 있어 동일인 여부를 판별할 수 없는 문제가 있었지만, 토스뱅크는 행정안전부의 공공 마이데이터 서비스를 활용해 이를 해결했다고 설명했다.   토스뱅크 관계자는 “국내 거주 외국인이 196만명에 달하는데도 여전히 이들이 이용할 수 있는 뱅킹서비스는 제한적이기 때문에 ‘금융소외계층’으로 남을 수밖에 없었다”며 “앞으로도 금융 사각지대를 들여다보고 고객을 적극적으로 포용할 것”이라고 말했다.   토스뱅크는 이들 고객을 대상으로 이른 시일 내에 해외송금 서비스를 지원할 계획이다. 언어는 현재 한국어만 지원하지만, 불편사항은 고객센터를 통해 문제를 접수하고 해결할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>넥슨, 이용자 콘텐츠 공모전 '블루 아카이브 어워즈' 개최</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000671482?sid=105</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>22일까지 네 개 부문 콘텐츠 공모전 개최넥슨(대표 이정헌)이 자회사 넥슨게임즈(대표 박용현)에서 개발한 서브컬처 게임 '블루 아카이브' 이용자 콘텐츠 공모전 '블루 아카이브 어워즈'를 10일 개최했다. [사진=넥슨]공모 부문은 '인테리어 전문가', '학원 최고의 시인', '키보토스 예술가', '샬레 행동대장' 등 총 네 개 부문으로 22일까지 응모할 수 있다. 모든 공모 부문은 중복으로 참여 가능하며 최종 수상작은 27일 발표할 예정이다.인테리어 전문가 부문은 게임 속 샬레 부속 카페를 자신만의 방법으로 꾸며 참가할 수 있고, 학원 최고의 시인은 25자 이내로 블루 아카이브를 표현해 응모할 수 있다.키보토스 예술가에서는 블루 아카이브 세계관 및 0.5주년 페스티벌을 주제로 글, 그림, 영상, 음악, 피규어 등 다양한 형태로 작품을 제작해 응모할 수 있다. 샬레 행동대장 부문에서는 실제 일상 속 블루 아카이브를 표현해 참여할 수 있다.수상작은 게시글 추천수, 심사를 통해 선정되며 대상 수상자에게는 '청휘석 3천600개', 구글 기프트 카드(30만 원)을 지급한다. 금상, 특별상, 행운상 수상자에게도 '청휘석', 구글 기프트 카드 등을 제공하며 공모전에 참여한 모든 이용자에게 부문별로 '청휘석 200개'를 선물한다. 또, 어워즈 수상작은 27일부터 이벤트 페이지에 전시할 예정이다.최지승 넥슨 퍼블리싱마케팅 팀장은 "블루 아카이브를 사랑해주시는 이용자분들을 위해 색다른 공모전을 준비했다"라며 "이용자분들의 넘치는 개성과 발랄한 아이디어를 마음껏 펼쳐 보시기를 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>고객 뺏길까…인터넷은행도 수신 금리 인상 잰걸음</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002601938?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>예·적금 금리 최대 0.4%p 인상카뱅·토뱅 수신 44조…증가세 둔화서울 을지로 케이뱅크(왼쪽부터) , 경기도 성남 카카오뱅크, 서울 강남구 토스뱅크 본사 전경 ⓒ각사[데일리안 = 김효숙 기자] 본격적인 금리인상기를 맞아 인터넷전문은행들이 예·적금 금리 인상에 나섰다. 앞서 시중은행이 수신금리를 인상하자 여윳돈이 예금 등 안전자산으로 옮겨가는 역머니무브 현상이 나타난 가운데, 시중은행으로 눈길을 돌리는 고객을 잡기 위한 조치로 해석된다.9일 금융권에 따르면 카카오뱅크와 케이뱅크는 지난 4일과 6일 수신 상품의 금리를 최대 0.4%p 인상했다.카카오뱅크의 1년 만기 정기예금 금리는 연 2.25%로 0.25%p 인상했고, 3년 만기 정기예금 금리는 2.7%로 0.4%p 인상했다.1년 만기 자유적금의 경우 2.2%에서 2.4%로 금리를 올렸고 자동이체를 신청하면 0.2%포인트 우대금리가 적용된다. 3년 만기 자유적금의 경우 2.8% 금리를 제공하기 때문에 우대금리가 적용될 경우 최고 연 3.0%의 이자를 받는다.케이뱅크의 경우, 1년 이상 정기예금 금리는 연 2.4%로 0.3%p 올랐으며, 3년 만기 정기예금은 2.8%로 0.4%p 인상됐다. 1년 만기 자유적금과 3년 만기 자유적금은 2.6%, 3.0%로 각각 0.2%p, 0.4%p 올랐다.토스뱅크는 수신 상품이 연 2% 파킹 통장뿐이다. 토스뱅크 관계자는 "예·적금 상품 없이 수시입출금 계좌만 운영하고 있는데 2% 금리가 경쟁력이 있다고 본다"며 "아직까지는 금리 인상 계획이 구체적으로 없다"고 설명했다.인터넷은행의 수신금리 인상은 시중은행의 행보를 의식한 것으로 파악된다. KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행이 지난달 한은의 기준금리 인상에 맞춰 발빠르게 수신 금리를 최대 0.3~0.4% 올렸고, 이로 인해 시중의 뭉칫돈이 은행권 정기예금으로 옮겨가는 역머니무브 현상이 나타나고 있기 때문이다.시중은행 예적금 금리가 인터넷은행과 비슷한 2%대로 오른 상황에서 인터넷은행도 고객 이탈을 막으려 금리를 올릴 수밖에 없었다는 해석이 나온다.지난달 5대 은행의 정기예금과 정기적금 잔액은 전월 대비 증가했다. 이들의 지난달 말 기준 정기예금 잔액은 660조6399억원으로 전월 대비 1조1536억원 늘었다. 정기적금은 전월 대비 8055억원 증가한 35조9591억원이다. 이들을 포함한 총 수신 잔액은 1802조6847억원으로 0.8% 늘었다. 액수로 따지면 15조1451억원 규모다.반면, 인터넷은행의 수신 잔액은 같은 기간 0.2% 오르는 데 그쳤다. 카카오뱅크와 케이뱅크의 지난달 말 수신 잔액은 44조6894억원으로 1080억원 증가했다. 비교적 높은 예적금 금리로 인터넷은행을 찾던 고객들 증가세가 다소 둔화된 것을 유추할 수 있는 대목이다.일각에서는 과도한 예대금리차를 손보겠다는 새 정부의 경고가 영향을 미쳤다는 분석도 나온다.중저신용자 대출을 주로 취급하는 인터넷은행들은 시중은행과 비교해 예대금리차가 평균적으로 1~2%p 높다. 인터넷은행이 시중은행 보다 더 많은 예대마진 수익을 챙긴다는 인식을 줄 수 있는 부분이다.인터넷은행 관계자는 "올해 초에도 수신금리를 인상하는 등 경쟁력 있는 혜택을 드리고자 기준금리 인상에 맞춰 꾸준히 예적금 금리를 인상해왔다"며 "시중은행이 다함께 수신금리를 인상한 것도 영향을 미쳤다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>NHN글로벌, 오프라인 박람회 ‘패션고위크 팜스프링스’ 개최</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004958147?sid=105</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>NHN글로벌(대표 폴 리, Paul Lee)은 B2B 마켓플레이스 패션고의 첫 오프라인 무역박람회 ‘패션고위크 팜스프링스’를 개최한다고 2일 밝혔다. 이번 오프라인 무역박람회는 오는 5월 3일부터 5월 5일까지 미국 캘리포니아주 팜스프링스에서 열릴 예정이다.패션고는 글로벌 벤더와 개인 리테일 사업자를 연결해주는 이커머스 플랫폼이다. 2021년 기준 미국 B2B 마켓플레이스 중 유일하게 패션 부문 거래액 10억달러를 돌파했다. 2020년부터 온라인 무역박람회인 ‘패션고위크’를 개최하며 매 회차 신규 바이어가 최대 180% 증가하는 성과를 냈다.NHN글로벌은 기존 온라인 플랫폼을 통해 진행한 패션고위크의 인기에 힘입어 더 많은 벤더사와 개인 사업자들이 오프라인 현장에서 만나 소통하며 다양한 제품과 혁신 기술을 체험할 수 있는 기회를 제공할 예정이다.패션고위크 팜스프링스는 다수의 성공적인 박람회 개최 경험이 있는 전문가 톰 나스토스와 스콧 초완과의 협업을 통해 마련됐으며 오프라인으로 참여가 어려운 관계자들을 위해 온라인 라이브 스트리밍도 진행한다.이번 박람회에서는 ‘Madden Girl’, ‘Betsey Johnson’ 등의 미국 유명 패션 브랜드는 물론 미국 대형 백화점 체인 노드스트롬에 입점한 ‘Vintage Havana’ 등 약 80개 이상의 브랜드를 만나볼 수 있다. 패션고에서만 만나볼 수 있는 27개의 단독 브랜드도 새로운 상품을 선보일 예정이다.패션고 모바일 앱 내 ‘팜스프링스 모드’도 신설해 기존 패션고 온라인 플랫폼에서 경험할 수 있는 기능들을 현장에서도 손쉽게 체험할 수 있도록 했다. 박람회 현장에서 패션고의 이미지 검색 서비스 ‘스타일 매치 플러스’로 상품을 검색하면 박람회 내 어떤 부스에서 해당 제품을 볼 수 있는지 부스 번호를 결과로 보여준다.패션고위크 팜스프링스의 모든 참가자에게 개인 QR코드도 부여해 참가자들이 현장에서 바로 제품을 주문하고 온라인으로 배송 현황 트래킹까지 할 수 있는 시스템을 구축했다. 패션고위크에 참여하는 벤더들의 신상품을 한 곳에 모아 보여주는 ‘First Look’ 기능도 추가했다.NHN글로벌 폴 리 대표는 “80년 전 첫 패션 박람회가 열렸던 팜스프링스에서 패션고만의 혁신적인 서비스를 체험할 수 있는 박람회를 개최하게 돼 영광”이라며 “패션고는 새로운 쇼핑 경험을 제공하는 데 그치지 않고 벤더사와 개인 사업자 모두가 성장할 수 있는 환경을 조성하기 위해 끊임없이 노력해 나갈 것”이라고 밝혔다.NHN글로벌은 최근 패션고코리아도 설립했다. 인력 채용과 함께 사업 확장에 나섰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>배민·토스·직방·희망조약돌…각계 스타트업 CEO들, 尹 취임식 간다</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002602123?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>ⓒ 김범준 우아한형제들 대표, 김슬아 컬리대표, 이재원 희망조약돌 이사장[데일리안 = 박영민 기자] 하루 앞으로 다가온 10일 윤석열 당선인의 대통령 취임식에 재벌기업 총수 뿐 아니라 마켓컬리(김슬아), 배달의민족(김범준), 희망조약돌(이재원), 토스(이승건) 등 분야를 막론하고 국내 각계를 이끌고 있는 젊은 대표 인사들도 참석한다.새롭게 출범되는 尹 행정부의 취임식에는 국민통합을 상징하는 각계각층의 인물들이 특별한 심사를 통해 발굴되어 참석할 예정이다.이번 윤석열 당선인의 초청인사를 두고 일각에서는 스타트업에 대한 육성 및 규제 완화와 더불어 국민통합을 상징하는 초청자들을 통해 분열된 국민여론을 하나로 통합하고자 하는 강한 의지를 피력한 것이라는 해석이 나온다.이어서 취임식준비위원회 측 언급에 따르면, 10일 취임식에는 2010년 3월 26일의 비극적 사건의 당사자인 천안함 생존장병 전준영씨와 더불어 자신의 분야에서 헌신하고 귀감이 됐던 각계각층의 국민영웅들을 초청하여 낭독문을 낭독할 예정이다.한편, 이번 초청인사 코드를 두고 각계에서는 尹 당선인이 이번 취임식을 통해 차기 행정부의 국정방향을 분열된 국민들을 치유·통합하고 新경제성장의 핵심 동력인 스타트업 육성에 대한 지대한 관심을 나타냈다는 평가가 나오고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.05.04.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>토스증권 '주식 선물하기' 이용 건수 10만 돌파</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011164318?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]최현호 기자 = 토스증권은 '주식 선물하기' 서비스 누적 이용 건수가 출시 9개월 만에 10만건을 돌파했다고 4일 밝혔다. 4월 말 기준 해당 서비스 누적 이용 건수는 10만1000여건이다. 매월 평균 1만1000건 이상의 선물하기가 이뤄진 것이라고 토스증권은 설명했다.이 서비스를 가장 많이 이용한 연령층은 40대로, 전체 사용자의 약 30%를 차지했다. 토스증권 측은 30대(23%), 50대(21%), 20대(20%) 등 전 연령대에서 고른 사용률을 보였다고 전했다.토스증권 투자자들이 가장 많이 선물한 상위 3개 종목은 삼성전자, 대한전선, 대한해운이었다.토스증권의 '주식 선물하기' 서비스는 토스 앱을 통해 주식을 선물할 수 있는 서비스로, 선물을 받는 사람의 이름과 전화번호만 알면 주식을 선물할 수 있다. 타인 계좌로 주식을 증여할 수 있는 기존 증권 서비스에 '선물'이라는 개념을 더해 만들어 낸 서비스로, 지난 해 7월 첫 선을 보였다.토스증권은 올해 2분기 중 새로 개선된 기능도 내놓을 예정이다. 이용자가 원하는 시간에 주식을 선물할 수 있도록 예약주문 기능을 추가하고, 선물할 수 있는 주식을 해외주식까지 확대해 선택권도 넓힌다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.05.04.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스증권, 주식 선물하기 10만건 돌파...“해외주식까지 확대”</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002600841?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>ⓒ토스증권[데일리안 = 백서원 기자] 토스증권은 ‘주식 선물하기’ 서비스의 누적 이용 건수가 출시 9개월 만에 10만건을 돌파했다고 4일 밝혔다.‘주식 선물하기’는 토스 앱에서 간편하게 주식을 선물할 수 있는 서비스다. 선물할 사람의 이름과 전화번호만 있으면 손쉽게 주식을 선물할 수 있다. 타인의 계좌로 주식을 증여할 수 있는 기존의 증권 서비스를 ‘주식선물’이라는 새로운 의미를 더해 재정의한 것으로 지난해 7월 첫 선을 보인 후 투자자들의 폭발적인 관심을 끌었다. 4월 말 기준 선물하기 누적 이용건수는 10만1000여건으로 매월 평균 1만1000건 이상의 선물하기가 이뤄졌다.주식 선물하기를 가장 많이 이용한 연령층은 40대로 전체 사용자의 약 30%를 차지했다. 또 30대(23%), 50대(21%), 20대(20%) 등 전 연령대에서 고른 사용률을 보였다.고객 1인당 평균 선물건수는 연령대가 낮아질수록 줄어드는 경향을 보였다. 50대 고객이 3.1개로 가장 많았고 60대(2.4개), 40대(2.2개), 30대(2개), 20대(1.8개) 순이었다. 고객 1인의 최다 선물건수는 514개에 달했다.토스증권 투자자들이 가장 많이 선물한 상위 3개 종목은 삼성전자, 대한전선, 대한해운이었다. 주식선물 인기 종목들은 당월 거래량이 많았던 종목들과 유사한 트렌드를 보였다.지난 달부터 ‘즉시 선물하기’ 기능도 추가됐다. 보유한 주식만 선물하던 기존 방식에 더해, 선물할 주식을 구매 후 바로 선물할 수 있는 기능이다.토스증권 관계자는 “즉시 선물하기, 증여세 신고 등 지속적인 서비스 개선을 통해 주식선물의 더 나은 고객경험을 제공해 나갈 것”이라고 밝혔다.토스증권은 2분기 중 새로운 기능 개선을 예정하고 있다. 고객이 원하는 시간에 언제든 주식을 선물할 수 있도록 예약주문 기능을 추가하고 선물 대상을 해외주식까지 확대해 고객의 선택권을 넓힌다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.05.04.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>"급부상한 '웹 3.0'…10조弗 시장으로 큰다"</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004694696?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>NFT·디파이 등 탈중앙화 웹"머스크의 트위터 인수가 방아쇠"“인간의 창의성만큼 대담하고 무한한 게 ‘웹 3.0’이다.”(알렉시스 오하니언 레딧 공동창업자)“웹 3.0은 미래에 있지 않다. 오늘 여기에 와있다.”(무함마드 샤이크 앱토스 공동창업자)미국 실리콘밸리의 뜨거운 감자인 웹 3.0이 3일(현지시간) 월가 빅샷들의 축제 ‘밀컨 글로벌 콘퍼런스’에도 등장했다. 웹 3.0은 구글, 메타플랫폼, 애플, 아마존 등 거대 정보기술(IT) 회사들이 통제하는 중앙집중화된 인터넷인 ‘웹 2.0’의 대안으로 꼽히는 개념이다. 탈중앙화와 개인 소유를 특징으로 하는 NFT(대체불가능토큰)와 디파이(DeFI·탈중앙 금융)가 주요 사례로 꼽힌다.이날 특히 시선을 끈 인물은 미국의 초대형 커뮤니티 ‘레딧’의 공동창업자 알렉시스 오하니언이었다. 테니스 스타 세리나 윌리엄스의 남편인 오하니언은 블록체인 전문 벤처캐피털(VC)인 세븐세븐식스를 운영하고 있다. 그는 이날 웹 3.0 관련 특별 세션에 게스트로 참석했다.오하니언은 “예술가 친구들이 NFT를 통한 작품의 ‘2차 판매’로 수익을 내고 있다”며 “작품을 한 번 판매하면 더 이상 수입을 거두기 어려운 웹 2.0 시대와 차이가 크다”고 말했다.이날 세션에선 일론 머스크 테슬라 최고경영자(CEO)가 웹 2.0을 대표하는 플랫폼 트위터를 인수하기로 한 것이 웹 3.0의 확산 계기가 될 수 있다는 전망도 나왔다. 무함마드 샤이크 앱토스 공동창업자는 “골드만삭스나 시타델 같은 유명 투자회사들도 웹 3.0에 관심을 보이고 있다”며 “이 시장은 생각보다 빠르게 성장해 10조달러의 가치를 갖게 될 것”이라고 전망했다.로스앤젤레스=황정수 특파원 hjs@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>토스, 투자금 10억 스타트업 서바이벌 유튜브서 공개</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000810452?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>사진=토스 토스는 투자금 10억원 규모의 스타트업 서바이벌 파운드(FOUND) 첫 편이 자사 공식 유튜브 채널에서 공개했다고 6일 밝혔다.토스가 직접 기획하고 제작한 파운드는 다양한 기업인들이 모여 국내외 유망한 예비 창업가와 스타트업 기업을 적극 발굴하는 프로그램이다.공개된 1화에서 파트너들은 팀 토스, 팀 유니콘, 팀 VC 등 총 3팀으로 구성됐다.팀 토스에는 토스의 이승건 리더, 안지영 프로덕트 오너, 서현우 전략 헤드가 파트너로 참여했다. 팀 유니콘에는 박재욱 쏘카 대표, 신현성 차이홀딩스 대표 및 티몬 의장, 이상희 센드버드 한국 법인 대표가 합류했다. 팀 VC에는 이한주, 김유진 스파크랩 공동대표, 김한준 알토스벤처스 대표 및 박희은 알토스벤처스 파트너, 오지성 뮤렉스파트너스 부사장 등이 포함됐다.1화에서 예비 창업가들이 파트너들 앞에서 40초동안 자신의 사업 아이템을 소개하고 통과 여부를 확인한다.토스 관계자는 "예선에만 약 400팀에 가까운 스타트업이 지원해 주실 정도로 뜨거운 관심 속에 출발했다"며 "신선한 아이디어로 똘똘 뭉친 파운더들에게 파트너들의 날카롭고 생산적인 피드백이 시작된 만큼 앞으로 펼쳐질 에피소드에도 많은 관심과 기대 부탁드린다"라고 말했다.총 6회로 구성된 이 프로그램은 매주 목요일 오후 7시 토스 공식 유튜브에서 순차적으로 공개된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>이직 돕는 ‘커리어 테크’...‘랜선 멘토’ 도움 받고, AI로 이직 추천</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000074870?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>수시로 직장을 옮기고 이직 주기도 점차 짧아지는 것이 새로운 트렌드다. 더 나은 곳으로의 이직을 위해, 역량을 키우고 네트워크를 만들려는 수요도 자연히 커졌다. 그래서 등장한 것이 ‘커리어 테크 플랫폼’이다. 늘 이직을 꿈꾸는 MZ세대 직장인은 다양한 플랫폼을 통해 커리어 조언을 구할 만한 ‘랜선 멘토’를 소개받고, 틈틈이 강의를 들으며 이직에 필요한 역량을 쌓는다. 인공지능(AI) 채용 매칭 서비스 원티드에서는 알고리즘이 구직자의 포지션 합격률을 예측하고 알맞은 채용을 매칭한다. ‘적재적소’ 경력직 채용이 보다 효율적으로 이뤄질 수 있도록 돕는다. (원티드랩 제공)  ▶AI가 매칭하고 현 직장엔 ‘비밀’ ▷원티드 등 이직 플랫폼 주목 경력직 채용은 적재적소에 필요한 인력을 뽑는 것이 핵심이다. 채용공고를 올리고, 접수되는 이력서를 하나하나 검토해 ‘딱 맞는’ 인재를 찾는 것은 품이 많이 드는 일이다. 구직자 역시 자신과 ‘딱 맞는’ 포지션을 찾고 싶기는 마찬가지다. 그래서 경력직 채용에 최적화된 채용 플랫폼이 잇따라 등장했다.‘원티드’가 대표적이다. 원티드의 핵심 서비스는 인공지능(AI) 채용 매칭 서비스다. 구직자가 관심 있는 포지션에 대한 직무, 자격 요건, 우대사항 등을 입력하면 AI 알고리즘이 구직자의 해당 포지션 합격률을 예측하고 채용을 매칭한다. 이 같은 ‘AI 기반 채용’은 구직자 입장에서는 일반적인 채용공고 지원보다 합격률을 4배 이상 높이고, 기업 입장에서는 채용에 드는 시간을 70% 줄인다는 것이 원티드 측 설명이다. 채용공고부터 합격 후 3개월까지의 데이터 300만건을 기반으로 해, 알고리즘 정확도가 높은 편이다. 원티드랩 관계자는 “원티드로 이뤄지는 채용 대부분이 경력직 채용”이라면서 “딱 맞는 채용을 매칭하고 채용 수수료를 받는 비즈니스 모델이다. 합격률이 매출과 직결되기에, 매칭 성공 가능성을 높이려 알고리즘을 계속해서 고도화하고 있다”고 전했다.‘블라인드 하이어’는 300만명이 사용하는 직장인 앱 블라인드가 만든 이직 전용 채용 서비스다. 블라인드 하이어에 프로필을 등록하면 기업이 먼저 제안하는 방식으로 채용이 이뤄진다. 이직을 꿈꾸는 직장인이더라도 구직 사실이 다른 누군가, 특히 현 직장에 알려지는 것은 부담스럽다. 그래서 블라인드 하이어는 프로필 열람을 제한하는 기업을 설정할 수 있고, 익명으로 구직활동을 진행해 구직자가 제안을 수락한 경우에만 기업에 개인정보가 제공된다. ▶커리어 조언 필요하다면 ▷랜선 멘토’에 도움 구하면 어떨까 이직을 꿈꾸는 직장인이라면 누구나 인맥, 네트워킹의 중요성에 공감할 테다. 그러나 인맥을 관리하고 네트워크를 넓히는 일은 마음처럼 쉽지가 않다. 원하는 기업, 원하는 직무에 대한 조언을 구할 만한 경험을 가진 ‘멘토’를 찾기도 어렵다. 코로나19 확산으로 대면 모임이 축소되면서 인맥 관리 난이도가 더욱 높아진 것은 덤이다.‘커피챗’은 원하는 커리어의 멘토를 선택해 20분간 1대1 대화를 진행할 수 있는 유료 플랫폼이다. 기업 이름, 부서, 연차, 직무, 경력 등이 공개된 멘토를 골라 음성 대화로 커리어나 이직 고민을 상담할 수 있다. 대기업, 스타트업부터 외국계 기업, 대학원 등 다양한 곳에 몸담고 있는 ‘선배’가 멘토로 이름을 올린다. 물론 상호 익명이다. 요금은 1회 20분당 1만4900원 수준이다. 커피챗의 주 이용자 역시 이직을 꿈꾸는 1~8년 차 직장인이다.박상우 커피챗 대표는 “이직 도움을 받기 위해 대화하고 싶은 사람을 찾고 연결되는 데까지 기울이는 노력이 모두 비용”이라면서 “커피챗에서는 이런 비용을 최소화하고 잘 보이기 위한 질문 등을 생각할 필요 없이 손쉽게 커리어 궁금증을 해결할 수 있다”고 전했다. ▶커리어 업 돕는 콘텐츠 ▷강의 보며 실무 역량 UP 최근 온라인 강의 플랫폼이 늘면서, 현직자의 능력 개발을 위한 실무 강의도 다수 등장하고 있다.온라인 강의 플랫폼 ‘클래스101’은 디자인, 개발, 직무 교육 등 다양한 분야의 커리어 클래스를 진행 중이다. ‘탈잉’ 역시 엑셀 잘 쓰는 법부터 세무, 회계, 마케팅 등 각 분야의 온라인 강의를 제공한다. 코딩 교육을 전문으로 하는 강의 플랫폼도 코드스테이츠, 엘리스, 프로그래머스, 인프런 등 다양하다.타깃을 좁혀 여성 직장인을 겨냥해 교육을 제공하는 플랫폼도 눈길을 끈다. 여성 교육 플랫폼 ‘헤이조이스’는 결혼, 임신으로 경력이 단절되기보다 커리어에 집중하고자 하는 ‘일하는 여성’을 대상으로 한다. 여성 창업자, 임원, 전문가들이 진행하는 다양한 온라인 강연이 핵심 서비스다. 이와 함께 여성 현직자 1300명으로 구성된 커뮤니티를 활용, 오프라인 워크숍이나 대형 콘퍼런스도 개최한다. 마켓컬리 운영사 컬리가 올 초 헤이조이스를 인수해 눈길을 끌기도 했다. 헤이조이스의 총 활성 이용자 수는 2만3000여명에 달한다. ▶질 좋은 정보 교환 위해 ▷커리어 밀착 커뮤니티 눈길 온라인 커뮤니티는 이제 세대를 불문하고 정보를 얻을 수 있는 공간이 됐다. 직장인 커뮤니티도 마찬가지다. 그러나 온라인 커뮤니티는 대개 익명으로 운영돼 자극적인 글, 신변잡기 등이 마구잡이로 오가는 경우가 많다. 적당한 거리를 두고 질 좋은 정보를 교환하는 ‘커리어 커뮤니티’를 원하는 직장인이라면 아쉬울 수 있다. 최근에는 커리어와 밀접한 정보나 소식을 공유하는 데에 방점을 찍은 커뮤니티 서비스가 등장해 눈길을 끈다.‘커리어리’는 이직이 활발한 IT 업계 직장인을 대상으로 하는 커뮤니티다. 자유로운 소통에만 초점을 두기보다 커뮤니티 활동이 실제 이직 등 커리어와 연관될 수 있도록 했다. 이용자를 IT 업계, 스타트업 현직자로 좁히고, 이용자 프로필을 커리어 포트폴리오로 구성한 것도 이 때문이다. 익명이 아니라 자신의 실제 이력이 공개된 상태로 활동하는 만큼, 보다 검증된 업계 소식과 통찰력 있는 콘텐츠가 공유되는 편이다. 커리어리의 누적 가입자 수는 올 4월 기준 약 19만명, 월간 활성 이용자 수는 10만여명이다.기업들도 이직자 잡으려 분투 무제한 연차·밥스테이지…소속감 높이려 안간힘 토스는 신규 입사자가 잘 적응할 수 있도록 코디네이터와 함께하는 사내 온보딩 프로그램을 운영한다.  젊은 직원들 이직이 흔해지고 근속연수가 짧아지면서, 기업들 역시 장기근속을 유도하기 위한 노력이 한창이다.MZ세대 직원의 ‘번아웃’을 예방하기 위해 경쟁 기업에 비해 충분한 휴식을 주는 것이 대표적이다. 카카오는 3년 근속한 직원에게 1개월 ‘리프레시 휴가’를 준다. 유급 휴가임은 물론이고, 200만원의 휴가 비용까지 얹어준다. 하이브는 법정 연차와 무관하고 임금을 공제하지 않는 ‘무제한 연차 제도’를 운영 중이다. 이와 함께 직원 심리 상담도 지원하면서, 번아웃 방지에 특히 공을 들인다.재택근무가 일상화되면서 느슨해진 소속감을 되살려 장기근속을 유도하는 기업도 눈에 띈다. AI 솔루션 스타트업 업스테이지는 전 직원 원격 근무를 시행하는데, 매주 전 직원을 두 명씩 임의로 짝지어 소통하는 시간을 갖도록 한다. 월 단위로는 4명씩 임의로 팀을 만들어 함께 식사를 하게 하는 ‘밥스테이지’ 시간을 갖는다. 물론 모임에 드는 일체 비용은 회사에서 지원한다.들고 나는 자리가 많아진 만큼 기업들은 새로 이직한 입사자가 조직에 안정적으로 적응하도록 돕는 제도 역시 강화하고 있다. 토스는 전 계열사, 전 직군 입사자를 대상으로 4주간의 온보딩 프로그램을 운영한다. 주로 회사생활 적응을 돕고, 토스의 조직문화를 이식하는 데 초점을 둔다. 마지막 4주 차에는 이승건 대표와의 질의응답 시간도 공통적으로 가진다. 토스는 특히 신규 입사자를 밀착 케어하는 ‘온보딩 코디네이터’ 직무를 별도로 두고 있어 눈길을 끈다.[본 기사는 매경이코노미 제2157호 (2022.05.04~2022.05.10일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>“즐기면서 줍줍”..티끌 모으는 재미 앱테크가 뜬다</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005205239?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>설문조사부터 걸음수 앱까지 방식 다양한달에 커피한잔 값 거뜬...MZ세대 인기[이데일리 전선형 기자] 대학생 김은형 씨는 친구들과 식당을 가면 영수증을 꼭 챙긴다. 보통 영수증을 버려달라고 하는데, 음식점 것을 꼬박꼬박 달라고 한다. 바로 네이버에 영수증 리뷰를 하기 위해서다. 방문한 음식점이나 카페에 영수증을 올리고 리뷰를 하면 네이버페이를 준다. 네이버에서 쇼핑을 자주하는 김씨에게는 페이 리워드가 유용하다. 김 씨는 “10원 단위 푼돈이지만, 쉽고 간단하게 돈을 벌 수 있어 재미로 하고 있다”며 “쌓인 페이는 나중에 쇼핑할 때 보태는데, 할인받는 기분이라 좋다”고 말했다.소소한 습관으로 돈을 버는 ‘재테크’가 인기를 얻고 있다. 앱(애플리케이션)에 있는 서비스를 이용하고, 목표를 달성시키면 현금이나 포인트를 리워드 해주는 ‘앱테크(앱+재테크)’다. 간단하게 많이 걸으면 포인트로 보상을 한다거나, 설문조사, 영수증 리뷰를 하는 등 조금만 습관을 들이면 꽤 쏠쏠하게 돈을 모을 수 있다.가장 널리 알려진 앱테크는 바로 ‘걷기’다. 즉, 걸음 수 만큼 보상을 한다. 걷기를 활용한 리워드는 토스 ‘만보기’, ‘캐시워크’가 양대 주자다. 토스와 캐시워크는 포인트가 아닌 걸음수에 따라 ‘돈’, 현금을 준다. 바로바로 돈이 쌓이고, 쓸 곳을 찾지 않아도 돼 인기가 많다.토스는 걸음 수 기준으로는 1000보를 채우면 10포인트, 5000보를 채우면 여기에 추가 10포인트, 1만보를 채울 경우 추가 20포인트가 리워드로 제공된다. 10포인트는 10원, 현금 개념이다. 방문 미션을 달성하면 최대 100포인트가 추가 지급되면 하루에 최대 140포인트를 수령할 수 있다. 방문 미션은 앱에서 내가 있는 위치 주변으로 풍선이 뜨는 곳에 가면 한 곳당 20포인트씩 주는 것이다. 인기 게임 ‘포켓몬 고(Go)’와 유사하다. 다만, 돈은 1000원 이상부터 출금이 가능하다. 매일매일 만보 미션을 클리어한다고 가정하면 한 달에 4200원을 벌 수 있다. 웬만한 커피 한잔 값이다. 토스의 만보기 미션 화면.(사진=토스)캐시워크는 걷는 걸음 수에 비례해 포인트를 적립하는 리워드 앱이다. 100보당 1캐시(1원)이 적립된다. 하루 1만보까지 적립할 수 있어 최대 100캐시를 얻을 수 있다. 적립한 캐사는 편의점, 카페, 빵집, 레스토랑 등 제휴사에서 현금처럼 사용이 가능하다.CJ ONE의 ‘ONE워크’는 1000보당 1포인트, 만보를 걸으면 10포인트가 쌓인다. 10포인트가 하루 최대 적립액이다. 다만, 2시간 동안 3000보 걷기 등의 ‘타임 미션’이나, 이벤트 응모, 광고 보기 등을 하면 추가 적립도 가능하다. 적립된 포인트는 CJ ONE 포인트 사용처에서 활용할 수 있다. ‘H.point’의 ‘포인트워크’ 서비스는 만보기 기능과 게임을 결합했다. 귀여운 강아지 캐릭터를 등장시켜 운동을 하고 간식을 주면서 키우는 방식이다. 수년전 사랑을 받았던 ‘다마고치’ 게임을 연상케 한다. 강아지에게 간식을 주면 출석이 되고, 포인트인 젤리를 받는다. 또한 걸음수에 따라 젤리를 받을 수 있다. 500걸음마다 5젤리를 얻을 수 있으며, 젤리는 H.point로 전환해 현대면세점·백화점·아울렛·온라인몰·홈쇼핑 등에서 쓸 수 있다. 젤리 교환은 1000젤리부터 가능하다. 걷기 외에도 간단한 활동으로 리워드 받을 수도 있다. 네이버는 마이플레이스에서 이용자가 장소에 대한 리뷰를 남길 경우 포인트를 지급하고 있다. 앞선 사례에서 김은형 씨가 애용하는 방법이다. 물론 포인트를 받기 위해서는 실제 해당 장소를 이용한 경우에만 가능하다. 포인트는 첫 방문 인증장소는 50원, 재방문 인증장소는 10원이 적립된다. 하루에 최대 5회 방문 인증만 포인트가 적립된다. 퀴즈 정답을 맞추면 리워드를 받는 방법도 쏠쏠하다. 토스는 ‘행운퀴즈’를 통해 특정 브랜드에서 출제한 퀴즈를 풀면 랜덤으로 일정 금액의 토스포인트를 받을 수 있도록 하고 있다. 정답을 맞힌 후, 브랜드에서 제공한 쿠폰이나 추가 혜택도 확인할 수 있다. 또한 앱 알림을 확인하면 리워드를 주는 ‘머니알림’도 있다. 특정 브랜드의 다양한 혜택과 소식을 확인하면 최대 20원 상당의 토스포인트가 자동 지급된다. 토스의 ‘이번 주 미션’ 서비스를 통해 특정 브랜드의 웹페이지를 방문하거나, SNS 구독, 서비스 가입 등을 완료하면 토스포인트를 리워드로 받을 수 있다.하나멤버스도 ‘행운상자’를 통해 일정의 포인트를 제공한다. 행운상자 열기를 누르면 최대 5만 포인트까지 당첨될 수 있다. 기회는 하루 최대 다섯 번이다. 하나머니 행운상자.(사진=하나머니 캡쳐)한 금융권 관계자는 “플랫폼 운영하는 기업 입장에서는 소비자들이 플랫폼에 계속 머물게 하는 효과가 있고, 소비자들은 놀이를 즐기면서 돈을 벌 수 있다”며 “모이는 돈은 얼마 되지 않지만, 작지만 확실한 것을 추구하는 MZ세대를 중심으로 참여형 리워드 서비스가 인기가 높은 편”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>"20초면 뚝딱 토스가 잘했네"…400만명 1억 시간 절약했다</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004960000?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>대출 비교 서비스 플랫폼 경쟁 촉발금리 상승기 소비자 이자 절감 톡톡핀다, 핀셋N도 서비스 가세…시너시 효과도[사진 제공 = 토스] 불과 3년여 전만 해도 대출 금리를 낮추기 위해 '금리 쇼핑'을 하려면 '발로 뛰어야 한다'는 말이 있었다. 은행, 저축은행, 보험사, 카드사, 캐피탈, 상호금융 등 서로 다른 금융업권 간의 금리 비교가 쉽지 않았기 때문이다. 그러다 2019년 5월 모바일 금융 플랫폼 '토스'가 금융위원회의 혁신금융서비스로 지정되면서 대출 비교 서비스에 혁신이 일어나기 시작했다. 무엇보다 대출금리 비교가 간편해지면서 금리 경쟁이 촉발, 금융소비자의 유익이 커켰다. 요즘같이 본격적인 금리 인상기에는 더 그렇다. 현재는 핀다, 핀셋N 등 모바일 기반의 여러 대출 비교 서비스 플랫폼이 이 시장에 가세해 서비스 질을 높이는 경쟁이 한창이다. 이제는 이들 플랫폼이 비단 대출 비교 서비스에 국한하지 않고 자산 관리는 기본, 자동차 구매 지원이라든가, 장기렌트, 리스까지 금융 서비스를 확대하는 추세다.이같이 생활 밀착형 서비스로 실생활에서 활용도가 높아지면서 특히 MZ세대(1980년대 초~2000년대 초 출생)에는 토스를 비롯해 핀다, 핀셋N 등이 모바일 필수 필수품으로 자리매김하는 분위기다.6일 토스에 따르면 대출 비교 서비스 조회 고객 수가 400만명을 돌파했다. 서비스 출시 2년하고 9개월여 만의 기록이다. 서비스 이후 누적 대출 실행액은 10조원을 달성했으며, 지난 4월에는 월 대출 실행액이 9000억원을 처음 넘어설 정도로 생활 밀착형 플랫폼으로 활용성이 높아지고 있다. 한 달에 한번이라도 토스 앱을 열어보는 사용자 수가 1400만명에 이를 정도다.토스 앱 내 '대출 받기' 메뉴로 제공되는 대출 비교 서비스는 지난 2019년 5월 금융위로부터 혁신금융서비스로 선정된 후 그해 8월 첫 선을 보였다. 간단한 사용자 정보를 입력하면 48개 금융사의 신용대출 상품 금리와 한도를 비교할 수 있는 서비스다. 개인 신용정보에 따라 가장 큰 금액을 빌릴 수 있는 금융회사와 가장 낮은 금리를 제안하는 금융회사를 손쉽게 비교할 수 있다. 특히, 조회하는데 걸리는 시간은 평균 20초 안팎이다. 직접 금융회사를 찾아가는 오프라인 상담에 필요한 지점 방문, 대출 상품 상담, 가심사 조회, 실제 대출 심사 요청 등 서너 단계 이상의 절차를 한번에 해결했다.출시 이후 지금까지 토스의 대출 비교 서비스를 이용한 고객은 400만명에 달한다. 고객이 48개 금융사를 직접 찾아가 30분의 대출 상담을 받는다고 가정하면 토스의 비대면 대출 비교 서비스로 고객이 절약할 수 있는 시간은 무려 약 1억 시간에 달한다는 계산이 나온다.실제 대출을 받기 전 가심사를 받은 건수는 6억1000만건, 승인금액은 3290조원으로, 대출 비교 서비스 플랫폼으로서 고객의 높은 이용률을 증명했다.대출 비교 서비스 시장에서 토스의 멈춤 없는 성장의 배경에는 2200만명이 넘는 토스 사용자와 개인 신용대출 수요 증가, 1, 2 금융권을 아우르는 대출 비교 정보 제공 등이 요인으로 꼽힌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>'리니지W' 다크엘프 추가…실시간 방송으로 소통 행보 강화</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000670057?sid=105</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>29일 디렉터스 토크2 진행…다크엘프, 신규영지, 공성전 등 공개'리니지W'에 신규 클래스 '다크엘프'가 추가된다. 엔씨소프트는 주요 업데이트를 직접 알리는 실시간 생방송으로 접점을 늘려나간다는 계획도 함께 전했다.리니지W 신규 클래스 '다크엘프'가 오는 4일 업데이트된다. [사진=리니지W 디렉터스 토크2 캡처]2일 게임업계에 따르면 엔씨소프트(대표 김택진, 이하 엔씨)는 지난 29일 멀티플랫폼 다중접속역할수행게임(MMORPG) '리니지W' 이용자와 소통하는 '디렉터스 토크 2'를 열고 업데이트 상세 정보를 공개했다.이날 방송에는 이성구 리니지 지식재산(IP) 본부장, 강정수 사업실장, 최홍영 개발실장 등 주요 개발진이 직접 출연해 다크엘프 클래스 설명, 공성전 리뷰 및 개선방안, 신규영지 기란 등 대형 업데이트 예정인 다양한 콘텐츠를 소개했다.우선 신규 클래스 '다크엘프'가 오는 4일 업데이트된다. 기존 리니지의 감성을 그대로 느낄 수 있도록 재현한다. 다른 클래스의 캐릭터를 변경할 수 있으며 아이템, 캐릭터 레벨 등을 그대로 옮길 수 있다. 다양한 스킬도 준비 중이다.개발진은 첫 공성전 이후 미흡한 지점에 대한 개선이 이뤄질 것이라고 언급했다. 이성구 본부장은 "우선 아테발트와 경비병 NPC 난이도가 하향된다"며 "힐량 보정치이 수정되고 용병 기여도 획득 가능 지역이 확대된다"고 말했다. 마을 강제 텔레포트 영역도 확장됐고, 최소 기여도 미달성 시 직업 순위를 표기하지 않도록 개선할 예정이다.다크엘프와 동시에 신규 월드 '안타라스'가 업데이트된다. 신규 월드 전용 출석 체크 등 다양한 혜택을 준비 중이다. 신규영지 '기란'은 오만의 탑과 다크엘프 업데이트 후 머지않은 시간에 업데이트될 예정이다. 공개된 트레일러에서는 옛날 기란의 음악을 리메이크해 사용했다.이 외에 신규 파티 던전 '갈망의 화원'은 오는 11일 업데이트 예정이다. 보스 몬스터는 케레니스가 등장하며, 기존 케레니스의 이야기를 리니지W만의 방식으로 풀어 퀘스트로 넣을 예정이다. 케레니스의 모자, 로브, 장갑, 신발과 같이 마법사 클래스에 유용한 아이템이 많은 등장할 예정이며, 비교적 낮은 난도로 준비하고 있다. 상중하로 나눠 선택할 수 있고 보상도 이에 따라 달라질 것으로 보인다.최상급 사냥터이자 월드 던전인 '오만의 탑'도 18일 업데이트된다. 최 실장은 "재밌는 스토리가 있는 곳인 만큼 3D로 잘 표현하려 했다"면서 "1층부터 시작해 순차적으로 개방할 것"이라고 말했다. 오만의 탑 1층은 제니스 퀸의 반지, 망토가 나타난다. 갈망의 화원과 달리 최상급의 난이도로 진행되며, 그동안 보지 못했던 높은 보상과 강력한 아이템이 등장할 예정이다.오는 18일 서버 이전이 시작된다. 월드 내 서버 이전을 무료로 이용할 수 있으며, 월드 이전은 서버 이전 이후 추이를 보면서 진행될 예정이다.이용자들의 불만에 대한 질의응답도 이어졌다. 작업장 및 매크로 문제에 대해 이 본부장은 "본인 인증 도입 등 (매크로의) 게임 플레이를 어렵게 만드는 시스템을 도입할 것이며 여러분들의 의견을 반영할 예정"이라면서 "어려운 문제지만 열심히 잡고 있다는 것은 알아주셨으면 좋겠고 지켜봐 주셨으면 한다"고 말했다.공성전 개선에 대해선 최 실장은 "버그와 같은 문제는 계속해서 수정하고 있으며 3, 4주 차 공성전에서는 자잘한 버그는 없이 즐길 수 있도록 준비하고 있다"면서 "월드 단위로 12개의 서버가 한곳에 모이는 콘텐츠와 월드 간 전쟁하는 콘텐츠도 계획하고 있으며 이와 관련해 성 세금 같은 것을 고려하고 있다"고 설명했다.이번 방송은 지난 2월 18일 '디렉토스 토크'에 이은 것으로, 리니지W의 실시간 방송으로는 두 번째다. 2월 당시에는 리니지W 첫 번째 에피소드 업데이트를 안내한 바 있다.엔씨가 지금까지 진행한 생방송이 없던 건 아니지만, 주요 IP에 개발진이 직접 등장해서 소통하는 형식으로 소통 방송을 본격화한 건 올해가 처음이다. 엔씨는 올 초 신규 IP 5종을 공개하며 '오픈형 연구개발(R&amp;D)' 계획을 발표하고, 이용자와의 소통에 적극 나서겠다고 밝히며 신규 IP의 트레일러 영상, 개발 단계의 인게임 영상, 개발자 인터뷰 등을 순차적으로 공개하고 있다. 개발진이 직접 등장하는 생방송도 이용자와 소통을 이어가는 행보의 일환이라고 할 수 있다.앞서 엔씨는 리니지M에서 지난 3월 21일 생방송 '인사이드M : 시즌1'을 통해 대규모 업데이트를 소개했으며, 리니지2M의 경우 지난 1월과 3월 두 차례에 걸쳐 '리니지2M 라이브 토크(LIVE TALK)'를 진행해 올해의 방향성과 업데이트 일정을 알린 바 있다. 리니지2M은 오는 13일에도 '리니지2M LIVE TALK 시즌 3'을 앞두고 있다.엔씨는 리니지IP 외에 블레이드&amp;소울2에서 역시 지난 3월과 4월 'B&amp;S 2 ON-Air' 생방송으로 상반기 업데이트 정보를 공개하고 주요 스탯 효과와 리뉴얼 정보를 공개했다. 엔씨소프트 관계자는 "주요 업데이트를 앞두고 진행하는 실시간 방송 등 이용자와의 접점을 늘려나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.05.14.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>'청와대' 최고 사진 명소는?...본관·대통령 관저 찍으면 화보</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011184043?sid=103</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>기사내용 요약관람 신청 231만명 돌파…개방 기간 6월11일까지 연장[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대 개방행사를 찾은 시민들이 입장하고 있다. 2022.05.13 jhope@newsis.com[서울=뉴시스] 신효령 기자 = 74년 만에 전면 개방된 청와대의 인기가 폭발적이다. 청와대 관람 신청이 231만명을 돌파했다. 뜨거운 열기에 관람 기간도 6월 11일까지로 연장됐다. 신청자가 워낙 많아 추첨으로 선발되는 만큼 '인생샷'을 남기는 것은 필수다. 찍기만 하면 인생샷을 건지는 명소와 촬영 팁, 청와대 경내에서 펼쳐지는 문화행사를 소개한다.일단 청와대 경내 주요 건물에 대한 정보가 담긴 안내도를 손에 드는 것이 좋겠다. 청와대 면적은 약 25만㎡(7만6000여평)로 굉장히 넓은데다, 자유롭게 관람할 수 있는 만큼 동선을 잘 잡아야 한다.[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대에서 열린 개방행사를 찾은 시민들이 본관을 배경으로 사진을 찍고 있다. 2022.05.13 jhope@newsis.com청와대 본관·대통령 관저…카메라 셔터만 누르면 화보대통령 집무실이 있는 청와대 본관이 인생샷 명소다. 관람객들에게 가장 인기가 높은 포토존으로, 본관 앞에서 사진을 찍기 위한 대기줄이 길다.기다린 보람은 충분히 있다. 푸른 기와와 맑은 하늘이 어우러져 화보처럼 사진이 찍힌다. 청와대의 상징 건물인 만큼 여기서 사진을 꼭 찍어야 한다. 본관 앞의 사진 촬영 대기줄을 기다리기 어렵다면 대정원 쪽에서 사진을 찍어도 된다. 아니면 정문에 들어서서 청와대 본관이 나오게끔 찍어도 된다.청와대 본관은 대통령의 집무와 외빈 접견 등에 사용된 중심 건물이다. 전통 목구조와 궁궐 건축양식을 기본으로 팔작지붕을 올리고, 총 15만여 개의 한식 청기와를 이었다.대정원 앞에서 멀찍이서 청와대 본관이 보이게 하고, 하늘을 많이 담아 찍으면 사람이 날씬하게 보이는 효과를 얻을 수 있다. 앞면이 아닌 측면이나 뒷모습, 손가락으로 하늘을 찌르는 모습도 사진 포즈로 추천한다.본관에서 5분 정도 걸어가면 나오는 대통령 관저도 사진 명소다. 대통령과 가족이 생활하는 공간이었던 만큼 관람객들의 뜨거운 관심을 받고 있다.대통령 관저 정문인 '인수문(仁壽門)' 앞에도 사진을 찍기 위한 대기 줄이 길게 늘어져있다. 문을 열고 들어가면 생활 공간인 본채와 접견 행사 공간인 별채가 보인다. 앞마당에는 우리나라 전통 양식의 뜰과 사랑채가 자리잡고 있는데, 많은 사람들로 붐벼서 사진을 제대로 찍기 어렵다.조선시대 정자인 오운정을 보러 가는 산책로 앞에서 대통령 관저가 보이게끔 찍는 것을 추천한다. 산책 도중 대통령 관저를 배경으로 찍어도 좋다.보물로 지정된 '경주 방형대좌 석조여래좌상'을 보러 가기 전의 산책로에서 찍으면 광화문광장과 남산 N서울타워 등 서울 도심 풍경을 카메라에 담을 수 있다.[서울=뉴시스] 인수위사진기자단 = 제20대 윤석열 대통령 취임일인 10일 서울 종로구 청와대에서 열린 국민 개방행사에서 경내 문화유산 오운정이 공개되고 있다. 2022.05.10. photo@newsis.com[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대 녹지원에서 공연이 펼쳐지고 있다. 2022.05.13 jhope@newsis.com영빈관·상춘재·녹지원·춘추관 앞 잔디밭도 사진 명소국빈 방문 공식행사 등에 사용된 '영빈관'은 사진을 찍기 좋은 장소다. 청와대 본관과 대통령 관저에 비해 사람이 적은 편이다. 외국 귀빈 의전 행사 등에 사용된 '상춘재', 무궁화와 봉황이 그려진 청와대 정문도 사람이 적어 인생샷을 남기기 좋다.녹지원은 청와대 경내에서 가장 아름다운 곳으로 꼽힌다. 120여 종의 나무와 역대 대통령들의 기념식수가 있다. 아름다운 자연의 풍광이 펼쳐져 찍기만 하면 인생샷이다.춘추관 앞 잔디밭에서도 인생샷을 남길 수 있다. 푸르른 잔디밭과 맑은 하늘, 형형색색의 텐트가 어우러져 한 폭의 그림과도 같다. 사진을 계속 찍다 보면 진이 빠진다. 수궁터 가는 길의 곳곳에 벤치가 있다. 이곳에서 잠시 쉬는 것도 좋겠다.[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대 춘추관 앞 헬기장에서 줄타기 공연이 펼쳐지고 있다. 2022.05.13 jhope@newsis.com왕가의 산책·줄타기·음악회 등 문화행사 풍성문화재청과 한국문화재재단은 오는 21일까지 청와대 경내에서 다양한 문화행사를 연다. 조선의 왕과 왕비와 함께 걷는 '왕가의 산책'이 진행되며, 영빈관에서는 최고의 무사를 뽑는 공연이 펼쳐진다.춘추관 앞에서는 줄타기 등 전통놀이, 녹지원에서는 음악회를 진행한다. 22일 오후 7시30분 청와대 본관 앞 대정원에서 '청와대 개방 특집 KBS 열린음악회'가 열린다.청와대 관람신청 231만명 돌파…6월11일까지 관람 연장청와대 관람 신청자 수는 지난 12일 0시 기준으로 231만2740명을 돌파했다. 뜨거운 관람 열기에 대통령실은 오는 22일까지 예정됐던 청와대 개방 기간을 6월 11일까지로 연장했다. 오전 7시부터 오후 7시까지 2시간 단위로 입장을 구분한다. 회당 입장객은 6500명, 일일 최대 관람객은 3만9000명이다.관람을 희망하는 경우 스마트폰을 통해 청와대 개방 홈페이지에 접속한 후, 네이버나 카카오톡·토스를 통해 신청할 수 있다. 스마트폰 사용이 어렵다면 네이버 'PC 웹사이트'를 통해서도 신청이 가능하다.[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대에서 왕가의 산책 행렬이 이동하고 있다. 2022.05.13 jhope@newsis.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>카카오뱅크 이어 케이뱅크도...예·적금 금리 줄줄이 올린다</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005208576?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>인터넷은행 최대 0.4%포인트 인상기준금리 인상에 따른 후속조치[이데일리 전선형 기자] 인터넷은행들이 수신금리 인상에 나서고 있다. 카카오뱅크에 이어 케이뱅크도 최대 0.4%포인트 인상을 결정했다.6일 케이뱅크는 이날부터 수신 상품의 금리를 최대 0.4%포인트 올린다고 밝혔다. 먼저 코드K정기예금 상품의 경우 가입기간 1년 이상은 연 2.1%에서 연 2.4%로 0.3%포인트, 가입기간 36개월은 연 2.4%에서 연 2.8%로 0.4%포인트로 인상한다. 코드K정기예금은 복잡한 조건 없이 최고금리가 적용되고 가입 14일 안에 금리가 오르면 오른 금리가 가입일로 소급되는 ‘금리보장서비스’가 적용된다. 코드K자유적금은 가입기간 1년의 경우 연 2.4%에서 연 2.6%로 0.2%포인트, 가입기간 3년은 연 2.6%에서 연 3.0%로 0.4%포인트를 올린다. 주거래우대자유적금은 가입기간별로 0.1~0.3%포인트를 높여 최대 연 3.1%(가입기간 36개월)의 금리가 적용된다. 하루만 보관해도 업계 최대인 3억원까지 이자를 지급하는 파킹통장 플러스박스는 금리를 연 1.0%에서 연 1.3%로 0.3%포인트 인상한다. 자동 목돈모으기 상품인 챌린지박스는 목표 달성 때 추가 적용되는 우대금리를 인상해 목표를 달성한 고객에 연 2.6% 금리를 제공한다. 케이뱅크는 “고객 혜택을 확대하기 위해 상품별로 기준금리 인상 폭 이상의 금리 인상을 단행했다”며 “앞으로도 상품을 통해 혜택과 재미를 드리려는 노력을 지속해나갈 것”이라고 말했다 앞서 카카오뱅크(323410)도 4일부터 예·적금 금리를 최대 0.4%포인트 인상하기로 했다. 1년 만기 정기예금 금리는 연 2.25%로 0.25%포인트 올랐고, 3년 만기 정기예금은 0.40%포인트 인상한 연 2.70% 금리를 제공한다. 또한 1년 만기 자유적금은 0.20%포인트 인상한 연 2.40%의 금리가 제공된다. 자동이체를 신청하면 0.20%포인트의 우대금리를 받을 수 있다.카카오뱅크의 26주 적금 금리도 0.10%포인트 인상됐다. 26주 동안 자동이체에 성공하면 0.50%포인트 우대금리를 제공해 최대 연 2.60%의 금리가 해당 상품에 적용된다. ‘세이프박스’의 기본금리도 0.10%포인트 올라 연 1.20%의 금리가 제공된다.다만, 정상영업 4개월차를 맞은 토스뱅크의 경우 아직 수신금리 인상 계획은 없는 상태다. 토스뱅크는 최대 1억원까지 ‘무조건 2% 금리’를 주는 수시입출금 상품을 운영하고 있다. 인터넷뱅크들의 수신금리 인상 움직임은 지난달 이뤄진 한국은행 기준금리 인상에 따른 후속조치다. 지난달 14일 한국은행이 기준금리를 1.25%에서 1.5%로 0.25%포인트 인상했다. 기준금리가 오르고 난 뒤 5대 시중은행들은 모두 수신금리를 0.3~0.4%포인트 올렸고, 주요 저축은행들도 수신금리 인상에 나섰다. 한 은행권 관계자는 “시중은행 정기예금 금리가 2%로 올라서면서 인터넷은행들과 금리가 비슷해진 상황”이라며 “상품 경쟁력을 끌어 올리기 위해 대응에 나선 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.05.05.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>"어른들은 못써요" 오늘은 '엄카' 말고 내 카드로 긁을까?</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000810232?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>카드사들이 미래 금융고객 공략을 위해 청소년카드 발급에 적극 나서고 있다. /사진=이미지투데이 카드사들이 미래 금융고객 공략을 위해 청소년카드 발급에 적극 나서고 있다. 청소년들은 카드 사용으로 건전한 소비습관을 기를 수 있고 카드사는 청소년 고객을 미리 확보해 이들이 성인이 돼서도 처음 이용한 카드사를 계속 이용하는 '락인(Lock In) 효과'를 기대할 수 있다.신한카드는 지난해 10월 신한은행과 함께 '신한 밈' 서비스를 선보였다. 만 14세 이상부터 만 18세 이하 청소년 고객을 대상으로 하며 별도의 결제계좌 없이 발급받아 사용할 수 있는 선불전자지급수단이다.혜택 역시 청소년에 특화됐다. 10대들이 자주 이용하는 편의점과 음원 스트리밍, 앱 마켓 등에서 이용금액의 5%를 마이신한포인트로 특별 적립해준다. 전 가맹점에서 이용 시 0.1%를 기본 적립해 주는 점도 눈에 띈다.마이틴즈 카드./사진=신한카드 이보다 앞선 지난해 7월엔 '마이틴즈' 카드도 내놨다. 만 12세 이상 중·고등학생 전용 가족 신용카드로 부모가 모바일, 온라인 등으로 신청해서 발급받는 식이다.월 한도와 이용건당 한도는 각각 10만원과 5만원으로 제한됐으며 사용 가능 업종을 교통, 문구·서점, 편의점, 학원에 집중했다. 이를 통해 미성년 자녀의 카드사용 남용, 부정 사용 등의 위험을 사전에 방지했다. 다만 부모가 신청할 경우 최대 월 한도 50만원까지 가능하다.KB국민카드의 'KB국민 샘 쏘영 체크카드'도 눈여겨볼만 하다. 특히 청소년들이 주로 사용하는 스트리밍 서비스와 문구점, 스터디 카페, 독서실, 편의점, 패스트푸드점, 대중교통 이용 시 5% 청구할인을 제공한다. 비씨카드는 지난달 청소년에게 인기가 많은 아이돌 '블랙핑크'를 모델로 내세운 체크카드를 출시했다. 비씨카드 자체발급카드 중 첫 체크카드 상품으로 금융거래계좌 없이 포인트만으로 온오프라인 가맹점에서 결제 가능한 점이 특징이다.포인트 기반인 만큼 사용 전 비씨카드 생활금융플랫폼 '페이북'에서 충전해 사용해야 한다. 최소 1만원부터 최대 200만원까지 충전 가능하다. 비씨카드 관계자는 "체크카드 주요 고객층인 청소년에게 인기가 높은 블랙핑크와 손잡고 포인트 기반의 체크카드를 출시하게 됐다"며 "향후에도 다양한 체크카드 라인업을 선보일 예정"이라고 설명했다. 사진=비씨카드 인터넷은행, 빅테크도 적극적이다. 토스는 지난 2월 초등학교 1학년부터 사용할 수 있는 '유스카드'를 선보였다. '토스머니'를 충전해 사용하는 식이다.선불 교통카드로 사용하거나 국내 가맹점에서 결제할 수 있으며 만 14세 이상이면 청소년 안심 업종 온라인 결제도 가능하다. '토스머니'를 충전하면 하루 50만원, 월 200만원까지 결제된다.카카오뱅크는 10대 청소년 전용 결제카드 '카카오뱅크 mini'를 운영 중이다. 해당 서비스는 만 14세부터 만 18세 이하 청소년만 개설할 수 있는 선불전자지급수단으로 은행 계좌 개설이나 연결 없이 휴대폰 본인인증을 통해 가입할 수 있다는 강점이 있다.카드업계 관계자는 "청소년 고객들은 전용 카드로 소액 금융거래를 하는 경험을 통해 건전한 금융생활을 접할 수 있고 카드사들은 미래 고객층을 미리 선점할 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.05.11.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>스트라타시스, 신규 복합소재3D 프린터 2종·탄소섬유 재료 공개</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002256417?sid=105</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>신규 3D 프린터, 간편하게 다양한 분야에 응용해 적층 제조 도입 가속화 기대3D 프린팅 솔루션 선도 기업 스트라타시스가 자사 F123 프린터 시리즈의 새로운 제품군인 복합소재 3D 프린터 'F190CR', 'F370CR'을 11일 공개했다.스트라타시스의 F123 시리즈는 고강도 복합 3D 프린팅을 통해 단단하고 가벼운 생산 공구, 지그 및 고정구 등 제작에 적합하며 비용 효율성, 큰 빌드 볼륨, 간단한 사용법 등이 특징이다.이번에 새롭게 공개된 3D 프린터에는 컴퓨터 지원 설계(CAD) 데이터를 간단하고 직관적으로 출력하는 '그랩캐드 프린트(GrabCAD Print)' 소프트웨어를 적용했다. CAD 파일을 변환하고 수정해야 하는 번거로움을 해소해 프린팅 오류를 줄이고 보다 손쉽게 3D 프린팅을 사용할 수 있다.탄소섬유 재료 출력이 가능한 F370CR 복합소재 3D 프린터 (사진=스트라타시스)이는 제조 현장과 스마트 공장에 최적화된 기능인 인더스트리4.0의 요구 사항에 부합하는 MTConnect 표준도 제공한다. 제조 현장의 MES 및 ERP와 연동하여 장비를 관리할 수 있으며, 그랩캐드 소프트웨어 개발 키트(GrabCAD SDK)를 제공해 별도로 제조 현장의 시스템 요구 사항에 맞춰 개발할 수 있는 엔터프라이즈 연결성도 지원한다.또한 재사용 가능한 빌드 트레이, 원격 모니터링을 위한 내장 카메라 및 7인치 컨트롤 터치스크린이 포함됐다. F370CR 프린터는 재료 자동 전환 기능이 탑재돼 재료 교체를 위해 빌드를 중단할 필요 없이 새로운 재료 캐니스터를 장착하기만 하면 된다.스트라타시스 신규 3D 프린터를 미리 사용해본 미국 제조업체 그레이코의 데이브 톰슨(Dave Thompson) 부사장은 "스트라타시스는 3D 프린팅을 통해 20년 이상 우리의 신제품 개발 및 제품 혁신을 도왔다"며 "스트라타시스 3D 프린터를 통해 우리는 다양한 애플리케이션의 확장을 이룩했고 이번 F370CR 프린터를 통해 AM 애플리케이션을 혁신할 수 있었다"고 말했다.스트라타시스 제조 담당 수석 부사장 딕 앤더슨(Dick Anderson)은 "스트라타시스는 제조 업체에 더 튼튼하고, 정확하게 출력할 수 있는 3D 프린터와 재료를 제공해 적층 제조의 성장을 지원하고 있다"며 "크기나 복잡도에 관계없는, 최대 99%의 높은 반복성 및 가동 시간을 지닌 신규 프린터와 스트라타시스의 고유 서비스 및 지원은 제조업체의 적층 제조 도입을 가속화할 것"이라고 말했다.한편, 스트라타시스는 신규 3D 프린터용 복합 재료인 'FDM Nylon CF-10'도 공개했다. 이는 신규 프린터에 사용할 수 있는 열가소성 탄소섬유 재료로 기본 나일론 재료보다 60% 이상 강하고, 3배 더 단단하다.탄소섬유 재료 FDM Nylon CF-10으로 출력하는 모습. 가벼우면서 뛰어난 물성을 제공한다. (사진=스트라타시스)신규 F123CR 프린터와 FDM Nylon CF-10은 현재 주문 가능하며 6월에 출고할 예정이다. 스트라타시스는 이달 12일 신제품에 대한 자세한 정보를 제공하는 라이브 이벤트 개최한다. 이달 23일부터 27일까지 킨텍스에서 진행되는 생산제조기술 전시회인 '심토스(SIMTOS) 2022'에서도 이번 신제품을 소개한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>"가정의달 대목 잡자" 주식선물 서비스 경쟁</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002733054?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>가정의 달을 맞아 증권사에서 주식을 선물하는 투자자들을 위한 '주식 선물하기' 기능을 출시하면서 고객 잡기 경쟁에 나서고 있다.8일 금융투자업계에 따르면 삼성증권은 최근 전용 모바일 앱 '엠팝'(mPOP)을 통해 주식 선물하기 서비스를 오픈했다. 특히 삼성증권의 주식 선물하기 서비스는 보유 주식만 선물할 수 있었던 기존 증권사 서비스와는 달리 신규 주식을 바로 매수해 선물하는 기능을 추가했다. 또한 서비스는 선물 받는 사람의 이름과 휴대폰 번호만 있으면 삼성증권 고객이 아니더라도 카카오톡 알림톡을 통해 삼성증권 계좌를 개설한 뒤 받을 수 있다.삼성증권 관계자는 "성인 자녀는 10년 동안 5000만원, 미성년 자녀는 2000만원까지 증여세를 내지 않아도 된다"며 "증여를 고려하는 입장에서 최근 증시의 변동성이 높아진 지금 자녀에게 주식을 증여하기에 좋은 시기"라고 전했다.토스증권은 이미 지난해 7월 첫 선보인 주식 선물하기 서비스가 9개월 만에 10만건을 돌파했다. 지난달 말 기준 누적 이용건수가 10만1000건을 돌파하면서 매월 평균 1만1000건 이상의 선물하기가 이뤄졌다고 토스증권은 전했다.또한 토스증권은 2분기 안으로 고객이 원하는 시간에 주식을 선물할 수 있는 예약주문 기능, 선물 대상을 해외주식까지 확대해 고객의 선택권을 넓힐 예정이다.KB증권에서도 지난 2일 '해외주식 선물하기' 서비스를 출시했다. KB증권의 MTS(모바일 트레이딩 시스템)인 'M-able(마블)'과 간편 투자 플랫폼 '마블 mini'에서 제공하고 있다.선물 받는이가 KB증권 계좌가 없더라도 선물 도착일로부터 7영업일 이내에 KB증권 계좌를 개설해 선물 받기를 완료하면 된다. 단, 미성년 고객은 비대면 계좌 개설이 불가능하다. 해외주식은 1일 300만원 한도로 선물할 수 있으며, 온주(1주 단위의 주식)뿐 아니라 미국 주식에 한해서는 소수점으로도 선물할 수 있다. 또한 대신증권과 한화투자증권도 주식 선물하기 이벤트를 진행한다. 대신증권은 지인에게 '대신증권 추천 종목'을 선물하면 추첨을 통해 경품을 제공한다. 한화투자증권은 오는 31일까지 2004년1월 이후 출생한 미성년자 고객 중 이벤트 기간 내 100만원 이상 순입금 후, 100만원 이상 거래하면 투자지원금 3만원을 지급한다.한편, 주식 투자 저변이 확대한 가운데 삼성전자를 보유한 미성년자 주주도 35만명을 넘어섰다. 한국예탁결제원에 따르면 지난해말 기준 삼성전자의 20대 미만 주주는 35만8257명으로 역대 최대치를 기록했다. 전체 주주 506만6466명 가운데 7.07%를 차지했으며, 전체 발행 주식의 0.25%인 1483만4499주를 보유했다.&lt;삼성증권 제공&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>티웨이항공 "삼성페이로 항공권 구매하세요"</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011173207?sid=102</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>티웨이항공 *재판매 및 DB 금지[대구=뉴시스] 박준 기자 = 티웨이항공이 신속하고 편리한 결제 환경 구축을 위해 삼성페이 간편 결제 서비스를 시작했다.티웨이항공은 PC 홈페이지, 모바일 웹, 애플리케이션을 통해 항공권 구매 시 결제 가능한 수단으로 삼성페이 온라인 간편 결제 서비스를 추가했다고 10일 밝혔다.삼성페이는 지문, 홍채, 비밀번호 인증을 통해 안전하고 편리하게 결제 가능한 서비스다. 삼성페이 가입자들은 PC나 모바일을 통해 보다 손쉽게 티웨이항공에서 항공권 구매가 가능하다.티웨이항공 예약 시 삼성페이 이용을 원할 경우 한국어 사이트에서 KRW(원화)로 운임을 조회하고 등록된 카드로만 결제가 가능하다. 다만 모바일은 아이폰을 제외한 안드로이드 단말기에서만 이용할 수 있다.티웨이항공은 삼성페이 도입을 기념해 3만원 이상 결제 시 5000원 중복 할인 프로모션도 실시하고 있다. 결제 단계에서 결제 수단으로 삼성페이로 선택한 후 결제 시 자동 할인이 적용되며 선착순 3000명 한정으로 제공된다.티웨이항공은 삼성페이를 비롯해 네이버페이, 카카오페이, 토스, 페이코, 페이팔, 유니온페이, 이지웰페이 등 다양한 간편결제 시스템을 지원하고 있다.스마일페이와 제휴한 전용 간편 결제 서비스인 티웨이페이도 선보이는 등 고객 결제 편의성 확대를 위해 노력하고 있다.티웨이항공 관계자는 "간편결제 서비스 이용객이 증가하는 추세에 발맞춰 항공권 구매에도 더욱 신속하고 편리한 결제 환경 구축을 위한 노력이다"며 "앞으로도 고객 편의 확대와 결제 만족도 향상을 위해 다방면으로 검토하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.05.04.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>바이오젠 CEO 사임...알츠하이머 신약 부진 책임</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000284594?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>미셸 보나토스 바이오젠 최고경영자(CEO)가 사임하기로 했습니다.3일(현지시간) CNBC에 따르면 보나토스 CEO는 알츠하이머 신약 '아두헬름' 사업이 부진한데에 책임을 지고 자리에서 물러나기로 했습니다.'아두헬름'은 미국 식품의약국(FDA)으로부터 승인을 받긴 했지만 위험을 감수할 만큼 효능이 크지 않다는 이유로 유럽 시장에서 외면받았고, 또 미국에서도 안전성 문제가 제기돼 메디케어, 신약 보험에 제한을 받는 등 어려움을 겪고 있습니다.여기에 지난해 실적도 1년 전보다 20% 가까이 하락한 110억 달러(약 13조 9천억 원)에 그치면서 바이오젠은 대대적인 구조조정에 나서고 있습니다.보나토스 CEO 뿐만아니라 현재 아두헬름 사업부 직원 대부분을 해고하는 등 손실 매꾸기에 나서고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>“제2의 카카오 꿈꾸는 스타트업 ‘입’과 ‘귀’ 돼주죠” [차 한잔 나누며]</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003693924?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>홍보대행사 ‘선을만나다’ 태윤정 대표1992년 방송 작가로 사회 첫발  2005년엔 미디어 트레이닝 시작  2016년 스타트업 홍보대행 변신 “자신만의 콘텐츠가 중요한 시대  남 흉내보다 잘하는 것 찾아야”    ‘선을만나다’ 태윤정 대표가 9일 서울 마포구 사무실에서 젊은 스타트업 대표들에 대해 이야기하고 있다. 허정호 선임기자    “흙수저에서 대기업 신화를 이룬 이병철·정주영 회장 같은 인물이 한국에서 사라졌다가 다시 스타트업(창업기업)으로 환생했다고 할 수 있습니다.”   스타트업 전문 홍보대행사 ‘선을만나다’의 태윤정 대표는 9일 고객사들을 이렇게 설명했다.   하얀색 형광등 대신 노란빛 은은한 조명을 단 서울 마포구 동교동 선을만나다 사무실은 여느 스타트업 업무 공간을 연상케 했다. 벽에는 스타트업 기사 스크랩이 겹겹이 붙어 있었고, 책장에는 ‘창업’, ‘벤처’라는 단어가 들어간 제목의 책이 빼곡했다. 태 대표는 “제 나이(55세) 정도 되면 재밌는 게 없을까 봐 걱정했는데 이 일을 하면서 단 한 순간도 재미없는 때가 없었다”며 웃었다.   그는 성균관대 불문과를 졸업하고 1992년 방송 작가로 데뷔해 KBS·SBS TV와 라디오를 넘나들며 15년을 글쟁이로 일했다. 이때 심야토론, 선거 개표방송, 후보자 대담 등 주로 시사프로그램의 메인 작가를 맡았다. 인생의 궤도가 달라진 것은 어느 날 한 국회의원 보좌관에게서 받은 전화 한 통이었다.   태 대표는 “(2005년 당시) 김근태 보건복지부 장관이 수줍음이 많으니 방송 인터뷰 준비를 도와달라는 부탁을 계기로 정치인의 미디어 트레이닝을 업으로 하게 됐다”고 말했다. “2007년 대통령 선거 때는 후보자의 방송 토론 준비를 맡았는데 당시 선거판에서 미디어 트레이닝 계약이란 개념이 없어서 두 달간 선거관리위원회의 유권해석을 거쳐 정당과 정식 계약을 맺은 국내 첫 사례”라고 했다.   이후 정당을 가리지 않고 대선, 서울시장 선거에 나선 거물급 정치인부터 청문회에 오른 장관들의 미디어 트레이닝을 전담했다. 그는 후보자의 메시지와 표현법, 말투부터 자세까지 세세하게 조언했다. “보통 나이 든 성공한 사람들은 남이 이야기를 해도 잘 고쳐지지 않지만 권력 의지가 대단한 분들은 달랐다. 어느 대선 후보는 비스듬한 자세와 다리 떠는 습관을 사흘 만에 고쳐와 보는 이를 놀라게 했다”고 말했다.   이번 대선에서도 여야 러브콜을 받았지만 모두 사양했다. 그는 “트라우마가 있다. 도와드렸던 분 중 한 사람(박원순 전 서울시장)은 돌아가시고 한 사람(이명박 전 대통령)은 수인(囚人)이 됐다. 이후 정치 쪽은 완전히 관심을 끊었다”고 말했다.   태 대표는 2016년 한 글로벌 스타트업 액셀러레이터(창업기획) 기업의 홍보 대행을 맡으면서 스타트업 홍보 전문가로 거듭났다. 직원 14명으로 ‘부티크’ 홍보대행사라고 부르는 단출한 규모의 회사를 꾸렸다. 구성원은 모두 여성이다.   그는 “회사를 세우고 몇 가지 원칙을 정했다. 우리는 골프 미팅과 저녁 술자리에 나가지 않는다”며 “대행사가 ‘을’의 입장이다 보니 식구(직원) 중에 이전 직장에서 불미스러운 일을 겪은 경우도 있었다. 대신 누구보다 더 고객사와 사람에 관심을 갖고 대한다. 이를 통한 공감대는 술자리보다 더 끈끈하다”고 했다.   두 번째 원칙은 ‘워라밸’(일과 일상의 균형)이다. 매년 12월이면 크리스마스이브 오전 근무를 끝으로 새해 첫 주 일요일까지 열흘가량 회사 문을 닫는다. 징검다리 휴일도 모두 쉰다. 이달 어린이날 연휴인 6일도 휴무였다.   태 대표는 “7번 망한 토스 대표가 끝내 성공하고, PC방에서 출발한 카카오가 대기업이 되는 게 이 세계”라며 “그런 분들 만나면서 에너지 얻고, 일조한다는 보람을 느낀다”고 말했다. 이어 “과거 대기업은 경제 개발 붐을 타고 맨손으로 부를 일궜지만, 정경유착 같은 문제에 시달렸다”며 “스타트업은 정치의 그늘에서 벗어나 스스로 성장한 한국의 첫 원죄 없는 경제집단”이라고 정의했다.   그는 업계의 카운슬러 역할도 하고 있다. “밤늦게 연락이 와 일 때문에 힘들다는 토로를 하는 대표들도 종종 있다”며 “왕관의 무게를 짊어진 사람이 겪는 어려움이 있다. 그분들께 귀가 되어드리는 역할도 한다”고 했다. 지난해에는 ‘홍보의 마법, 스타트업 전쟁에서 살아남기’라는 책도 냈다.   그의 꿈은 확고했다. “업계에서 꼭 필요하고 유니크(희소)한 회사가 되려 한다”고 했다. 평생을 남을 빛나게 하는 일을 해온 태 대표는 “이제 자신만의 콘텐츠가 중요한 시대다. 남들이 좋으니까 하는 건 통하지 않는다”며 “사람의 마음을 끌 자신만의 뾰족한 무엇이 있어야 한다”고 강조했다.   뾰족한 점을 찾는 방법을 물었다. 그는 “자기가 좋아하는 것에서, 잘하는 것에서 키워드를 찾아야 한다. 남을 흉내 내지 말아야 한다”고 답했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>주가 내리고 금리 오르고… 예·적금 어디에 넣을까</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003272345?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>시중은행 예금 금리 2% 중후반대저축은행은 더 높아 3%에 육박금액·예치기간 따라 특판 상품도고금리 적금, 우대조건 잘 살펴야시장금리는 인상되고 증시 하락장이 이어지면서 시중 자산이 예·적금으로 몰리는 ‘역(逆)머니무브’ 현상이 가속화되고 있다. 시중은행과 저축은행, 더불어 인터넷은행까지 선택지가 다양해진 상황에서 자금 규모와 예치기간 등을 감안해 어떤 상품을 고르면 좋을지 11일 살펴봤다.KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 지난 6일 기준 예·적금 수신 잔액은 700조 290억원으로 집계됐다. 지난달 말 660조 6399억원이던 정기예금 잔액은 일주일새 3조 536억원이나 증가했고, 같은 기간 정기적금도 36조 3355억원으로 3764억원이나 늘었다. 지난달 14일 한국은행 금융통화위원회의 기준금리를 1.50%로 0.25% 포인트 인상한 뒤 시중은행들이 예적금 금리를 2% 중후반대로 올리자 시중 자산들이 은행권으로 옮겨 가는 모양새다.은행 예·적금 금리가 높아졌다고 해도 저축은행에 비해선 여전히 낮은 편이다. 시중은행의 1년 만기 정기예금 상품에선 IBK기업은행의 ‘IBK 디데이통장’이 2.51%(세전·이하 세전)로 이자가 가장 높았지만, 저축은행 중 가장 금리가 높은 머스트삼일저축은행(2.96%)과 비교하면 0.45% 포인트 낮았다. 인터넷전문은행인 케이뱅크(2.40%)나 카카오뱅크(2.25%)는 시중은행보다도 낮은 수준이었다.3년 동안 정기예금에 자산을 넣어둘 수 있는 소비자라면 KB국민은행의 ‘KB 스타 정기예금’(3.13%)을 선택하는 게 유리하다. 저축은행 중 가장 높은 금리를 제공하는 키움예스저축은행의 ‘정기예금’(3.10%)보다도 높은 금리를 제공한다. 만 18세 이상 성인 여성이 1년 이상 500만~5000만원을 예치할 계획이라면 광주은행의 ‘미즈월복리정기예금’(3년 만기·3.11%)을 선택지에 넣을 수 있겠다.적금의 경우 스마트저축은행의 ‘스마트 아이 정기적금’이 예·적금 첫 거래 고객에 한해 3.50%(1년 만기)의 높은 이자를 제공한다.1년간 분기당 50만원 정도만 적금에 넣을 만 19세 이상 고객이라면 DB저축은행(M드림 빅 자유적금·3.60%)에서 가장 높은 이자를 받을 수 있다. 영업점을 직접 방문할 수 있는 직장인은 예가람저축은행 ‘직장인 플러스 정기적금’(3.20%·3년 만기) 상품도 살펴볼 만하다.최고 6.0%의 이자를 받을 수 있는 정기 적금 상품도 있지만 우대 조건을 깐깐하게 살펴봐야 한다. 웰컴저축은행의 ‘웰뱅 든든적금’은 2.0% 이자에 최고 우대금리 6.0%를 제공하지만 최초 개설한 예적금 개설일로부터 30일 이내 해당 적금을 가입해야 하고, 적금 가입 시점의 신용평점이 낮을수록 높은 이자를 받을 수 있다.돈이 정기 예·적금 상품에 묶이는 게 싫다면 단 하루만 맡겨도 단일 금리를 받을 수 있는 인터넷 전문은행의 파킹통장을 활용할 수 있다. 1억원 이하라면 토스뱅크의 금리가 연 2.0%로 가장 높은데, 다만 1억원 초과분에 대해선 0.1%의 금리가 적용된다. 케이뱅크의 ‘플러스박스’는 최대 3억원에 대해 연 1.0%의 금리를 제공하며, 카카오뱅크의 ‘세이프박스’는 최대 1억원까지 연 1.0% 금리가 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.05.04.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>[콘텐츠 핫&amp;뉴] 넥슨 ‘서든어택’ 기간 한정 맵 ‘출발 런런런’ 공개</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004959426?sid=105</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>넥슨(대표 이정헌)은 PC온라인 FPS 게임 ‘서든어택’에 2022년 기간 한정 맵 ‘출발 런런런’을 업데이트했다고 4일 밝혔다.‘출발 런런런’은 5월 19일까지 운영되며 ‘용암 던전’ 및 ‘아이스 던전’에서 최종목적지에 먼저 도착하면 승리하는 방식이 특징이다. 경기 중 각종 장애물과 적의 방해를 극복하기 위해 팀원과의 전략적인 협업이 요구된다.넥슨은 ‘출발 런런런’에서 플레이, 승리, 완주 횟수에 따라 총 53만 경험치와 함께 ‘영구제 탄창’, ‘경험치부스터 2.0(15일)’ 등의 보상을 지급한다. 마이건 무기 종류를 획득할 수 있는 특별 마켓 ‘마이건마트’를 운영하고 게임 접속 시 ‘마이건마트’에서 사용 가능한 ‘마이건코인’ 20개를 선물한다.‘서든패스’ 확장판 ‘로얄패스’도 추가했다. 6월 16일까지 ‘로얄패스’를 보유하고 ‘서든패스’ 레벨을 높이면 의상 커스터마이징이 가능한 ‘C.Lucy 캐릭터 세트(영구제)’를 포함한 캐릭터 커스터마이징 전용 아이템을 획득할 수 있다.이외에도 어린이날을 맞아 쇼타임 이벤트를 5월 5일부터 8일까지 진행한다. 기간 중 특정 시간에 접속만 해도 ‘영구제 탄창’, ‘영구제 KEY’ 등을 제공하고 PC방에서 접속 시 ‘프로미스나인 멀티카운트’, ‘윈체스터(IS) 캔디팝 (영구제)’, ‘서린이날 퍼즐 조각’ 등 추가 보상을 선물한다.◆펄어비스, 검음사막 드라카니아 시즌 졸업 돌입펄어비스(대표 허진영)는 검은사막 ‘시즌 : 드라카니아’ 졸업을 4일부터 시작한다. ‘시즌 : 드라카니아’는 신규 클래스 ‘드라카니아’ 출시에 맞춰 선보인 시즌 서버다. 일반 서버보다 빠른 캐릭터 성장이 가능하다. 시즌 서버 졸업 조건을 완료한 이용자는 NPC ‘푸가르’를 찾아 졸업이 가능하다. 시즌 서버 수료 의뢰 완료 시 시즌 캐릭터를 일반 클래스로 전환할 수 있다. 보상으로 ‘발크스의 조언 (+100)’, ‘추억이 담긴 선물 상자’ 등을 획득 가능하다.펄어비스는 ‘드라카니아’의 무기를 각성 무기로 변경시킬 수 있는 ‘투발라 펜던트’ 아이템도 추가했다. 과거 시즌에서 ‘동(V) 카포티아 장신구’와 ‘페를레의 별’을 수령하지 않은 이용자를 위해 ‘특별 선물 교환권’도 제공한다.주요 월드 우두머리들의 난이도도 조정했다. ‘폭풍을 노래하는 카란다’, ‘악몽을 빚는 크자카’, ‘피바람을 두른 누베르’ 등 우두머리 일부 스킬의 피해량을 완화했으며 공격 범위와 패턴의 가시성도 개선했다. 유물&amp;광명석 가방의 활용도를 높이는 프리셋 기능도 도입했다.4월 30일 ‘세계 재즈의 날(International Jazz Day)‘을 맞아 검은사막 OST 4곡을 재즈 음악으로 재편곡하고 과정을 담은 ‘메이킹 필름’ 영상도 ‘펄어비스 뮤직’ 유튜브 채널을 통해 공개했다. 5월 가정의 달과 연휴를 맞아 이벤트도 진행한다.◆엔씨소프트 ‘트릭스터M’ 1주년 사전예약 실시엔씨소프트(대표 김택진)는 모바일 MMORPG ‘트릭스터M’의 출시 1주년 기념 ‘더블 뉴 임팩트(DOUBLE NEW IMPACT)’ 업데이트의 사전예약을 4일 시작했다.엔씨소프트는 오는 18일 1주년 업데이트를 통해 신규 클래스 ‘폴라’를 추가한다. 게임 출시 후 처음으로 선보이는 신규 클래스로 망치를 무기로 사용하는 근거리 및 광역 스킬 캐릭터다.엔씨소프트는 신규 월드 ‘알테오’도 선보인다. 각종 성장 혜택을 제공하는 첫 번째 특화 서버다. 60레벨까지 빠르게 성장할 수 있다. ‘패션·펫 소환(300회)’, 출석 보상을 통해 추가 ‘패션·펫 소환(200회)’ 등의 혜택도 제공한다.이번 사전예약은 17일까지 진행된다. 참여자에게는 ▲1주년 축하 케이크 ▲폴라 상급 패션 소환(10회) ▲최상급 패션 소환(10회) ▲최상급 표본(10회)가 제공된다.4일 정기 업데이트로 ▲‘별희의 점성술’에 신규 별자리 ‘리브라’ 추가 ▲몬스터 표본을 수집하는 ‘까발라 도감’에 ‘컬렉션’ 기능 추가 등이 이뤄졌다.◆넥슨 ‘카러플’ 서비스 2주년 업데이트 예고넥슨(대표 이정헌)은 4일 모바일 레이싱게임 ‘카트라이더 러쉬플러스(이하 카러플)’의 서비스 2주년 기념 업데이트를 예고했다.2020년 5월 출시된 ‘카러플’은 아기자기한 그래픽에서도 시원한 드리프트 쾌감을 선사하는 매력으로 2년동안 꾸준한 인기를 모으며 인기 모바일 레이싱게임으로 자리매김했다.‘카러플’에서는 오는 5월 12일부터 ‘PARTY 2GETHER’ 슬로건 아래 2주년 파티 컨셉트로 새로운 시즌 업데이트와 이벤트가 대대적으로 진행된다.넥슨은 이에 앞서 4일 공식 유튜브에 예고 영상 ‘PARTY 2GETHER 시즌13 업데이트 소식│카러플 2주년’을 게재했다. 해당 영상에서는 스페셜 MC 김대겸, 런민기가 직접 소개하는 2주년 주요 업데이트 콘텐츠와 프로모션 내용을 확인할 수 있다.오는 5월 5, 9, 11일에는 공식 홈페이지, 인게임, 커뮤니티를 통해 ‘디데이 쿠폰번호’를 순차 공개한다. 해당 쿠폰에는 ‘배찌조각 22개’, ‘레전드기념뱃지 22개’, ‘건전지 222개’ 등 혜택이 담겨있다.5월부터 ‘카러플’ 내 기존 시즌패스도 월간패스로 변경한다. 월간패스에서는 시즌패스보다 ‘300건전지’ 향상된 총 ‘900건전지’ 보상과 함께 제휴 콜라보 캐릭터, 아이템 등을 획득할 수 있다.◆카카오게임즈 ‘오딘’, 이벤트 던전 ‘벚꽃 정원’ 추가카카오게임즈(대표 조계현)는 MMORPG ‘오딘: 발할라라이징’에서 ‘벚꽃 정원’을 추가하고 봄맞이 이벤트를 진행한다고 4일 밝혔다.새롭게 추가된 ‘벚꽃 정원’은 입장 요구 레벨에 따라 총 4단계로 구성된 정예 던전이다. 이용자는 각 단계에서 ‘벚꽃 주문서’, ‘유물 파편’ 등을 획득할 수 있다. ‘벚꽃 주문서’는 버프 아이템으로 사용할 수 있고 수집 아이템이나 성장 및 제작 재료 아이템으로 교환도 가능하다.카카오게임즈는 가정의 달을 맞아 14일 출석 이벤트도 오는 6월 1일까지 실시한다. 이용자는 매일 출석할 때마다 ‘트렌달 파편’, ‘아바타·탈 것 11회 소환 선택권’ 등을 받을 수 있다.5일 어린이날, 8일 어버이날, 15일 스승의 날엔 필드에서 획득할 수 있는 골드와 각종 아이템의 출현 빈도수가 높아지며 ‘가정의 달 기념 깜짝 푸시 이벤트’도 펼쳐진다.◆조이시티, ‘주사위의 신’에 신규 맵 ‘앤서니 위기일발’ 추가조이시티(대표 조성원)는 모바일 보드 게임 ‘주사위의 신’에 신규 맵 ‘앤서니 위기일발’을 추가했다고 4일 밝혔다.‘앤서니 위기일발’은 휴양지 산토리나 배경의 신규 맵이다. 해적 룰렛의 재미를 접목한 것이 특징이다. 이용자들은 주사위를 굴리기 전에 원하는 도시에 칼을 1개 꽂을 수 있다. 칼이 꽂힌 도시는 상황에 따라 통행료 증가, 설치물 제거 등의 효과를 부여받는다. 칼을 꽂을 때 임의의 벌칙 블록을 생성하며 해당 벌칙 블록에 도달한 대상은 애장품 발동 확률 감소, 통행료 추가 지불 등의 패널티를 받게 된다. 벌칙 발동 이후 맵에 꽂혀 있는 모든 칼은 제거된다.신규 및 복귀 이용자를 위한 ‘승부사 가이드’도 선보인다. ‘승부사 가이드’는 게임 콘텐츠 전반에 대한 미션을 제공하며 이를 따라 수행하는 이용자들은 게임에 대해 자연스럽게 학습 및 적응하게 된다. 미션 완료 시 각종 보상도 받는다.조이시티는 게임 접속자에게 감사의 편지와 보석 1000개를 지급하며 보석 1000개를 추가로 획득할 수 있는 미션을 제공한다. 신규 및 복귀 이용자를 위한 대량의 아이템 무료 뽑기 이벤트를 실시해 스킬 카드와 애장품 각각 50회씩, 총 100회의 무료 뽑기를 지원한다.◆넥슨 ‘블루 아카이브’, 이벤트 스토리 ‘선상의 바니 체이서’ 추가넥슨(대표 이정헌)은 4일 자회사 넥슨게임즈(대표 박용현)에서 개발한 서브컬처 게임 ‘블루 아카이브’에 이벤트 스토리 ‘선상의 바니 체이서’를 업데이트했다고 밝혔다.이번 스토리는 ‘C&amp;C’ 부원들이 ‘밀레니엄 사이언스 스쿨’의 문제아 ‘백토’를 쫓아 바니걸로 위장해 호화 크루즈선에 잠입하는 내용을 담았다. 이벤트 스토리를 비롯해 이벤트 퀘스트, 이벤트 챌린지도 제공한다.플레이하며 얻은 ‘초콜릿 코인’, ‘토끼 스티커’, ‘승선권’은 이벤트 상점에서 ‘온전한 파이스토스’, ‘최상급 전술 교육 BD’, ‘아스나 엘레프’ 등으로 교환할 수 있다. 획득한 ‘초콜릿 코인’으로 ‘카드 상점’에서 카드를 뽑아 ‘네루 엘레프’, ‘카린 엘레프’, ‘최상급 활동 보고서’ 등을 얻을 수 있다.바니걸의 이색적인 모습을 담고 있는 신규 캐릭터 ‘네루(바니걸)’, ‘카린(바니걸)’도 선보였다. ‘네루(바니걸)’는 폭발 공격타입의 탱커로 지정 위치로 이동 후 보호막을 생성하는 ‘EX 스킬’을 구사하고 ‘카린(바니걸)’은 신비타입 딜러로 부채꼴 범위 내 적에게 피해를 가하는 ‘EX 스킬’을 사용한다.넥슨은 5월 ‘블루 아카이브의 달’을 맞아 ‘0.5주년 페스티벌’ 이벤트 로드맵도 공개했다. 이용자들에게 큰 인기를 끌었던 ‘0.5주년 몰루 이모티콘 3탄’을 선착순으로 지급한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.05.04.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>모바일 뱅킹 앱, 소수점 각축 끝에 ‘신한쏠 1위’</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000060643?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>‘금융 서비스’에 충실한 앱이 더 좋은 평가농협은 여성‧주부 많고, 기업은 남성‧사무기술직 많아인터넷은행 만족도 조사에선 토뱅이 카뱅보다 앞서[비즈니스 포커스] 모바일 뱅킹 앱①그래픽=송영 기자‘첫인상이 중요하다.’ 불변의 진리다. 은행 역시 마찬가지다. 고객과 최접점에 있는 영업점 행원의 이미지는 그만큼 중요하다. 비대면 시대에 접어든 현재, 이제 은행이 고객과 대면하는 첫 접점은 모바일 뱅킹 애플리케이션(앱)이다. 은행의 ‘얼굴’이 바뀐 셈이다. 한경비즈니스는 2018년부터 모바일 뱅킹 앱의 경쟁 우위를 분석하기 위해 설문 조사를 실시했다. 이번 조사는 4월 20~21일 이틀간 진행했고 KB국민은행·신한은행·하나은행·우리은행·NH농협은행·IBK기업은행 등 6개 주요 은행의 모바일 뱅킹 앱의 20~59세 금융 소비자 900명을 대상으로 만족도 조사를 실시했다. 표본 오차는 80% 신뢰 수준에 오차 범위 ±1.85%포인트다.◆0.01점으로 갈리는 초박빙 승부‘0.02점.’1등부터 3등까지의 점수 차이다. 올해 설문 조사 결과는 그야말로 초박빙이었다. 모바일 뱅킹 앱 1위는 평점 3.82점(5점 만점)을 기록한 신한은행의 ‘신한쏠’이 차지했다. 신한쏠은 2018년 이후 5번의 설문 조사 중 4번이나 1위에 올랐다. 올해 조사에선 이벤트‧혜택(3.37) 부문을 제외한 전 부문에서 3.5점 이상의 점수를 얻으며 2위인 우리은행을 앞섰다. 다만 점수 차는 아슬아슬한 수준인 0.01점이다. 우리은행의 ‘우리원뱅킹’은 실행 속도(3.93점)와 자산 관리(3.71점) 부문에서 1위를 거머쥐었다. 2015년 5월 한국 최초로 모바일 뱅킹 앱(위비뱅크)을 선보인 은행다운 맹렬한 추격이었다.이어 하나은행의 ‘하나원큐’가 평점 3.8점으로 3위에 올랐다. 상품 찾기, 이벤트‧혜택 등 2개 부문에서 최고점을 받았다. 2019년 평가에서 1위를 차지했던 IBK기업은행의 ‘아이원뱅크’는 4위(3.78점)를 기록했다. 인증 방식과 화면 구성 부문에서 4점을 넘으며 각 부문 선두를 차지했지만 이벤트‧혜택(3.09점)과 자산 관리(3.51점) 부문이 아쉬웠다.지난해 꼴찌를 했던 KB국민은행의 ‘KB스타뱅킹’은 평점 3.76점으로 올해 조사에서 6위 탈출에 성공했다. 7개의 설문 항목 평가 점수가 모두 올랐다. 지난해 10월 새로운 KB스타뱅킹 서비스를 오픈하면서 실행 속도가 빨라졌고 앱을 통한 통장 개설과 환전, 상품 가입, 대출 등이 편리해진 영향으로 풀이된다. 가장 아쉬운 성적을 기록한 곳은 NH농협은행이다. NH농협은행의 ‘올원뱅크’는 평점 3.67점으로 6위에 그쳤다. 다만 다른 은행들에 비해 4050세대의 응답자가 많았고 상품 찾기와 자산 관리 등 2개 부문에서 적극적인 지지를 받았다. 큰글송금·은퇴 후 자산 관리 정보 제공 등 어르신 위한 특화 서비스가 입소문을 탄 것으로 풀이된다. 모바일 뱅킹 앱의 사각지대로 꼽히는 4050 시니어 고객에게 강하다는 것을 보여준 셈이다. ◆부문별 평가는부문별 평가는 어떨까. 먼저 모바일 뱅킹 앱의 기본인 ‘금융 서비스’ 부문이다. 모바일 뱅킹 앱은 모바일에 기반한 ‘은행’이다. 편리한 금융 서비스 제공이 핵심일 수밖에 없다. 설문에선 통장 개설‧환전‧상품 가입‧대출 등 비대면 금융 거래와 서비스 찾기‧상품 비교 등이 편리한지 질문했다. 그 결과 비대면 거래 부문 1위는 종합 1위인 신한은행(평점 3.99점)이 차지했다. 4~5점 등 고점을 준 의견이 과반인 77.3%로, 1~2점 저점을 준 의견(2.7%)에 비해 압도적으로 높았다. 연령별로 보면 30대와 50대가 각각 평점 4.06점, 4.03점으로 가장 후한 점수를 줬다. 반면 종합 6위인 NH농협은행이 비대면 거래 부문에서 평점 3.76점으로 가장 낮은 점수를 받았다. 1위인 신한은행과는 0.23점 차다. 4050 응답자가 평점 3.77점으로 상대적으로 높은 점수를 줬지만 2030 응답자 중 약 39%가 저점(1~2점)에 표를 던지며 점수를 끌어내렸다. 대구에 거주하는 20대 남성 A 씨는 “농협 자체의 오류가 너무 많은 것 같다”며 “청년희망적금을 신청할 때 오전 내내 접속이 안 되는 것은 물론 아예 신청 대상이 아니라고 떴었다”고 지적했다.상품 찾기 편의성 부문은 하나은행이 평점 3.73점으로 가장 높은 점수를 받았고 KB국민은행과 NH농협은행은 나란히 가장 낮은 점수인 평점 3.66점을 기록했다. 하나은행은 2030, 4050세대 등 설문에 참여한 모든 세대에게 3.5점 이상의 점수를 받았다. 특히 50대 이용자 중 저점(1~2점)에 표를 던진 이는 ‘0’명이었다. 지문‧안면‧신분증 인식 등의 편의성에 대한 만족도는 전반적으로 높았다. 6개 은행 모두 인증 방식 부문에선 평점 4점 이상의 결과를 냈다. IBK기업은행(4.28점)이 가장 높았고 우리은행과 신한은행은 소수점 둘째 자리까지 각축을 벌인 끝에 우리은행이 4.26점으로 2등을 가져갔다. 두 은행 간 점수 차는 고작 0.01점었다. 이어 하나은행(4.18점), KB국민은행(4.14점), NH농협은행(4.06점) 순이었다. 반면 이벤트‧혜택 부문에선 은행들의 서비스가 인색했다. 평점 3.5점을 넘는 은행이 없었다. 하나은행(3.39점)이 가장 높은 점수를 받았고 NH농협은행(3.09점)과 IBK기업은행(3.09점)이 공동 꼴찌를 기록했다. 설문 참여자들은 ‘이벤트 페이지나 화면 구성이 구식이다’, ‘기존 고객을 위한 이벤트 혜택이 적다’, ‘이벤트 카테고리가 눈에 띄지 않는다’ 등의 의견을 남겼다.KB국민‧신한‧하나‧우리은행 등은 남녀의 응답 비율이 비슷하게 나타났다. 다만 IBK기업은행은 남성 응답 비율이 60%로 여성보다 더 높았고 반대로 NH농협은행은 여성 응답자의 비율(약 59%)이 높았다. NH농협은행은 타 은행에 비해 전업 주부(약 19%)의 응답률이 높았고 IBK기업은행은 다른 은행과 비교해 사무‧기술직군의 응답률(약 45%)이 높았다. 그래픽=송영 기자 돋보기카카오뱅크‧토스뱅크의 만족도는한경비즈니스는 올해부터 모바일 뱅킹 애플리케이션(앱) 만족도 조사에 인터넷 은행도 포함시켰다. 결론부터 말하면 토스뱅크가 평점 4.29점으로 카카오뱅크(4.09점)를 앞섰다. 0.2점 차이다. 0.01점으로 1‧2‧3위가 갈린 시중은행의 조사 결과와 비교하면 큰 점수 차이다. 토스뱅크가 이벤트‧혜택과 자산 관리 부문에서 압승을 거뒀기 때문이다. 2030, 4050세대 응답자 모두 4점 이상의 점수를 줬다. 서울에 거주하는 50대 여성 B 씨는 “걷기 이벤트 등을 이용하면서 처음 토스뱅크를 알게 됐다”며 “하루만 돈을 넣어도 연 2%의 금리를 주기 때문에 금액이 크지 않더라도 일단 토스뱅크에 돈을 넣게 된다”고 말했다. C(50대‧남‧경남) 씨는 “토스뱅크 하나만 있으면 내가 갖고 있는 모든 계좌를 한눈에 볼 수 있고 쉽게 입출금이 가능하다”며 “오픈 뱅킹 시스템이 가장 만족스럽다”고 답했다.하지만 카카오는 카카오였다. 종합 평점에서 토스뱅크에 밀렸지만 ‘다음 은행 중 이용해 본 경험이 있는 곳을 모두 선택해 주십시오’라는 문항에서 1200명의 응답자가 가장 많이 이용하는 은행으로 카카오뱅크를 꼽았다. 전체의 약 80%다. 특히 2030세대(총 664명) 응답자 85% 이상이 카카오뱅크를 사용해 봤다고 답했다. 40대(총 286명)와 50대(총 250명)도 각각 77.6%, 62%가 카카오뱅크를 이용한 것으로 집계됐다.이어 KB국민은행(70.8%), NH농협은행(66.1%), 신한은행(64.2%) 순으로 나타났다. 토스뱅크는 전체의 55.7%가 이용해 봤다고 응답하며 5위를 기록했다. 서울에 거주하는 20대 남성 D 씨는 “경쟁사(토스뱅크) 대비 이율이 낮은 듯해 안 쓰고 있었는데 알고 보니 정기 예금이나 적금은 카카오뱅크가 더 높았다”며 “이 점을 좀 더 홍보하면 좋지 않을까 한다”는 의견을 냈다.   어떻게 조사했나 금융 소비자의 모바일 뱅킹 애플리케이션(앱) 서비스 이용 현황과 인식 등을 파악하기 위해 시장 분석 서비스 업체인 오픈서베이와 한경비즈니스가 공동으로 설문 조사를 실시했다.20~59세 금융 소비자 중 KB국민은행·신한은행·하나은행·우리은행·NH농협은행·IBK기업은행 등 6개 은행별 모바일 앱 이용자 총 900명(각 150명)을 대상으로 4월 20일부터 21일까지 이틀간 모바일 앱을 통해 총 9개 문항(객관식 7문항, 주관식 2문항)에 대해 물었다. 같은 기간 카카오뱅크와 토스뱅크 등 2개의 인터넷 전문 은행 앱 이용자 총 300명(각 150명)을 대상으로 동일한 설문을 진행했다. 제1호 인터넷 은행인 케이뱅크는 사용자가 적어 모집에 어려움이 있어 이번 설문에서 제외했다.보다 정확한 설문 결과를 얻기 위해 설문에 참여하기 전 금융 소비자에게 8개 은행의 모바일 앱을 사용하고 있는지 묻고 사용 중인 이용자만 설문에 참여하도록 했다.평가 대상은 KB국민은행 ‘KB스타뱅킹’, 신한은행 ‘신한쏠’, KEB하나은행 ‘하나원큐’, 우리은행 ‘우리원뱅킹’, NH농협은행 ‘올원뱅크’, IBK기업은행 ‘아이원뱅크’, 카카오뱅크 앱, 토스 앱 등이다. 평가 지표는 인증 방식, 화면 구성, 비대면 거래, 상품 찾기, 이벤트‧혜택, 실행 속도, 자산 관리 등 7개 부문이다. 실행 속도와 지문‧안면‧신분증 인식 등 인증 방식의 편의성을 물었다. 통장 개설‧환전‧상품 가입‧대출 등 비대면 금융 거래와 서비스 찾기‧상품 비교 등이 편리한지 질문했다. 이어 타행 계좌 조회와 연금‧펀드‧카드‧보험 가입 등 종합 자산 관리의 편의성과 화면 구성의 직관성을 물었고 이벤트 혜택이 많고 참여가 편리한지도 질문했다. 응답자의 성별은 여성 599명(49.9%)·남성 601명(50.1%), 연령은 20대(26.9%)·30대(28.4%)·40대(23.8%)·50대(20.8%)다. 이번 조사의 표본 오차는 80% 신뢰 수준에 오차 범위 ±1.85%포인트다.김태림 기자 tae@hankyung.com</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.05.01~2022.05.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.05.01~2022.05.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.05.13.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>북한 선전매체마저 깊은 관심…청와대 개방, 관람 신청 2백만 넘어</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000298794?sid=103</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>"반쪽짜리 개방조치에 불만 고조" 비난 북한의 대외 선전 매체 '메아리'에 올라온 사설     청와대 관람의 열기가 뜨거운 가운데 북한 매체조차 깊은 관심을 보이고 있습니다. 북한의 대외 선전 매체 '메아리'는 오늘(13일) 윤석열 정부의 청와대 개방이 주민들을 불편하게 하고 있다고 비판했습니다. '윤석열의 반쪽짜리 청와대 개방 조치에 지역 주민들의 불만 고조'라는 제목의 사설입니다. 지역 주민들은 청와대 개방이 교통 혼잡을 일으키고, 주변 임대료를 올린다며 개방을 하지 않는 것만 못하다고 불만을 터뜨리고 있다는 겁니다. 또 '반쪽짜리 개방'이라고 공격하면서 청와대 건물 내부를 공개하지 않아 예약을 취소하는 일까지 벌어졌다고 설명했습니다.     청와대 예약 사이트 서버 대기     처음으로 코로나 확진자 발생을 알린 북한마저 관심을 보이는 청와대 개방, 관람 신청은 벌써 231만 2740명을 돌파했습니다(12일 0시 기준). 오는 22일까지였던 개방 기간도 다음 달 11일까지 늘리기로 했습니다. 연장 소식이 알려지면서 청와대 관람 예약 사이트에 접속하기 위한 대기 시간은 늘었고, 무료인 관람권을 4만원에 중고 거래하겠다는 사람들도 나타났습니다.     〈사진-JTBC 캡처〉     신청은 청와대 개방 홈페이지(www.청와대개방.kr 또는 www.opencheongwadae.kr)나 네이버ㆍ카카오톡ㆍ토스에서 가능하며 22일부터 다음 달 11일 사이 신청자 중 추첨해 당첨되면 입장이 가능합니다. 정부는 청와대 국민 개방을 안정적으로 운영하기 위해 새로운 예약 시스템도 도입할 예정이라고 밝혔습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.05.07.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>“대종상 트로피는 청소함에…‘잘하자’ 말고 내 모습대로 있어 보자”</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002589696?sid=103</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[한겨레S] 유선애의 배우는 사람ㅣ배우 최희서8년 단역뒤 지하철 우연한 만남에 영화 ‘동주’ 캐스팅영화 ‘박열’ 가네코 후미코로 대종상 신인상·주연상 수상배우 최희서. 사진 이규원☞한겨레S 뉴스레터 구독하기 https://bit.ly/319DiiE배우 최희서 2016년 영화 &lt;동주&gt;를 통해 대중에게 자신의 존재를 알렸다. 이후 &lt;박열&gt;에서 ‘가네코 후미코’ 역으로 대종상 최초로 신인여우상과 여우주연상을 동시에 수상했고, 청룡영화상 등 총 11개의 상을 받았다. 이후 영화 &lt;아워 바디&gt; &lt;당신은 믿지 않겠지만&gt;, 드라마 &lt;비밀의 숲 2&gt; &lt;지금, 헤어지는 중입니다&gt; 등에 출연했다. 영화 &lt;아워 바디&gt;로 제23회 부산국제영화제 ‘올해의 배우상’을 수상했으며 최근 단편영화 &lt;반디&gt;를 연출하며 감독 데뷔를 했다.배우 최희서가 대중에게 알려진 일화 하나가 있다. 8년 동안 단역 배우로 살아가던 어느 날, 지하철에서 대본 리딩을 하던 그에게 영화 제작자이자 감독인 신연식이 명함 한 장을 건넨다. 그렇게 참여하게 된 작품이 이준익 감독의 영화 &lt;동주&gt;다. 이후 영화 &lt;박열&gt;까지 그 인연이 이어졌고, 이 작품으로 그는 대종상 최초로 신인여우상과 여우주연상을 동시에 수상한다. 장거리 구보에 가까운 그의 배우 여정을 보며 자신을 끝까지 다 써보려 하는 사람의 치열함에 대해 생각했다. 그 열성은 누구를 향한 것도 아니기에 오직 자신을 향한, 주어진 삶을 잘 살아내고자 하는 충실함에서 비롯된 것일 거다. 단련된 성실함과 긍정성을 무기로 축적해온 구력이 지금 그의 연기 안에서 빛을 내는 중이다.8년의 담금질과 기다림―최희서라는 이름이 예명이라고 들었습니다.“효자동에 있는 작명소에서 받은 이름이에요.(웃음) 3개 정도 이름을 받았는데 그중 ‘희서’가 있었어요. 소설 &lt;토지&gt; 속 ‘최서희’를 좋아해서 선택했어요.”―소설 속 ‘최서희’의 단단한 성정을 닮고 싶었던 걸까요?“최서희만큼 카리스마가 있는지는 모르겠지만 원체 제 성격이 그래요. 주눅 들 만한 상황이 있어도 웬만하면 움츠러들지 않으려는 편이에요. 잘못을 하면 ‘잘못했습니다. 다시는 안 할게요’ 사과하고 뉘우치는 성향이지 안으로 파고들진 않아요. 삶의 순간순간에 위축되기도 했지만 결과적으로는 본래 지닌 모습을 지키며 살아왔던 것 같아요.”―미국과 일본 등 여러 나라에서 유년 시절을 보냈지요. 외국에서 지내다 보면 이방인이라는 감각 때문에 스스로를 작게 느낄 때도 있었을 텐데요.“오히려 한국에서 가장 소극적이었던 것 같아요. 또래들에게 (어눌한) 발음으로 놀림을 받기도 했고요. 한국에서는 제가 운동을 못하는 사람이라고 생각했었거든요. 예를 들어 배구면 토스를 몇번 하는지 세고, 멀리뛰기를 하면 몇미터 앞으로 나갔는지 기록 측정을 하잖아요. 한데 미국에서는 체육 시간이라 하면 수치로 학생을 채점하는 게 아니라 그 사람이 얼마나 적극적으로 경기에 임했는지, 그래서 얼마나 성장했는지가 평가의 기준이더라고요. 그렇게 미국에서는 육상부에서 선수도 하고, 치어리딩도 했어요. ‘나 이거 되네. 이것도 해볼까?’ 하며 매사에 적극적으로 임하게 됐는데 돌이켜 생각해보면 그렇게 변한 게 아니라 저는 원래 그런 기질의 사람이었던 거예요. 적극적이고 욕심 많고, 성취욕 강한.”―성취욕 강한 이가 8년의 시간 동안 이렇다 할 성취 없이 무명 배우로 지냈다는 것이 어떤 일인지 가늠이 안 되는데요. 중간중간 열매가 없기 때문에 그 시간을 다른 이보다 더 길고 고되게 느끼지는 않았습니까?“절망적인 순간은 많았지만 신기하게도 좌절의 나락으로 빠지려 할 때마다 ‘아, 됐어. 이미지가 안 맞았나 보다’ 하고 저의 어떤 부분이 작동을 해 스스로를 구했어요. 무수히 많은 오디션에서 탈락하고, 왜 이렇게 안 풀리지 싶었지만 단 한번도 배우의 일을 쉬거나 멈추지 않았어요. 관객이 10명인 날에도 ‘지금 여기서 내가 연기를 하고 있다’는 사실 자체가 열매라고 생각했으니까. 본능적으로 뭔가를 계속하고 있다는 감각을 놓지 않으려고 했던 것 같아요. ‘그래도 공연했다. 공연이 수확이다’ 생각하며 공연 사진을 블로그에 올리기도 하고, 프로필 사진도 다시 찍으며 할 수 있는 일을 계속 했어요. 지금 돌이켜보면 미미한 일이라 할 수 있지만요.”배우 최희서. 사진 이규원―이름 없는 역할을 거듭하다 보면 배우로서의 성장 가능성이나 효용에 대해 의심하게 될 법도 한데 그러진 않았나 봅니다.“‘이게 다 무슨 소용일까, 진짜 별거 아닌 것 같긴 하다’는 생각이 불쑥불쑥 끼어들 때가 있죠. 그때마다 부정적인 생각들과 싸워야 했어요. 상업 드라마나 영화 한편 없이 독립 단편 영화 또는 영화과 학생들의 영화에 출연하고 대학로에도 못 들어가는 연극을 하면서 10년 가까이 버텼다는 게 저도 신기한데요. 어느 순간부터는 ‘이렇게까지 했는데 안 될 수가 없어’ 하는 오기도 작동했어요. 연기를 하기 전까지는 인생에서 늘 제가 노력한 만큼의 보상이 있었거든요. 열심히 공부한 만큼 성적이 나왔고, 연습한 만큼 운동도 잘했어요. 근데 연기는 아닌 거예요. 스물아홉살 때 출연료 없이 참여했던 연극이 지원금을 받게 된 적이 있어요. 지급 조건 중에 지방 공연을 하는 게 포함돼 있어서 울릉도에 갔었거든요. 날씨 때문에 3일 동안 배가 못 떴어요. 포항에서 며칠 동안 배를 기다리다 마지막 날에는 결국 숙박비가 없어서 24시간 운영하는 순대국밥집에서 밤을 새웠어요. 국밥집 온돌바닥에 쪼그려 있는데 그때 처음으로 ‘이제 그만하라는 계시인가? 나는 더 이상 하면 안 되나?’ 싶더라고요. 울릉도로 들어가는 배에서는 뱃멀미는 또 얼마나 했는지. ‘좋아하는 일을 하고 있는데 왜 이렇게 비참하지?’라는 생각이 들었었죠.”―어느 정도 시간이 지난 뒤부터는 주변에서 다른 선택을 권할 법도 했을 텐데요. (최희서는 연세대에서 신문방송학과 영어영문학을, 버클리 캘리포니아대에서 공연예술학을 공부했다.)“아버지가 딱 한번 연극 연구자나 교육자가 돼보면 어떻겠냐는 말씀은 하셨죠. 근데 제가 귓등으로도 안 들어가지고.(웃음) 그래도 뜯어말리지는 않으셨어요. 저는 굉장히 운이 좋았어요.”대종상 신인상·주연상 첫 동시 수상―긴 담금질의 시간을 보내고 영화 &lt;박열&gt;을 만났죠. ‘가네코 후미코’라는 역할로 대종상 시상식에서 신인상과 주연상을 동시에 받는 최초의 배우가 됐습니다. 어땠나요?“어마어마한 무게의 영광이자 짐이었죠. 지금도 여전히 양가적인 감정이 들어요. 또다시 내가 가네코 후미코 이상의 역할을 해낼 수 있을까 두렵다가도 ‘그래도 나에게는 후미코가 있는걸!’ 하는 자부심도 커요. 예전에는 그 이상을 해내야 할 것만 같고, 외연적으로는 상업 영화의 주연을 해야 한다는 등의 부담이 있었지만 지금은 조금 가벼워졌어요. 왜 굳이 가네코 후미코를 넘으려고 하지? 그는 내가 너무나 사랑한, 빛나는 나의 과거이고 앞으로 그를 넘지 못한다 하더라도 지금부터는 또 다른 게 있다고 생각을 바꿨어요. 그 당시 받았던 트로피들도 다 창고 청소함에 넣어놨어요.”영화 &lt;박열&gt;에 출연한 최희서. 메가박스플러스엠 제공―유리 수납장이 아니고요?(웃음)“드라마 &lt;지금, 헤어지는 중입니다&gt; 촬영 준비하면서 전부 안 보이게 넣었어요. 맡았던 ‘황치숙’이라는 캐릭터의 방향을 못 잡는 통에 작가님과 오랜 시간 이야기도 하고 고민이 컸거든요. 어느 날 괴로워하다가 울면서 ‘나는 이 상들을 받을 가치가 없어’ 하고 다 넣어버렸어요. 약간의 술기운을 빌렸지만.(웃음) 그때부터 지금까지 수납장을 열어본 적이 없어요. 알지 못한 어떤 부담이 있었나 봐요.”―맞아요. 철없고 미숙한 재벌 2세 ‘황치숙’은 최희서 배우가 지금까지 맡아온 역할과는 결이 다른 인물이었죠. 도전이었을 텐데요. 여성 캐릭터의 주체성이 화두지만 그 역할을 보면서 세상의 모든 여성 캐릭터가 주체적이고 진취적이어야 할까라는 생각도 잠시 했어요.“저는 주체성의 범위를 넓게 보는데요, 이야기 안에서 크건 작건 인물이 변화하고, 그 과정이 보여진다면 그것으로도 주체성을 가지고 있다고 생각해요. 설사 그 변화가 타의에 의해 일어나는 변화라 하더라도요. 영화 &lt;아워 바디&gt;의 ‘자영’이라는 역할도 처음에는 그저 소극적인 인물이라고 생각했지만 자세히 들여다보면 그만의 주체성이 있는 사람이거든요. 누구나 정도가 다를 뿐 저마다의 주체성을 가지고 살아가잖아요. 매일 아침 출근을 하는 것, 식물에 규칙적으로 물을 주고 돌보는 행위에도 주체성은 필요하죠. 주체성이 얼마나 분명하게 발현되는가는 제게 중요한 기준은 아닌 것 같아요. 역할에 있어 가장 염두에 두는 것은 어떤 변화를 겪는 인물인가, 그리고 그 변화의 과정이 작품 안에서 충분히 보여지는가에 더 중점을 두는 편이에요.”―여성 배우가 주요 역할로서 극에 참여하는 것을 넘어 이제는 좀 더 다채로운 여성 캐릭터를 품 넓게 끌어안아야 할 때가 온 것이겠죠?“실제로 매 순간 주체성을 갖고 할 말을 다 하면서 살아가는 여자들이 많지 않잖아요. 영화 안에서 틀린 선택을 하는 여성이 등장할 수 있죠. 영화 &lt;아워 바디&gt;에서 도덕적이지 않은 선택을 한 주인공에 대해 ‘미쳤어. 왜 저래. 어떻게 주인공이 저럴 수 있어’라는 생각을 하게 된 분들도 있을 텐데요. 인물을 탐구하는 입장에서 보면 세상에는 다양한 사람들이 있고, 수많은 삶이 존재하니까요. 영화가 끝난 이후에도 이 여자는 어떻게 살고 있을까 하고 궁금증을 갖게 된다면 그로써 좋은 영화라고 생각해요. 그래서인지 제가 끌리는 역할들은 이 사람이 도대체 왜 이러는지 이해가 안 가는, 오래 생각하게 되는 인물일 때가 있어요.(웃음)”―‘나는 매번 첫 테이크가 좋은 배우이고 싶지는 않다’라는 말을 한 적 있어요. 구체적으로 어떤 의미인가요?“일반적으로 첫 테이크에서 좋은 연기가 나올 확률이 높거든요. 배우마다 다르겠지만 본능과 직관, 훈련, 당시의 긴장이 첫 연기에서 맞아떨어지는 경우가 있어요. 하지만 테이크가 거듭된다는 건 그때마다 배우가 앞서 한 연기를 지우고 백지가 돼 새롭게 연기를 한다는 의미예요. 테이크가 거듭될수록 계속해서 새로운 것을 보여주는 이야말로 확장성 있는, 잠재력을 지닌 배우라고 생각해요. 찍으면 찍을수록 좋은 연기를 하는 배우가 되고 싶고, 작품을 해나갈수록 발전하는 배우이고 싶죠.”―할 수 있는 선에서 자신을 끝까지 써보려는 것이죠?“그렇죠. 연기를 하면서 캐릭터상 아직 내가 발견하지 못한 어떤 면이 있고, 동시에 배우 최희서의 잠재된 가능성이 있을 거라 믿고 싶거든요. 예전에 내가 했던 캐릭터와 비슷하거나 어떤 표정이나 말투를 답습하게 될 때 다른 걸 찾고 싶다는 욕망이 커져요. 그래서 가끔 왜 할리우드 배우들 보면 다른 코를 붙이는 분장을 하잖아요. 저도 어떨 때는 그런 힘이라도 빌려서 새로운 무언가를 해내고 싶은 마음도 있어요. 새로움에 대한 갈증이 늘 커요. 그건 배역의 크기와는 상관없는 욕망 같아요.”가슴에 새긴 말 “남는 건 사람이야”―자기 안에서 새로운 것을 찾아내고 싶은 바람 때문일까요. 최근의 활동을 보면 매번 낯선 곳으로 자신을 보내려는 사람처럼 느껴집니다. 일본 감독 이시이 유야의 영화 &lt;당신은 믿지 않겠지만&gt;에서 배우 이케마쓰 소스케, 오다기리 조와 호흡을 맞추기도 하고, 감독이 돼 단편영화 &lt;반디&gt;도 연출했어요. 곧 에세이도 출간한다고요?“영화 &lt;반디&gt;의 시나리오는 20대에 처음 쓰기 시작한 이야기예요. 작품이 없을 때 뭐라도 하고 싶은 마음에 ‘언젠가는 내가 출연해야지’ 하며 쓴 시나리오가 꽤 있어요. 곧 출간될 에세이는 드라마 &lt;지금, 헤어지고 있는 중입니다&gt;를 끝내고 바로 쓰기 시작했고요. 예전에 써둔 글들을 고치기도 하고요. 이 과정에서 변한 게 있다면 ‘잘하자’라는 욕심을 덜어내고 내 모습대로 있어 보자는 생각으로 글을 쓰고 고쳤어요.”단편영화 &lt;반디&gt;로 영화감독 데뷔를 한 최희서. 왓챠 제공―배우는 결과물만을 내보이는 일이잖아요. 만들어지는 과정은 함께한 작업자들 정도만 알고요. 철저히 결과물로서만 판단된다는 직업적 속성이 배우를 고통스럽게 하고 동시에 성장시킬 것도 같습니다. 어떤가요?“날씨나 일정 등 외부 요인 때문에 여건이 내 마음처럼 갖춰지지 않은 상태에서 중요한 장면을 연기해야 할 때는 속상하죠. 드라마에서 그 점을 절실히 느껴요. &lt;지금, 헤어지는 중입니다&gt;를 찍으면서 송혜교 배우로부터 배운 것들이 많아요. 송혜교 배우는 수십년간 주연을 해온 사람이잖아요. 그런데도 현장에서 ‘지금은 못 하겠어요’라는 말을 한 걸 본 적이 없어요. 25년차 주연 배우의 위엄이랄까. 환경을 탓하지 않고 주어진 상황 안에서 할 수 있는 것을 하는 거예요. 영화 &lt;당신은 믿지 않겠지만&gt; 촬영 현장에서도 이케마쓰 소스케와 오다기리 조를 보면서 많이 배웠어요. 본인 촬영이 아닌 경우 촬영장 밖이나 차에서 쉴 법도 한데 현장을 끝까지 지키더라고요. 한국말로만 이뤄진 현장이라 무슨 말이 오가는지도 모를 텐데. 하다못해 휴대폰 메시지도 보지 않더라고요. 간이 의자에라도 앉으라 하면 다들 서 있는데 왜 우리가 앉냐고 하면서 그렇게 3시간을 서 있더라고요. 본받을 배우들이 많아요.”―인터뷰 칼럼명이 ‘배우는 사람’이잖아요. 배우라고 하면 역할을 통해 배울 거라 짐작했는데 현장에서 만나는 많은 이들을 통해 얻는 배움도 큰가 봅니다. “이준익 감독님의 영화 &lt;동주&gt; 때는 배우이자 스크립터였고, &lt;박열&gt; 역시 거의 스태프처럼 있다 보니 현장에서 배운 게 정말 많아요. 어느 날 이준익 감독님이 ‘남는 건 사람이야’라는 말씀을 한 적 있어요. 그 말을 듣고 충격을 받았어요. 흔히 감독은 영화만 바라보고 사는, 오직 목표가 영화일 것 같잖아요. 사람을 가장 중요시해야 한다는 그 말이 저의 20대 후반부터 30대 초반까지 깊게 새겨져 있어요. 대중에게는 한 편의 작품으로, 결과물로 남겠지만 그걸 만든 우리는 다 기억을 하잖아요. 저 역시 현장이 힘들고 지칠 때가 있지만 그래도 결국 이준익 감독님의 말로 다시 돌아오게 되는 것 같아요. 사람이 남는다고요.”작품 안팎 삶이 늘 해피엔딩이길―마무리할까요? 작품과 안과 밖에서 변화하고 성장하는 와중에도 잘 지키고 싶은 것이 있다면요?“제가 지닌 긍정적 에너지는 계속 가져가고 싶어요. 할머니가 돼서 연기를 할 때 어디선가 웃음소리가 들리면 사람들이 ‘최희서 선생님 오셨네’ 하는 그런 배우요.(웃음) 예전에 시상식에서 나문희 선생님을 뵌 적이 있거든요. 엘리베이터를 기다리는데 ‘와하하’ 하는 웃음소리와 동시에 엘리베이터 문이 열렸어요. 경호원분들이 있어서 선생님은 보이지 않았지만 ‘아, 나문희 선생님 계신가 보다’ 하고 인사드렸었거든요. 고두심 선생님도 뵈면 광채가 나요. 품 안에 가지고 있는 긍정성에서 나오는 빛이요. 선생님들을 보면서 나도 저 모습으로 오래 연기하고 싶다는 생각을 해요. 힘들 때 웃으면 조금 괜찮아지잖아요. 힘든 신에서 막 울다가도 환히 웃으며 끝내고 싶어요.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.05.05.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>“아빠, 어린이날 선물은?” “옜다, 주식”… 수익률도 좋아</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001523799?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>자녀에 경제관념 심어줘 인기삼성전자 보유 1년새 3배이상 ↑남성과 어린아이가 4일 서울의 한 롯데마트 토이저러스 매장을 찾아 어린이날 선물을 고르고 있다. 롯데마트는 올해 100주년인 어린이날을 맞아 오는 8일까지 단독 기획상품, 브랜드 장난감 할인행사를 열고 있다. 연합뉴스미성년 자녀에게 주식 선물을 하는 부모가 늘고 있다. 용돈처럼 바로 써 버리기 힘들고, 꾸준히 모으면 훗날 자산 형성에 도움이 될 것이란 기대에서다. 미성년 특성상 주식을 보유해도 섣부른 매매를 하지 않아 수익률도 부모세대보다 낫다는 분석이다. 이런 열풍에 힘입어 ‘국민주’ 삼성전자를 보유한 미성년자는 1년새 3배 이상 늘었다.4일 토스증권에 따르면 이 회사의 주식 선물하기 이용 건수가 출시 9개월 만에 10만건을 돌파했다. 이 서비스는 앱에서 이름, 전화번호만으로 주식을 선물할 수 있다. KB증권 삼성증권 한화투자증권 등 주요 증권사도 5일 어린이날을 맞아 주식 선물하기 이벤트에 열을 올리고 있다.그동안 자녀에게 주식을 증여하는 것은 부자들의 전유물로 여겨져 왔다. 증여세를 내지 않고 미성년 자녀에게 자산을 물려줄 수 있는 한도가 10년간 2000만원 남짓이어서 현금보다는 주식으로 자산을 물려주는 것을 선호한 영향이다. 증여세는 증여 시점에서의 주식 취득가액을 기준으로 계산된다. 2000만원 상당의 주식을 증여하고 향후 주가가 오르면 그 이상의 재산을 물려주는 효과가 발생한다.최근에는 주식투자에 관한 관심이 높아지면서 평범한 직장인들도 어린이날 선물, 명절 용돈 대신 주식을 자녀에게 주고 있다. 주식을 선물하면 용돈으로 사라지지 않고 증권계좌에 있어 부모의 도움없이는 현금화가 어렵다. 자녀들이 꾸준히 주식을 모아두면 미래 자산 형성에 도움이 될 것이란 기대도 있다. 자녀가 어린 나이부터 자연스럽게 경제·금융에 관심을 갖게 되는 것도 긍정적인 효과다.실제 미성년 주주는 크게 증가하고 있다. 한국예탁결제원에 따르면 ‘국민주’ 삼성전자의 경우 2020년 말 11만5083명이던 20세 미만 주주가 이날 35만8257명으로 3배 이상 늘었다.주식 선물하기를 가장 많이 이용한 연령층은 40대로 전체의 30%를 차지했다. 그 뒤를 30대(23%), 50대(21%)가 이었다. 지난해 계좌를 만든 미성년 고객의 평균 연령은 9.4세에 불과했다. 30·40대 젊은 부모들이 어린 자녀에게 주식 선물하는 문화를 주도한 셈이다.미성년자 주식계좌의 수익률은 성인 수익률을 훌쩍 뛰어넘는 것으로 조사됐다. 지난해 초부터 올해 1분기까지 미성년 계좌의 주식 수익률은 1.51%를 기록했다. 같은 기간 부모 세대(30·40대)는 0.64% 손실을 봤다. 증시가 롤러코스터를 타는 상황에서 충동 매매를 하지 않고 꾸준히 매입한 것이 비결로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.05.15.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>308년 된 스트라디바리우스 바이올린 가격이 256억원?</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001525981?sid=103</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>6월 9일 경매 … 역대 최고가였던 1741년산 과르네리 델 제수의 159억원 경신 가능성6월 9일 미국 악기 전문 경매회사 타리시오에 나오는 1714년산 스트라디바리우스 다 빈치·엑스 세이델은 최고 낙찰 예상가가 2000만 달러(약 256억원)로 역대 바이올린 최고가를 경신할 가능성이 제기된다.     타리시오 홈페이지스트라디바리우스와 과르네리는 클래식 음악을 잘 모르는 사람들조차 이름을 들어본 적 있는 현악기 브랜드다. 17~18세기 이탈리아 북부 크레모나 지역 현악기 제작 가문에서 만들어진 것으로 ‘명기 중의 명기’로 평가받는다. 제작된 지 300년 넘은 지금도 연주자들의 사랑을 받는 것은 물론 미술품처럼 많은 투자가의 관심 속에 고가로 거래되고 있다.현재까지 공식적으로 공개된 역대 바이올린 최고가는 2014년 경매에서 1600만 달러(약 205억원)에 낙찰된 1741년산 과르네리 델 제수 비외탕(Vieuxtemps)이 가지고 있다. 그리고 1721년 스트라디바리우스 레이디 블런트(Lady Blunt)가 2011년 1590만 달러(약 204억원)에 팔렸는데, 일본음악재단이 2008년 사적 거래에서 1000만 달러에 샀다가 동일본 대지진 직후 구호기금 마련을 위해 내놓은 것이다.스트라디바리우스와 과르네리는 악기 이력 중 유명했던 소유자의 이름이 더해지는 경우가 많다. 과르네리 델 제수 비외탕은 19세기 벨기에 출신 유명 바이올리니스트 앙리 비외탕이 소유했던 데서 유래하고, 스트라디바리우스 레이디 블런트는 영국 시인 바이런 경의 손녀인 앤 블런트 부인이 가졌던 데서 이름이 지어졌다.프랑스의 원로 바이올리니스트 레지스 파스키에(왼쪽)가 고령으로 무대에 잘 서지 않게 됨에 따라 그동안 사용해오던  1736년산 과르네리 델 제수를 프랑스 경매회사 아퀴트에 내놓았다.      아퀴트 홈페이지오는 6월 미국과 프랑스의 경매에 명품 바이올린 2대가 잇따라 나올 예정이어서 클래식 애호가들과 악기 투자가들의 관심이 집중되고 있다. 두 바이올린이 역대 거래 최고가의 역사를 새로 쓸 가능성이 커서다.먼저 6월 3일(현지시간) 프랑스 경매회사 아퀴트에 나오는 1736년산 과르네리 델 제수는 최고 낙찰 예상가가 1050만 달러(약 135억원)로 역대 바이올린 거래 탑5에 안에 들 수 있다. 76세의 나이 때문에 무대에 잘 서지 않게 된 바이올리니스트 레지스 파스키에(76)가 내놓은 것으로 10여 년 만에 경매에 나온 과르네리 델 제수라는 점에서 큰 관심을 끈다.이어 6월 9일 미국 악기 전문 경매회사 타리시오에 나오는 1714년산 스트라디바리우스 다 빈치·엑스 세이델(da Vinci·ex-Seidel)은 최고 낙찰 예상가가 2000만 달러(약 256억원)로 역대 바이올린 최고가를 경신할 가능성이 제기된다. 이 악기의 이름은 1923년 프랑스 파리의 악기상이 당시 보유하던 스트라디바리우스에 이탈리아 화가들의 이름을 붙인 뒤 제정 러시아 시절 우크라이나 출신으로 1930년대 미국에 건너온 바이올리니스트 토스차 세이델(1899~1962)이 소유한 데서 붙여졌다. 세이델은 이 악기로 뮤지컬 영화 ‘오즈의 마법사’ 등 여러 할리우드 작품에서 연주해 대중적 인기를 얻었다.6월 9일 미국 악기 전문 경매회사 타리시오에 나오는 1714년산 스트라디바리우스 다 빈치·엑스 세이델은 제정 러시아 시절 우크라이나 출신으로 미국에 건너온 토스차 세이델이 1924~1962년 연주한 것이다.  사진은 세이델의 생전 모습.    타리시오 홈페이지 바이올린의 탄생과 명기 음색의 비밀 크레모나는 ‘바이올린의 고향’으로 불린다. 16세기 즈음 아마티 가문이 중세 시대 현악기를 개량해 오늘날의 바이올린을 만들었기 때문이다. 스트라디바리우스는 안토니오 스트라디바리(1644~1737)와 두 아들이 만든 현악기를 포함하지만, 일반적으로 90세 넘게 장수하며 현악기의 표준을 완성한 아버지 스트라디바리가 만든 것을 지칭한다. 18세기에는 라벨에 제작자와 지명의 라틴어로 써야 했는데, 요즘은 대체로 스트라디바리우스는 악기·스트라디바리는 제작자를 가리킬 때 각각 사용한다.어린 시절 아마티 공방에서 배운 뒤 독립한 스트라디바리는 젊은 시절부터 섬세한 음질과 정교한 세공으로 명성을 날렸다. 평생 1100여 대의 악기를 만들었지만 현존하는 것은 바이올린 550여 대, 첼로 50여 대, 비올라 12대를 포함해 650대 정도로 추정된다. 그리고 실제 연주되는 것은 100대가 채 안 되며, 소장용 가운데 일부는 연주자에게 대여해주기도 한다.아마티, 스트라디바리와 함께 3대 바이올린 제작 가문으로 불리는 과르네리는 1650년대 안드레아 과르네리가 아마티 공방 견습생을 하면서 시작돼 손자인 주세페 과르네리(1698~1744)에 와서 명성을 떨쳤다. 주세페 과르네리는 악기 라벨에 자신의 라틴어 이름인 요제프 과르네리우스와 함께 십자가, 예수의 첫 세 글자를 로마자로 표기한 I.H.S를 적었기 ‘과르네리 델 제수(예수의 과르네리)’라는 별명을 얻었다.바이올린 제작자 라벨은 소리통 아랫판 안쪽에 쓰여 있는데, f자 울림구멍을 통해 볼 수 있다. 위 사진은 6월 9일 경매에 나오는 1714년산 스트라디바리우스 다 빈치·엑스 세이델의 라벨에 18세기 법령에 따라 라틴어로 쓰여진 제작자의 이름과 지명 그리고 제작년도가 적혀 있다. 아래 사진은 1736년산 주세페 과르네리 델 제수의 레이블에 십자가와 IHS 글자가 보인다.     타리시오-위키미디어 과르네리 델 제수는 스트라디바리우스에 비해 디자인은 거칠지만 깊고 풍부한 소리를 낸다. 그래서 유럽 궁정의 수요는 거의 없었지만 높지 않은 가격에 좋은 소리를 내는 일반 음악가들에게 인기가 많았다. 주세페 과르네리는 평생 200개 정도의 바이올린밖에  만들지 않았다. 스트라디바리우스보다 더 희귀한 셈이다.두 악기 브랜드를 비교해 스트라디바리우스의 화려하고 유려한 음색을 ‘여성적’이라고 한다면 거칠지만 깊은 소리를 내는 과르네리 델 제수를 ‘남성적’으로 평가한다. 대체로 사운드가 기본적으로 뛰어나고 예민해서 연주자가 악기에 맞추는 게 스트라디바리우스라면, 과르네리 델 제수는 연주자가 자신의 개성에 맞게 악기를 길들이는 것에 따라 사운드의 격차가 크다. 이 때문에 젊은 시절 스트라디바리우스를 선호하다가 나이 들어서 과르네리 델 제수를 좋아하는 비르투오조(Virtuoso, 명연주자)가 많은 편이라고 한다.스트라디바리우스와 과르네리 델 제수가 명기인 이유에 대해서는 그동안 다양한 연구가 행해졌다. 제작자의 기량과 함께 1645년부터 100년간 지속한 ‘미니 빙하기’가 바이올린의 음색에 큰 영향을 끼쳤을 것으로 추정된다. 당시 크레모나의 현악기 제작자들은 크로아티아산 단풍나무를 썼는데, 추운 겨울로 인해 나무의 밀도가 높아 음색을 좋게 만들었다는 것이다. 또한, 나무를 갉아 먹는 해충과 곰팡이를 억제하기 위해 각종 화학 약품으로 방부제 처리를 한 것이나 이전과 다른 고품질의 바니쉬(니스칠)도 음색의 질을 높였다는 연구 결과 등도 나와 있다. 그런가 하면 2011년에는 의료용 컴퓨터 단층 촬영(CT) 기술을 활용한 스트라디바리우스의 복제품이 만들어지기도 했다.가격 높아질수록 악기 둘러싼 논란도 이어져스트라디바리우스와 과르네리 바이올린의 가격은 보관상태, 음질, 이력 등에 따라 달라진다. 기본적으로 100만 달러 이상을 호가하며 1700~1725년 사이 ‘황금기’에 만들어진 것은 500만 달러 이상에 거래된다. 사적 거래에서는 경매 등에서 공개된 가격보다 더 높게 팔렸을 가능성이 크다. 그리고 1716년산 스트라디바리우스 메시아는 영국 옥스퍼드 애슈몰린 박물관에 소장돼 있어 경매에 나올 가능성이 거의 없지만 혹시라도 거래될 경우 2000만 달러를 훌쩍 넘길 것이라는 예상이 오래전부터 나온 바 있다. 바이올린이 거의 연주되지 않아 변형이 거의 없을 뿐만 아니라 19세기 비르투오조 요셉 요아힘도 20세기 비르투오조 네이던 밀스타인도 음색을 격찬한 바 있기 때문이다.또 비올라는 원래 바이올린보다 가격이 낮지만 1719년산 스트라디바리우스 맥도널드는 2014년 미국 소더비 경매에 최소 경매가 4500만 달러에 나왔다. 비록 유찰되긴 했지만, 경매 시작가격부터 유난히 높았던 것은 스트라디바리가 만든 비올라의 수가 매우 적기 때문이다.스트라디바리우스나 과르네리 델 제수의 가격이 천문학적으로 올라가다 보니 2000년대 들어 이들 악기에 투자하는 전문 펀드도 다수 등장했다. 실제로 이들 악기 투자의 평균 수익률은 20% 안팎이나 됐고, 일부는 40%에 육박해 다른 펀드 수익률을 압도했다. 이 때문에 요즘 연주자들은 고가인 이들 악기를 직접 소유하기보다 임차하는 경우가 대부분이다. 간혹 젊은 연주자들은 콩쿠르 우승이나 후원자 등을 통해 연주 기회를 얻기도 한다.저명한 바이올리니스트 로만 토텐버그가 1980년 도난당했다가 지난 2015년 발견된 1734년산 스트라디바리우스 에임스. 이 바이올린은 생전에 절도 혐의자로 의심됐지만 증거 불충분으로 수색 영장이 신청되지 못했던 바이올리니스트가 사망한 후 그 부인이 감정을 의뢰하면서 세상에 다시 나왔다. 고유식별 번호를 알아본 감정사가 경찰에 신고함에 따라 스트라디바리우스 에임스는 이미 사망한 토텐버그를 대신해 그의 딸들에게 되돌아갔다.    AP연합뉴스하지만 이런 경제적 가치 때문에 스트라디바리우스나 과르네리 델 제수는 수차례 도난되기도 했다. 다만 도난된 악기가 공식적으로 거래되기는 어렵다. 명품 악기에는 고유식별 번호가 있어서 도난된 악기가 나오면 바로 신고에 들어가기 때문이다. 그래서 도난된 악기가 수년 안에 다시 발견되기도 하지만,  일부는 여전히 안개 속에 감춰져 있다.또한 스트라디바리우스나 과르네리 델 제수의 가격이 과연 타당한지에 대한 논란도 오랫동안 이어지고 있다. 수차례 블라인드 테스트에서 현대 악기가 이들 악기 못지않다는 것이 드러났기 때문이다. 연주자는 안대를 낀 채 연주하고, 음악에 식견 있는 청중은 무작위로 소리를 듣는 실험을 한 결과 연주자와 청중 모두 소위 ‘명기’와 현대 악기를 구분하지 못했다. 오히려 음색과 음향 방사도 등 모두 현대 악기가 더 우수하다고 선택했다.다만 이런 객관적인 실험이나 스트라디바리우스가 300년 이상 되면서 원목의 심한 건조로 음색이 점점 나빠진다는 연구에도 불구하고 스트라디바리우스나 과르네리 델 제수에 대한 열망은 시들지 않고 있다. 이들 악기가 단순한 연주를 넘어서는 영감과 의미를 가지고 있기 때문이다. 따라서 이들 악기가 앞으로도 경매에 나올 경우 최고가 경신을 이어나갈 가능성이 크다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>중저신용 대출 늘리는 인뱅…가계대출도 넉달째 증가세</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005085600?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>4월 말 기준 가계대출 잔액 합계 37조2718억원제2금융권 대출자들 인뱅으로 넘어와인터넷은행이 중저신용자 대출을 늘리면서 가계대출 규모가 계속 커지고 있다.8일 금융권에 따르면 인터넷은행 3개사(카카오뱅크·케이뱅크·토스뱅크)의 가계대출 총잔액은 넉달째 증가한 것으로 나타났다. 4월 말 기준 가계대출 잔액 합계는 37조2718억원으로, 3월 말(36조1439억원)보다 1조1279억원 늘었다.인터넷은행의 가계대출 잔액은 올해 1월(+1조1916억원), 2월(+6580억원), 3월(+8114억원)에 이어 4개월 연속 증가했다.금융당국은 지난해 5월 인터넷은행에게 중·저신용자 대출 비중 확대를 주문한 바 있다. 인터넷은행의 당초 설립 취지가 중·저신용층에 대한 대출 공급을 확대임에도 고신용층 위주의 보수적인 대출 영업을 한다고 지적했었다.카카오뱅크와 케이뱅크는 올해는 이 비중을 끌어올려 전체 신규대출 중 중·저신용자 대출 비중을 최근 20%대로 끌어올렸다. 작년 말까지는 각각 17.0%, 16.6%에 그쳐 목표치에 미달했다. 토스뱅크도 작년 말 이 비중이 23.9%였지만, 최근 33%대까지 끌어올렸다.'첫 달 이자 지원' 같은 중 프로모션을 적극적으로 진행하며 저축은행과 같은 제2금융권 중저신용자들의 대출 갈아타기(대환) 수요도 다수 유입 한 것으로 전해졌다. 인터넷은행 관계자는 "중저신용 고객에게 평균 5∼10%대 금리로 신용대출을 공급하고 있다"며 "2금융권에서 10%대 이상 금리로 대출을 받았던 중저신용 고객의 '갈아타기' 수요가 많다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>한우자산플랫폼 뱅카우, 2022 서울머니쇼 참가</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004962997?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>13회차 맞은 서울머니쇼최초로 투자플랫폼관 개설 한우자산플랫폼 '뱅카우'가 금융위원회와 금융감독원이 후원하는 '2022 서울머니쇼'에 참가한다고 밝혔다. 12일부터 14일까지 사흘간 서울 코엑스에서 열리는 서울머니쇼는 아시아 최대 규모의 재테크 박람회다. 올해는 KB·신한·하나·우리·NH농협 등 5대 금융지주를 비롯해 105개사에서 250개 부스를 운영하며 역대 최대 규모로 개최된다.올해로 13회차를 맞이하는 서울머니쇼에서는 투자플랫폼관이 최초로 개설된다. 한우자산플랫폼 '뱅카우', 미술품 거래플랫폼 '아트투게더', 부동산 수익증권 거래소 '소유' 등이 참여한다. 이밖에도 빗썸과 카카오뱅크, 토스뱅크 등 성장세에 접어든 대형 스타트업들이 함께한다.안재현 뱅카우 대표는 "아시아 전역이 주목하는 금융·재테크 박람회인 서울머니쇼에 참여하게 되어 기쁘다"며 "뱅카우가 지난해 5월 31일 런칭된 이래로 2만여명의 회원과 함께 누적 35억원을 한우 농가에 전달해온 스토리를 알릴 것"이라고 전했다. 이어 "최근 10년간 한우는 마리당 평균 19.7%의 수익을 냈으며 구제역같은 전염병이나 사고로 송아지가 폐사하더라도 뱅카우가 구축한 보상체계와 국가에서 보장하는 가축재해보험으로 펀딩 참여자들의 구매금 전액이 보호되는 것이 특징"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>NHN글로벌 '패션고', 美 첫 오프라인 무역박람회 개최</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000669810?sid=105</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>미국 유명 패션 브랜드와 백화점 입점 브랜드 선보여NHN글로벌(대표 폴 리)이 서비스하는 B2B 마켓플레이스 패션고가 첫 오프라인 무역박람회 '패션고위크 팜스프링스'를 개최한다.NHN글로벌의 패션고가 첫 오프라인 무역박람회 '패션고위크 팜스프링스'를 3일부터 개최한다. [사진=NHN]패션고는 글로벌 벤더와 개인 리테일 사업자를 연결해주는 이커머스 플랫폼으로 지난해 미국 B2B 마켓플레이스 중 유일하게 패션부문 거래액 10억 달러(1조2천억원)를 돌파했다. 또 패션고는 2020년부터 온라인 무역박람회인 '패션고위크'를 진행하고 있으며, 매 회차 신규 바이어가 최대 180% 증가했다.패션고는 이커머스 플랫폼 운영 및 유통 노하우를 기반으로 오는 3일부터 5일까지 미국 캘리포니아주 팜 스프링스에서 첫 오프라인 무역박람회를 개최한다. 기존 온라인 플랫폼을 통해 진행한 패션고위크의 인기에 힘입어 더 많은 벤더사와 개인 사업자들이 오프라인 현장에서 만나 소통하며 다양한 제품과 혁신 기술을 체험할 수 있는 기회를 제공할 예정이다.패션고위크 팜스프링스는 다수의 성공적인 박람회 개최 경험이 있는 전문가 톰 나스토스와 스콧 초완과의 협업을 통해 탄생한 행사로, 오프라인으로 참여가 어려운 관계자들을 위해 온라인으로도 라이브 스트리밍을 진행한다.이번 박람회에서는 '매든 걸(Madden Girl)', '벳시 존슨(Betsey Johnson)' 등 미국 유명 패션 브랜드와 미국 대형 백화점 체인 노드스트롬에 입점한 '빈티지 하바나(Vintage Havana)' 등 약 80개 이상의 브랜드를 만나볼 수 있다. 패션고에서만 만나볼 수 있는 27개의 단독 브랜드도 새로운 상품을 선보일 예정이다. 온라인과 오프라인을 결합한 옴니채널 경험도 함께 제공한다.패션고는 박람회 참여자들을 위해 패션고 모바일 앱 내 '팜스프링스 모드'를 신설해 기존 패션고 온라인 플랫폼에서 경험할 수 있는 기능들을 현장에서도 체험할 수 있도록 했다. 박람회 현장에서 패션고의 이미지 검색 서비스 '스타일 매치 플러스'로 상품을 검색하면 박람회 내 어떤 부스에서 해당 제품을 볼 수 있는지 부스 번호를 결과로 보여준다.이에 더해 패션고는 패션고위크 팜스프링스의 모든 참가자에게 개인 QR코드를 부여해 참가자들이 현장에서 바로 제품을 주문하고 온라인으로 배송 현황 트래킹까지 할 수 있는 시스템을 구축했다. 패션고위크에 참여하는 벤더들의 신상품을 한 곳에 모아 보여주는 '퍼스트 룩(First Look)' 기능도 추가했다.폴 리(Paul Lee) NHN글로벌 대표는 "80년 전 첫 패션 박람회가 열렸던 팜스프링스에서 패션고만의 혁신적인 서비스를 체험할 수 있는 박람회를 개최하게 돼 영광"이라며 "패션고는 새로운 쇼핑 경험을 제공하는 데 그치지 않고 벤더사와 개인 사업자 모두가 성장할 수 있는 환경을 조성하기 위해 끊임없이 노력해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.05.05.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>"보험사는 왜 알려 주지 않았을까"…믿고 받은 대출 '이럴수가'</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004959698?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>지난해 말 보험계약대출 67조8000억원확정금리형 이자율 높게는 연 9.5% 넘기도신용대출 금리가 더 낮을 수도…잘 살펴야[사진 제공 = 연합뉴스] #은행권 대출이 불가해 급전이 필요할 때 보험사에서 확정금리형 보험계약대출을 종종 받는 A씨. 그는 최근 토스의 대출 비교 조회 서비스를 이용하고 후회가 몰려왔다. 차라리 보험사에서 신용대출을 받았더라면 연 5%대 금리로 이용이 가능한 것을 알게 됐기 때문이다. A씨는 금리가 연 8%를 웃도는 확정금리형 보험계약대출을 급전 마련 통로로 지난 5년 동안 이용하면서도 금리가 더 낮은 신용대출을 받을 생각을 못했다. A씨가 금융에 대해 잘 몰랐던 데다 20년 가까이 거래를 한 보험사에서도 이자율이 더 낮은 신용대출을 안내하지 않아서다.'땅짚고 헤엄' 보험사 보험계약대출  보험사들이 '땅짚고 헤엄'식의 보험계약대출 중심으로 가계대출 영업을 전개하는 가운데 보다 낮은 금리로 이용할 수 있는 신용대출 상품을 제대로 안내하지 않고 있다는 지적이 나온다. 보험계약대출은 연체 등 부실이 나도 손해가 나지 않는 구조인 데다 요즘같은 저금리 기조에는 특히, 확정금리형 보험계약대출을 많이 취급하면 손실 보존도 쉽다. 이 때문에 보험사들이 자사 대출 중 보험계약대출 대비 이자율이 낮은 상품이 있어도 안내에 소극적이다.금융감독원에 따르면 지난해 12월말 기준 보험사 가계대출 규모는 128조5000억원으로, 이중 보험계약대출이 67조8000억원으로 가장 많았다. 다음으로 주택담보대출 49조7000억원, 신용대출 7조원, 기타대출 6조원 순이었다. 보험계약대출은 서민들의 대표적인 급전 마련 수단 중 하나다. 가입한 보험 계약의 해약환급금(70~80% 수준)에서 별도 심사 없이 수시로 대출이 가능해 은행의 마이너스통장 대출에 비유되기도 한다. 마이너스통장 대출과 다른 점은 사실상 담보대출이기 때문에 상환이 이뤄지지 않더라도 보험사 입장에서는 손해가 없다. 지난해 9월 정부의 가계대출 총량 규제로 은행권 신용대출이 곳곳에서 막혔을 때는 그해 12월까지 보험계약대출은 잔액이 1조4000억원 늘어날 정도로 수요가 많았고 보험사도 적극 영업을 펼쳤다. [자료 제공 = 금융감독원] 금리 비교 꼼꼼하게금리확정형 보험계약대출을 받을 경우 신용대출 금리보다 이자율이 높을 수 있어 금리를 꼼꼼하게 잘 살필 필요가 있다. 저금리 기조에서는 더 그렇다.올해 4월 기준 생명보험협회에 공시된 확정금리형 보험계약대출 금리는 주로 연 8.0~9.5%에 분포했다. 삼성생명은 해당 금리 구간의 대출 취급 비중이 83.1%로 가장 많았으며, 한화생명은 36.9%, 교보생명은 32.9%로 집계됐다. 연 9.5%를 웃도는 확정금리형 보험계약대출도 많게는 3.9%(삼성생명)를 취급했다. 삼성, 한화, 교보는 생명보험업계 '빅3'에 속한다.금리확정형 보험계약대출은 금리연동형과 달리 예정이율(확정)에 가산금리가 더해져 금리가 산출되며 보험권에만 있는 상품이다. 코픽스(은행권 자금 조달비용 지수) 등을 대출금리 산정의 금리(기준금리)로 사용하는 은행권과 달리 보험권의 보험계약대출은 보험 계약의 준비금에 부과하는 이율을 기준금리로 이용한다. 예컨대 과거 본인이 가입한 금리확정형 보험 계약의 예정이율이 7.0%이면 보험계약대출의 최종 금리는 '7.0%+가산금리'가 되는 구조다.반대로 금리확정형 보험계약대출이 발생하지 않으면 보험사로서는 예정이율 7.0%를 보험을 가입한 계약자에게 부리해야 하기 때문에 저금리 기조에는 손실이 커진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>'청와대 관람' 어디부터 할까…"귀빈 맞는 상춘재 더 가까이"</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006079033?sid=102</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>10일부터 청와대 경내·등산로 개방…"건물 내부 관람은 불가""대중교통 이용하세요"…서울시, 01번 버스 운행·지하철 증차청와대와 청와대 뒤편 북악산 등산로가 윤석열 대통령 취임식이 열리는 10일부터 전면 개방된다. 청와대 본관과 영빈관을 비롯해 녹지원과 상춘재 등 청와대 경내 전역이 개방될 예정이다. 사진은 9일 청와대 모습. 2022.5.9/뉴스1 © News1 김명섭 기자(서울=뉴스1) 이비슬 기자 = "주변에서는 당첨 소식도 들리는데 저는 로또만큼이나 어렵네요."직장인 강은하씨(30)는 최근 청와대 관람 신청에 도전했다 실패했다. 대통령 집무실 이전 직후 청와대를 방문해보겠다는 계획은 아쉽게 포기했다. 강씨는 "첫날 방문은 대통령이 하루 전까지도 머물렀던 공간이라 의미가 남다를 것 같았다"고 말했다. 차기 정부 출범을 앞두고 청와대 관람을 향한 기대감이 높아지고 있다. 윤석열 대통령 당선인이 10일 취임 직후 서울 용산구 국방부 청사로 집무실을 이전함에 따라 현재의 청와대는 당분간 사전 신청 당첨자를 대상으로 일반에 개방된다. 온라인에서는 당첨 인증 사진과 함께 후기가 쏟아졌다. 당첨자 사이에선 "청약은 당첨되지 않고 청와대 관람은 당첨됐다" "급히 서울행 기차표를 구매했다" "올해 운을 다 쓴 것 같다"는 반응이 이어졌다. 종로구 주민들도 청와대 개방에 반가운 마음을 드러냈다. 이숙헌씨(86·여)는 "그동안 대통령의 집무실이라고만 생각해서 거리감이 있었지만 이제 더 친근해질 것 같다"며 "과거 동네 사람들과 관람가서 본 모습과 비교해 얼마나 달라졌는지 궁금하다"고 말했다. 서울시가 10일 청와대 개방을 맞아 주차장 확보와 버스·지하철 추가 운행 등 종합 지원대책을 가동했다. 청와대와 인근 주요 6개 역사를 순환하는 시내버스 1개 노선(01번)은 이미 2일부터 운행을 시작했다. 2022.5.8/뉴스1 © News1 조태형 기자개방 첫날인 10일에는 낮 12시부터 사전 예약자의 관람이 시작된다. 이날 관람은 2시간 간격으로 오후 8시까지 이뤄지며 11일부터는 오전 7시부터 오후 7시까지로 관람 시간이 늘어난다. 첫날 관람 가능 인원은 2만6000명이다. 청와대이전TF에 따르면 10일 관람 신청자는 9만977명으로 경쟁률이 3.5대 1이었다. 11일부터는 하루 3만9000명까지 관람할 수 있다. 청와대 관람자를 위한 주차장은 아직 마련돼 있지 않다. 대중교통을 이용할 시민들은 지하철 3호선 경복궁역 3번 출구 앞 정류장에서 1711번, 1020번, 7018번, 7016번, 7022번, 7212번 버스를 타고 효자동 정류장에서 하차하면 가깝다. 서울시도 청와대 개방에 맞춰 대중교통 지원 대책을 가동했다. 청와대와 인근 주요 6개 역사를 순환하는 시내버스 1개 노선(01번)이 2일 운행을 시작했으며 청와대 개방행사 기간 경복궁·광화문·안국역에 정차하는 지하철 3·5호선은 전동차를 6대씩 추가 투입해 하루 최대 약 18만명을 추가 수송할 수 있도록 했다. 청와대 건물 내부는 기존 청와대 관람 행사와 마찬가지로 들어가볼 수는 없다. 청와대이전TF는 "(청와대 내부 시설은) 시설 내부 물품 등을 정리한 후 개방할 예정"이라고 밝혔다. 반면 청와대 뒤편 북악산 등산로는 개방돼 관람객은 청와대 춘추관 뒷길을 통해 백악정→숙정문→서울성곽길→창의문 안내소를 지나는 코스를 자유롭게 등산할 수 있다.문재인 대통령과 윤석열 당선인이 청와대 상춘재에서 만나 만찬 회동에 앞서 대화하고 있다.(청와대 제공)2022.3.28/뉴스1 © News1 이광호 기자청와대 경내를 둘러보는 데는 최대 2시간가량이 소요된다. 주요 장소로는 녹지원, 상춘재, 관저, 본관 등이 있다.녹지원(綠芝園)은 국내외 귀빈 및 외교사절단을 위한 야외 행사장으로 사용한 공간이다. 120여종의 나무와 역대 대통령 기념식수를 심어둔 곳으로도 유명하다. 녹지원의 상징이자 수령 150여년에 높이 16m의 한국산 반송(소나무)도 볼 수 있다. 상춘재(常春齋)는 1983년 4월 준공된 한식 가옥으로 외빈 접견이나 비공식 회의 장소로 이용했다. 2017년 방한한 도널드 트럼프 전 미국 대통령 부부와 지난 3월 윤석열 대통령 당선인이 상춘재를 방문했다. 관람객은 대통령과 가족이 생활하는 관저와 집무실이 있는 본관도 둘러볼 수 있다. 청와대의 상징과 같은 본관은 15만장에 이르는 한식 청기와를 이어 팔작지붕을 올린 외관으로 전통 목구조와 궁궐 건축양식을 적용한 건물이다.청와대 관람은 10일부터 23일까지 사전 신청제로 운영하며 이후 관람 신청은 추가 공지에 따라 진행할 예정이다. 신청은 '청와대, 국민품으로' 홈페이지 또는 네이버, 카카오톡, 토스 애플리케이션(앱)에서 하면 된다. 신청 희망자가 방문 일정과 방문인원, 신청인 정보를 등록하면 관람 희망일 8일 전에 당첨 메시지를 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.05.11.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>출근하기 싫은 당신, 보물찾기 하러 올래요?</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003690591?sid=105</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[Biz 톡]업무 강도 높은 스타트업들출퇴근 재개에 직원들 달래기3명 이상 땐 휴가지 원격근무도							채용 플랫폼인 원티드랩은 지난달 직원들을 대상으로 보물찾기 행사를 열었습니다. 서울 송파구 사무실 곳곳에 숨겨둔 스타벅스 커피 상품권을 찾는 겁니다. 코로나로 완전 재택근무를 하다 지난달 18일부터 주 2회 출근하는 직원들을 환영하기 위한 이벤트였습니다. 회사는 직원들 간 소통을 확대하기 위해 사무실 중간에 라운지 공간도 하나 더 만들었다고 합니다. 사회적 거리 두기가 해제되고, 사무실 출근이 재개되면서 스타트업들이 직원 사기 진작에 안간힘을 쓰는 겁니다.한동안 비대면 근무로 서먹해진 팀워크를 다지는 일에도 적극적입니다. 당근마켓은 지난달부터 팀끼리 휴가지에서 원격 근무하는 워케이션(work+vacation·일과 휴식의 합성어)을 갈 수 있도록 했습니다. 팀원이 최소 3명 이상 모이면 전국 어디서든 최대 6박 7일까지 함께 일할 수 있도록 회사가 숙박비·교통비 등을 지원합니다. 토스뱅크는 이번 주부터 소속이 다른 팀원들끼리 마음대로 섞어 점심 자리를 만들고 회사가 식비를 냅니다.스타트업들이 이처럼 여러 행사나 혜택을 주면서 출퇴근 직원을 달래는 건 재택근무가 인재 유치에 중요한 요소가 됐기 때문입니다. 잡코리아가 최근 재택근무를 한 적 있는 395개 기업을 조사했더니, 절반(50.9%)은 ‘재택근무가 인재 채용과 퇴사 예방에 효과가 있다’고 답했습니다. 이로 인해 코로나 엔데믹(풍토병화)에도 상시 재택근무를 선언하는 기업이 속속 생겨나면서, 사무실 출근을 시도하려 했던 기업들의 고민이 깊어지고 있는 것입니다. 그래서 이처럼 직원들을 회사로 이끄는 이벤트도 하는 것이죠.스타트업은 겉에서 보면 ‘직원들의 천국’인 것 같지만, 사실 업무 강도는 웬만한 대기업 이상입니다. 전 직원이 밤낮없이 매달려 서비스를 키우고, 투자 유치와 상장 등을 이뤄내지 못하면 생존할 수 없는 특성 때문이죠. 배달의민족은 ‘12시 1분은 12시가 아니다’가 제1 업무 원칙일 만큼 규율도 엄격합니다. 이런 행사들이 가벼운 이벤트처럼 보이지만, 숨 막히는 경쟁 속에서 직원들이 지치거나 이탈하지 않도록 하는 것은 스타트업엔 생존과 직결되는 일이라는 게 업계의 얘깁니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>서울 수도요금, ''카카오페이'로 확인‧납부까지 한다</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004829191?sid=102</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>사진=서울시[파이낸셜뉴스] 서울시는 카카오페이 앱으로 수도요금을 확인하고 바로 납부까지 할 수 있는 서비스를 2일부터 제공한다고 밝혔다.   지난해 3월 신한플레이·페이코 앱과 문자메시지 등을 통해 수도요금 청구서를 받아볼 수 있는 '모바일 전자고지' 서비스를 선보인 데 이어 이번에 참여사 확대가 이뤄진 것이다.   앱, 문자, 이메일 등 전자고지로 수도요금 청구서를 받으면 상수도요금의 1%를 감면받을 수 있다.   서울시는 전자고지의 장점으로 △종이청구서 절감에 따른 환경보호 △청구서 오배송·분실로 인한 개인정보 노출 위험으로부터 안전 △언제 어디서든 휴대전화로 빠르고 편리하게 요금을 확인하고 납부할 수 있는 점 등을 꼽았다.   모바일 앱을 통해 수도요금 청구서를 신청하기 위해서는 모바일 간편결제사 앱(신한플레이, 페이코, 카카오페이, 토스)에 회원가입·로그인 후 전자문서함(전자청구함)에서 '서울시 상수도'를 선택해 신청하면 된다.   문자나 이메일로 청구서를 받고 싶다면 카카오톡에서 '서울시 상수도사업본부' 채널을 추가한 후 '챗봇 아리수톡 바로가기'에 '전자고지'를 검색해 신청하면 된다. 다산콜재단이나 관할수도사업소, 아리수 사이버고객센터 홈페이지를 통해서도 신청할 수 있다.   요금이 청구되는 달의 8일까지 전자고지를 신청하면 해당 월의 10~15일 사이에 전자고지 청구서를 받아볼 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>매일 '2% 금리' 준다고?…토스뱅크통장 200% 활용하려면 [송영찬의 핀테크 짠테크]</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004696657?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>주식투자 인구 1400만 시대. 투자하면서 나도 모르게 나가는 '새는 돈'을 잡기 위한 짠테크 수단에 대해 설명합니다. 자세한 내용은 유튜브 &lt;주코노미TV&gt; 채널에서 확인하실 수 있습니다.서울 테헤란로 토스뱅크 본사./ 김병언 기자글로벌 증시 약세가 이어지면서 동학개미와 서학개미들의 고민도 깊어지고 있습니다. 투자 자금이 갈 곳을 잃다 보니 금리가 연 0.10~0.35%에 불과한 시중은행 요구불예금이 600조원을 넘어서기도 했습니다.이런 가운데 최근 가장 '핫'한 계좌 상품이 있습니다. 바로 ‘토스뱅크 통장’입니다. 토스뱅크 통장은 연 2% 금리의 수시입출식 통장입니다. 6개월~1년 단위로 돈이 묶이는 게 아니라 언제든지 돈을 넣고 뺄 수 있는데도 연 2%의 금리를 제공합니다. 돈이 묶이지 않는데 금리가 높으니 투자자금을 잠시 쉬어가게 하는 ‘파킹 통장’으로 각광받고 있습니다.이 상품이 재밌는게요, 매일 이자를 확인하고 새로 받을 수 있다는 점입니다. 토스뱅크는 지난 3월에 ‘지금 이자 받기’ 서비스를 선보였는데 매일 매일 하루 단위로 이자를 수령할 수도 있습니다. 예를 들어 1000만원을 이 통장에 예치하면 매일 세전 540원 정도의 이자를 받을 수 있습니다. 해당 이자가 포함된 1000만540원으로 다음날 다시 이자를 받을 수 있으니 ‘일 복리’ 효과까지 누릴 수 있습니다. 매일 이자를 받지 않으면 그 달에 쌓인 이자가 매달 세 번째 토요일에 일할 계산돼서 들어옵니다.그런데 반드시 유의해야 할 사항도 있습니다. 연 2% 금리가 1억원 이하 금액에만 적용된다는 점입니다. 예치된 금액이 1억원이 넘어가면 초과 금액에 대해선 금리가 연 0.1%로 뚝 떨어집니다. 당연히 연 2% 금리 혜택을 최대한 누리기 위해선 금액을 1억원대로 잘 맞춰야겠죠? 1억2000만원을 토스뱅크 통장에 넣어두면 1억원에 대해선 연 2%, 2000만원에 대해선 연 0.1% 금리가 적용됩니다.이 계좌를 파킹 통장으로 활용하는 금융 소비자라면 계좌와 연결된 체크카드 상품인 ‘토스뱅크 카드’로도 쏠쏠한 할인 혜택을 누릴 수 있습니다. 이 상품은 △편의점 △커피숍 △패스트푸드점 △택시 등 4개 영역에서 3000원 이상 결제할 때 하루 한 번 300원씩 캐시백해줍니다. 캐시백 금액이 월말에 일괄적으로 들어오는 게 아니라 바로 지급돼 토스 앱에서 즉시 확인도 할 수 있습니다.버스와 지하철 등 대중교통에서도 매일 한 차례 100원씩 캐시백해줍니다. 다만 대중교통은 캐시백이 들어올 때까지 최장 5일까지 걸릴 수 있다는 점은 주의해야 합니다. 건당 캐시백 금액이 많지 않다고 느낄 수 있지만 꼬박꼬박 모으면 월 4만300원까지 쌓을 수 있습니다. 월별 통합 최대 할인 한도가 없다는 것도 강점입니다. 커피값 할인을 예로 들면 통상 연회비 1만원 안팎의 다른 신용카드는 월 최대 할인 한도가 1만원인 경우가 많습니다. 그러나 토스뱅크 카드는 이런 연회비가 없는 체크카드임에도 커피전문점에서만 월 최대 9300원까지 할인받을 수 있습니다.다만 현재 카드 할인 혜택이 ‘에피소드 2’라는 이름으로 6월 말까지만 적용된다는 점은 반드시 주의하셔야 합니다. 6월 말 ‘에피소드 3’이라는 이름으로 할인 혜택이 현재보다 개악될 수 있기 때문입니다. 실제로 토스뱅크가 지난해 10월 처음 출범했을 당시 적용된 ‘에피소드 1’에서는 대중교통 캐시백 금액이 100원이 아니라 300원이었고, 할인받을 수 있는 금액 기준도 3000원이 아닌 300원이었습니다.작년 10월 처음 출범했을 당시 '에피소드 1'이란 이름의 혜택이 있었고, 이번이 두번째 혜택인데. 만약에 6월말에 혜택이 엄청나게 개악된다, 이러면 메리트 떨어지겠죠. 실제로 에피소드1에서는 대중교통비 캐시백도 100원이 아니라 300원이었습니다. 실제로 사실 혜택이 조금 줄어든건데, 이미 사용하시는 분이나 곧 가입하실 분들이라면 6월말엔 혜택이 바뀔 수 있다는 점도 같이 주의해서 보셔야 할 것 같습니다.실제로 개악 가능성도 배제할 수 없는 것이, 토스뱅크의 수신액은 작년 말 기준으로 13조7900억원이었습니다. 반면 여신, 즉 대출해준 돈은 5193억원밖에 되지 않았습니다. 연 2%라는 파격적 금리에, 매일 이자까지 지급해야되니 돈은 많이 나갔겠죠. 이자비용만 작년 세 달 간 424억원이 나갔습니다. 그런데 여신은 많지 않아 들어온 이자수익은 312억원밖에 되지 않아 순손실이 112억원에 달했습니다. 물론 앞서 카카오뱅크나 케이뱅크도 처음 출범했을 당시엔 적자가 났었다는 점에서 그렇게 나쁜 상황은 아니란 목소리도 있지만 '역마진'을 우려하는 목소리가 있는 것도 사실입니다.토스뱅크는 처음 출범할 때부터 계속해서 먼저 인터넷전문은행 허가를 받은 카카오뱅크와 케이뱅크와 비교됐습니다. 현재 세 은행의 입출금통장 금리 비교해볼까요? 카카오뱅크와 케이뱅크의 입출금통장 금리는 연 0.10%로 토스뱅크 금리에 비해 월등히 낮습니다. 대신 이 두 은행은 정기예·적금 상품을 운용하고 있습니다. 별도의 정기 예적금 상품이 없는 토스뱅크와 가장 큰 차이입니다.카카오뱅크의 경우 정기예금 금리가 연 2.25%, 케이뱅크는 연 2.4%입니다. 적금 상품의 경우, 카카오뱅크는 연 2.4%, 케이뱅크는 최대 연 2.7%입니다. 오랜 시간 동안 돈을 묶어둘 생각이라면 당연히 다른 두 인터넷전문은행이 유리합니다.파킹 통장 용도로만 사용할 거지만 금액이 1억원을 넘는다면 케이뱅크의 ‘플러스박스’가 유리합니다. 이 상품은 최대 3억원까지 조건 없이 연 1.30%의 금리를 제공합니다. 특히 하나의 계좌에서도 여유자금 보관, 비상금 모으기 등 여러 용도별로 통장을 쪼갤 수 있어 편리합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>예비군 훈련통지서도 모바일로 받는다</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002589836?sid=100</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>예비군 훈련장 모습. &lt;한겨레&gt; 자료 사진국방부는 11일부터 스마트폰으로 예비군 훈련 소집통지서를 보내는 ‘모바일 송달 서비스'를 시작한다고 9일 밝혔다. 지금은 소집통지서를 주로 우편·등기·인편으로 보내고 있다. 국방부는 훈련일 약 22일 전부터 예비군 개인에게 본인 명의 스마트폰을 통해 소집통지서를 보낼 것이라고 발표했다. 예비군들은 네이버, 카카오톡, 토스, 페이코, 문자 메시지 등으로 통지서를 받을 수 있다. 예비군이 모바일 통지서를 보려면 최초 1회 동의와 본인인증을 해야 한다. 서비스를 원하지 않으면 동의를 하지 않거나 본인 인증을 하지 않으면 된다. 모바일 소집통지서를 읽지 않은 예비군에게는 기존 방식대로 훈련 7일 전까지 우편 통지서를 발송한다.국방부는 “1인 가구이거나 주소지와 실제 거주지가 다른 예비군이 소집통지서를 받는 데 따른 불편함이나 우편물에 적힌 개인정보가 노출될 우려 등이 없어질 것”이라며 “종이 문서를 만드는 비용과 우편 발송에 따른 행정비용 등도 절감될 것으로 기대한다”고 말했다. 자세한 서비스 이용 방법은 예비군 웹사이트(www.yebigun1.mil.kr)에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>토스 만보기, 400만 명이 썼다</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005206419?sid=105</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>작년 9월 ‘방문 미션’ 서비스 추가되며 폭발적 성장“재미, 건강, 리워드 혜택까지“8일까지 놀이공원 방문 시 리워드 지급하는 이벤트[이데일리 김현아 기자]모바일 금융 플랫폼 ‘토스’의 만보기 서비스 누적 사용자가 400만 명을 넘어섰다.2019년 7월 처음 선보인 토스 만보기는 사용자 휴대폰에서 측정된 걸음 수와 위치 정보를 통해 걷기 보상 혜택을 얻을 수 있는 서비스다. 토스 앱 내 ‘혜택’ 탭에 접속해 이용이 가능하다. ‘걷기 미션’과 ‘방문 미션’을 통해 하루 최대 140 원의 토스포인트를 수령할 수 있다. ‘운동 재테크’, ‘짠테크’ 트렌드와 함께 입소문이 나며 꾸준히 이용자가 증가해 왔다. 2021년 9월 개편을 통해 새롭게 선보인 ‘방문 미션’ 기능이 토스 만보기의 성장을 견인했다. 토스가 지정한 특정 장소에 사용자가 방문할 경우 한 곳당 20원, 하루 최대 100원 상당의 토스포인트를 지급하며, 제휴사의 일부 매장에서 즉시 사용 가능한 결제 쿠폰을 제공하기도 한다.‘방문 미션’ 기능은 재미 요소를 리워드에 접목함으로써 게임의 일일 퀘스트를 연상시킨다는 사용자들의 긍정적인 피드백을 받았다. 해당 기능이 추가된 이후 2021년 8월 46만이었던 누적 사용자 수는 2022년 5월 기준 850% 이상 늘어난 400만 명을 기록하며 폭발적으로 성장했다. 토스의 만보기는 리워드 외에도 걸음 수를 다양하게 분석해 보여줌으로써 즐거운 사용 경험을 제공하는 것이 특징이다. ‘실시간 분석’은 연령대별 평균 기초대사량을 기준으로 소비한 칼로리를 계산해 주고, 같은 성별 및 연령대와 비교해 상위 몇 %에 해당하는지도 보여준다. 주간 및 월간 걸음 수를 한눈에 확인하고 자신의 걷기 습관을 점검할 수도 있다.토스 관계자는 “토스 만보기는 재미와 건강, 리워드까지 챙길 수 있어 20대부터 50대 이상까지 전 연령대가 고르게 사용 중인 것으로 나타났다”라며 “‘방문 미션’과 GS25, 롯데리아, 이니스프리 등 제휴사를 통해 제공되는 쿠폰 혜택이 많은 사랑을 받고 있어 앞으로 협업 대상을 더욱 확대해 나갈 예정”이라고 밝혔다.토스는 만보기 서비스 누적 사용자 400만 돌파를 기념해 5월 8일(일)까지 일주일간 어린이날 이벤트를 진행한다. 놀이공원, 미술관, 박물관 등 특정 장소에 방문하면 한 장소 당 토스포인트 20원을 지급하며, 이벤트와 관련된 자세한 내용은 토스 앱 내 만보기 서비스에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>토스뱅크, 외국인 고객까지 '밭 넓힌다'</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000007705?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>인터넷뱅크 최초로 국내거주 외인 계좌 개설2% 금리 수신+체크카드 사용…대출은 '아직'토스뱅크가 국내 인터넷전문은행 중 처음으로 외국인 고객 유치에 나선다. 토스뱅크는 2일 국내에 거주하고 외국인등록증을 보유한 외국인을 대상으로 토스뱅크 계좌 개설 사무를 시작한다고 밝혔다./사진=토스뱅크 제공그동안 국내 거주 외국인은 외국인등록증을 갖고 은행 영업점을 직접 찾아가야만 은행 계좌를 가입할 수 있었다. 금융거래사고, 대포통장 거래 등 금융사고를 방지하기 위한 차원으로 신분을 철저하게 은행에서 직접 검증해야 했기 때문이다. 특히 신분을 확인하는 과정에서 은행마다 필요로 하는 외국인의 사증(비자), 세금, 직업 등의 내용이 담긴 다양한 서류를 요구해 국내 거주하는 외국인이 계좌를 만들기는 오랜 시간이 걸렸다. 일부 은행은 외국인이 맨 처음 계좌를 개설할 경우 일정 기간 금융거래한도계좌(입출금 가능 금액 소액으로 제한)로 두기도 해 국내 거주 외국인이 은행을 사용하는 것이 쉽지는 않았다.토스뱅크는 행정안전부의 공공마이데이터 서비스를 활용해 대면이 필요한 계좌계설 절차를 비대면으로 가능하게 했다. 이를 통해 영업점이 없는 토스뱅크에서도 국내에 거주하는 외국인들이 계좌를 만들 수 있는 데이터를 확보할 수 있게 됐다는 게 토스뱅크 측 설명이다.또 토스뱅크카드(체크카드) 사용, 국내 은행 간 송금, 자동화기기(ATM) 입출금 등 각종 수수료 무료 정책을 동일하게 제공하기로 했다. 세전 연 2% 금리를 제공하는 토스뱅크통장도 자유롭게 이용할 수 있다. 다만 신용대출, 마이너스통장, 사장님 대출 등 무보증·무담보 대출의 경우 좀 더 까다로운 검증절차가 필요한 만큼 외국인의 이용은 아직 제한된다.토스뱅크는 앞으로 해외송금 서비스를 지원하며 국내거주 외국인 고객들의 편의성을 더욱 끌어올린다는 계획이다. 토스뱅크 관계자는 "국내 거주 외국인은 196만명에 달하지만 여전히 이들이 이용할 수 있는 은행 서비스는 제한적이었고, 이 때문에 이들이 금융소외계층으로 남을 수밖에 없었다"며 "앞으로 금융사각지대를 들여다보고 고객을 적극적으로 포용할 것"이라고 말했다.한편 토스뱅크는 지난 3월 기준 수신 잔액이 총 17조원을 넘었다고 밝힌 바 있다. 이는 출범 5개월여 만의 실적으로, 설립한 지 5년 된 케이뱅크를 추월한 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>네이버페이 '지금 사고 나중에 내기' 연체율, 신용카드 신용판매 연체율의 두 배…"악용 위험"</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003861898?sid=105</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>지난해 4월 시작된 네이버페이의 '지금 사고 나중에 내기'(BNPL·후불 결제) 서비스 연체율이 신용카드 신용판매 연체율의 두 배에 달하는 것으로 나타났다. 간편결제 사업자들이 후불 결제 영업에 뛰어들고 있지만 기존 다른 금융사의 연체 정보가 공유되지 않아 도덕적 해이를 부추긴다는 지적이 나온다.최근 윤창현 국회 정무위원회 소속 국민의힘 의원이 금융감독원을 통해 받은 자료에 따르면 3월 말 기준 네이버페이 후불 결제 연체율은 1.26%다.연체율이란 전체 후불 결제 금액 가운데 결제일 기준으로 30일 이상 연체된 금액의 비율을 뜻한다.3월 말 네이버페이 후불 결제 연체율은 전월보다 0.04%포인트(p) 낮아지긴 했으나 지난해부터 꾸준히 높아지는 추세다. 국내 카드사의 신용판매 연체율이 지난해 말 0.54%, 2020년 말 0.64%인 것과 비교해봐도 네이버페이 연체율은 2배에 달한다.카카오페이는 올해 1월부터 월 15만원 한도로 버스·지하철 후불 결제 서비스를 시행하고 있다. 카카오페이의 3월 후불 교통카드 결제액 총액은 220만원이며 아직 연체 채권은 없다.토스(비바리퍼블리카)는 3월부터 후불 결제(최대 월 30만원)를 시작해 총 채권이 110만원이고, 연체액은 없다.간편결제 기업들은 아직은 연체채권을 사실상 회사 손해로 계산하고 있다. 후불 결제 이용자가 결제 금액을 5일 이상 연체하면 간편결제사는 신용평가(CB)사에 연체 정보를 등록하고, 서비스에 등록된 계좌에서 출금을 시도한다.그러나 CB사에 등록한 연체 정보는 개인 신용평가에 반영되지 않고 대안신용평가시스템 개발·운영에만 쓰인다.이와 관련, 업계 관계자는 "간편결제 사업자들은 기존 카드사들의 연체 정보를 공유받지 않아 이를 노리면 악용할 가능성이 있다"고 지적했다. 윤 의원은 "후불 결제 제공회사 사이 정보공유 방안이 조속히 마련돼야 한다"고 말했다.네이버파이낸셜 관계자는 "네이버페이 후불 결제 한도는 월 30만원에 불과하기에 분모가 작고, 적은 금액이 밀려도 연체율이 높게 나타난다"고 설명했다.▶ 무료로 보는 오늘의 운세- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>토스뱅크 "국내 외국인도 계좌개설 가능"… 인터넷은행 최초</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000809036?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크 토스뱅크가 국내 외국인 고객을 대상으로 비대면 뱅킹서비스에 나선다. 외국인 고객의 경우 은행 영업점을 방문해야만 첫 계좌 개설이 가능했다.토스뱅크는 2일 오전부터 국내에 거주하면서 외국인등록증을 보유한 외국인의 경우  토스뱅크에서 계좌를 개설할 수 있다고 밝혔다. 기존에 국내 은행에 계좌를 보유하고 있지 않은 외국인 고객이라도 토스뱅크를 통해 최초 계좌 개설이 가능하다. 은행 영업점을 방문해야만 계좌를 만들 수 있었던 불편함을 해소한 셈이다. 계좌를 개설한 외국인 고객들은 내국인 고객과 차등없이 비대면 뱅킹서비스를 이용할 수 있다. 세전 연 2% 금리(1억원 초과시 0.1% 금리 적용)를 제공하는 토스뱅크통장과 함께 '지금 이자받기'를 통해 매일 남은 원금에 이자를 더한 잔액을 기준으로 또 다시 이자가 쌓이는 '일 복리' 혜택도 내국인 고객과 동일하게 받을 수 있다. '최대 월 4만300원', '해외결제시 무제한 3%' 캐시백 혜택을 담은 토스뱅크카드(체크카드) 사용에도 제약이 없다. 국내 은행 간 송금, ATM 입출금 등 각종 수수료 무료 정책도 동일하게 적용된다. 다만 토스뱅크 신용대출, 마이너스통장, '사장님 대출' 등 무보증·무담보로 운영되는 대출 서비스는 이용할 수 없다.토스뱅크는 국내 거주 외국인 고객들을 대상으로 강화된 방식의 신원 확인 절차를 진행한다. 외국인의 경우 휴대전화 가입자 명의나 금융 계좌 명의를 다르게 입력하는 경우가 있어 동일인 여부를 판별할 수 없는 문제가 있었지만 토스뱅크는 행정안전부의 공공마이데이터 서비스를 활용해 이를 해결했다는 설명이다.토스뱅크 관계자는 "국내 거주 외국인이 196만명에 달함에도 여전히 이들이 이용할 수 있는 뱅킹서비스는 제한적이고 이 때문에 '금융소외계층'으로 남을 수밖에 없었다"며 "앞으로도 금융 사각지대를 들여다보고 고객을 적극적으로 포용하고자 한다"고 말했다.한편 법무부에 따르면 2021년 말 기준 국내 장·단기 체류 외국인은 약 196만 명으로 이 가운데 등록 외국인만 157만여 명에 달한다. 토스뱅크는 이들 고객을 대상으로 조만간 해외송금 서비스를 지원할 계획이다. 언어는 현재 한국어만 지원하지만 고객들은 불편사항이 발생하면 고객센터를 통해 문제를 접수, 해결할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인터넷은행 최초 '외국인 고객 대상 서비스' 시작</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013150605?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[토스뱅크 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오주현 기자 = 토스뱅크가 인터넷 전문은행 최초로 국내 외국인 고객 대상 비대면 뱅킹서비스에 나선다고 2일 밝혔다.    이날 오전부터 국내에 거주하면서 외국인등록증을 보유한 외국인의 경우 토스뱅크에서 계좌를 개설할 수 있다.    계좌를 개설한 외국인 고객들은 내국인 고객과 똑같이 비대면 뱅킹서비스를 이용할 수 있다.     세전 연 2% 금리(1억 원 초과시 0.1% 금리 적용)를 제공하는 토스뱅크 통장 혜택과 '지금 이자받기'를 통해 매일 남은 원금에 이자를 더한 잔액을 기준으로 또 다시 이자가 쌓이는 '일 복리' 혜택 등을 동일하게 누리게 된다.     다만 토스뱅크 신용대출, 마이너스통장, '사장님 대출' 등 무보증·무담보로 운영되는 대출 서비스는 이용할 수 없다.    그동안 외국인의 경우 휴대전화 가입자 명의나 금융 계좌 명의를 다르게 입력하는 경우가 있어 동일인 여부를 판별할 수 없는 문제가 있었지만, 토스뱅크는 행정안전부의 공공 마이데이터 서비스를 활용해 이를 해결했다.    토스뱅크 관계자는 "국내 거주 외국인이 196만명에 달함에도 여전히 이들이 이용할 수 있는 뱅킹서비스는 제한적이고 이 때문에 '금융소외계층'으로 남을 수밖에 없었다"며 "앞으로도 금융 사각지대를 들여다보고 고객을 적극적으로 포용하고자 한다"고 말했다.    토스뱅크는 이들 고객을 대상으로 이른 시일 내에 해외송금 서비스를 지원할 계획이다.     언어는 현재 한국어만 지원하지만, 고객들은 불편 사항을 발견하면 고객센터를 통해 문제를 접수 및 해결할 수 있다고 토스뱅크는 전했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>외국인도 토스뱅크 계좌 개설</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004958083?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[사진 출처 = 토스뱅크] 국내에 거주하는 외국인도 토스뱅크 계좌를 만들 수 있게 됐다. 2일 토스뱅크는 국내에 거주하면서 외국인등록증을 보유한 외국인이 토스뱅크에서 계좌를 개설할 수 있다고 밝혔다. 기존 국내 은행 계좌가 없어도 된다.토스뱅크 신용대출, 마이너스통장, '사장님 대출' 등 무보증·무담보로 운영되는 대출 서비스를 이용할 수 없는 점을 제외하고는 내국인과 동일한 혜택을 누릴 수 있다. 세전 연 2% 금리(1억원 초과 시 0.1%) 토스뱅크 통장, 캐시백 혜택을 담은 토스뱅크 카드(체크카드) 등이다. 국내 은행 간 송금, ATM 입출금 등 각종 수수료 무료 정책도 동일하게 적용된다. 또 이들 고객을 대상으로 이른 시일 내에 해외 송금 서비스를 지원할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>"청와대 관람신청 더 받습니다"…오늘 낮 12시부터 추가접수</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004697864?sid=102</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>접수 16일만에 누적신청자 231만명 넘어13일부터 청와대 열린음악회 신청 접수신청경로 단일화 등 새 예약시스템 도입청와대 개방 행사 이틀째인 11일 서울 종로구 청와대에서 관람객들이 오가고 있다. 뉴스1 대통령실이 지난 10일 국민에게 개방된 청와대의 관람 기간을 21일 연장하기로 했다. 관람 신청을 받은지 16일 만에 누적 신청 인원이 231만명을 돌파하는 등 국민적 관심이 이어지는 데 따른 조치다.  12일 대통령실에 따르면 지난달 27일부터 이날 0시까지 청와대 관람 누적 신청 인원은 231만2740명으로 집계됐다. 이에 따라 대통령실은 5월22일까지였던 관람 기간을 6월 11일까지로 연장하기로 했다. 연장 기간인 5월22일부터의 관람신청은 이날 낮 12시부터 접수하기 시작했다. 일별 관람 인원은 이전과 같은 3만9000명을 유지한다. 오전 7시부터 오후 7시까지 2시간 단위로 입장을 구분하고, 시간대별로 6500명이 청와대 경내에 입장할 수 있다. 청와대 개방에 대해 여전히 높은 국민 관심도와 관람객의 쾌적한 관람 환경, 불편 초래 최소화 및 경내 보전의 어려움 등을 고려했다는 게 대통령실의 설명이다.11일 서울 종로구 청와대에서 열린 '청와대 국민개방 기념행사'에서 조선의 왕과 왕비와 함께 걷는 '왕가의 산책'이 진행되고 있다. 뉴스1 관람을 희망하는 경우 기존 방식과 동일하게 스마트폰을 통해 청와대 개방 홈페이지에 접속하거나 네이버·카카오톡·토스 등 3개의 어플리케이션에 접속해 신청할 수 있다. PC 웹사이트를 통해서도 관람을 신청할 수 있다.  오는 22일에는 청와대 개방행사의 대미를 장식하는 KBS 열린음악회가 열린다. 열린음악회 입장 신청은 오는 13일부터 국민신청누리집, 문화포털, 전통공연예술진흥재단 누리집 등을 통해 접수한다. 대통령실은 청와대 국민개방을 안정적으로 운영하기 위해 관람 신청 접속 경로를 단일화하는 새로운 예약 시스템도 도입할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.05.01.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>‘외상결제’ 네이버페이 후불결제 연체율, 신용카드의 2배 넘어</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003688713?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>네이버와 쿠팡이 시범 운영 중인 한국형 BNPL(선구매 후지불) 서비스 ‘네이버페이 후불 결제’와 ‘쿠팡 나중결제’의 소개 화면. /네이버파이낸셜·쿠팡										출시 1년째를 맞는 네이버페이 후불결제(월 30만원 한도) 서비스의 연체율이 신용카드 연체율의 두 배가 넘는 것으로 나타났다. 후불결제(BNPL, Buy Now Pay Later)란 외상으로 결제하고 한 달 뒤 갚을 수 있는 일종의 ‘외상 거래’다. 네이버페이를 운영하는 네이버파이낸셜은 작년 4월부터 신용카드 발급이 어려운 주부나 대학생 중 ‘우량 고객’에 한해 해당 서비스를 제공하고 있다.1일 국민의힘 윤창현 의원실이 금융감독원에서 받은 자료에 따르면, 네이버페이 후불결제 고객의 지난 3월 연체율(1개월 이상)은 1.26%로 집계됐다. 작년 말 신용카드 연체율 0.54%의 두 배가 넘는다. 네이버파이낸셜이 네이버쇼핑 이력과 커뮤니티 활동 빈도 등을 토대로 우량 고객을 걸러냈음에도 연체율이 상당한 것이다. 3월 말 기준 네이버페이 후불결제 서비스의 총 채권은 75억9900만원으로 이 중 9600만원이 30일 이상 연체된 것으로 확인됐다.이에 대해 네이버파이낸셜 측은 “카드사의 월 결제 한도가 수백만~수천만원인 것과 달리 네이버페이 후불결제 한도는 월 30만원에 불과하기 때문에 분모가 작고, 적은 금액이 밀려도 연체율이 높게 나타난다”고 설명했다.다른 간편결제 사업자들의 후불결제 서비스는 시작한 지 얼마 되지 않아 아직 연체가 발생하지 않았다.  카카오페이는 지난 1월부터 월 15만원 한도로 버스·지하철 후불결제 서비스를 시행했고, 토스는 지난 3월부터 월 30만원 한도의 후불결제 사업을 시작했다. 총 채권이 카카오페이 220만원, 토스 110만원으로 두 회사 모두 아직까지 연체 채권이 없다.윤창현 의원실은 “간편결제 사업자의 후불결제 서비스는 연체를 하더라도 그 정보가 다른 카드사에 공유되지 않는다는 허점이 있다”며 “신용정보가 부족한 신 파일러(Thin Filer)들이 이를 악용하지 못하도록 정보 공유 방안이 조속히 마련돼야 한다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.05.15.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>"라임·옵티머스 소송으로 화우 존재감 높아져"</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004699051?sid=102</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>허환준 화우 금융규제총괄 팀장"금리 올라 투자손실 다툼 늘어디지털 금융, 새 먹거리 될 것"“최근 ‘라임 사태’를 비롯한 사모펀드 관련 사건을 잇달아 수임하며 금융규제 분쟁 분야에서 존재감을 크게 높였습니다. 앞으론 바통을 이어받은 디지털금융 관련 자문업무가 성장동력이 될 것입니다.”허환준 법무법인 화우 금융규제총괄팀장(사법연수원 35기·사진)은 15일 한국경제신문과의 인터뷰에서 이같이 말했다. 화우는 최근 2~3년간 금융규제 분쟁 분야에서 두각을 나타냈다. 라임자산운용, 옵티머스자산운용, 독일 헤리티지 파생결합증권(DLS), 이탈리아 헬스케어 펀드 등 불완전 판매와 대규모 환매 중단 논란을 일으킨 사모펀드를 판매한 은행과 증권사 등의 검사·제재 관련 자문 및 소송대리를 맡고 있다.화우는 2010년 금융감독원 출신인 이명수 경영담당 변호사가 합류한 이후 장기간 금융당국 출신 인재들을 영입해 금융규제 분쟁 분야 경쟁력을 강화해왔다. 2020년 입사한 허 팀장 역시 금감원 분쟁조정국과 자본시장조사국, 금융투자검사국, 자산운용감독실 등에서 근무한 금융규제 분쟁 분야 전문가다. 허 팀장은 “오랫동안 외부 인재 영입 등을 통해 전문성을 키우던 차에 굵직한 사모펀드 분쟁들을 다루게 됐다”며 “이 과정에서 성과를 내면서 금융규제 분쟁 분야에서 인정받고 새 사건을 수임하는 선순환이 이뤄지고 있다”고 설명했다.화우는 앞으로도 금융분쟁이 지속적으로 벌어질 것으로 봤다. 세계 주요국의 긴축정책에 따른 금리 상승 여파가 만만치 않아서다. 허 팀장은 “금리는 주식 등 다른 금융상품과 대체관계에 있다”며 “금리가 오르는 국면에서 주요 금융투자 상품의 가치가 떨어지면 손실 책임 문제를 둘러싼 다툼이 생길 수밖에 없다”고 말했다. 그는 부동산 개발과 관련한 금융분쟁 역시 늘어날 것이라는 전망을 내놨다. 허 팀장은 “그동안은 증권사나 제2금융권의 매입 보증이나 신용 보강을 통해 저금리로 대규모 자금조달이 가능했지만 금리 상승으로 조달 여건이 변했다”며 “이 와중에 부동산 경기가 침체되면 투자자들의 투자금 회수가 어려워져 분쟁이 생기고, 사업장의 부실까지 발견된다면 금융당국의 검사와 제재로도 이어질 수 있다”고 했다.허 팀장은 금융분쟁에 이어 디지털금융 관련 자문업무가 로펌의 새로운 수익원이 될 수 있다고 내다봤다. 네이버와 카카오 등 대형 플랫폼 기업들이 금융 분야로 사업영역을 넓히려는 가운데 금융회사들은 자체 플랫폼을 통해 더욱 다양한 금융 고객층을 확보하기 위해 힘을 쏟고 있어서다. 화우는 현재 KB금융그룹의 계열사 간 통합 플랫폼 구축 작업에 법률자문사로 참여하고 있다. 핀테크 기업인 비바리퍼블리카가 ‘토스’를 모든 금융서비스를 다루는 통합금융 플랫폼으로 키우는 과정에도 참여해 여러 조언을 하고 있다.허 팀장은 “금융회사와 핀테크, 플랫폼 기업이 한꺼번에 디지털금융 시장에 뛰어들면서 새로운 법률 문제나 소비자 보호 문제 등이 생길 수 있다”며 “윤석열 정부도 암호화폐 공개(ICO)까지 허용한다고 할 정도로 디지털금융 활성화에 적극적이기 때문에 이 시장에서 법률자문 수요가 이전보다 늘어날 가능성이 높다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>[尹정부 출범] '네카오' 등 IT플랫폼 업체, 취임식 대거 초청</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000671417?sid=105</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>높아진 플랫폼 위상 반영과 함께 규제 개혁 의지 나타낸듯윤석열 대통령 취임식에 네이버·카카오를 비롯해 배달의민족·쿠팡·컬리 등 플랫폼 업체들의 대표들이 다수 참석했다. 플랫폼 업체의 사회적으로 커진 위상을 반영함과 동시에 윤석열 정부가 플랫폼에 대한 규제 개혁 의지를 나타낸 것으로 해석된다.10일 업계에 따르면 이날 오전 11시 여의도에서 열린 윤석열 대통령 취임식에 최수연 네이버 대표와 김성수 카카오 이사회 의장이 참석했다.윤석열 대통령이 10일 서울 여의도 국회의사당 앞 잔디마당에서 열린 제20대 대통령 취임에서 참석 내빈과 함께 국민의례를 하고 있다. [사진=국회사진취재단]이들 외 이커머스 플랫폼 업체를 중심으로 플랫폼 업체들이 다수 참여한 것이 눈에 띈다. 강한승 쿠팡 대표, 김범준 우아한형제들(배달의민족) 대표, 김슬아 컬리 대표 등이 행사에 나섰다. 이승건 비바리퍼블리카(토스) 대표와 이수진 야놀자 대표, 안성우 직방 대표도 취임식에 초청받았다. 콘텐츠 플랫폼 업체 중에서는 배기식 리디 대표와 박태훈 왓챠 대표가 취임식에 참여한 것으로 나타났다.혁신 스타트업 업체 대표들도 취임식에 다수 초청받았다. 김세영 피에스엑스(서울거래비상장) 대표를 비롯해 유범령 모비데이즈 대표, 임재원 고피자 대표, 김병준 한테크 대표, 남성준 다자요 대표, 김정현 셰어하우스우주 대표 등이 취임식에 참석했다. 최성진 코리아스타트업포럼 대표 역시 취임식에 나선다.업계에서는 IT플랫폼, 스타트업 업체들이 대통령 취임식에 초청된 점에 대해 새로운 정부의 플랫폼·스타트업 규제 개혁 의지가 반영된 것으로 풀이한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>‘다시 활짝 열린 고궁’…2022 봄 궁중문화축전 10일 개막</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011263471?sid=103</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>고궁에서 즐기는 문화 축제 ‘2022 봄 궁중문화축전’이 오늘(10일) 오후 8시 개막제를 시작으로 화려한 막을 올립니다. 개막제는 코로나19로 인해 지난 2년 동안 온라인으로 개최했지만, 올해는 시민들이 현장에서 개막 행사를 즐길 수 있도록 경복궁 흥례문 광장에서 현장 행사로 진행됩니다. 올해 궁중문화축전은 봄(5월)과 가을(10월) 두 차례에 진행하며, 이번 봄 개막제는 ‘나례(儺禮)와 연희’를 주제로 궁중에서 행했던 벽사의식(辟邪儀式)을 현대적으로 재해석해 코로나19 극복과 새로운 일상을 향한 희망을 전합니다. 나례(儺禮)는 섣달 그믐날 궁중과 민가에서 귀신을 몰아내던 전통 의례를, 벽사의식(辟邪儀式)은 귀신을 물리치는 의식을 뜻합니다. 개막제의 제1장 ‘새봄 나례’에선 코로나19로 힘겨웠던 겨울을 보내고 새봄을 맞는 희망을 전합니다. 경복궁 흥례문 광장에 가로 세로 3.5m, 높이 5m 규모의 미디어 타워 두 대를 설치해 입체적인 공간을 연출하고, 소리꾼 최예림과 한국예술종합학교 무용단의 ‘새봄 비나리’ 무대와 전통 나례(儺禮)를 현대적으로 재해석한 구나행(驅儺行) 대판놀음을 선보입니다. 제2장 ‘새날, 새 희망’에서는 새로운 조선을 꿈꿨던 소현세자를 주인공으로 내세운 창경궁 고궁뮤지컬 「소현」과 첨단 미디어 기술과 실제 연희를 결합한 흥례문 멀티미디어 공연 「열상진원(冽上眞源)」이 선보입니다. 개막제의 최고 기대작인 「열상진원」은 경복궁 역사를 주제로 한 디지털 기술과 연희의 결합무대로, 북악산 기슭에 자리 잡고 이 땅의 역사와 함께한 작은 샘 ‘열상진원(冽上眞源)’이 전하는 650년의 서사를 담았습니다. 미디어 타워, 미디어파사드, 3차원 입체 레이저 등 미디어 장치와 함께 실존 인물인 태조와 세종의 이야기에 가상의 인물 ‘소녀 샘’을 서사에 결합해 시간, 사람, 공간을 이어주는 새로운 이야기로 탄생시켰습니다. 개막제는 문화재청 궁능유적본부와 한국문화재재단이 새롭게 정비한 궁능활용사업 통합 유튜브 ‘궁능TV’로도 생중계됩니다. 아울러 ‘궁능TV’에선 「아티스트가 사랑한 궁」 리처드 용재 오닐 편을 공개합니다. 그래미상을 받은 비올라 연주자 리처드 용재 오닐은 경복궁 집옥재에서 연주자로서의 삶과 궁궐에 얽힌 이야기를 들려주고, 한국인에게 자장가로 친숙한 곡이자 2006년 앨범 『눈물(Lachrymae)』에 수록된 ‘섬집아기’와 슈베르트 가곡 ‘그대 나의 안식(Du bist die Ruh)’을 연주합니다. 개막을 기념해 10일 하루는 경복궁·창덕궁·창경궁·덕수궁과 종묘가 무료 개방됩니다. 이번 궁중문화축전은 오는 22일(일)까지 온라인과 오프라인에서 49가지 프로그램으로 다채롭게 꾸며집니다. 축전 기간에 경복궁·창덕궁·창경궁·덕수궁은 쉬는 날 없이 개방하고, 경복궁은 축전 기간 내내 무료로 찾을 수 있습니다. 덕수궁·창경궁에서는 축전이 개최되는 13일 동안 오후 9시까지 야간에도 개방합니다. 특히, 14일부터 22일까지 창경궁 대춘당지 광장에서는 &lt;춘당지 미디어파사드 '홍화에서 춘당까지'&gt;가 오후 8시부터 15분 간격으로 하루 세 차례 선보입니다. 경복궁 후원(청와대) 개방 기념과 연계한 특별 프로그램은 모바일 애플리케이션(네이버, 카카오톡, 토스)에서 청와대 개방 관람 사전신청을 통해 참여할 수 있습니다. 축전에 관한 자세한 정보와 일정은 문화재청 궁능유적본부(royal.cha.go.kr), 한국문화재재단(chf.or.kr), 궁중문화축전(chf.or.kr/fest) 누리집과 궁중문화축전 공식 인스타그램(@royalculturefestival_official)에서 확인할 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>청와대 관람 신청 6월 11일분까지 연장…신청자 231만 명 돌파</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001662581?sid=103</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>신청자 수 많아 관람기간 연장네이버·카카오톡·토스로 신청 가능이후 새로운 예약시스템 도입 예정청와대 개방 / 사진 = 매일경제대통령실이 청와대 국민개방 관람 신청 접수를 6월 11일 관람분(6월 2일 접수마감분)까지 연장한다고 밝혔습니다. 신청은 네이버나 카카오톡, 토스 등 온라인 플랫폼을 통해 할 수 있습니다.지난 4월 27일 오전 10시부터 시작된 관람 신청 접수는 오늘(12일) 0시 기준 231만 2,740명을 돌파했습니다. 이처럼 뜨거운 관심을 받게 되면서 신청 기간을 연장해 운영하기로 결정했다고 대통령실은 설명했습니다. 청와대 국민개방 관람 신청 홈페이지는 접속자가 몰리면서 접속이 다소 지연되기도 했습니다.청와대 국민개방 관람 신청 홈페이지 접속 대기 화면 / 사진 = 홈페이지 캡쳐신청은 개인별(1～4명), 단체별(30～50명), 65세 이상 어르신과 장애인(1～4명) 등 3개 유형별로 관람을 희망하는 일자와 시간을 선택하면 됩니다. 다둥이 자녀 가족의 경우 가족관계증명자료를 제출하면 개인 4인 초과 인원도 입장할 수 있습니다.이달 22일부터 6월 11일까지의 청와대 관람 신청은 오늘 낮 12시부터 접수할 수 있습니다. 일별 관람 시간과 관람 인원은 기존과 같습니다. 아침 7시부터 저녁 7시까지 2시간 단위로 입장을 구분하고, 각 시간 단위별로 6,500명씩 하루 총 3만 9,000명이 입장하도록 할 예정입니다.청와대 국민개방의 안정적 운영을 위해 관람 신청 접속 경로를 단일화하는 새로운 예약시스템도 도입될 예정입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>핀테크 업계 “업계 발전 위해 전금법 개정 필요”</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000811036?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>“핀테크 혁신 이뤄진다면 5년 후 사회적 후생 효과 15조원 달할 것”  “현재 전자금융거래법 시행된 지 15년 지나… 핀테크 산업 반영하도록 개정돼야”        핀테크 업계 관계자 및 전문가들은 업계 활성화와 금융 서비스 혁신을 위해서 현재 국회에 계류 중인 전자금융거래법(전금법) 개정과 스몰 라이선스(small license·소규모 인허가) 도입 등이 필요하다고 제언했다.윤창현 국민의힘(오른쪽에서 3번째) 의원과 한국핀테크산업협회가 3일 국회의원회관 제1소회의실에서 개최한 `K-핀테크의 역동성 회복과 지속가능한 발전을 위한 정책과제` 정책 토론회의 강연자 및 패널 토론자들이 기념 사진을 촬영하고 있다. /한국핀테크산업협회 제공        3일 윤창현 국민의힘 의원과 한국핀테크산업협회는 ‘K-핀테크의 역동성 회복과 지속가능한 발전을 위한 정책 과제’ 토론회를 공동으로 개최했다. 이날 토론회에서는 한국 핀테크 산업의 현황 및 바람직한 규제 방향 등에 대해 논의했다.박영호 보스턴컨설팅 그룹 코리아 파트너는 국내 핀테크 혁신을 통해 발생하는 사회적 후생 효과가 현재 10조원에서 오는 2026년에는 15조원으로 커질 것으로 전망했다. 그는 이러한 성장을 이루기 위해서는 정부 및 금융당국의 규제적 장치 및 지원이 필요하다고 했다. 박 파트너는 “현재 한국의 핀테크 유니콘 기업은 토스 1곳뿐이나, 향후 정책 당국의 규제 완화 등을 통해 제2, 제3의 핀테크 유니콘 기업 성장을 유도할 필요가 있다”고 말했다.강현구 법무법인 광장 변호사는 “현재 국내 핀테크 산업은 기존 규제에 의한 장벽과 입법 미비로 한계에 부딪힌 현실”이라고 지적했다. 그는 “전자금융거래법은 2007년 1월에 시행된 오래된 법”이라며 “15년간 이뤄진 기술 변화와 핀테크 산업의 현황을 적절하게 반영하지 못하고 있다”고 지적했다. 이어 그는 “최근 핀테크 산업에 걸맞은 전자금융거래법 개정 및 스몰 라이선스 제도 도입이 필요하다”고 강조했다. 스몰 라이선스 제도란 금융업 인허가 단위를 분산해 핀테크 기업에 맞도록 세분화한 인허가 제도를 의미한다.김현경 서울과기대 IT정책전문대학원 교수는 혁신금융서비스(금융규제 샌드박스) 제도에 대해 “경쟁적 사업자들에게 공평한 사업 기회를 부여하는 방향으로 개선돼야 한다”며 “지정 기간 종료 이후에도 사업의 연속성을 가질 수 있도록 스몰 라이선스 도입 등이 고려돼야 한다”고 했다.이수환 국회입법조사처 입법조사관는 핀테크 시장의 활성화를 위해서는 자율 규제를 유도하는 구체적 가이드라인이 필요하다고 했다. 그는 “가이드라인 부재로 소비자 피해가 발생할 경우, 시장에 대한 신뢰가 무너질 수 있다”며 “관련 산업 또한 위축돼 글로벌 경쟁에서 뒤처질 우려가 있다”고 말했다. 그는 “규제 공백 상태에서 등장한 혁신 서비스에 대해 관계 부처 간 협력을 통한 대응 방안을 마련해야 한다”고 덧붙였다.이성현 줌인터넷 대표이사는 금융 규제 샌드박스 제도 내실화의 필요성을 주장했다. 이 대표이사는 “금융 규제 샌드박스 제도가 핀테크 산업 활성화에 기여한 점은 인정한다”면서도 “그러나 검토 절차가 불명확하고 형평성 부재 등의 문제점이 존재한다”고 꼬집었다. 그는 “혁신금융 사업자 지원 강화를 위해 진행 경과의 투명성을 확보하는 것이 필요하다”고 했다.김지식 네이버파이낸셜 법무이사는 스몰 라이선스 제도를 통해 새로운 경쟁자를 유입시키는 것이 금융 산업 활성화에 도움을 줄 것이라고 주장했다. 그는 “우리나라 금융시장은 몇 개 대형 금융 지주를 중심으로 과점 돼 경쟁이 활발히 이뤄지지 못하고 있다”며 “금융시장 경쟁 활성화를 위해 금융 플랫폼 육성 및 스몰 라이선스 제도를 통해 새로운 경쟁자를 유입시키는 것이 중요하다”고 조언했다.마지막으로 박주영 금융위원회 금융혁신과장은 “다양한 핀테크 기업이 성장해 국민에게 편리한 금융 서비스를 제공할 수 있도록 정책 목표를 두고 있다”며 핀테크 기업에 대한 지원을 강화할 방침이라고 밝혔다. 그는 금융권의 핀테크 투자 활성화를 위한 가이드라인도 정비할 예정이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.05.13.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>개방 나흘째 맞은 청와대… 관람 신청 인원 231만명 돌파 [뉴시스Pic]</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011183223?sid=102</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>기사내용 요약청와대 관람 신청 인원, 12일 0시 기준 231만명 돌파[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대에서 열린 개방행사를 찾은 시민들이 본관을 배경으로 사진을 찍고 있다. 2022.05.13 jhope@newsis.com[서울=뉴시스] 류현주 기자 = 청와대 개방이 나흘째를 맞은 13일 관람객들로 북적이는 모습을 보였다.이날 청와대에서는 왕가의 산책, 줄타기 공연, 풍물공연 등 다양한 프로그램의 공연이 진행됐다.청와대 관람신청은 지난 4월 27일 오전 10시부터 시작됐으며 12일 0시 기준 231만 2740명을 넘었다. 이에 대통령실은 청와대 국민개방을 위해 네이버, 카카오톡, 토스 등 온라인플랫폼을 통해 받기로 한 관람신청 접수를 6월 11일 관람분(6월 2일 접수마감분)까지 연장한다고 밝혔다.관람신청은 개인별(1~4명), 단체별(30~50명), 65세 이상 어르신·장애인(1~4명) 등 3개 유형으로 구분해 관람을 희망하는 일자와 시간을 선택하면 된다.관람은 당첨된 인원에 한해 오전 7시부터 오후 7시까지 6차례에 걸쳐 6500명씩 하루 총 3만9000명 입장하게 된다.[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대에서 왕가의 산책 행렬이 이동하고 있다. 2022.05.13 jhope@newsis.com[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대 개방행사를 찾은 시민들이 입장하고 있다. 2022.05.13 jhope@newsis.com[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대에서 열린 개방행사를 찾은 어린이들이 경내를 둘러보고 있다. 2022.05.13 jhope@newsis.com [서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대 춘추관 앞 헬기장에서 줄타기 공연이 펼쳐지고 있다. 2022.05.13 jhope@newsis.com[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대 춘추관 앞 헬기장에서 줄타기 공연이 펼쳐지고 있다. 2022.05.13 jhope@newsis.com[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대에 문재인 전 대통령과 김정숙 여사의 기념식수가 심어져 있다. 2022.05.13 jhope@newsis.com[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대 녹지원에서 공연이 펼쳐지고 있다. 2022.05.13 jhope@newsis.com[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대에서 열린 개방행사를 찾은 시민들이 본관을 배경으로 사진을 찍고 있다. 2022.05.13 jhope@newsis.com[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대에서 열린 개방행사를 찾은 시민들이 본관을 배경으로 사진을 찍고 있다. 2022.05.13 jhope@newsis.com[서울=뉴시스] 정병혁 기자 = 13일 오전 서울 종로구 청와대에서 열린 개방행사를 찾은 시민이 봉황 문양 사진을 찍고 있다. 2022.05.13 jhope@newsis.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>"핀테크 혁신으로 인한 사회적 편익 15조 이를 것"</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005083779?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>K-핀테크 역동성 회복·지속가능 발전 정책과제 토론회투자유치금 상위권이지만 핀테크 유니콘 1곳 불과규제 완화 및 정책 지원 필요핀테크 혁신을 통해 얻을 수 있는 사회적 편익이 15조원이 이를 것이라는 분석이 나왔다. 이를 위해 더욱 적극적인 규제 완화와 지원 정책이 필요하다는 설명이다.3일 박영호 보스턴컨설팅그룹(BCG) 코리아 파트너는 윤창현 국민의힘 의원과 한국핀테크산업협회가 공동 개최한 ‘K-핀테크의 역동성 회복과 지속가능한 발전을 위한 정책과제’ 토론회에서 "핀테크 혁신으로 인한 사회적 후생 효과는 지난해 기준 연 10조원 이상으로 추산되며 2026년에는 15조원까지 이를 것"이라며 "핀테크 관련 국내 규제 문제들이 해소될 경우, 기대되는 사회적 후생 효과는 더욱 커질 것"이라고 강조했다.그는 이 같은 효과를 직접 효과와 간접 효과로 나눠서 분석했다. 직접효과는 소비자와 공급자가 서로 이득을 얻는 가시적 경제 효과다. 대출·카드·보험 비교분석, 간편결제 및 송금 등과 같은 서비스를 통해 기업은 매출 증가, 소비자는 소득 증가와 지출 감소 효과가 있다는 설명이다. 박 파트너는 "핀테크 혁신의 직접적인 후생효과는 지난해 기준 8400억원 수준이었지만 5년 뒤에는 3조2000억원 수준으로 성장할 것"이라고 설명했다.부가가치를 높이고 산업 내 부가적으로 발생하는 간접적 효과는 더욱 크다. 현재 9조원에 육박하는 수준이며 향후 5년 뒤에는 12조원까지 이를 것으로 전망했다. 그는 "소비자 금융 주권 제고, 금융 사각지대 해소, IT강국 위상 강화 등과 같은 점을 고려하면 미래 사회에 전반에 기여하는 효과가 상당할 것"이라고 분석했다.이 가운데 핀테크 유니콘(기업가치 1조원 이상 비상장 스타트업)이 아직 토스 운영사 비바리퍼블리카 1곳에 불과한 점은 다소 아쉽다고 지적했다. 그는 "한국은 투자유치금 기준으로는 아시아태평양 지역의 핀테크 선도 국가이나 개인자산관리(PFM) 및 국경간 결제, 모빌리티 등도 함께 발전하는 싱가포르, 인도네시아 등 고성장 국가와 달리 결제 솔루션 이외 성장동력 발굴에 미진하다"며 "향후 정책 당국의 규제 완화 및 지원정책 수립을 통해 제2, 제3의 핀테크 유니콘 기업 성장을 유도할 필요가 있다"고 진단했다.이날 박 파트너와 함께 주제 발표를 맡은 강현구 법무법인 광장 변호사도 "현재 국내 핀테크 산업은 기존 규제에 의한 장벽과 입법 미비로 한계에 부딪히고 있는 현실"이라며 "국내 핀테크 기업이 국제무대에서 뒤처지지 않기 위해 전자금융거래법 개정 및 스몰라이선스 제도의 도입이 반드시 필요하다"고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.05.08.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>엇갈린 가계대출…5대은행은 줄고, 인터넷은행은 늘고</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005085659?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>금융당국 압박에 중저신용자 대출 끌어올린 인뱅들대환 수요도 유입…각종 이자 지원 행사도 영향시중은행 대출은 4개월째 감소세[이미지출처=연합뉴스]올해 들어 주요 시중은행은 가계대출이 줄었지만 인터넷전문은행의 가계대출은 증가한 것으로 나타났다.8일 금융권에 따르면 카카오뱅크, 케이뱅크, 토스뱅크 등 3곳의 지난달 말 기준 가계대출 잔액은 총 37조2718억원이다. 전달 대비 1조1279억원 증가했다. 올해 들어 4개월 연속 증가세로 지난 1월 1조1916억원 증가 이후 가장 큰 폭으로 늘어났다.중저신용자 대상 대출을 늘리면서 여신 잔액이 꾸준히 늘어난 것으로 풀이된다. 금융당국이 중저신용자 대출을 늘려야 한다고 압박한 효과가 나타났다는 해석이 나온다. 앞서 금융당국은 지난해 5월 인터넷전문은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 당초 설립 취지와 달리 고신용층 위주의 보수적인 대출 영업을 한다고 지적한 바 있다. 여기에 '첫 달 이자 지원' 등의 행사를 적극 펼치면서 제2금융권 중저신용자들이 대출을 갈아탄 영향도 작용한 것으로 보인다.이에 따라 카카오뱅크와 케이뱅크는 지난해까지 각 17.0%, 16.6%였던 중저신용자 대출 비중이 올해 들어 20%대로 올라왔다. 지난해 말 중저신용자 대출 비중이 23.9%로 가장 준수한 편이었던 토스뱅크는 최근 33%대까지 높였다.한편 이와 대조적으로 KB국민·신한·하나·우리·NH농협 등 5대 시중은행은 가계대출 잔액은 올해 들어 꾸준히 감소했다. 5대 시중은행의 지난달 말 가계대출 잔액은 702조3917억원으로 전달보다 8020억원 줄었다. 이는 지난 1월(1조3634억원 감소)부터 2월(1조8522억원 감소)과 3월(2조7436억원 감소)에 이어 4개월 연속 감소했다. 주택담보대출과 전세자금대출은 늘었지만 신용대출이 줄어든 영향으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.05.13.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>[취재수첩] '정치권 눈치'까지 봐야하는 스타트업</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004698148?sid=110</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>국회 규제 법안 잇달아 발의유니콘들 보좌관 영입 분주김주완 스타트업부 기자“국회의원 보좌관 출신 어디 좀 없을까요? 개발자 구하기도 요즘 하늘의 별따기인데…기업하기가 쉽지 않네요.”지난해 유니콘 기업(기업가치 1조원 이상 비상장기업) 목록에 이름을 올린 한 스타트업 인사담당자의 토로다. 이 인사의 말처럼 소위 잘나가는 스타트업은 요즘 국회 보좌관 출신 찾기에 혈안이 돼 있다.부동산 중개 스타트업 직방이 작년에 의원실 보좌관 출신을 영입한 데 이어 올 들어서는 암호화폐거래소 업비트를 운영하는 두나무, 법률 플랫폼 로톡의 로앤컴퍼니가 보좌관 출신을 채용했다. 온라인 쇼핑 서비스 마켓컬리의 컬리도 지난해 12월 국회 출신을 영입했다.일단 ‘유니콘 기업’ 명단에 올랐다 싶으면 대관 전문가는 무조건 뽑아야 하는 필수 인력으로 거론된다. 업종은 상관없다. 핀테크 서비스 토스의 비바리퍼블리카와 중고 거래 플랫폼업체 당근마켓도 대관 인력 확대에 나섰다. 해외에서는 보기 드문 광경이다.녹록지 않은 국내 기업 경영 환경 때문이다. 정치권은 스타트업을 옥죌 수 있는 규제 법안을 계속 발의하고 있다. 특히 플랫폼이 집중 타깃이 되고 있다. 전혜숙 더불어민주당 의원의 ‘온라인플랫폼 이용자 보호에 관한 법률 개정안’은 온라인 플랫폼에서 소비자 피해가 발생하면 중개 사업자에 공동 책임을 지우는 내용을 담고 있다. 예를 들어 무신사에서 어떤 판매자가 중고 ‘짝퉁’ 명품을 판매하다가 적발됐다면 무신사가◎ 그 피해를 배상해야 할 수도 있다. 이수진 민주당 의원의 ‘대·중소기업 상생협력 촉진에 관한 법률 개정안’은 온라인 플랫폼 사업자가 입점 업체에서 받는 수수료를 제한하는 것이 골자다.스타트업 업계 관계자는 “매출, 거래액, 이용자 수를 기준으로 규제 대상을 정하기 때문에 성장하는 스타트업은 언젠가는 전부 걸릴 규제”라고 했다. 핀테크·헬스케어·암호화폐·푸드테크 등 다른 분야에서도 국회의원들은 스타트업 규제 법안을 쏟아내고 있다.정치권의 ‘스타트업 길들이기’는 국정감사에서도 나타난다. 국정감사 기업인 증인에는 그동안 대기업 총수들이 단골처럼 채택됐다. 하지만 언제부터인가 스타트업 대표들이 집중 타깃이 됐다. 지난해 안성우 직방 대표, 김범준 우아한형제들 대표, 배보찬 야놀자 대표 등이 국회에 참석했다. 당근마켓은 설립 7년 차에 벌써 두 번이나 증인 명단에 오르기도 했다. 스타트업 업계에서 “제품과 서비스 혁신도 벅찬데 정치권 눈치까지 봐야 한다”는 불만이 계속 나올 수밖에 없는 이유다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>"네·카 등 韓 신산업 빅6 시총, 中 텐센트의 3분의 1"</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004695398?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>경총 "플랫폼·바이오·핀테크 등성장 가로막는 규제 대폭 풀어야"불합리한 규제로 인해 플랫폼, 바이오, 핀테크 등 신산업 육성이 더디다는 지적이 나왔다. 네이버, 삼성바이오로직스, 비바리퍼블리카(토스) 등 국내 대표 6개 신산업 기업의 시가총액 합이 중국 텐센트 시총의 3분의 1에 불과하다는 분석이다.한국경영자총협회는 6일 ‘주요 신산업 규제 개선 방안’을 발표하고 혁신기업 출현과 성장을 막는 규제를 대폭 풀어야 한다고 주장했다. 경총은 먼저 국내 신산업 기업의 시총을 같은 분야 해외 기업과 비교하며 과도한 규제의 결과라고 지적했다.네이버·카카오(플랫폼), 삼성바이오로직스·셀트리온(바이오), 카카오페이·토스(핀테크) 등 6개 기업의 시총 합은 195조3000억원(지난달 28일 기준)으로 중국 플랫폼 기업인 텐센트 시총(630조4000억원)의 3분의 1에도 미치지 못한다. 국내 유니콘 기업(가치 1조원 이상 비상장기업)은 12개로, 세계 1051개 유니콘 기업의 1.14%에 불과하다.경총은 주요 선진국들이 ‘선 육성 후 규제’ 원칙을 적용하는 데 비해 한국은 산업 발전 초기부터 과도한 규제를 도입한다고 꼬집었다. 그 결과가 기업 활동과 성장 위축이라는 얘기다. 온라인 플랫폼의 경우 미국과 유럽은 시총이 수백조원에 달하는 소수 대기업을 대상으로 규제하지만, 한국은 매출 1000억원 이상 기업에 대한 무차별적 규제를 논의하고 있다. 경총은 “(플랫폼 기업의 영업비밀에 해당하는 내용까지) 정보 공개 등 각종 의무가 부과될 것”이라며 “국내 플랫폼들이 글로벌 기업으로 성장할 수 있도록 논의 중인 온라인 플랫폼 규제를 전면 재검토해야 한다”고 강조했다.경총은 35년째 시범사업 중인 원격의료 규제에 대해서도 쓴소리를 했다. 경총은 “경제협력개발기구(OECD) 38개국 중 원격의료 금지국은 한국을 포함, 6개국에 불과하다”며 “선진국들은 원격의료를 넘어 디지털 헬스케어산업으로 나아가고 있다”고 지적했다. 핀테크 규제에 대해서는 “영국 등 주요 금융 선진국은 핀테크 기업을 적극 육성 중인 반면 한국은 망 분리, 개인정보보호 규제 등 사전적 규제로 성장을 막고 있다”고 꼬집었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.05.15.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>'찐고객 1위'인데 공모가 밑으로....카뱅의 미래는?</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004746008?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>[편집자주] 디지털 금융 플랫폼 시대가 열리면서 금융산업에 활기가 돈다. 혁신과 디지털로 중무장한 빅테크들의 금융영토 확장 행보가 가속화하면서다. 카카오, 네이버, 토스 등 빅테크 3강은 차별화된 색깔과 전략으로 금융시장의 전통적인 강자들을 위협하고 있다. 대형 금융지주도 생존을 위한 플랫폼 전쟁에 뛰어들었다. 이른바 '신주류'로 떠오른 빅테크를 해부하고 금융산업의 변화와 미래를 조망해 본다.[[MT리포트]금융 빅테크 3강 대해부 (上)카카오-③]카카오뱅크 성장 추이/그래픽=이호연 디자인기자카카오뱅크는 지난해 8월 증시 입성 후 단숨에 금융 대장주 지위를 차지하는 등 4대 금융지주와 어깨를 나란히 하는 은행으로 성장했다. 실사용자 수가 가장 많은 금융 플랫폼으로도 우뚝 섰다. 소매금융만으로 올린 성과라는 점에서 의미가 작지 않다. 다만, 기존 은행의 텃밭인 기업금융 부문에서도 금융시장의 메기 역할을 할 지는 미지수다.  최근 주가가 공모가 밑으로 떨어지면서 시장에 성장성에 대한 확신을 심어 주는 게 최대 과제다.  15일 금융권에 따르면, 지난 1분기말 카카오뱅크 고객 수는 1861만명으로 전년 말보다 62만명 증가했다. 은행 앱 월간활성이용자수(MAU)는 1503만명(닐슨미디어 데이터 기준)으로 전체 고객의 80% 수준에 달한다. 독보적인 금융 앱 1위다. 가입만 하는 '유령고객'보다는 자주 쓰는 '진성고객'이 대다수란 의미다.  금융 플랫폼에 익숙한 MZ세대(1980년대 초반~2000년대 초반 출생)뿐 아니라 모든 세대가 두루 쓰는 금융 플랫폼이란 특징도 있다. 1분기 새로 유입된 고객의 70%가 40대 이상이었다. 전체 고객에서 40대 이상이 차지하는 비중도 40%를 넘는다. 10대 청소년 전용 서비스 미니(mini)가 128만 고객을 확보하는 등 흥행을 거두면서 모든 연령층을 품는 은행으로 성장했다. 카카오뱅크는 2017년 출범 당시부터 공인인증서가 아닌 간편 로그인 방식을 선보였고, 직관적이고 편리한 UI(사용자환경), UX(사용자경험)로 눈길을 끌었다. 복잡하고 무거운 기존 은행 앱과 또렷이 대비됐다. 이체, ATM(현금자동인출기) 등 각종 수수료를 무료로 하고 금리인하요구권 활성화로 소비자 권리를 강화해 기존 은행들에 자극을 줬다. 대형 은행들이 소비자 편의성에 초점을 둔 금융 플랫폼 경쟁에 모두 가세했다는 점을 감안하면 금융시장의 '메기' 역할을 충실히 한 셈이다. 문제는 카카오뱅크의 성장성에 대한 물음표다.  금융 영토가 제한적인 소매금융 업무 중심인 데다 기업금융에는 아직 발을 들이지 못 한 상태다. 상장 초기 거품이 서서히 빠지고 있는 것도 포트폴리오 부재에 다른 성장성에 대한 의문 탓이다.  카카오뱅크는 지난 13일 3만8450원에 거래를 마쳤다. 공모가(3만9000원)보다 주가가 떨어진 것이다. 상장 직후인 지난해 8월 중순 최고점(9만4400원)과 견주면 60% 가까이 하락했다.  시가총액도 KB금융지주(24조402억원)와 신한금융지주(21조6971억원)에 크게 못 미친다. 지난해 증시 데뷔 당시 단숨에 금융 대장주 자리를 꿰찼던 상황을 돌아보면 민망한 성과다. 최근 글로벌 긴축과 금리 인상에 상승세에 접어든 금융주 주가 행보와는 반대 흐름이다.  카카오뱅크가 지난 2월 비대면 주택담보대출을 선보인 것도 수익원 다변화와 포트폴리오 확대를 위한 승부수다.  올 하반기엔 개인사업자 대출과 수신상품을 출시해 기업금융 시장에 뛰어들 계획이다.  금융 플랫폼 강점을 극대화하기 위해 가상자산(암호화폐) 거래소 제휴도 검토 중이다. 증권계좌, 연계대출, 신용카드 발급 서비스와 관련한 제휴사도 늘려가고 있다. 글로벌 시장에 진출할 준비도 하반기부터 본격화할 계획이다. 윤호영 대표는 최근 1분기 실적을 발표하면서 "플랫폼 경쟁력을 강화할 기초 전략은 제휴사 확대"라며 "내년부터 금융 플랫폼의 성격을 좀더 견고히 할 것"이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>尹 취임식에 유통·스타트업 CEO 초청…쿠팡 강한승도 참석</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006079565?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>김슬아 컬리 대표·안준형 오아이스 마켓 대표 등 초청정부 플랫폼 규제 혁신 의지…규제 완화 분위기 물살쿠팡 강한승 대표(좌측부터), 김슬아 컬리 대표, 안준형 오아시스 마켓 대표(각사 제공)© 뉴스1(서울=뉴스1) 한지명 기자 = 윤석열 대통령 취임식에 쿠팡·컬리 및 우아한형제들·직방 등 주요 유통·스타트업 업계 인사들이 대거 참석한다.9일 관련 업계에 따르면 10일 윤석열 대통령 취임식에는 쿠팡 강한승 대표를 포함해 김슬아 컬리(마켓컬리) 대표, 안준형 오아시스 마켓 대표 등이 초청됐다. 윤 당선인이 쿠팡 대표를 취임식에 초청한 것은 일자리 창출에 기여한 점을 높이산 것으로 전해졌다. 국민연금공단에 따르면 올해 2월 말 기준 쿠팡의 임직원 수는 6만6633명을 기록했다. 삼성전자, 현대자동차의 뒤를 잇는다.12년만에 매출 20조를 돌파하며 국내를 대표하는 업체로 자리매김한 것도 초청의 주요 원인으로 풀이된다. 코로나19 위기 상황에서도 국민들이 안정적으로 장보기를 할 수 있도록 한 '로켓배송' 능력도 인정 받았다. 인수위는 주요 새벽배송 플랫폼인 김슬아 컬리 대표와 안준형 오아시스마켓 대표도 취임식에 초청했다. 신선식품 새벽배송 서비스를 대표하는 유니콘 기업(거대신생기업·기업가치 1조원 이상인 스타트업)이 초청 배경으로 꼽힌다. 오아시스마켓의 경우 중소벤처기업부의 추천을 받은 것으로 알려졌다.주요 스타트업 대표들도 참석을 앞뒀다. 이승건 비바리퍼블리카(토스) 대표, 김범준 우아한형제들(배달의민족) 대표, 안성우 직방 대표, 김세영 피에스엑스(서울거래비상장) 대표, 유범령 모비데이즈 대표, 남성준 다자요 대표, 김정현 셰어하우스우주 대표 등이 대통령 취임식에 초청됐다.윤 당선인이 스타트업 인사들을 취임식에 초청한 것은 정부의 플랫폼 규제 혁신 의지를 드러내려는 조치로 보인다. 윤 당선인은 플랫폼 자율성을 보장해야 한다는 주장을 꾸준히 펼쳐왔다. 스타트업 창업과 벤처 투자 생태계에서 민간 역할을 강화하고 기업 관련법을 재정비하겠다고도 공약했다.스타트업 업계에서도 새정부에 규제 완화를 바라는 분위기다. 최성진 코리아스타트업포럼 대표는 지난 3월 대선 직후 "육성된 인재들이 실제로 스타트업을 창업하거나 스타트업에서 일 할 수 있도록 새정부가 역할을 해주기를 바란다"고 요청했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>예비군 훈련 통지서 모바일 송달 서비스 시작</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011262705?sid=100</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>국방부는 예비군 훈련 소집 통지서를 스마트폰으로 보내주는 '모바일 송달 서비스'를 오는 11일 시작한다고 밝혔습니다. 모바일 소집통지서는 예비군 개인의 본인 명의 스마트폰으로 훈련일 약 22일 전부터 송달되는데, 네이버와 카카오페이, 토스 등 5개 플랫폼을 통해 차례대로 발송됩니다. 모바일 소집통지서를 열람하고 싶은 예비군은 '동의 및 본인 인증' 절차를 거쳐야 하며, 이를 열람하지 않은 예비군에게는 기존 방식인 우편 소집통지서가 훈련 7일 전까지 발송된다고 국방부는 설명했습니다. 자세한 이용 방법은 예비군 홈페이지에서 확인할 수 있습니다.[사진 출처 : 연합뉴스]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>尹 취임식에 쿠팡·배민·컬리 등 유통·스타트업 대표 대거 참석</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000359366?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>(왼쪽부터) 김슬아 컬리 대표, 쿠팡 강한승 대표, 우아한형제들 김범준 대표 / 각사 제공윤석열 당선인의 대통령 취임식에 쿠팡·컬리·우아한형제들·직방 등 주요 유통·스타트업 대표들이 대거 참석한다.10일 열리는 윤석열 당선인의 대통령 취임식에는 쿠팡 강한승 대표를 포함해 김슬아 컬리(마켓컬리) 대표, 김범준 우아한형제들(배달의민족) 대표, 안준형 오아시스 마켓 대표 등이 초청받았다.쿠팡의 경우 윤 당선인이 일자리 창출에 기여한 점을 높이 평가해 강 대표를 취임식에 초청한 것으로 전해졌다. 국민연금공단에 따르면, 올해 2월 말 기준 쿠팡의 임직원 수는 6만6633명을 기록했다. 삼성전자, 현대자동차의 뒤를 잇는다.매출도 20조를 돌파해 국내 대기업 반열에 들어선 쿠팡은 코로나19 위기 상황에서 국민들이 안정적인 장보기에 기여한 '로켓배송' 능력도 인정 받았다.인수위는 쿠팡뿐 아니라 주요 새벽배송 플랫폼인 김슬아 '컬리' 대표와 안준형 '오아시스마켓' 대표도 취임식에 초청했다.신선식품 새벽배송 서비스를 대표하는 유니콘 기업(기업가치 1조원 이상인 스타트업)이 초청 배경으로 꼽힌다. 오아시스마켓은 중소벤처기업부 추천을 받은 것으로 전해졌다.이 밖에 주요 스타트업 대표들도 참석한다. 이승건 비바리퍼블리카(토스) 대표, 김범준 우아한형제들(배달의민족) 대표, 안성우 직방 대표, 김세영 피에스엑스(서울거래비상장) 대표, 김정현 셰어하우스우주 대표 등이 취임식에 초청됐다.윤 당선인이 스타트업 인사들을 취임식에 초청한 것은 차기 정부의 플랫폼 규제 혁신 의지를 드러내려는 조치로 보인다.윤 당선인은 플랫폼 자율성을 보장해야 한다는 주장과 함께 스타트업 창업과 벤처 투자 생태계에서 민간 역할을 강화하고 기업 관련법을 재정비하겠다고 공약했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>식상한 먹방은 그만…"10억 투자금 서바이벌" 金튜브의 진화</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004742904?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>"꼭 투자하고 싶네요.""푸시려는 문제가 정말 고객들이 고통스러워 하는 문제인지 공감하기가 어렵네요. 이번에는 같이하기 어려울 것 같습니다."작은 엘리베이터 안. 이승건 비바리퍼블리카 대표와 스타트업 대표가 마주보고 서있다. 초시계가 작동하고 스타트업 대표는 자신의 사업 아이템을 이 대표에게 소개한다. 주어진 시간은 40초. 부저가 울리고 이 대표는 소개한 아이템에 투자하고 싶은지, 아니면 반대인지 선택한다.토스가 공개한 스타트업 서바이벌 프로그램 '파운드'. 이승건 토스 대표(사진 왼쪽)가 서바이벌에 참여한 한 스타트업 대표(오른쪽)의 사업 아이템을 평가하고 있다/사진=토스 유튜브 캡쳐금융사와 유튜브를 결합한 '금(金)튜브'가 진화하고 있다. 각종 투자·금융 정보를 제공하거나 기존 유튜브 콘텐츠인 맛집, 먹방, 브이로그 형식을 따라하는 것을 넘어 최근에는 스트리트 우먼 파이터(스우파), 뭉쳐야찬다 등과 같은 서바이벌 예능프로그램까지 자체적으로 만들어 내고 있다.━'스타트업 서바이벌'…10억 투자금 받을 주인공은?━8일 금융권에 따르면 모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카는 지난 4일 총 투자금 10억원 규모의 스타트업 서바이벌 '파운드'(FOUND) 첫 편을 토스 공식 유튜브 채널에 공개했다.토스가 직접 기획하고 제작한 파운드는 국내외 유망한 예비 창업자와 스타트업 기업을 발굴하는 프로그램이다. 파운드는 '풀어야 할 문제를 발견했다' '회사를 설립했다'는 두 가지 의미를 담고 있다. 총 6회로 구성됐으며, 매주 목요일 오후 7시 토스 공식 유튜브에 공개된다.출연진은 크게 '파트너'와 '파운더'로 나뉜다. 선배 기업인들로 구성된 파트너들이 유망한 사업 아이디어를 가진 파운더를 발굴하는 형식이다.파트너들은 △팀 토스 △팀 유니콘 △팀 벤처캐피탈(VC) 등 3개 팀으로 구성됐다. 각 팀을 이끄는 사람들은 이 대표를 비롯해 박재욱 쏘카 대표, 신현성 차이홀딩스 대표 및 티몬 의장, 이상희 센드버드 한국법인 대표, 김한준 알토스벤처스 대표, 김유진 스파크랩 공동대표 등이다. 지난 4일 공개된 첫편은 나흘만에 약 10만회의 조회수를 기록했다. 토스 관계자는 "예선에만 약 400팀에 가까운 스타트업이 지원할 정도로 관심을 받았다"고 말했다.━"차세대 여자 당구 스타 뽑는다"━웰컴저축은행의 당구 서바이벌 예능 프로그램 '미쓰리쿠션' 티저 영상. 김대웅 웰컴저축은행 대표(웰뱅 피닉스 당구단 구단주)가 예고편에 등장한 모습/사진=웰컴스포츠 유튜브 캡쳐이와 함께 웰컴저축은행은 이달 말 국내 최초 여자 당구 서바이벌 예능 프로그램 '미쓰리쿠션'을 공개한다. 총상금 4000만원을 걸고 차세대 여자 당구 스타를 발굴하는 프로그램이다.정용검 MBC스포츠 플러스 아나운서의 진행 속에 서현민(웰컴저축은행웰뱅피닉스), 조재호(NH농협카드그린포스) 등 국내 최고 프로당구 선수들이 멘토로 나선다.웰컴저축은행은 회사 유튜브 채널인 '웰컴스포츠' 뿐 아니라 케이블TV에서의 방영도 추진 중이다. 웰컴저축은행 관계자는 "미쓰리쿠션은 당구 예능 프로그램으로 기획된 만큼 시청자들이 재미있게 시청할 수 있도록 꾸몄다"며 "프로당구 대중화에도 기여할 수 있을 것으로 기대한다"고 말했다.━심폐소생으로 살아난 '金튜브'━불과 3~4년 전까지만 해도 금융권 유튜브는 회사의 광고 영상을 다시 올리는 수준에 그쳤다. 그러던 금융사들이 유튜브를 위한 별도 코너를 만들고 콘텐츠를 제작하는 데 본격적으로 뛰어든 것은 2~3년 전부터였다. 최근 들어서는 먹방, 브이로그, 금융정보 전달 등 기존의 유튜브 콘텐츠 콘셉트를 따라하는 것을 넘어 서바이벌 예능 콘텐츠를 직접 기획·제작하는 수준까지 올라왔다.특히 금융사 최고경영자(CEO)들이 MZ세대(1980년대 초반~2000년대 초반 출생)로 통칭되는 젊은 고객 층의 중요성을 인식한 점도 유튜브 제작 활성화에 영향을 미쳤다. 젊은 층을 공략하고 소통하는 일을 주요 사업과제 중 하나로 꼽을 정도다.  금융권 관계자는 "동영상 형태의 콘텐츠 소비 문화가 확산되면서 금융사들이 스토리 위주의 영상을 통해 소비자 취향 맞춤형 콘텐츠를 선보이고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.05.15.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>여신 포트폴리오 늘리는 인뱅… 카뱅도 개인사업자 대출 예고</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004836381?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>당국 중저신용대출 확대 주문에가계대출만 있던 구조 다양화토뱅 ‘사장님대출’ 연초 내놔케뱅 이달 출시 목표로 준비중  카카오뱅크가 개인사업자 대출을 두고 고민 중인 것으로 전해졌다. 인터넷은행 개인사업자 대출 후발주자인 만큼 카카오뱅크만의 색을 녹여 상품을 출시할 계획인데, 출시 시기를 맞추기 위해 조율 중인 것이다.   카카오뱅크까지 상품 윤곽을 잡으면 3대 인터넷은행의 개인사업자 대출 출시가 연내 마무리된다. 이들 3사는 각자 특색을 담아 개인사업자 대출 상품을 발빠르게 출시하려는 분위기다.   15일 금융권에 따르면 카카오뱅크는 인터넷은행 중 마지막으로 개인사업자 대출 상품 개발에 골몰하고 있다.   앞서 지난 3일 열린 1·4분기 실적 발표 컨퍼런스콜에서 윤호영 카카오뱅크 대표는 "올해 4·4분기부터는 개인사업자 수신 및 대출 상품을 통해 기업 시장에 진출할 준비를 하고 있다"고 밝혔다.   기존 가계대출만 있던 구조에서 벗어나 개인사업자 대출 상품을 출시해 여신 포트폴리오를 다양화하겠다는 것이다.   특히 대출뿐 아니라 사업자 전용 통장과 카드 등 맞춤형 상품을 함께 출시해 차별화하겠다는 전략이다. 카카오뱅크 대표 상품인 모임통장과 비슷한 체제를 사업자 대출에도 적용해 여·수신을 함께 추진하고자 함이다.   카카오뱅크 관계자는 "구체적으로 정해진 건 없다"면서도 "개인자금과 사업자금을 구분해서 관리하기 어려운 소상공인에게 직관적인 관리와 운영이 가능하도록 준비 중"이라고 설명했다.   이어 "이전에 없던 상품을 만드는 작업이라 뒷단이 까다롭다"면서 "하반기 안에 완결성 있고 차별화된 상품을 마련하기 위해 노력하고 있다"고 전했다.   카카오뱅크가 목표했던 데드라인을 맞춘다면 3대 인터넷은행이 한 해 안에 개인사업자대출 상품을 모두 출시한 셈이 된다.   토스뱅크는 지난 2월 '사장님 대출'을 내놨고 케이뱅크도 이번 달 출시를 앞두고 막바지 단계에 한창이라고 밝혔다. 토스뱅크는 자체 신용평가모형 'TSS'에 따라 한도를 부여하는 반면 케이뱅크는 보증상품으로 개인 사업자대출을 운영할 예정이라는 점이 차이점이다. 케이뱅크는 지난 3월 신용보증재단중앙회와 업무협약(MOU)을 맺은 바 있다.   이처럼 인터넷은행이 개인사업자 대출 출시를 서두르는 이유는 고객 니즈와 인터넷은행의 필요가 잘 맞아떨어지기 때문이다. 기업대출 수요는 나날이 증가하는 추세인 데다가, 인터넷은행은 중저신용자 대출 비율을 확대하라는 과제를 부여받았다.   지난 11일 발표된 한국은행 '2022년 4월중 금융시장 동향'에 따르면 지난달 가계대출 잔액이 1조2000억원 느는 동안 기업대출 잔액은 12조1000억원 급증했다. 개인사업자 대출만 2조6000억원이 증가해 꾸준히 증가세를 보이고 있다.   또 인터넷은행 중 처음으로 개인사업자 대출을 출시한 토스뱅크는 이를 계기로 중저신용자 대출 비율을 크게 확대하기도 했다. 지난 3월 기준 토스뱅크 '사장님대출'은 출시 한 달 만에 1167억원을 기록했고, 이 중 중저신용 개인사업자 비중이 39.7%에 이르는 것으로 집계됐다. 인터넷은행 3사의 올해 말 중저신용자 대출 비율 목표치는 카카오뱅크와 케이뱅크가 25%, 토스뱅크가 43%이다.   seung@fnnews.com 이승연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.05.11.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>관광약자 위한 청와대 관람 셔틀버스 무료운행</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003427676?sid=102</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>22일까지 장애인-고령자 등 대상서울관광재단은 22일까지 거동이 불편한 시민들을 위해 청와대 관람 무장애 셔틀버스를 무료로 운행한다고 10일 밝혔다. 셔틀버스는 관광약자를 위해 운행되던 ‘서울다누림미니밴’과 ‘서울다누림버스’를 활용한 것이다. 휠체어 리프트 장비가 있고 유아차 사용자도 탑승할 수 있다. 이용 대상은 장애인, 만 65세 이상 고령자, 임신부, 만 8세 이하 아동과 동반자다. 2개 노선인데, 경복궁역∼청와대 순환노선은 주말을 포함해 매일 오전 10시부터 오후 7시 반까지 운행된다. 시청역(서울광장)∼청와대 순환노선도 매일 오전 10시부터 오후 7시까지 운행된다. 타는 곳은 △3호선 경복궁역 4번 출구 앞 △1·2호선 시청역 5번 출구 △청와대사랑채 연무관 앞이다. 별도 예약 없이 현장에서 탈 수 있지만 청와대 관람권을 제시해야 한다. 청와대 관람권은 네이버, 카카오, 토스 등에서 별도로 예약해야 한다. 휠체어 및 유아차 사용자가 우선 탑승하며, 휠체어 고정 시간을 감안해 출발 시간 20분 전부터 탈 수 있다. 자세한 내용은 서울다누림관광센터(1670-0880)에 전화 문의하면 된다. 이경재 서울관광재단 시민관광팀장은 “청와대 관람 순환 차량 운행을 계기로 더 많은 시민이 다누림차량을 이용할 것으로 예상된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.05.09.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>“중·저신용자 잡아라”… 인터넷은행, ‘개인사업자’ 대출 경쟁</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000812105?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>토스뱅크·케이뱅크·카카오뱅크 등 인터넷전문은행이 개인사업자를 붙잡기 위한 경쟁에 돌입했다. 무보증·무담보 등을 내세운 상품을 앞세운 이들은, ‘신 파일러(금융이력 부족자·Thin Filer)’ 고객을 주 타깃으로 삼았다.9일 금융권에 따르면 인터넷은행 중 가장 먼저 개인사업자 전용 신용대출 상품을 선보인 곳은 토스뱅크다. 이 상품의 이름은 ‘사장님 대출’이다. 보증기관의 보증서, 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도를 부여하는 점이 특징이다. 출시 한 달 만에 대출잔액이 2000억원을 넘어서는 등 인기를 끌었다.토스뱅크 제공        케이뱅크와 카카오뱅크 역시 올해 안에 개인사업자 대출 상품을 내놓을 예정이다. 케이뱅크는 신용보증재단중앙회와 협약을 맺고 다음 달쯤 개인사업자 대출을 출시할 계획이다. 양사는 100% 비대면으로 개인사업자에 대한 평가와 대출 신청, 입금까지 할 수 있도록 통합 전자보증시스템과 비대면 보증 시스템 구축·운영 개발을 진행하고 있다.카카오뱅크 역시 최근 있었던 1분기 실적발표 콘퍼런스콜을 통해 오는 4분기 개인사업자 대출 서비스 진출을 발표했다. 카카오뱅크는 현재 개인자금, 사업자금의 구분이 어려운 소상공인을 대상으로, 직관적인 관리가 가능한 사용자인터페이스(UI)를 준비 중이다. 인터넷은행의 강점을 살려 100% 비대면으로 서비스의 완결성을 높인다는 계획이다.금융권에선 그동안 개인사업자 대출 상품이 매출 파악이 어렵고 부실률이 높다는 점 등을 들어, 인터넷은행이 취급하지 쉽지 않을 것으로 봤다. 그러나 토스뱅크가 올 2월 출시한 개인사업자 대출 상품이 인기를 끌면서 다른 인터넷은행들도 잇달아 상품 출시에 뛰어드는 분위기다.인터넷은행들이 특히 중·저신용자를 겨냥한 대출을 늘리는 배경엔 금융당국의 지시가 있다. 당국은 지난해 5월 인터넷은행이 당초 설립 취지와 달리 고신용층 위주의 보수적인 대출 영업을 한다고 지적하며 중·저신용자 대출 비중 확대를 주문했다. 당초 각 은행의 중·저신용자 대상 신용대출 잔액 비중 목표는 ▲케이뱅크 21.5% ▲카카오뱅크 20.8% ▲토스뱅크 34.9% 등이었다.이들 인터넷은행 모두 지난해 해당 목표를 달성하지 못했다. 이에 따라 올해는 이를 충족하기 위한 방법의 하나로 개인사업자 대출을 택한 것이다. 지난해 말 중·저신용자 대상 신용대출 잔액 비중이 23.9%였던 토스뱅크는 최근 ‘사장님 대출’ 등을 출시하며 이 비중을 33%대까지 끌어올렸다. 카카오뱅크와 케이뱅크는 지난해 말까지 각각 17.0%, 16.6%를 기록했지만, 올해는 20%대로 올라섰다.카카오뱅크(위)·케이뱅크 제공        신파일러 리스크를 판단할 수 있는 신용평가시스템(CSS) 고도화도 한몫 했다는 게 업계의 평이다. 상대적으로 업력이 짧아 시중은행 등에 비해 데이터가 부족했던 약점을 극복할 해결책을 찾은 것이다.토스뱅크가 내놓은 ‘사장님 대출’ 역시 자체 개발한 신용평가모형(TSS)을 통해 소상공인에 특화된 심사기준을 반영했다.금융권 관계자는 “코로나19 팬데믹(세계적 대유행)이 장기화하면서 개인사업자들의 대출 수요가 증가했다”면서 “중·저신용 금융 소비자라면 다른 곳에 앞서 인터넷전문은행 대출을 먼저 알아보는 것이 신용도 관리 측면에서 유리할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.05.11.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>은행권, 65세 이상 고령층 ATM 수수료 면제 '동맹' 확산</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006084028?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>영업시간 한해서만 면제…"소극적 태도" 지적도서울 시내의 시중은행 ATM기기의 모습. 2021.11.29/뉴스1 © News1 이재명 기자(서울=뉴스1) 민선희 기자 = 주요은행들이 상반기 중 65세 이상 고령층에 대해 영업시간 내 자동화기기(ATM) 수수료를 면제한다. 금융거래 디지털 전환에 따른 고령층의 불편을 해소하겠다는 취지다. 다만 은행들은 영업시간 외 거래까지 수수료를 면제하는 방안은 고려하지 않고 있다. 인터넷전문은행들이 'ATM 수수료 전면 무료'를 내세운 상황에서 기존 은행들이 "고령층 금융소외 해결에 소극적인 것 아니냐"는 지적도 나온다. 11일 금융권에 따르면 KB국민은행은 지난 10일부터 만 65세이상 고령층 고객이 영업시간 내 ATM을 이용할 때 수수료를 면제했다. 지난 1월 국민은행 ATM에 대해서만 수수료를 면제했는데, 이날부터 다른은행 ATM까지 범위를 확대했다. 앞서 국민, 신한, 하나, 우리, NH농협, IBK기업 등 6개 은행은 지난 1월부터 고령층 고객에 대해 은행 영업시간 내 자행 ATM 이용 수수료를 면제했다. 또한 상반기 중으로 타행 ATM 이용 수수료도 없애겠다고 밝힌 바 있다. 신한은행은 지난 1월5일 고령층 고객이 영업시간 내 신한은행 ATM을 이용해 타행으로 이체할 경우 발생하던 수수료를 면제했으며, 1월24일부터는 타행 ATM을 통해 출금, 이체할때도 수수료를 없앴다.농협은행은 지난달 26일부터, 우리은행은 지난 3일부터 고령층 고객이 영업시간 내 자행 뿐 아니라 타행 ATM을 이용할 때도 수수료를 면제했다. 하나은행과 기업은행도 상반기 중 고령층의 영업시간 내 타행 ATM 이용 수수료를 없앤다는 계획이다. 은행들은 영업시간 외 거래에 대해서는 ATM 수수료 면제를 검토하고 있지 않다는 입장이다. 은행연합회 관계자도 "(영업시간 외까지는) 아직 논의된 바 없다"고 밝혔다. 일각에서는 은행권이 소극적이라는 지적도 나온다. 65세 이상 고령층이 비대면 거래에 미숙하다는 이유만으로 차별을 받고 있었던 셈인데 은행들이 이제서야 영업시간에 한해서만 수수료를 면제해주고 있다는 것이다.실제로 은행들은 비대면 거래를 할 경우 우대금리·수수료 등 금전적 혜택을 제공해왔다. 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷전문은행들은 ATM 수수료를 일괄적으로 면제하고 있기도 하다. 시중은행 관계자는 "고령층의 ATM을 통한 금융거래는 대부분 영업시간 내에 이뤄지고 있어 영업시간 외까지는 검토하지 않고 있는 것으로 안다"며 "통장 하나를 만들어두고 출금 이체하는 고령층 고객들에게는 (ATM 수수료 면제가) 도움이 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.05.15.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>'보복 음주'에 울고 싶은 간..숙취해소 어떻게?[약통팔달]</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005216597?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>회식 늘어 약국서 숙취해소제 판매량 급증간 세포 내 효소 활성화시키는 간장약 인기‘헤파토스시럽’·‘헤파멜즈 로라액’ 등숙취 두통 심해도 ‘타이레놀’은 피해야[이데일리 나은경 기자] 코로나19가 엔데믹(감염병의 풍토병화)으로 접어들면서 2년간 중단됐던 회식이 되살아나고 있습니다. 지난달 18일부터 사적모임 인원제한과 식당 등 다중이용시설의 영업시간 제한이 해제되면서 약국의 숙취해소제 판매량도 급증했습니다. 오랜만의 과음으로 인한 숙취 증상을 조금이나마 완화해줄 수 있는 것들은 무엇이 있을까요?왼쪽부터 한화제약의 ‘헤파멜즈 로라액’과 조아제약의 ‘헤파토스시럽’ (사진=각 사)숙취는 인체에 흡수된 알코올이 알코올 분해요소에 의해 아세트알데히드와 아세테이트를 거쳐 최종적으로 물과 이산화탄소로 분해돼 배출되는 과정에서 생깁니다. 숙취해소제는 보통 간 세포를 보호하고 간 세포 내 효소를 활성화시켜 알코올 분해를 돕습니다.약국에서 숙취해소제로 인기가 높은 간장약 중에는 일반의약품인 ‘헤파토스시럽’이 있습니다. 헤파토스시럽의 주성분인 아르기닌(Arginine)은 아세트알데히드의 분해를 돕고, 베타인(Betaine)은 알코올성 지방간을 방지해주고 숙취를 제거해주는 효과가 있습니다. 구연산은 아미노산, 탄수화물, 지질 대사, 알코올 대사에 관여하며 체내 주요 에너지원인 ATP를 생산하는 TCA 회로의 주요 인자로 에너지 합성을 유도해 피로회복을 촉진합니다.간 대사에 비중있게 관여하는 L-아스파르트산-L-오르니틴수화물과 같은 아미노산이 들어있는 영양제 ‘헤파멜즈 로라액’도 숙취 증상완화에 도움이 될 수 있습니다. L-아스파르트산-L-오르니틴은 몸속에서 오르니틴과 아스파르트산으로 분해됩니다. 오르니틴은 간의 요소회로(urea cycle) 대사를 높여 암모니아를 요소로 해독시키는 데 관여합니다. 아스파르트산은 요소회로에 작용할 뿐만 아니라 핵산 합성에 관여해 간세포 생성을 촉진하고 간세포의 TCA (tricarboxylic acid) 회로 대사를 증가시켜 에너지 생성을 촉진하는 등 간기능 개선을 돕습니다.하지만 ‘간장약 먹으면 괜찮다’는 태도는 지양해야합니다. 간장약은 치료제가 아니라 증상완화제이기 때문에 간 실질세포의 해독능력을 근본적으로 개선하는 것은 아닙니다. 간이 피로해졌을 때 일시적으로 복용한다는 개념으로 접근하는 것이 좋습니다.다양한 숙취 증상 중 두통을 꼽는 이들도 많은데요, 음주 후 두통이 심해도 타이레놀은 피해야합니다. 음주로 힘들어진 간이 타이레놀의 아세트아미노펜 성분을 정상적으로 분해하지 못해 간 독성이 생길 수 있기 때문입니다. 숙취 후 두통은 숙취가 해소되면 사라지기 때문에 따로 진통제를 복용할 필요는 없습니다. 두통이 심하다면 숙취를 해소시킬 수 있는 트리메부틴 성분의 위장운동 조절제나 간 대사 촉진을 위한 아미노산 제제를 복용하는 것이 좋습니다. 정 진통제를 복용해야겠다면 간 독성이 없는 덱시부프로펜 계열 진통제를 복용하는 것이 낫지만 이 역시 자주 복용하지 않도록 주의해야 합니다. 매일 3잔 이상 정기적으로 술을 마시는 사람이 덱시부프로펜을 포함한 해열진통제를 복용하면 위장출혈이 유발될 수 있는 것으로 알려져있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.05.11.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>후불결제 유행인데…네이버-쿠팡 한도 왜 다른가</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011176536?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>기사내용 요약네이버 한도 30만원…쿠팡은 최대 130만원네이버는 신용카드업…쿠팡은 '외상 거래'쿠팡 후불결제, '현금깡' 악용사례 문제돼 *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 핀테크업계가 후불결제 서비스를 앞다퉈 도입하는 가운데 네이버와 쿠팡의 최대 한도가 큰 차이를 보이는 것이 논란이 되고 있다. 네이버페이의 최대한도가 30만원인데 반해 쿠팡의 최대한도는 130만원이기 때문이다. 일각에선 쿠팡의 후불 결제 서비스가 '현금깡'으로 악용되고 있다는 주장도 나온다.  11일 금융권에 따르면 현재 국내 후불결제 시장은 네이버파이낸셜, 쿠팡, 카카오페이, 토스 등 핀테크 기업이 선도하고 있다. 네이버파이낸셜과 토스는 한 달 30만원까지 한도를 부여하고 있다. 카카오페이는 올 1월부터 월 15만원 한도로 '후불형 모바일 교통카드' 서비스를 시행했다. 향후 쇼핑 등 일반결제에 대한 후불결제 서비스로도 사업을 확대해 나갈 것으로 보인다.네이버·카카오 등이 시행 중인 후불결제 서비스인 BNPL(Buy Now Pay Later)은 말 그대로 '선결제-후지불' 서비스다. 가맹점은 BNPL사로부터 판매대금을 선지급받고, 고객은 해당 금액을 무이자로 일정 간격 나눠서 납부할 수 있다. 신용카드의 가장 초기 모델이라고 보기도 한다. 고객은 자신의 신용등급과 관계없이 해당서비스 이용이 가능하며, 분할납부 거래수수료가 없다는 점이 신용카드 거래와 가장 큰 차이점으로 꼽힌다. 그만큼 이 결제 방식은 신용카드 결제처럼 밴사(부가통신사업자), 신용정보회사 등의 과정을 거치지 않는다.국내에선 본래 선불전자지급수단 발행 및 관리업자는 후불결제 업무를 할 수 없어, 혁신금융서비스를 통해 서비스 도입이 가능했다. 현재 국회에 계류 중인 전자금융거래법 개정안이 통과될 경우 서비스가 전면 허용될 예정이지만 아직 시기를 가늠할 수 없다.다만 해외와 달리 월 최대 '30만원 한도', '할부 기능 불가'로 조건부 허용했다. 이와 달리 쿠팡의 후불결제 서비스는 BNPL이 아닌 '외상결제' 형태다. 그만큼 BNPL 관련 규제를 받지 않는다. 쿠팡의 후불결제인 '나중결제'는 신용카드 서비스와 비슷해 보이지만 쿠팡이 '직매입'한 상품만 나중결제가 가능하다는 점에서 다르다. 쿠팡이 직매입한 상품을 구입할 때만 나중결제를 쓸 수 있기 때문에, 상품대금을 받아야 하는 주체가 모두 쿠팡이다. 따라서 쿠팡이 고객에게 돈을 받아야 하는 기간을 늦춰주는 외상 개념이 된다.반면 BNPL사인 네이버는 '직매입'을 하지 않고 거래의 '중개자'이자 오픈마켓 운영자로서만 역할한다. 그만큼 고객의 카드 사용처를 확대하기 위해 외부 상점(가맹점)과 제휴를 맺고 있다.다만 후불결제 서비스가 과소비와 연체를 부추긴다는 지적이 나왔다. 출시 1년째를 맞는 네이버페이의 BNPL 서비스의 연체율이 신용카드 연체율의 두 배가 넘는 것으로 나타났다. 윤창현 국민의힘 의원실이 금융감독원에서 받은 자료에 따르면, 네이버페이 후불결제 고객의 지난 3월 연체율(1개월 이상)은 1.26%로 집계됐다. 지난해 말 신용카드 연체율 0.54%의 두 배가 넘는다.한 포털의 중고거래 카페에는 쿠팡 나중결제 한도를 75~85% 수준에 파는 게시글이 다수 올라와 '현금깡'으로 악용됐지만 현행법상 규제할 방법이 없다. 이에 대해 쿠팡 관계자는 "공식적인 입장이 없다"고 말했다. 쿠팡 측은 현재 나중결제의 연체율을 공개하지 않고 있지만 1년 넘게 정식 서비스를 하지 못하는 배경에는 이런 악용이 있다는 평가도 나온다. 쿠팡은 나중결제 서비스를 2020년 8월 출시한 바 있다.  금융감독원 관계자는 "네이버, 카카오는 혁신서비스로 지정을 받아 건전성 관리 등을 하게끔 하고 있다. 쿠팡은 그들이 알아서 하고 있다. 일반 상거래 외상 판매를 저희가 감독하지 않는다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.05.10.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>페이워치, 말레이시아 서비스 시작으로 글로벌 진출 가속화</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004961752?sid=105</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>국내 핀테크 기업들이 동남아시아・홍콩 등 해외 금융 시장 진출에 발걸음을 내디뎠다. 특히 금융업이 상대적으로 발달하지 않고 국민 연령대가 낮은 동남아시아 시장은 핀테크 기업들의 글로벌 진출에 밑거름이 되고 있다. 현재 토스, 배달의민족과 같은 유니콘 기업이 베트남으로 진출하여 해외 시장 공략에 나서고 있는 가운데 핀테크 스타트업도 본격적인 글로벌 진출에 나선다.국내 대표적인 핀테크 스타트업 ‘페이워치(Paywatch)’는 5월 9일 말레이시아 5대 은행인 ‘홍릉 뱅크(HongLeong Bank)’와 파트너 계약을 체결하고 첫 해외 서비스를 론칭한다고 밝혔다주요 고객은 말레이시아 최대 마트인 로투스(Lotus's) 기업을 비롯, 말레이시아 최대 영화관 프렌차이즈 ‘GSC Movies’, 최대 쇼핑몰 그룹인 ‘MUI 그룹’으로, 해외의 MZ 세대들에게 페이워치만의 차별화된 서비스를 제공하며 시장내 입지를 다질 계획이다. 말레이시아에 이어 오는 8월에는 홍콩에서도 서비스를 론칭한다. 홍콩 ‘핑안 그룹(Ping An Group)’의 ‘핑안 온라인 커넥트 뱅크’와 파트너십을 체결하고 홍콩 대형 기업의 근로자를 대상으로 서비스를 도입한다. 서비스 도입 예정 기업 중에는 식료품 시장의 35%를 점유하고 22만 명의 근로자를 보유한 ‘데일리 팜(Daily Farm)’도 포함된다. 이후 내년 상반기에는 필리핀 진출이 예정되어 있어 아시아 4개국에서 페이워치의 서비스를 만날 수 있게 된다. 페이워치는 이번 글로벌 진출을 통해 페이워치의 급여선지급 서비스를 제공함으로써 재정적 능력이 낮은 사람들, 그리고 멀리 떨어져 있거나 장애가 있어 전통적인 금융 수단을 이용할 수 없는 사람들을 아우르는 포용 금융을 선보일 예정이다.페이워치의 해외 진출에는 싱가포르와 인도네시아에 먼저 진출한 해외송금 전문 핀테크 업체 센트비도 함께한다. 센트비와 페이워치 사용자들간 각각의 플랫폼 교차이용 시너지를 창출할 예정이다. 페이워치 관계자는 “이번 해외 진출을 통해 한국 핀테크 기업의 차별화된 서비스가 해외에서도 충분히 성공할 수 있음을 증명하는 계기가 될 것”이라며, “해외 진출이 유니콘 기업만의 전유물이 아니라 초기 스타트업도 차별화된 서비스와 전략적 제휴로 해외 진출이 가능하다는 좋은 선례가 되길 바란다”고 전했다. 페이워치는 지난 2020년 한국 기업 최초로 '유엔자본개발기금 2020 긱 이코노미 챌린지 TOP 3'에 선정되며 사업성을 인정받았으며, '2020 홍릉은행 런치패드' TOP 2 선정, 2019년 금융위원회 혁신금융서비스와 2020년 SK그룹에서 운영하는 ‘사회적 가치연구원의 사회성과 인센티브 프로그램’에도 선정된 바 있다. 지난해 7월 한국 내 정식 서비스 론칭 이후 대형 기업들과 함께 소속 근로자 15,000명을 대상으로 서비스를 제공하고 있으며, 2022년 말까지 100개 이상의 전문 기업들과 파트너십을 맺고 해외 진출을 통한 글로벌화를 목표로 사업을 확장하고 있다. 매일경제 조광현 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.05.06.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>토스뱅크, 노란우산공제 가입 소상공인에 0.5%p 우대금리</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005208559?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>중소기업중앙회와 맞손'사장님 대출' 우대...최대 1억원[이데일리 서대웅 기자] 토스뱅크는 노란우산공제에 가입한 개인사업자에게 최대 0.5%포인트 우대금리를 제공한다고 6일 밝혔다. 한도는 기존 ‘사장님 대출’과 같이 최대 1억원이다.(사진=토스뱅크)사장님 대출은 휴·폐업 상태가 아닌 사업자 등록번호가 있는 개인사업자 중 1년 이상 또는 최근 6개월 이상 매출이 발생한 고객이면 신청할 수 있다. 대출 기간은 최소 1년부터 최대 5년(만기 시 연장 가능)이다. 중도상환수수료 없이 갚을 수도 있다.중소기업중앙회는 중소기업, 자영업자의 자주적 경제활동을 지원하고 있다. 노란우산공제를 통해 사회안전망 공제 제도를 운영하고 있다.토스뱅크 관계자는 “이번 중기중앙회와의 협업으로 보다 많은 개인사업자 고객이 번거롭게 은행을 방문하지 않고도 모바일을 통해 금융 혜택을 받을 수 있길 바란다”며 “앞으로도 중기중앙회가 운영하는 노란우산공제 가입 홍보 등 업무제휴를 통해 차별화된 서비스와 혜택을 제공하면서 서민금융 활성화를 위해 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.05.12.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>"중고거래 안전하게" 번개페이 누적 거래액, 1조 육박한 이유</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004745068?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>취향 기반 중고거래 앱 번개장터가 도입한 안전결제 서비스 '번개페이'의 누적 거래액이 출시 4년 만에 약 9000억원을 돌파했다. 12일 번개장터에 따르면 번개페이의 연간 거래액은 2018년 4월 서비스 출시 이후 매년 2배 이상 증가했다. 지난해 거래액 3000억원을 기록했으며 올해 1분기 거래액은 전년동기 대비 72% 증가한 930억원을 기록했다. 번개페이는 구매자가 결제한 금액을 번개장터가 보관하고 있다가 구매자가 구매 확정을 하면 판매자에게 금액이 정산되는 방식이다. 개인 간 거래 시 발생가능한 다양한 분쟁을 예방하는 효과가 있다.신용카드와 체크카드 외에도 카카오페이, 토스 등 간편결제를 도입해 결제 수단을 다양화한 결과, 지난해 번개장터 전체 구매자 10명 중 5명은 번개페이를 사용해 본 경험이 있는 것으로 나타났고 재사용률은 60%에 달했다. 상품 금액이 커질수록 번개페이 사용이 증가했다. 전체 거래 금액대 중 1만원 미만의 상품 거래 시 번개페이 비중은 10%를 밑도는 반면, 100만원에서 300만원대 상품 거래 시 번개페이 비중은 76%에 달했다. 번개페이 거래량이 가장 많은 카테고리는 디지털·가전 카테고리로 △의류 △스포츠·레저 △신발 순으로 높은 거래량을 기록했다. 중고거래 시장 성장에 따른 고가 브랜드 상품 거래가 증가하면서 안전결제 사용량도 늘고 있는 것으로 분석된다. 공유현 번개장터 플랫폼 사업 본부장은 "중고시장이 성장함에 따라 신뢰도 높은 거래 환경을 조성하는 것이 더욱 중요해질 것"이라며 "번개페이 서비스의 지속적인 고도화를 통해 안전한 거래 환경을 조성하고 업계 혁신을 위해 힘쓰겠다"고 말했다.[머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.05.02.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>서울시 상수도요금, 스마트폰으로 고지서 받고 1000원 절약한다</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001985349?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=최정호 기자]서울시가 카카오페이로 수도요금을 확인하고 바로 납부할 수 있는 서비스를 2일부터 시작한다. 신한플레이, 페이코와 문자메시지를 통해 수도요금 청구서를 받아볼 수 있는 ‘모바일 전자고지’ 서비스를 선보인 데 이어 종이없는 모바일 고지서를 확대 적용한 것이다. 또 6월에는 토스 등과도 모바일 서비스를 확대 적용할 예정이다.서울시에 따르면 지난해 모바일 전자고지서 시행 이후 1년 만인 4월 전자고지 건수는 이전 6만5000건에서 9만건으로 크게 늘었다. 앱, 문자, 이메일 등 전자고지로 수도요금 청구서를 받으면 상수도요금의 1%, 최대 1000원을 감면받을 수 있다.전자고지서는 종이청구서 절감에 따른 환경보호, 청구서 오배송과 분실로 인한 개인정보 노출 위험 감소, 휴대전화로 빠르고 편리하게 요금을 확인하고 납부할 수 있는 점 등이 있다.모바일 앱을 통해 수도요금 청구서를 신청하기 위해서는 모바일 간편결제사 앱에 회원가입 및 로그인 후 전자문서함에서 ‘서울시 상수도’를 선택하면 된다. 또 문자나 이메일로 청구서를 받고 싶다면 카카오톡에서 ‘서울시 상수도사업본부’ 채널 추가한 후 ‘챗봇 아리수톡 바로가기’에 전자고지를 검색해 신청하면 된다.김권기 서울시 상수도사업본부 부본부장은 “전자고지의 확대를 통해 종이고지서의 제작, 송달, 처리 과정에서 발생할 수 있는 탄소배출량을 줄일 수 있을 것으로 기대한다”며 “간편하고 친환경적인 전자고지 서비스를 보다 많은 시민들이 신청해주시길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>[Q&amp;A] 근로·자녀 장려금, 저도 신청할 수 있나요?</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/661/0000006292?sid=103</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>이달 말까지 2021년 근로·자녀장려금 정기 신청이 이루어집니다. 지난 2009년부터 시행된 근로·자녀장려금은 저소득 근로자 가구에 현금을 지원해주는 제도로, 지난해 제주지역에서는 근로자 5만여가구가 장려금을 지급받았습니다.국세청은 지난 2일부터 지난해 근로소득이 있는 국내 325만 가구에 신청안내문을 발송했고, 이 중 제주지역은 4만9천여가구에 발송됐습니다.그러나 안내문을 받은 가구라도, 신청 후 심사 결과 장려금이 주어지지 않을 수도 있고, 안내문을 받지 않아도 수령 요건 부합 시 장려금을 신청할 수 있습니다. 이에 현재 접수가 이루어지고 있는 근로·자녀장려금 신청과 관련한 주요 내용을 질의응답 형식으로 정리했습니다.Q1) 저는 작년 9월에 반기 근로장려금을 신청했어요. 이번 5월에도 신청 해야 하나요?A1) 아니요. 작년 9월 또는 올해 3월에 반기 신청을 한 가구는 이번 5월 신청대상이 아닙니다. 반기 신청자의 경우 연간 근로장려금 산정액에서 작년 12월에 지급된 상반기분 지급액을 차감한 나머지 금액과 자녀장려금이 올해 6월 말 함께 지급됩니다.Q2) 근로·자녀 장려금, 어떻게 신청하는 건가요?A2) 모바일안내문을 전송받은 분은 1. 열람하기 버튼 누르기 2. 본인인증 3. 신청하기를 누르면 됩니다.국민비서를 통해 안내 받으신 분은 카카오톡·네이버앱·토스로 발송된 알림 문자 메시지 아래쪽에 있는 '신청하기'를 누르면 됩니다.우편안내문을 받으신 분은 스마트폰 카메라를 킨 후 안내문에 있는 QR코드를 비추면 생성되는 메시지를 눌러 신청하면 됩니다.모바일을 통한 신청이 어려우신 분은 1544-9944로 전화해 안내멘트에 따라 주민등록번호 등을 입력해 신청할 수 있습니다.Q3) 신청안내문을 받지 못했는데요. 제가 신청 대상자인지 어디서 확인할 수 있을까요?A3) 신청안내 대상 조회는 '홈택스' 홈페이지 또는 어플을 통하거나, 장려금 상담센터(1566-3636)에 전화해 확인할 수 있습니다. Q4) 저는 신청안내문을 받진 못했지만 요건에는 충족해요. 어떻게 신청해야 될까요?A4) 먼저, 위 방법을 통해 안내대상인지를 조회하고, 안내대상인 경우 홈택스 홈페이지 또는 홈택스 앱을 통해 '간편신청하기'로 신청할 수 있습니다.그러나 안내대상이 아닌 경우에는 홈페이지 또는 앱에 접속해 일반신청하기를 누르시면 됩니다. Q5) 저는 온라인을 통한 방법이 어려워요. 다른 방법 없을까요?A5) 안내문을 받은 경우에는 장려금 상담센터(1566-3636) 또는 세무서로 전화해 요청하면 신청을 도와줍니다. 만약 안내문을 받지 못한 경우에는 세무서에 방문해 직접 신청 접수를 진행하시면 됩니다. Q6) 저도 신청요건을 충족하는데 왜 신청안내문이 아빠한테만 오고 저한텐 안오죠?A6) 근로장려금은 1가구에 1명에게만 지급됩니다. Q7) 올해 폐업했어요. 신청할 수 있을까요?A7) 근로·자녀장려금의 신청요건은 작년 기준으로, 지난해에 소득.재산요건이 충족되면 신청할 수 있습니다.Q8) 장려금 지급액 산정법은 어떻게 되나요?A8)  지급액은 가구 총급여액과 가구수에 따라 산정됩니. 근로장려금의 경우 단독 가구는 최대 150만 원이, 홑벌이 가구는 최대 260만 원, 맞벌이 가구는 최대 300만 원이 지급됩니다. 자녀장려금의 경우 18세 미만 자녀 1인당 최대 70만 원이 지급됩니다. Q9) 신청 시 반드시 종합소득세 확정신고를 해야하나요?A9) 종합소득세 확정신고 의무가 있는 신청자는 신고 기간 내 신고하지 않으면 장려금을 지급받을 수 없습니다. 다만, 일용근로자, 근로소득 등 원천징수 되는 소득만 있거나, 단순경비율 적용대상 사업자로 종합소득금액이 기본공제액인 150만 원 이하일 경우, 2명 이상으로부터 받은 상용근로자로서 종합소득금액이 기본공제액 이하일 경우에는 확정신고를 한 것으로 간주합니다. Q10) 만약 허위로 신청하면 어떻게 되나요?A10) 고의로 사실과 다르게 신청한 경우, 그 사실이 확인되는 날의 해부터 2년간 근로장려금 지급이 제한되고, 그 외 사기나 부정한 행위로 다르게 신청할 경우 5년간 장려금을 지급받을 수 없습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.05.04.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>토스 '주식 선물하기' 10만건↑…최고 인기종목 '삼성전자'</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001029610?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>토스증권이 '주식 선물하기' 서비스의 누적 이용건수가 10만건을 돌파했다고 밝혔다.주식 선물하기는 토스 앱에서 보유 중인 주식을 남에게 선물할 수 있는 서비스로, 지난 해 7월 첫 선을 보인 바 있다.토스증권 투자자들이 가장 많이 선물한 상위 3개 종목은 삼성전자, 대한전선, 대한해운이었던 것으로 집계됐다.회사 측은 주식 선물하기 서비스를 예약주문 기능, 해외주식 주문 등도 가능하도록 확장해나간다는 방침이다.지난 달에는 선물할 주식을 구매 후 바로 선물할 수 있는 '즉시 선물하기' 기능을 추가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.05.05.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>[달라진 저축은행]①과거는 잊어라</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000007772?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>작년 순익 2조 육박…'부실' 이미지와 작별SBI-중금리, OK-이미지, 웰컴-디지털…BIG3 선봉'저축은행'이라는 명칭은 몇년전만 해도 불신의 대상이었다. 고금리에 신용등급 하락까지 '최후의 수단'이 아니면 찾아서는 안된다는 뿌리깊은 인식이 박혀있었다. 하지만 최근 몇년새 분위기가 달라지기 시작했다. 재테크를 하기에는 적당한 금융기관이라는 인식이 생기기 시작했고 자금도 중·저신용자들에게 알맞은 금리로 제공하기 시작했다. 저축은행 이미지 쇄신이 가능했던 이유와 이를 이끌어온 대형 저축은행들은 어떠한 노력을 해왔는지 짚어본다.[편집자]저축은행이 달라졌다. 지난해 기준 79개 저축은행들의 자산은 100조원을 돌파했고 1년간 벌어들인 순익만 해도 2조원에 육박한다. 돈만 잘버는 것이 아니다. 찾는 고객들도 늘어났다. 저축은행 사태 이후 거래 고객수가 꾸준히 감소해 500만명을 하회하기도 했지만 이제는 이를 넘어 700만명을 넘어섰다. 머지 않은 시일 내에 거래고객수 1000만명을 달성할 수 있을 것으로 보인다. 과거 부실 저축은행 사태이후 오랜 기간 찍혀왔던 낙인이 이제는 사라지는 모습이다. 승승장구 저축은행금융감독원에 따르면 지난해 79개 저축은행들의 당기순이익은 1조9654억원으로 집계됐다. 저축은행들이 전국구 영업을 사실상 할 수 없고 은행과 달리 여·수신 외에 사업영역을 늘리는 것이 제한적이라는 점을 고려하면 상당한 수준이다. 주목할 점은 저축은행들의 순익이 지속해서 증가하고 있다는 점이다. 저축은행 사태가 벌어진 2011년과 그 이듬해인 2012년에는 수천억대의 순손실을 기록했지만 2014년부터 서서히 순익이 확대되더니 2017년 들어서는 1조원이 넘는 순익을 올렸다. 올해에는 당기순이익 2조원 달성이 가능할 것으로 보인다. 가파른 성장세다.저축은행이 부실사태를 벗고 빠르게 성장할 수 있었던 데에는 다양한 요인이 뒤따른다는 분석이다. 상대적으로 높은 금리를 통해 저금리 시절 새로운 재테크 금융기관으로 각광받기 시작했다. 은행보다 높은 금리의 예금과 적금상품에 가입할 수 있다는 정보가 '금융노마드'족에 의해 퍼지면서 저축은행을 찾는 고객들이 늘었다. 그리고 금융당국이 나서 고신용자와 저신용자의 대출이자 간극의 사다리를 놓는 금융기관으로 저축은행을 선택했다. 소위 '중금리대출' 상품의 열기를 불어넣은 것도 저축은행이다. '법정 최고금리'라는 굴레를 이때부터 서서히 벗어나기 시작했다. 특히나 저축은행들의 발목을 잡아왔던 '부실'의 꼬리표를 때는 이미지 쇄신에 저축은행중앙회와 대형 저축은행들이 적극 나선것도 주효했다.TV광고 등 마케팅을 통해 이미지 쇄신에 나섰고 탄탄한 금융기관임을 자처하기 위해 건전성 역시 꾸준히 관리했다. 일부 저축은행의 모기업은 저축은행 사업에 열중하기 위해 모태나 다름없었던 대부업계에서 완전 철수하기도 했다.  그 결과 지난 2020년에는 최초로 저축은행 거래 고객수는 700만명을 넘어섰다. 업계에서는 1~2년 내에 저축은행 거래 고객수가 1000만명이 넘을 수 있을 것이란 관측이 나온다. 저축은행 BIG3 판을 바꾸다업계에서는 79개 저축은행 모두 노력한 결과라는 말도 있지만 사실상 시장 점유율이 높은 대형 저축은행들의 공이 크다는 분석이 나온다. 규모가 크고 가장 많은 순익을 내는 만큼 가장 적극적으로 저축은행업계 쇄신에 노력해왔다는 얘기다. 저축은행 업계 관계자는 "SBI, OK, 웰컴 등 저축은행 3사가 이미지 쇄신과 함께 고객 저변을 늘리는데 큰 공헌을 한 것은 사실"이라며 "최근에는 상상인, 페퍼 등도 업계 전체의 경쟁력을 높히기 위해 다양한 활동을 펼치고 있다"고 설명했다.구체적으로 SBI저축은행은 저축은행업계에서 가장 빠르게 비대면 중금리 대출 상품을 출시하며 업계의 새로운 먹거리를 제시했다. 2015년 12월 출시한 모바일 중저금리 대출상품 '사이다'가 주인공이다.사이다는 2015년 기준 6.9~13.5%대의 금리의 대출을 공급했다. 당시 저축은행업계가 대부분 법정최고금리에 가까운 대출을 취급한 것과 비교하면 과감한 시도가 담긴 대출상품으로 꼽힌다.가장 큰 특징은 당시 무방문·무서류·당일대출이 가능한 '원스톱' 상품이었다는 점이다. 지금은 인터넷전문은행의 등장으로 비대면 대출이 일반적인 대출 방법으로 자리잡았지만 당시만 해도 파격적이라는 평가였다. 이후 SBI저축은행은 모바일뱅킹 앱을 내놓으며 이를 '사이다뱅킹'으로 명명했다. '사이다'대출의 파급력이 그만큼 강했다는 증거다.OK저축은행은 적극적인 마케팅을 통해 이미지 쇄신에 나섰다. 과거 태권브이를 내세운 TV광고로 이미지 쇄신에 나섰다. 특히 당시 모태였던 '러시앤캐시가 만들었다'라는 점을 정면으로 내세우면서도 '다른 금융기관'이라는 점을 어필하며 정면돌파하는 수를 뒀다. 이후에는 새로운 OK저축은행의 캐릭터 '읏맨'을 통해 친근감 있는 저축은행의 이미지 굳히기에 나서고 있다.웰컴저축은행은 그동안 저축은행에게는 다가가기 힘들었던 디지털 분야에서 저축은행도 디지털 혁신이 가능하다는 점을 보여주고 있다. 웰컴저축은행은 과거 첫번째 인터넷전문은행 출범 공고가 났을 당시 인터파크 컨소시엄에 합류해 디지털 전환의 의지를 나타냈다.현재는 토스뱅크 컨소시엄에 합류해 토스뱅크의 지분 5%를 보유하고 있다. 뿐만 아니라 금융업계의 새로운 먹거리라는 마이데이터 산업에 나홀로 도전에 나서기도 했다. 다른 업계 관계자는 "과거와 달리 접근성은 일반 은행보다 낮지만 법정최고금리로 대출을 해주는 기관이라는 이미지는 이제 사라지고 있다"며 "수신 면에서는 과거 부실 저축은행 사태의 교훈을 바탕으로 업계가 자정노력을 해 왔고 금리 경쟁력을 갖춰나간 결과 고객들의 발길이 이어지고 있다"고 설명했다. 실제 예금보험공사에 따르면 지난해말 기준 저축은행 예금중 예금자보호 한도인 5000만원을 넘는 순초과예금 규모는 15조7000억원으로 집계됐다. 부실 저축은행 사태 이후 한동안 저축은행에는 예금자보호법의 보호를 받지 못하는 5000만원 이하의 예금은 넣지 않는다는 것이 일반적이었지만, 이제는 고액의 예금을 유치하는 고객이 늘어나고 있다는 것이다. 저축은행의 이미지가 바뀌었다는 것을 보여주는 대표적인 지표다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.05.03.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>카뱅 "개인사업자 대출 출시…가상자산 서비스도 진출"</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004049574?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[1분기 영업익 884억···분기 최대]토스뱅크 '사장님대출' 취급중케이뱅크도 보증부 형식 계획[서울경제] 카카오뱅크가 4분기 개인사업자를 위한 여·수신 서비스를 출시한다. 또 암호화폐거래소와의 제휴를 긍정적으로 검토하고 있다고 밝혔다.윤호영 카카오뱅크 대표이사는 3일 1분기 실적발표 콘퍼런스콜에서 “고객들이 가상자산을 금융 상품의 하나로 투자하고 관리하고 있다”며 “고객의 주요한 자산으로 여겨지는 만큼, 가상자산을 어떻게 서비스나 비즈니스 형태로 제공할 수 있을지 긍정적으로 검토하고 있다”고 말했다.개인사업자 대출과 수신 상품을 출시해 글로벌 시장 진출을 본격적으로 준비할 계획이다. 윤 대표는 “개인 자금과 사업 자금의 구분이 어려운 소상공인에게 직관적으로 관리할 수 있는 사용자인터페이스(UI)를 준비하고 있다”며 이같이 밝혔다. 카카오뱅크 측은 “지점 방문이 쉽지 않은 개인사업자를 위해 100% 비대면으로 서비스의 완결성을 높이고자 한다”고 설명했다.그간 개인사업자 대출은 기존 시중은행들조차 판매에 소극적인 상품이었다. 매출 파악이 어렵고 부실률도 높은 탓이다. 이 때문에 비대면으로 더 취급하기 어렵다는 인식이 강했다. 그러나 2월 토스뱅크가 인터넷은행 가운데 가장 먼저 개인사업자 대출을 선보이면서 개인사업자 대출에서 비대면 경쟁이 가열되는 모양새다. 토스뱅크의 ‘사장님대출’은 보증기관의 보증서, 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도를 부여하고 있다. 출시 한 달 만에 잔액이 2000억 원을 넘어섰다.토스뱅크에 이어 케이뱅크 역시 보증부대출 형식으로 연내 개인사업자 대출을 출시할 계획이다. 케이뱅크는 신용보증재단중앙회와 MOU를 맺고 개인사업자에 대한 평가와 대출 신청부터 입금까지 원스톱으로 가능하도록 통합 전자 보증 시스템과 비대면 보증 시스템 구축·운영 개발을 진행하고 있다. 4분기에 카카오뱅크까지 가세할 경우 신용대출에 이어 개인사업자 대출로 은행 간 경쟁이 더 치열해질 것으로 전망된다.한편 카카오뱅크는 올해 1분기 영업이익이 884억 원으로 분기 최대를 달성했다고 밝혔다. 지난해 동기 대비 63.8% 증가한 수치다. 카카오뱅크의 1분기 당기 순이익은 668억 원으로 지난해 동기 대비 43.2% 증가했다. 1분기 말 기준 고객 수는 1861만 명으로 지난해 말보다 62만 명 늘었다. 같은 기간 수신 잔액은 33조 414억 원이고 여신 잔액은 25조 9651억 원으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
